--- a/documentation/reDIP-SID-BOM.xlsx
+++ b/documentation/reDIP-SID-BOM.xlsx
@@ -1907,94 +1907,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="R16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.05      $0.05
-    10   $0.04      $0.39
-    25   $0.04      $0.91
-    50   $0.03      $1.35
-   100   $0.02      $2.32
-   250   $0.02      $5.61
-   500   $0.02      $9.68</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.19      $0.19
-    10   $0.18      $1.82
-    25   $0.14      $3.39
-    50   $0.12      $5.81
-   100   $0.11     $11.22
-   250   $0.10     $24.19
-   500   $0.09     $46.44</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.40      $0.40
-    10   $0.38      $3.79
-    25   $0.33      $8.13
-    50   $0.28     $13.82
-   100   $0.27     $26.55
-   250   $0.24     $59.60
-   500   $0.23    $113.78</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.29      $0.29
-    10   $0.27      $2.71
-    25   $0.23      $5.81
-    50   $0.20      $9.87
-   100   $0.19     $18.96
-   250   $0.17     $42.57
-   500   $0.16     $81.27</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AB20" authorId="0">
       <text>
         <r>
@@ -4412,7 +4324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="334">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -4540,9 +4452,9 @@
     <t>GRM033R60J224KE15D</t>
   </si>
   <si>
-    <t>C10: 1.65V DC VAG DERATED TO 0.1uF
-C8,C9,C15-C17,C19,C20,C22,C23: 3.3V DC DERATED TO 0.1uF
-C7,C18: 1.2V DC DERATED TO 0.1uF</t>
+    <t>C7,C18: 1.2V DC DERATED TO 0.1uF
+C10: 1.65V DC VAG DERATED TO 0.1uF
+C8,C9,C15-C17,C19,C20,C22,C23: 3.3V DC DERATED TO 0.1uF</t>
   </si>
   <si>
     <t>D1,D2</t>
@@ -4593,46 +4505,34 @@
     <t>Conn_01x01</t>
   </si>
   <si>
-    <t>CONN HEADER 1 POS .100" SGL GOLD MATING 5.84mm TAIL 3.05mm</t>
+    <t>CONN HDR SQ PIN 0.64mm 1 POS .100" GOLD MATING 6mm TAIL 3mm</t>
   </si>
   <si>
     <t>PinHeader_1x01_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t>Sullins</t>
-  </si>
-  <si>
-    <t>PRPC001SAAN-RC</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
     <t>Conn_01x05</t>
   </si>
   <si>
-    <t>CONN HEADER 5 POS .100" SGL GOLD MATING 5.84mm TAIL 3.05mm</t>
+    <t>CONN HDR SQ PIN 0.64mm 5 POS .100" GOLD MATING 6mm TAIL 3mm</t>
   </si>
   <si>
     <t>PinHeader_1x05_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t>PRPC005SAAN-RC</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
     <t>Conn_01x14</t>
   </si>
   <si>
-    <t>CONN HEADER 14 POS .100" SGL GOLD MATING 5.84mm TAIL 3.05mm</t>
-  </si>
-  <si>
-    <t>PinHeader_1x14_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>PRPC014SAAN-RC</t>
+    <t>CONN HDR ROUND PIN 0.5mm 14 POS .100" GOLD MATING 3.5mm TAIL 3mm</t>
+  </si>
+  <si>
+    <t>PinHeader_1x14_P2.54mm_Vertical_Machined</t>
   </si>
   <si>
     <t>J4</t>
@@ -4641,13 +4541,10 @@
     <t>Conn_01x10</t>
   </si>
   <si>
-    <t>CONN HEADER 10 POS .100" SGL GOLD MATING 5.84mm TAIL 3.05mm</t>
-  </si>
-  <si>
-    <t>PinHeader_1x10_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>PRPC010SAAN-RC</t>
+    <t>CONN HDR ROUND PIN 0.5mm 10 POS .100" GOLD MATING 3.5mm TAIL 3mm</t>
+  </si>
+  <si>
+    <t>PinHeader_1x10_P2.54mm_Vertical_Machined</t>
   </si>
   <si>
     <t>J5</t>
@@ -4977,7 +4874,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>on. 18. aug. 2021 kl. 21.40 +0200</t>
+    <t>lø. 21. aug. 2021 kl. 09.36 +0200</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -4992,7 +4889,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2021-08-18 21:40:51</t>
+    <t>2021-08-21 09:36:50</t>
   </si>
   <si>
     <t>Arrow</t>
@@ -5041,18 +4938,6 @@
   </si>
   <si>
     <t>67-2282-1-ND</t>
-  </si>
-  <si>
-    <t>S1011EC-01-ND</t>
-  </si>
-  <si>
-    <t>S1011EC-05-ND</t>
-  </si>
-  <si>
-    <t>S1011EC-14-ND</t>
-  </si>
-  <si>
-    <t>S1011EC-10-ND</t>
   </si>
   <si>
     <t>P123277CT-ND</t>
@@ -6082,13 +5967,13 @@
   <sheetData>
     <row r="1" spans="1:50">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="J1" s="3">
         <v>100</v>
@@ -6096,13 +5981,13 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="J2" s="4">
         <f>TotalCost/BoardQty</f>
@@ -6111,13 +5996,13 @@
     </row>
     <row r="3" spans="1:50">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J3" s="5">
         <f>SUM(J7:J40)</f>
@@ -6190,10 +6075,10 @@
     </row>
     <row r="4" spans="1:50">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -6210,56 +6095,56 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="10" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="11" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="12" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="13" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AK5" s="13"/>
       <c r="AL5" s="13"/>
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
       <c r="AO5" s="14" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="AP5" s="14"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="14"/>
       <c r="AS5" s="14"/>
       <c r="AT5" s="15" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="AU5" s="15"/>
       <c r="AV5" s="15"/>
@@ -6298,10 +6183,10 @@
         <v>9</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>8</v>
@@ -6310,13 +6195,13 @@
         <v>9</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="R6" s="16" t="s">
         <v>8</v>
@@ -6325,13 +6210,13 @@
         <v>9</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="W6" s="16" t="s">
         <v>8</v>
@@ -6340,13 +6225,13 @@
         <v>9</v>
       </c>
       <c r="Y6" s="16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Z6" s="16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AA6" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AB6" s="16" t="s">
         <v>8</v>
@@ -6355,13 +6240,13 @@
         <v>9</v>
       </c>
       <c r="AD6" s="16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AE6" s="16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AG6" s="16" t="s">
         <v>8</v>
@@ -6370,13 +6255,13 @@
         <v>9</v>
       </c>
       <c r="AI6" s="16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AJ6" s="16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AK6" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AL6" s="16" t="s">
         <v>8</v>
@@ -6385,13 +6270,13 @@
         <v>9</v>
       </c>
       <c r="AN6" s="16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AO6" s="16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AP6" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AQ6" s="16" t="s">
         <v>8</v>
@@ -6400,13 +6285,13 @@
         <v>9</v>
       </c>
       <c r="AS6" s="16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AT6" s="16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AU6" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AV6" s="16" t="s">
         <v>8</v>
@@ -6415,7 +6300,7 @@
         <v>9</v>
       </c>
       <c r="AX6" s="16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -6464,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U7" s="17">
         <v>20</v>
@@ -6478,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="AE7" s="17">
         <v>101344</v>
@@ -6492,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="19" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="AJ7" s="17">
         <v>20</v>
@@ -6506,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="AN7" s="19" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -6544,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R8" s="18">
         <f>iferror(lookup(if(Q8="",H8,Q8),{0,1,10,50,100,500,1000,4000},{0.0,0.37,0.258,0.1808,0.1549,0.11618,0.09811,0.07633}),"")</f>
@@ -6555,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="U8" s="17">
         <v>20</v>
@@ -6569,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="Z8" s="17">
         <v>15450</v>
@@ -6583,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="19" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AE8" s="17">
         <v>6777</v>
@@ -6597,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AJ8" s="17">
         <v>20</v>
@@ -6611,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="19" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:50">
@@ -6649,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R9" s="18">
         <f>iferror(lookup(if(Q9="",H9,Q9),{0,1,10,50,100,500,1000,4000},{0.0,0.37,0.258,0.1806,0.1548,0.11608,0.09802,0.0877}),"")</f>
@@ -6660,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="U9" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W9" s="18">
         <f>iferror(USD_GBP*lookup(if(V9="",H9,V9),{0,1,10,100,150,500,1000,2000,4000,20000},{0.0,0.187,0.187,0.139,0.139,0.0899,0.0759,0.0743,0.0728,0.0603}),"")</f>
@@ -6674,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="AE9" s="17">
         <v>5904</v>
@@ -6688,10 +6573,10 @@
         <v>0</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="AJ9" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL9" s="18">
         <f>iferror(lookup(if(AK9="",H9,AK9),{0,1,10,25,50,100,4000,8000},{0.0,0.27,0.27,0.234,0.197,0.161,0.081,0.075}),"")</f>
@@ -6702,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="19" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AO9" s="17">
         <v>60</v>
@@ -6716,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="19" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -6765,10 +6650,10 @@
         <v>0</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W10" s="18">
         <f>iferror(USD_GBP*lookup(if(V10="",H10,V10),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.152,0.152,0.106,0.106,0.0837,0.0636,0.053,0.052,0.0445}),"")</f>
@@ -6779,10 +6664,10 @@
         <v>0</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="AE10" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG10" s="18">
         <f>iferror(lookup(if(AF10="",H10,AF10),{0,1,10,50,100,1000,10000},{0.0,0.25,0.171,0.171,0.097,0.06,0.051}),"")</f>
@@ -6793,10 +6678,10 @@
         <v>0</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AJ10" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL10" s="18">
         <f>iferror(lookup(if(AK10="",H10,AK10),{0,1,10,25,50,100,15000},{0.0,0.205,0.205,0.176,0.146,0.116,0.062}),"")</f>
@@ -6807,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="19" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -6856,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U11" s="17">
         <v>80000</v>
@@ -6870,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="Z11" s="17">
         <v>191830</v>
@@ -6884,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="19" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AE11" s="17">
         <v>311213</v>
@@ -6898,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AJ11" s="17">
         <v>80000</v>
@@ -6912,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="19" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -6961,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="U12" s="17">
         <v>28952</v>
@@ -6975,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="Z12" s="17">
         <v>50300</v>
@@ -6989,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="19" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AE12" s="17">
         <v>789553</v>
@@ -7003,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AJ12" s="17">
         <v>19878</v>
@@ -7017,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="19" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="AO12" s="17">
         <v>7000</v>
@@ -7031,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="19" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -7077,10 +6962,10 @@
         <v>0</v>
       </c>
       <c r="T13" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="U13" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W13" s="18">
         <f>iferror(USD_GBP*lookup(if(V13="",H13,V13),{0,1,10000},{0.0,0.0506,0.0506}),"")</f>
@@ -7091,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="AE13" s="17">
         <v>14119</v>
@@ -7105,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AJ13" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL13" s="18">
         <f>iferror(lookup(if(AK13="",H13,AK13),{0,1,5,10,100,500,1000,2500},{0.0,0.36,0.36,0.276,0.154,0.136,0.118,0.103}),"")</f>
@@ -7119,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="19" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -7165,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="U14" s="17">
         <v>5</v>
@@ -7179,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="AE14" s="17">
         <v>3994</v>
@@ -7193,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="AJ14" s="17">
         <v>5</v>
@@ -7207,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="19" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="AT14" s="17">
         <v>3427</v>
@@ -7221,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="19" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -7267,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="U15" s="17">
         <v>3287</v>
@@ -7281,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="AE15" s="17">
         <v>13600</v>
@@ -7295,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AJ15" s="17">
         <v>3287</v>
@@ -7309,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="19" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AT15" s="17">
         <v>2779</v>
@@ -7323,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="19" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -7339,12 +7224,6 @@
       <c r="E16" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>62</v>
-      </c>
       <c r="H16" s="17">
         <f>BoardQty*1</f>
         <v>0</v>
@@ -7356,40 +7235,20 @@
       <c r="J16" s="18">
         <f>iferror(H16*I16,"")</f>
         <v>0</v>
-      </c>
-      <c r="P16" s="17">
-        <v>635</v>
-      </c>
-      <c r="R16" s="18">
-        <f>iferror(lookup(if(Q16="",H16,Q16),{0,1,10,25,50,100,250,500},{0.0,0.05,0.039,0.0364,0.027,0.0232,0.02244,0.01936}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="18">
-        <f>iferror(if(Q16="",H16,Q16)*R16,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="19" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:50">
       <c r="A17" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>67</v>
       </c>
       <c r="H17" s="17">
         <f>BoardQty*1</f>
@@ -7402,40 +7261,20 @@
       <c r="J17" s="18">
         <f>iferror(H17*I17,"")</f>
         <v>0</v>
-      </c>
-      <c r="P17" s="17">
-        <v>6418</v>
-      </c>
-      <c r="R17" s="18">
-        <f>iferror(lookup(if(Q17="",H17,Q17),{0,1,10,25,50,100,250,500},{0.0,0.19,0.182,0.1356,0.1162,0.1122,0.09676,0.09288}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="18">
-        <f>iferror(if(Q17="",H17,Q17)*R17,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="19" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:50">
       <c r="A18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>72</v>
       </c>
       <c r="H18" s="17">
         <f>BoardQty*1</f>
@@ -7448,40 +7287,20 @@
       <c r="J18" s="18">
         <f>iferror(H18*I18,"")</f>
         <v>0</v>
-      </c>
-      <c r="P18" s="17">
-        <v>2101</v>
-      </c>
-      <c r="R18" s="18">
-        <f>iferror(lookup(if(Q18="",H18,Q18),{0,1,10,25,50,100,250,500},{0.0,0.4,0.379,0.3252,0.2764,0.2655,0.2384,0.22756}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="18">
-        <f>iferror(if(Q18="",H18,Q18)*R18,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="19" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:50">
       <c r="A19" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H19" s="17">
         <f>BoardQty*1</f>
@@ -7494,43 +7313,29 @@
       <c r="J19" s="18">
         <f>iferror(H19*I19,"")</f>
         <v>0</v>
-      </c>
-      <c r="P19" s="17">
-        <v>10915</v>
-      </c>
-      <c r="R19" s="18">
-        <f>iferror(lookup(if(Q19="",H19,Q19),{0,1,10,25,50,100,250,500},{0.0,0.29,0.271,0.2324,0.1974,0.1896,0.17028,0.16254}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="18">
-        <f>iferror(if(Q19="",H19,Q19)*R19,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="19" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:50">
       <c r="A20" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>83</v>
-      </c>
       <c r="E20" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H20" s="17">
         <f>BoardQty*1</f>
@@ -7556,27 +7361,27 @@
         <v>0</v>
       </c>
       <c r="AD20" s="19" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:50">
       <c r="A21" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>89</v>
       </c>
       <c r="H21" s="17">
         <f>BoardQty*3</f>
@@ -7602,10 +7407,10 @@
         <v>0</v>
       </c>
       <c r="T21" s="19" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="U21" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W21" s="18">
         <f>iferror(USD_GBP*lookup(if(V21="",H21,V21),{0,1,30000},{0.0,0.0055,0.0055}),"")</f>
@@ -7616,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="19" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="AE21" s="17">
         <v>9743</v>
@@ -7630,10 +7435,10 @@
         <v>0</v>
       </c>
       <c r="AI21" s="19" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="AJ21" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL21" s="18">
         <f>iferror(lookup(if(AK21="",H21,AK21),{0,1,15000,30000},{0.0,0.005,0.005,0.004}),"")</f>
@@ -7644,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AN21" s="19" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AO21" s="17">
         <v>38000</v>
@@ -7658,27 +7463,27 @@
         <v>0</v>
       </c>
       <c r="AS21" s="19" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:50">
       <c r="A22" s="17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="H22" s="17">
         <f>BoardQty*3</f>
@@ -7704,10 +7509,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="19" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="U22" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W22" s="18">
         <f>iferror(USD_GBP*lookup(if(V22="",H22,V22),{0,1,30000},{0.0,0.0052,0.0052}),"")</f>
@@ -7718,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="19" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="Z22" s="17">
         <v>3050</v>
@@ -7732,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="19" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AE22" s="17">
         <v>240974</v>
@@ -7746,10 +7551,10 @@
         <v>0</v>
       </c>
       <c r="AI22" s="19" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="AJ22" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL22" s="18">
         <f>iferror(lookup(if(AK22="",H22,AK22),{0,1,45000},{0.0,0.004,0.004}),"")</f>
@@ -7760,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="AN22" s="19" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="AO22" s="17">
         <v>58000</v>
@@ -7774,27 +7579,27 @@
         <v>0</v>
       </c>
       <c r="AS22" s="19" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:50">
       <c r="A23" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H23" s="17">
         <f>BoardQty*2</f>
@@ -7809,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R23" s="18">
         <f>iferror(lookup(if(Q23="",H23,Q23),{0,1,10,25,50,100,250,500,1000,5000,15000,30000,75000},{0.0,0.1,0.025,0.018,0.0136,0.01,0.00764,0.00612,0.0045,0.00323,0.00281,0.00247,0.00231}),"")</f>
@@ -7820,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="19" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="U23" s="17">
         <v>120000</v>
@@ -7834,10 +7639,10 @@
         <v>0</v>
       </c>
       <c r="Y23" s="19" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AE23" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG23" s="18">
         <f>iferror(lookup(if(AF23="",H23,AF23),{0,1,10,50,100,1000,10000},{0.0,0.1,0.029,0.029,0.012,0.006,0.004}),"")</f>
@@ -7848,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="19" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="AJ23" s="17">
         <v>90000</v>
@@ -7862,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="AN23" s="19" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="AO23" s="17">
         <v>772637</v>
@@ -7876,27 +7681,27 @@
         <v>0</v>
       </c>
       <c r="AS23" s="19" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:50">
       <c r="A24" s="17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H24" s="17">
         <f>BoardQty*1</f>
@@ -7911,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R24" s="18">
         <f>iferror(lookup(if(Q24="",H24,Q24),{0,1,10,100,1000,2500,5000,15000},{0.0,0.1,0.028,0.0115,0.00518,0.0045,0.00371,0.00323}),"")</f>
@@ -7922,10 +7727,10 @@
         <v>0</v>
       </c>
       <c r="T24" s="19" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="U24" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W24" s="18">
         <f>iferror(USD_GBP*lookup(if(V24="",H24,V24),{0,1,30000},{0.0,0.0052,0.0052}),"")</f>
@@ -7936,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="19" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AE24" s="17">
         <v>681</v>
@@ -7950,10 +7755,10 @@
         <v>0</v>
       </c>
       <c r="AI24" s="19" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="AJ24" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL24" s="18">
         <f>iferror(lookup(if(AK24="",H24,AK24),{0,1,15000},{0.0,0.006,0.006}),"")</f>
@@ -7964,27 +7769,27 @@
         <v>0</v>
       </c>
       <c r="AN24" s="19" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:50">
       <c r="A25" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H25" s="17">
         <f>BoardQty*2</f>
@@ -8010,10 +7815,10 @@
         <v>0</v>
       </c>
       <c r="T25" s="19" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="U25" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W25" s="18">
         <f>iferror(USD_GBP*lookup(if(V25="",H25,V25),{0,1,30000},{0.0,0.007,0.007}),"")</f>
@@ -8024,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="19" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AE25" s="17">
         <v>38452</v>
@@ -8038,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="AI25" s="19" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="AJ25" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL25" s="18">
         <f>iferror(lookup(if(AK25="",H25,AK25),{0,1,15000,30000},{0.0,0.005,0.005,0.004}),"")</f>
@@ -8052,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="19" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="AO25" s="17">
         <v>28000</v>
@@ -8066,27 +7871,27 @@
         <v>0</v>
       </c>
       <c r="AS25" s="19" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:50">
       <c r="A26" s="17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H26" s="17">
         <f>BoardQty*2</f>
@@ -8101,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R26" s="18">
         <f>iferror(lookup(if(Q26="",H26,Q26),{0,1,10,100,1000,2500,5000,15000},{0.0,0.1,0.053,0.0217,0.00975,0.00846,0.00699,0.00607}),"")</f>
@@ -8112,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="19" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="U26" s="17">
         <v>30000</v>
@@ -8126,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="19" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AE26" s="17">
         <v>15038</v>
@@ -8140,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="AI26" s="19" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AJ26" s="17">
         <v>45000</v>
@@ -8154,27 +7959,27 @@
         <v>0</v>
       </c>
       <c r="AN26" s="19" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:50">
       <c r="A27" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H27" s="17">
         <f>BoardQty*1</f>
@@ -8200,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="19" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="U27" s="17">
         <v>120000</v>
@@ -8214,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="19" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="Z27" s="17">
         <v>15000</v>
@@ -8228,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="AD27" s="19" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AE27" s="17">
         <v>521641</v>
@@ -8242,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="AI27" s="19" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AJ27" s="17">
         <v>120000</v>
@@ -8256,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="19" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="AO27" s="17">
         <v>699000</v>
@@ -8270,27 +8075,27 @@
         <v>0</v>
       </c>
       <c r="AS27" s="19" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:50">
       <c r="A28" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H28" s="17">
         <f>BoardQty*2</f>
@@ -8316,10 +8121,10 @@
         <v>0</v>
       </c>
       <c r="T28" s="19" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W28" s="18">
         <f>iferror(USD_GBP*lookup(if(V28="",H28,V28),{0,1,30000},{0.0,0.0052,0.0052}),"")</f>
@@ -8330,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="19" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AE28" s="17">
         <v>76126</v>
@@ -8344,10 +8149,10 @@
         <v>0</v>
       </c>
       <c r="AI28" s="19" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AJ28" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL28" s="18">
         <f>iferror(lookup(if(AK28="",H28,AK28),{0,1,15000,30000},{0.0,0.005,0.005,0.004}),"")</f>
@@ -8358,27 +8163,27 @@
         <v>0</v>
       </c>
       <c r="AN28" s="19" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:50">
       <c r="A29" s="17" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H29" s="17">
         <f>BoardQty*1</f>
@@ -8404,10 +8209,10 @@
         <v>0</v>
       </c>
       <c r="T29" s="19" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="U29" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W29" s="18">
         <f>iferror(USD_GBP*lookup(if(V29="",H29,V29),{0,1,30000},{0.0,0.0052,0.0052}),"")</f>
@@ -8418,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="Y29" s="19" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="Z29" s="17">
         <v>14850</v>
@@ -8432,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="19" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AE29" s="17">
         <v>36714</v>
@@ -8446,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="AI29" s="19" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AJ29" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL29" s="18">
         <f>iferror(lookup(if(AK29="",H29,AK29),{0,1,5000,10000,15000},{0.0,0.008,0.007,0.006,0.006}),"")</f>
@@ -8460,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="AN29" s="19" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="AO29" s="17">
         <v>37000</v>
@@ -8474,27 +8279,27 @@
         <v>0</v>
       </c>
       <c r="AS29" s="19" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:50">
       <c r="A30" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H30" s="17">
         <f>BoardQty*1</f>
@@ -8520,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="19" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="U30" s="17">
         <v>4297</v>
@@ -8534,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="19" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="Z30" s="17">
         <v>16447</v>
@@ -8548,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="AD30" s="19" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AE30" s="17">
         <v>5389</v>
@@ -8562,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="AI30" s="19" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AJ30" s="17">
         <v>6884</v>
@@ -8576,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="19" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AT30" s="17">
         <v>2865</v>
@@ -8590,27 +8395,27 @@
         <v>0</v>
       </c>
       <c r="AX30" s="19" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:50">
       <c r="A31" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H31" s="17">
         <f>BoardQty*2</f>
@@ -8636,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="U31" s="17">
         <v>1937</v>
@@ -8650,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="19" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AE31" s="17">
         <v>7606</v>
@@ -8664,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="19" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AJ31" s="17">
         <v>1912</v>
@@ -8678,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="19" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AO31" s="17">
         <v>3000</v>
@@ -8692,27 +8497,27 @@
         <v>0</v>
       </c>
       <c r="AS31" s="19" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:50">
       <c r="A32" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H32" s="17">
         <f>BoardQty*1</f>
@@ -8727,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R32" s="18">
         <f>iferror(lookup(if(Q32="",H32,Q32),{0,1,25,100,2000},{0.0,6.0,5.25,5.005,5.005}),"")</f>
@@ -8738,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="T32" s="19" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="U32" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W32" s="18">
         <f>iferror(USD_GBP*lookup(if(V32="",H32,V32),{0,1,25,100,150},{0.0,4.86,4.26,4.06,4.06}),"")</f>
@@ -8752,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="19" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AE32" s="17">
         <v>8369</v>
@@ -8766,10 +8571,10 @@
         <v>0</v>
       </c>
       <c r="AI32" s="19" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="AJ32" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL32" s="18">
         <f>iferror(lookup(if(AK32="",H32,AK32),{0,1,10,25,2000,4000,8000,12000},{0.0,5.56,6.03,5.77,5.43,5.27,4.95,4.72}),"")</f>
@@ -8780,27 +8585,27 @@
         <v>0</v>
       </c>
       <c r="AN32" s="19" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:50">
       <c r="A33" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H33" s="17">
         <f>BoardQty*1</f>
@@ -8815,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R33" s="18">
         <f>iferror(lookup(if(Q33="",H33,Q33),{0,1,10,25,100,250,500,1000,3000},{0.0,0.47,0.402,0.3756,0.3004,0.27892,0.236,0.18236,0.1771}),"")</f>
@@ -8826,10 +8631,10 @@
         <v>0</v>
       </c>
       <c r="T33" s="19" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="U33" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W33" s="18">
         <f>iferror(USD_GBP*lookup(if(V33="",H33,V33),{0,1,5,10,100,150,500},{0.0,0.554,0.554,0.464,0.286,0.286,0.189}),"")</f>
@@ -8840,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="19" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="AE33" s="17">
         <v>36882</v>
@@ -8854,10 +8659,10 @@
         <v>0</v>
       </c>
       <c r="AI33" s="19" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="AJ33" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL33" s="18">
         <f>iferror(lookup(if(AK33="",H33,AK33),{0,1,5,10,100,3000,6000,12000,18000,24000},{0.0,0.646,0.646,0.538,0.384,0.146,0.143,0.14,0.138,0.136}),"")</f>
@@ -8868,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="AN33" s="19" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="AO33" s="17">
         <v>12</v>
@@ -8882,27 +8687,27 @@
         <v>0</v>
       </c>
       <c r="AS33" s="19" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:50">
       <c r="A34" s="17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H34" s="17">
         <f>BoardQty*1</f>
@@ -8917,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R34" s="18">
         <f>iferror(lookup(if(Q34="",H34,Q34),{0,1,2000},{0.0,1.61,1.61}),"")</f>
@@ -8928,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="19" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="Z34" s="17">
         <v>1934</v>
@@ -8942,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="AD34" s="19" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AE34" s="17">
         <v>627</v>
@@ -8956,30 +8761,30 @@
         <v>0</v>
       </c>
       <c r="AI34" s="19" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:50">
       <c r="A35" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>149</v>
-      </c>
       <c r="E35" s="17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H35" s="17">
         <f>BoardQty*1</f>
@@ -8994,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R35" s="18">
         <f>iferror(lookup(if(Q35="",H35,Q35),{0,1,10},{0.0,3.9,3.85}),"")</f>
@@ -9005,10 +8810,10 @@
         <v>0</v>
       </c>
       <c r="T35" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="U35" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W35" s="18">
         <f>iferror(USD_GBP*lookup(if(V35="",H35,V35),{0,1,10,25,50},{0.0,3.86,3.11,2.93,2.87}),"")</f>
@@ -9019,10 +8824,10 @@
         <v>0</v>
       </c>
       <c r="Y35" s="19" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="AE35" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG35" s="18">
         <f>iferror(lookup(if(AF35="",H35,AF35),{0,1,10,50,100,1000,10000},{0.0,3.93,3.54,3.34,2.9,2.8,2.79}),"")</f>
@@ -9033,10 +8838,10 @@
         <v>0</v>
       </c>
       <c r="AI35" s="19" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="AJ35" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL35" s="18">
         <f>iferror(lookup(if(AK35="",H35,AK35),{0,1,10,2450},{0.0,4.07,4.03,4.03}),"")</f>
@@ -9047,27 +8852,27 @@
         <v>0</v>
       </c>
       <c r="AN35" s="19" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:50">
       <c r="A36" s="17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H36" s="17">
         <f>BoardQty*1</f>
@@ -9082,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R36" s="18">
         <f>iferror(lookup(if(Q36="",H36,Q36),{0,1,10,25,50,100,250,500,1000,4000,8000,12000,28000},{0.0,0.26,0.239,0.228,0.2208,0.2134,0.2024,0.16928,0.13138,0.12512,0.11776,0.1104,0.10304}),"")</f>
@@ -9093,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="19" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="U36" s="17">
         <v>110</v>
@@ -9107,10 +8912,10 @@
         <v>0</v>
       </c>
       <c r="Y36" s="19" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="AE36" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AG36" s="18">
         <f>iferror(lookup(if(AF36="",H36,AF36),{0,1,10,50,100,1000,10000},{0.0,0.45,0.367,0.367,0.25,0.141,0.117}),"")</f>
@@ -9121,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="AI36" s="19" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="AJ36" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL36" s="18">
         <f>iferror(lookup(if(AK36="",H36,AK36),{0,1,10,100,3000,4000,6000,8000,12000,18000,30000},{0.0,0.156,0.258,0.232,0.149,0.131,0.133,0.133,0.121,0.113,0.105}),"")</f>
@@ -9135,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="AN36" s="19" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="AO36" s="17">
         <v>2400</v>
@@ -9149,10 +8954,10 @@
         <v>0</v>
       </c>
       <c r="AS36" s="19" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AT36" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AV36" s="18">
         <f>iferror(USD_GBP*lookup(if(AU36="",H36,AU36),{0,1,5,25,100,500,2000},{0.0,0.174,0.174,0.1512,0.131,0.11449,0.10686}),"")</f>
@@ -9163,27 +8968,27 @@
         <v>0</v>
       </c>
       <c r="AX36" s="19" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:50">
       <c r="A37" s="17" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H37" s="17">
         <f>BoardQty*1</f>
@@ -9209,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="19" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="U37" s="17">
         <v>4388</v>
@@ -9223,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="19" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AE37" s="17">
         <v>15130</v>
@@ -9237,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="19" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="AJ37" s="17">
         <v>2970</v>
@@ -9251,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="AN37" s="19" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="AO37" s="17">
         <v>1660</v>
@@ -9265,10 +9070,10 @@
         <v>0</v>
       </c>
       <c r="AS37" s="19" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="AT37" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AV37" s="18">
         <f>iferror(USD_GBP*lookup(if(AU37="",H37,AU37),{0,1,10,25,100},{0.0,0.61,0.57,0.51,0.46}),"")</f>
@@ -9279,30 +9084,30 @@
         <v>0</v>
       </c>
       <c r="AX37" s="19" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:50">
       <c r="A38" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="E38" s="17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H38" s="17">
         <f>BoardQty*1</f>
@@ -9319,25 +9124,25 @@
     </row>
     <row r="39" spans="1:50">
       <c r="A39" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>171</v>
-      </c>
       <c r="E39" s="17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H39" s="17">
         <f>BoardQty*1</f>
@@ -9363,30 +9168,30 @@
         <v>0</v>
       </c>
       <c r="T39" s="19" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:50">
       <c r="A40" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>177</v>
-      </c>
       <c r="E40" s="17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H40" s="17">
         <f>BoardQty*1</f>
@@ -9412,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="19" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="U40" s="17">
         <v>2835</v>
@@ -9426,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="AE40" s="17">
         <v>8090</v>
@@ -9440,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="AI40" s="19" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="AJ40" s="17">
         <v>2945</v>
@@ -9454,22 +9259,22 @@
         <v>0</v>
       </c>
       <c r="AN40" s="19" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:50">
       <c r="B42" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J42" s="5">
         <f>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(arrow_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(lcsc_part_data)+3)))</f>
         <v>0</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L42" s="6">
         <f>IFERROR(IF(OR(L7:L40),COUNTIFS(L7:L40,"&gt;0",N7:N40,"&lt;&gt;")&amp;" of "&amp;(ROWS(N7:N40)-COUNTBLANK(N7:N40))&amp;" parts purchased",""),"")</f>
@@ -9480,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q42" s="6">
         <f>IFERROR(IF(OR(Q7:Q40),COUNTIFS(Q7:Q40,"&gt;0",S7:S40,"&lt;&gt;")&amp;" of "&amp;(ROWS(S7:S40)-COUNTBLANK(S7:S40))&amp;" parts purchased",""),"")</f>
@@ -9491,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="V42" s="6">
         <f>IFERROR(IF(OR(V7:V40),COUNTIFS(V7:V40,"&gt;0",X7:X40,"&lt;&gt;")&amp;" of "&amp;(ROWS(X7:X40)-COUNTBLANK(X7:X40))&amp;" parts purchased",""),"")</f>
@@ -9502,7 +9307,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AA42" s="6">
         <f>IFERROR(IF(OR(AA7:AA40),COUNTIFS(AA7:AA40,"&gt;0",AC7:AC40,"&lt;&gt;")&amp;" of "&amp;(ROWS(AC7:AC40)-COUNTBLANK(AC7:AC40))&amp;" parts purchased",""),"")</f>
@@ -9513,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AE42" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AF42" s="6">
         <f>IFERROR(IF(OR(AF7:AF40),COUNTIFS(AF7:AF40,"&gt;0",AH7:AH40,"&lt;&gt;")&amp;" of "&amp;(ROWS(AH7:AH40)-COUNTBLANK(AH7:AH40))&amp;" parts purchased",""),"")</f>
@@ -9524,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AK42" s="6">
         <f>IFERROR(IF(OR(AK7:AK40),COUNTIFS(AK7:AK40,"&gt;0",AM7:AM40,"&lt;&gt;")&amp;" of "&amp;(ROWS(AM7:AM40)-COUNTBLANK(AM7:AM40))&amp;" parts purchased",""),"")</f>
@@ -9535,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="AO42" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AP42" s="6">
         <f>IFERROR(IF(OR(AP7:AP40),COUNTIFS(AP7:AP40,"&gt;0",AR7:AR40,"&lt;&gt;")&amp;" of "&amp;(ROWS(AR7:AR40)-COUNTBLANK(AR7:AR40))&amp;" parts purchased",""),"")</f>
@@ -9546,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="AT42" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AU42" s="6">
         <f>IFERROR(IF(OR(AU7:AU40),COUNTIFS(AU7:AU40,"&gt;0",AW7:AW40,"&lt;&gt;")&amp;" of "&amp;(ROWS(AW7:AW40)-COUNTBLANK(AW7:AW40))&amp;" parts purchased",""),"")</f>
@@ -9559,13 +9364,13 @@
     </row>
     <row r="43" spans="1:50">
       <c r="B43" s="21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C43">
         <v>1.293904700565222</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L43">
         <f t="array" ref="L43">IFERROR(CONCATENATE(INDEX(O7:O40,SMALL(IF(ISNUMBER(L7:L40),IF(L7:L40&gt;0,IF(O7:O40&lt;&gt;"",ROW(L7:L40)-MIN(ROW(L7:L40))+1))),ROW()-ROW(A$43)+1)),",",TEXT(INDEX(L7:L40,SMALL(IF(ISNUMBER(L7:L40),IF(L7:L40&gt;0,IF(O7:O40&lt;&gt;"",ROW(L7:L40)-MIN(ROW(L7:L40))+1))),ROW()-ROW(A$43)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A40,SMALL(IF(ISNUMBER(L7:L40),IF(L7:L40&gt;0,IF(O7:O40&lt;&gt;"",ROW(L7:L40)-MIN(ROW(L7:L40))+1))),ROW()-ROW(A$43)+1)),",",";")),"")</f>
@@ -9652,7 +9457,7 @@
     </row>
     <row r="45" spans="1:50">
       <c r="A45" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="L45">
         <f t="array" ref="L45">IFERROR(CONCATENATE(INDEX(O7:O40,SMALL(IF(ISNUMBER(L7:L40),IF(L7:L40&gt;0,IF(O7:O40&lt;&gt;"",ROW(L7:L40)-MIN(ROW(L7:L40))+1))),ROW()-ROW(A$43)+1)),",",TEXT(INDEX(L7:L40,SMALL(IF(ISNUMBER(L7:L40),IF(L7:L40&gt;0,IF(O7:O40&lt;&gt;"",ROW(L7:L40)-MIN(ROW(L7:L40))+1))),ROW()-ROW(A$43)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A40,SMALL(IF(ISNUMBER(L7:L40),IF(L7:L40&gt;0,IF(O7:O40&lt;&gt;"",ROW(L7:L40)-MIN(ROW(L7:L40))+1))),ROW()-ROW(A$43)+1)),",",";")),"")</f>
@@ -11016,1828 +10821,1828 @@
     <mergeCell ref="AT5:AX5"/>
   </mergeCells>
   <conditionalFormatting sqref="AA11">
-    <cfRule type="expression" dxfId="3" priority="458">
+    <cfRule type="expression" dxfId="3" priority="438">
       <formula>AND(AA11&gt;0,AA11&lt;5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="459" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="439" operator="greaterThan">
       <formula>Z11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12">
-    <cfRule type="expression" dxfId="3" priority="464">
+    <cfRule type="expression" dxfId="3" priority="444">
       <formula>AND(AA12&gt;0,AA12&lt;100)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="465" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="445" operator="greaterThan">
       <formula>Z12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA20">
-    <cfRule type="cellIs" dxfId="1" priority="470" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="450" operator="greaterThan">
       <formula>Z20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22">
-    <cfRule type="expression" dxfId="3" priority="475">
+    <cfRule type="expression" dxfId="3" priority="455">
       <formula>AND(AA22&gt;0,AA22&lt;50)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="476" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="456" operator="greaterThan">
       <formula>Z22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA27">
-    <cfRule type="expression" dxfId="3" priority="481">
+    <cfRule type="expression" dxfId="3" priority="461">
       <formula>AND(AA27&gt;0,AA27&lt;50)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="482" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="462" operator="greaterThan">
       <formula>Z27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA29">
-    <cfRule type="expression" dxfId="3" priority="487">
+    <cfRule type="expression" dxfId="3" priority="467">
       <formula>AND(AA29&gt;0,AA29&lt;50)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="488" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="468" operator="greaterThan">
       <formula>Z29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA30">
-    <cfRule type="cellIs" dxfId="1" priority="493" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="473" operator="greaterThan">
       <formula>Z30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34">
-    <cfRule type="cellIs" dxfId="1" priority="498" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="478" operator="greaterThan">
       <formula>Z34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8">
-    <cfRule type="expression" dxfId="3" priority="452">
+    <cfRule type="expression" dxfId="3" priority="432">
       <formula>AND(AA8&gt;0,AA8&lt;5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="453" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="433" operator="greaterThan">
       <formula>Z8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11">
-    <cfRule type="cellIs" dxfId="4" priority="461" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="441" operator="lessThanOrEqual">
       <formula>I11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB12">
-    <cfRule type="cellIs" dxfId="4" priority="467" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="447" operator="lessThanOrEqual">
       <formula>I12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB20">
-    <cfRule type="cellIs" dxfId="4" priority="472" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="452" operator="lessThanOrEqual">
       <formula>I20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB22">
-    <cfRule type="cellIs" dxfId="4" priority="478" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="458" operator="lessThanOrEqual">
       <formula>I22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB27">
-    <cfRule type="cellIs" dxfId="4" priority="484" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="464" operator="lessThanOrEqual">
       <formula>I27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB29">
-    <cfRule type="cellIs" dxfId="4" priority="490" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="470" operator="lessThanOrEqual">
       <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB30">
-    <cfRule type="cellIs" dxfId="4" priority="495" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="475" operator="lessThanOrEqual">
       <formula>I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34">
-    <cfRule type="cellIs" dxfId="4" priority="500" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="480" operator="lessThanOrEqual">
       <formula>I34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8">
-    <cfRule type="cellIs" dxfId="4" priority="455" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="435" operator="lessThanOrEqual">
       <formula>I8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11">
-    <cfRule type="cellIs" dxfId="4" priority="460" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="440" operator="lessThanOrEqual">
       <formula>J11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12">
-    <cfRule type="cellIs" dxfId="4" priority="466" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="446" operator="lessThanOrEqual">
       <formula>J12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC20">
-    <cfRule type="cellIs" dxfId="4" priority="471" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="451" operator="lessThanOrEqual">
       <formula>J20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC22">
-    <cfRule type="cellIs" dxfId="4" priority="477" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="457" operator="lessThanOrEqual">
       <formula>J22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC27">
-    <cfRule type="cellIs" dxfId="4" priority="483" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="463" operator="lessThanOrEqual">
       <formula>J27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC29">
-    <cfRule type="cellIs" dxfId="4" priority="489" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="469" operator="lessThanOrEqual">
       <formula>J29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC30">
-    <cfRule type="cellIs" dxfId="4" priority="494" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="474" operator="lessThanOrEqual">
       <formula>J30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC34">
-    <cfRule type="cellIs" dxfId="4" priority="499" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="479" operator="lessThanOrEqual">
       <formula>J34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8">
-    <cfRule type="cellIs" dxfId="4" priority="454" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="434" operator="lessThanOrEqual">
       <formula>J8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE10">
+    <cfRule type="cellIs" dxfId="1" priority="496" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="497" operator="lessThan">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE11">
+    <cfRule type="cellIs" dxfId="1" priority="501" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="502" operator="lessThan">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE12">
+    <cfRule type="cellIs" dxfId="1" priority="506" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="507" operator="lessThan">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE13">
+    <cfRule type="cellIs" dxfId="1" priority="511" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="512" operator="lessThan">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE14">
     <cfRule type="cellIs" dxfId="1" priority="516" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="517" operator="lessThan">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE11">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE15">
     <cfRule type="cellIs" dxfId="1" priority="521" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="522" operator="lessThan">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE12">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE21">
     <cfRule type="cellIs" dxfId="1" priority="526" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="527" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE13">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE22">
     <cfRule type="cellIs" dxfId="1" priority="531" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="532" operator="lessThan">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE14">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23">
     <cfRule type="cellIs" dxfId="1" priority="536" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="537" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE15">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE24">
     <cfRule type="cellIs" dxfId="1" priority="541" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="542" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE21">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE25">
     <cfRule type="cellIs" dxfId="1" priority="546" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="547" operator="lessThan">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE22">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE26">
     <cfRule type="cellIs" dxfId="1" priority="551" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="552" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE27">
     <cfRule type="cellIs" dxfId="1" priority="556" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="557" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE28">
     <cfRule type="cellIs" dxfId="1" priority="561" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="562" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE29">
     <cfRule type="cellIs" dxfId="1" priority="566" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="567" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE26">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE30">
     <cfRule type="cellIs" dxfId="1" priority="571" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="572" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE31">
     <cfRule type="cellIs" dxfId="1" priority="576" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="577" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE32">
     <cfRule type="cellIs" dxfId="1" priority="581" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="582" operator="lessThan">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE33">
     <cfRule type="cellIs" dxfId="1" priority="586" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="587" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE34">
     <cfRule type="cellIs" dxfId="1" priority="591" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="592" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE35">
     <cfRule type="cellIs" dxfId="1" priority="596" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="597" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE32">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE36">
     <cfRule type="cellIs" dxfId="1" priority="601" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="602" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE33">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE37">
     <cfRule type="cellIs" dxfId="1" priority="606" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="607" operator="lessThan">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
+      <formula>H37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE40">
     <cfRule type="cellIs" dxfId="1" priority="611" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="612" operator="lessThan">
-      <formula>H34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE35">
+      <formula>H40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE7">
+    <cfRule type="cellIs" dxfId="1" priority="481" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="482" operator="lessThan">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8">
+    <cfRule type="cellIs" dxfId="1" priority="486" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="487" operator="lessThan">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9">
+    <cfRule type="cellIs" dxfId="1" priority="491" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="492" operator="lessThan">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF10">
+    <cfRule type="cellIs" dxfId="1" priority="498" operator="greaterThan">
+      <formula>AE10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11">
+    <cfRule type="cellIs" dxfId="1" priority="503" operator="greaterThan">
+      <formula>AE11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF12">
+    <cfRule type="cellIs" dxfId="1" priority="508" operator="greaterThan">
+      <formula>AE12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF13">
+    <cfRule type="cellIs" dxfId="1" priority="513" operator="greaterThan">
+      <formula>AE13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14">
+    <cfRule type="cellIs" dxfId="1" priority="518" operator="greaterThan">
+      <formula>AE14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF15">
+    <cfRule type="cellIs" dxfId="1" priority="523" operator="greaterThan">
+      <formula>AE15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF21">
+    <cfRule type="cellIs" dxfId="1" priority="528" operator="greaterThan">
+      <formula>AE21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF22">
+    <cfRule type="cellIs" dxfId="1" priority="533" operator="greaterThan">
+      <formula>AE22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF23">
+    <cfRule type="cellIs" dxfId="1" priority="538" operator="greaterThan">
+      <formula>AE23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF24">
+    <cfRule type="cellIs" dxfId="1" priority="543" operator="greaterThan">
+      <formula>AE24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF25">
+    <cfRule type="cellIs" dxfId="1" priority="548" operator="greaterThan">
+      <formula>AE25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF26">
+    <cfRule type="cellIs" dxfId="1" priority="553" operator="greaterThan">
+      <formula>AE26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF27">
+    <cfRule type="cellIs" dxfId="1" priority="558" operator="greaterThan">
+      <formula>AE27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF28">
+    <cfRule type="cellIs" dxfId="1" priority="563" operator="greaterThan">
+      <formula>AE28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF29">
+    <cfRule type="cellIs" dxfId="1" priority="568" operator="greaterThan">
+      <formula>AE29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF30">
+    <cfRule type="cellIs" dxfId="1" priority="573" operator="greaterThan">
+      <formula>AE30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF31">
+    <cfRule type="cellIs" dxfId="1" priority="578" operator="greaterThan">
+      <formula>AE31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF32">
+    <cfRule type="cellIs" dxfId="1" priority="583" operator="greaterThan">
+      <formula>AE32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF33">
+    <cfRule type="cellIs" dxfId="1" priority="588" operator="greaterThan">
+      <formula>AE33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF34">
+    <cfRule type="cellIs" dxfId="1" priority="593" operator="greaterThan">
+      <formula>AE34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF35">
+    <cfRule type="cellIs" dxfId="1" priority="598" operator="greaterThan">
+      <formula>AE35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF36">
+    <cfRule type="cellIs" dxfId="1" priority="603" operator="greaterThan">
+      <formula>AE36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF37">
+    <cfRule type="cellIs" dxfId="1" priority="608" operator="greaterThan">
+      <formula>AE37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF40">
+    <cfRule type="cellIs" dxfId="1" priority="613" operator="greaterThan">
+      <formula>AE40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF7">
+    <cfRule type="cellIs" dxfId="1" priority="483" operator="greaterThan">
+      <formula>AE7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8">
+    <cfRule type="cellIs" dxfId="1" priority="488" operator="greaterThan">
+      <formula>AE8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9">
+    <cfRule type="cellIs" dxfId="1" priority="493" operator="greaterThan">
+      <formula>AE9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="cellIs" dxfId="4" priority="500" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG11">
+    <cfRule type="cellIs" dxfId="4" priority="505" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG12">
+    <cfRule type="cellIs" dxfId="4" priority="510" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG13">
+    <cfRule type="cellIs" dxfId="4" priority="515" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG14">
+    <cfRule type="cellIs" dxfId="4" priority="520" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15">
+    <cfRule type="cellIs" dxfId="4" priority="525" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG21">
+    <cfRule type="cellIs" dxfId="4" priority="530" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG22">
+    <cfRule type="cellIs" dxfId="4" priority="535" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG23">
+    <cfRule type="cellIs" dxfId="4" priority="540" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG24">
+    <cfRule type="cellIs" dxfId="4" priority="545" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="cellIs" dxfId="4" priority="550" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG26">
+    <cfRule type="cellIs" dxfId="4" priority="555" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG27">
+    <cfRule type="cellIs" dxfId="4" priority="560" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG28">
+    <cfRule type="cellIs" dxfId="4" priority="565" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG29">
+    <cfRule type="cellIs" dxfId="4" priority="570" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG30">
+    <cfRule type="cellIs" dxfId="4" priority="575" operator="lessThanOrEqual">
+      <formula>I30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG31">
+    <cfRule type="cellIs" dxfId="4" priority="580" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG32">
+    <cfRule type="cellIs" dxfId="4" priority="585" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG33">
+    <cfRule type="cellIs" dxfId="4" priority="590" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG34">
+    <cfRule type="cellIs" dxfId="4" priority="595" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG35">
+    <cfRule type="cellIs" dxfId="4" priority="600" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG36">
+    <cfRule type="cellIs" dxfId="4" priority="605" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG37">
+    <cfRule type="cellIs" dxfId="4" priority="610" operator="lessThanOrEqual">
+      <formula>I37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG40">
+    <cfRule type="cellIs" dxfId="4" priority="615" operator="lessThanOrEqual">
+      <formula>I40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG7">
+    <cfRule type="cellIs" dxfId="4" priority="485" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="cellIs" dxfId="4" priority="490" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9">
+    <cfRule type="cellIs" dxfId="4" priority="495" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH10">
+    <cfRule type="cellIs" dxfId="4" priority="499" operator="lessThanOrEqual">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH11">
+    <cfRule type="cellIs" dxfId="4" priority="504" operator="lessThanOrEqual">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH12">
+    <cfRule type="cellIs" dxfId="4" priority="509" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH13">
+    <cfRule type="cellIs" dxfId="4" priority="514" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH14">
+    <cfRule type="cellIs" dxfId="4" priority="519" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15">
+    <cfRule type="cellIs" dxfId="4" priority="524" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH21">
+    <cfRule type="cellIs" dxfId="4" priority="529" operator="lessThanOrEqual">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH22">
+    <cfRule type="cellIs" dxfId="4" priority="534" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH23">
+    <cfRule type="cellIs" dxfId="4" priority="539" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24">
+    <cfRule type="cellIs" dxfId="4" priority="544" operator="lessThanOrEqual">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH25">
+    <cfRule type="cellIs" dxfId="4" priority="549" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH26">
+    <cfRule type="cellIs" dxfId="4" priority="554" operator="lessThanOrEqual">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH27">
+    <cfRule type="cellIs" dxfId="4" priority="559" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH28">
+    <cfRule type="cellIs" dxfId="4" priority="564" operator="lessThanOrEqual">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH29">
+    <cfRule type="cellIs" dxfId="4" priority="569" operator="lessThanOrEqual">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH30">
+    <cfRule type="cellIs" dxfId="4" priority="574" operator="lessThanOrEqual">
+      <formula>J30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH31">
+    <cfRule type="cellIs" dxfId="4" priority="579" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH32">
+    <cfRule type="cellIs" dxfId="4" priority="584" operator="lessThanOrEqual">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33">
+    <cfRule type="cellIs" dxfId="4" priority="589" operator="lessThanOrEqual">
+      <formula>J33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH34">
+    <cfRule type="cellIs" dxfId="4" priority="594" operator="lessThanOrEqual">
+      <formula>J34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="cellIs" dxfId="4" priority="599" operator="lessThanOrEqual">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH36">
+    <cfRule type="cellIs" dxfId="4" priority="604" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH37">
+    <cfRule type="cellIs" dxfId="4" priority="609" operator="lessThanOrEqual">
+      <formula>J37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH40">
+    <cfRule type="cellIs" dxfId="4" priority="614" operator="lessThanOrEqual">
+      <formula>J40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="cellIs" dxfId="4" priority="484" operator="lessThanOrEqual">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH8">
+    <cfRule type="cellIs" dxfId="4" priority="489" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9">
+    <cfRule type="cellIs" dxfId="4" priority="494" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ10">
+    <cfRule type="cellIs" dxfId="1" priority="632" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="633" operator="lessThan">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ11">
+    <cfRule type="cellIs" dxfId="1" priority="638" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="639" operator="lessThan">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ12">
+    <cfRule type="cellIs" dxfId="1" priority="643" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="644" operator="lessThan">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13">
+    <cfRule type="cellIs" dxfId="1" priority="648" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="649" operator="lessThan">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ14">
+    <cfRule type="cellIs" dxfId="1" priority="653" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="654" operator="lessThan">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ15">
+    <cfRule type="cellIs" dxfId="1" priority="658" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="659" operator="lessThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ21">
+    <cfRule type="cellIs" dxfId="1" priority="663" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="664" operator="lessThan">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ22">
+    <cfRule type="cellIs" dxfId="1" priority="669" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="670" operator="lessThan">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ23">
+    <cfRule type="cellIs" dxfId="1" priority="674" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="675" operator="lessThan">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ24">
+    <cfRule type="cellIs" dxfId="1" priority="679" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="680" operator="lessThan">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ25">
+    <cfRule type="cellIs" dxfId="1" priority="685" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="686" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ26">
+    <cfRule type="cellIs" dxfId="1" priority="690" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="691" operator="lessThan">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ27">
+    <cfRule type="cellIs" dxfId="1" priority="695" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="696" operator="lessThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ28">
+    <cfRule type="cellIs" dxfId="1" priority="700" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="701" operator="lessThan">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ29">
+    <cfRule type="cellIs" dxfId="1" priority="705" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="706" operator="lessThan">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ30">
+    <cfRule type="cellIs" dxfId="1" priority="710" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="711" operator="lessThan">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ31">
+    <cfRule type="cellIs" dxfId="1" priority="715" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="716" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ32">
+    <cfRule type="cellIs" dxfId="1" priority="721" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="722" operator="lessThan">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ33">
+    <cfRule type="cellIs" dxfId="1" priority="726" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="727" operator="lessThan">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ35">
+    <cfRule type="cellIs" dxfId="1" priority="731" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="732" operator="lessThan">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ36">
+    <cfRule type="cellIs" dxfId="1" priority="736" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="737" operator="lessThan">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ37">
+    <cfRule type="cellIs" dxfId="1" priority="741" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="742" operator="lessThan">
+      <formula>H37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ40">
+    <cfRule type="cellIs" dxfId="1" priority="746" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="747" operator="lessThan">
+      <formula>H40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ7">
     <cfRule type="cellIs" dxfId="1" priority="616" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="617" operator="lessThan">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE36">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ8">
     <cfRule type="cellIs" dxfId="1" priority="621" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="622" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE37">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ9">
     <cfRule type="cellIs" dxfId="1" priority="626" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="627" operator="lessThan">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK10">
+    <cfRule type="expression" dxfId="3" priority="634">
+      <formula>AND(AK10&gt;0,AK10&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="635" operator="greaterThan">
+      <formula>AJ10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK11">
+    <cfRule type="cellIs" dxfId="1" priority="640" operator="greaterThan">
+      <formula>AJ11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK12">
+    <cfRule type="cellIs" dxfId="1" priority="645" operator="greaterThan">
+      <formula>AJ12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13">
+    <cfRule type="cellIs" dxfId="1" priority="650" operator="greaterThan">
+      <formula>AJ13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK14">
+    <cfRule type="cellIs" dxfId="1" priority="655" operator="greaterThan">
+      <formula>AJ14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK15">
+    <cfRule type="cellIs" dxfId="1" priority="660" operator="greaterThan">
+      <formula>AJ15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK21">
+    <cfRule type="expression" dxfId="3" priority="665">
+      <formula>AND(AK21&gt;0,AK21&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="666" operator="greaterThan">
+      <formula>AJ21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK22">
+    <cfRule type="cellIs" dxfId="1" priority="671" operator="greaterThan">
+      <formula>AJ22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK23">
+    <cfRule type="cellIs" dxfId="1" priority="676" operator="greaterThan">
+      <formula>AJ23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK24">
+    <cfRule type="expression" dxfId="3" priority="681">
+      <formula>AND(AK24&gt;0,AK24&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="682" operator="greaterThan">
+      <formula>AJ24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK25">
+    <cfRule type="cellIs" dxfId="1" priority="687" operator="greaterThan">
+      <formula>AJ25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK26">
+    <cfRule type="cellIs" dxfId="1" priority="692" operator="greaterThan">
+      <formula>AJ26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK27">
+    <cfRule type="cellIs" dxfId="1" priority="697" operator="greaterThan">
+      <formula>AJ27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK28">
+    <cfRule type="cellIs" dxfId="1" priority="702" operator="greaterThan">
+      <formula>AJ28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK29">
+    <cfRule type="cellIs" dxfId="1" priority="707" operator="greaterThan">
+      <formula>AJ29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK30">
+    <cfRule type="cellIs" dxfId="1" priority="712" operator="greaterThan">
+      <formula>AJ30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK31">
+    <cfRule type="expression" dxfId="3" priority="717">
+      <formula>AND(AK31&gt;0,AK31&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="718" operator="greaterThan">
+      <formula>AJ31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK32">
+    <cfRule type="cellIs" dxfId="1" priority="723" operator="greaterThan">
+      <formula>AJ32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK33">
+    <cfRule type="cellIs" dxfId="1" priority="728" operator="greaterThan">
+      <formula>AJ33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK35">
+    <cfRule type="cellIs" dxfId="1" priority="733" operator="greaterThan">
+      <formula>AJ35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK36">
+    <cfRule type="cellIs" dxfId="1" priority="738" operator="greaterThan">
+      <formula>AJ36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK37">
+    <cfRule type="cellIs" dxfId="1" priority="743" operator="greaterThan">
+      <formula>AJ37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK40">
+    <cfRule type="cellIs" dxfId="1" priority="748" operator="greaterThan">
+      <formula>AJ40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK7">
+    <cfRule type="cellIs" dxfId="1" priority="618" operator="greaterThan">
+      <formula>AJ7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK8">
+    <cfRule type="cellIs" dxfId="1" priority="623" operator="greaterThan">
+      <formula>AJ8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK9">
+    <cfRule type="expression" dxfId="3" priority="628">
+      <formula>AND(AK9&gt;0,AK9&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="629" operator="greaterThan">
+      <formula>AJ9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL10">
+    <cfRule type="cellIs" dxfId="4" priority="637" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL11">
+    <cfRule type="cellIs" dxfId="4" priority="642" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL12">
+    <cfRule type="cellIs" dxfId="4" priority="647" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL13">
+    <cfRule type="cellIs" dxfId="4" priority="652" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL14">
+    <cfRule type="cellIs" dxfId="4" priority="657" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL15">
+    <cfRule type="cellIs" dxfId="4" priority="662" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL21">
+    <cfRule type="cellIs" dxfId="4" priority="668" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL22">
+    <cfRule type="cellIs" dxfId="4" priority="673" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL23">
+    <cfRule type="cellIs" dxfId="4" priority="678" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL24">
+    <cfRule type="cellIs" dxfId="4" priority="684" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL25">
+    <cfRule type="cellIs" dxfId="4" priority="689" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL26">
+    <cfRule type="cellIs" dxfId="4" priority="694" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL27">
+    <cfRule type="cellIs" dxfId="4" priority="699" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL28">
+    <cfRule type="cellIs" dxfId="4" priority="704" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL29">
+    <cfRule type="cellIs" dxfId="4" priority="709" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL30">
+    <cfRule type="cellIs" dxfId="4" priority="714" operator="lessThanOrEqual">
+      <formula>I30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL31">
+    <cfRule type="cellIs" dxfId="4" priority="720" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL32">
+    <cfRule type="cellIs" dxfId="4" priority="725" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL33">
+    <cfRule type="cellIs" dxfId="4" priority="730" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL35">
+    <cfRule type="cellIs" dxfId="4" priority="735" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL36">
+    <cfRule type="cellIs" dxfId="4" priority="740" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL37">
+    <cfRule type="cellIs" dxfId="4" priority="745" operator="lessThanOrEqual">
+      <formula>I37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL40">
+    <cfRule type="cellIs" dxfId="4" priority="750" operator="lessThanOrEqual">
+      <formula>I40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL7">
+    <cfRule type="cellIs" dxfId="4" priority="620" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL8">
+    <cfRule type="cellIs" dxfId="4" priority="625" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL9">
+    <cfRule type="cellIs" dxfId="4" priority="631" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM10">
+    <cfRule type="cellIs" dxfId="4" priority="636" operator="lessThanOrEqual">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM11">
+    <cfRule type="cellIs" dxfId="4" priority="641" operator="lessThanOrEqual">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM12">
+    <cfRule type="cellIs" dxfId="4" priority="646" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM13">
+    <cfRule type="cellIs" dxfId="4" priority="651" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM14">
+    <cfRule type="cellIs" dxfId="4" priority="656" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM15">
+    <cfRule type="cellIs" dxfId="4" priority="661" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM21">
+    <cfRule type="cellIs" dxfId="4" priority="667" operator="lessThanOrEqual">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM22">
+    <cfRule type="cellIs" dxfId="4" priority="672" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM23">
+    <cfRule type="cellIs" dxfId="4" priority="677" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM24">
+    <cfRule type="cellIs" dxfId="4" priority="683" operator="lessThanOrEqual">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM25">
+    <cfRule type="cellIs" dxfId="4" priority="688" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM26">
+    <cfRule type="cellIs" dxfId="4" priority="693" operator="lessThanOrEqual">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM27">
+    <cfRule type="cellIs" dxfId="4" priority="698" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM28">
+    <cfRule type="cellIs" dxfId="4" priority="703" operator="lessThanOrEqual">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM29">
+    <cfRule type="cellIs" dxfId="4" priority="708" operator="lessThanOrEqual">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM30">
+    <cfRule type="cellIs" dxfId="4" priority="713" operator="lessThanOrEqual">
+      <formula>J30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM31">
+    <cfRule type="cellIs" dxfId="4" priority="719" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM32">
+    <cfRule type="cellIs" dxfId="4" priority="724" operator="lessThanOrEqual">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM33">
+    <cfRule type="cellIs" dxfId="4" priority="729" operator="lessThanOrEqual">
+      <formula>J33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM35">
+    <cfRule type="cellIs" dxfId="4" priority="734" operator="lessThanOrEqual">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM36">
+    <cfRule type="cellIs" dxfId="4" priority="739" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM37">
+    <cfRule type="cellIs" dxfId="4" priority="744" operator="lessThanOrEqual">
+      <formula>J37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM40">
+    <cfRule type="cellIs" dxfId="4" priority="749" operator="lessThanOrEqual">
+      <formula>J40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM7">
+    <cfRule type="cellIs" dxfId="4" priority="619" operator="lessThanOrEqual">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM8">
+    <cfRule type="cellIs" dxfId="4" priority="624" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM9">
+    <cfRule type="cellIs" dxfId="4" priority="630" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO12">
+    <cfRule type="cellIs" dxfId="1" priority="757" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="758" operator="lessThan">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO21">
+    <cfRule type="cellIs" dxfId="1" priority="763" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="764" operator="lessThan">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO22">
+    <cfRule type="cellIs" dxfId="1" priority="769" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="770" operator="lessThan">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO23">
+    <cfRule type="cellIs" dxfId="1" priority="775" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="776" operator="lessThan">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO25">
+    <cfRule type="cellIs" dxfId="1" priority="781" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="782" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO27">
+    <cfRule type="cellIs" dxfId="1" priority="787" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="788" operator="lessThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO29">
+    <cfRule type="cellIs" dxfId="1" priority="793" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="794" operator="lessThan">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO31">
+    <cfRule type="cellIs" dxfId="1" priority="799" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="800" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO33">
+    <cfRule type="cellIs" dxfId="1" priority="805" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="806" operator="lessThan">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO36">
+    <cfRule type="cellIs" dxfId="1" priority="811" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="812" operator="lessThan">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO37">
+    <cfRule type="cellIs" dxfId="1" priority="817" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="818" operator="lessThan">
       <formula>H37</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE40">
-    <cfRule type="cellIs" dxfId="1" priority="631" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="632" operator="lessThan">
-      <formula>H40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE7">
-    <cfRule type="cellIs" dxfId="1" priority="501" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="502" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE8">
-    <cfRule type="cellIs" dxfId="1" priority="506" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="507" operator="lessThan">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE9">
-    <cfRule type="cellIs" dxfId="1" priority="511" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="512" operator="lessThan">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF10">
-    <cfRule type="cellIs" dxfId="1" priority="518" operator="greaterThan">
-      <formula>AE10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11">
-    <cfRule type="cellIs" dxfId="1" priority="523" operator="greaterThan">
-      <formula>AE11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF12">
-    <cfRule type="cellIs" dxfId="1" priority="528" operator="greaterThan">
-      <formula>AE12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13">
-    <cfRule type="cellIs" dxfId="1" priority="533" operator="greaterThan">
-      <formula>AE13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14">
-    <cfRule type="cellIs" dxfId="1" priority="538" operator="greaterThan">
-      <formula>AE14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
-    <cfRule type="cellIs" dxfId="1" priority="543" operator="greaterThan">
-      <formula>AE15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF21">
-    <cfRule type="cellIs" dxfId="1" priority="548" operator="greaterThan">
-      <formula>AE21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF22">
-    <cfRule type="cellIs" dxfId="1" priority="553" operator="greaterThan">
-      <formula>AE22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF23">
-    <cfRule type="cellIs" dxfId="1" priority="558" operator="greaterThan">
-      <formula>AE23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF24">
-    <cfRule type="cellIs" dxfId="1" priority="563" operator="greaterThan">
-      <formula>AE24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF25">
-    <cfRule type="cellIs" dxfId="1" priority="568" operator="greaterThan">
-      <formula>AE25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF26">
-    <cfRule type="cellIs" dxfId="1" priority="573" operator="greaterThan">
-      <formula>AE26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
-    <cfRule type="cellIs" dxfId="1" priority="578" operator="greaterThan">
-      <formula>AE27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF28">
-    <cfRule type="cellIs" dxfId="1" priority="583" operator="greaterThan">
-      <formula>AE28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF29">
-    <cfRule type="cellIs" dxfId="1" priority="588" operator="greaterThan">
-      <formula>AE29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF30">
-    <cfRule type="cellIs" dxfId="1" priority="593" operator="greaterThan">
-      <formula>AE30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF31">
-    <cfRule type="cellIs" dxfId="1" priority="598" operator="greaterThan">
-      <formula>AE31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF32">
-    <cfRule type="cellIs" dxfId="1" priority="603" operator="greaterThan">
-      <formula>AE32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF33">
-    <cfRule type="cellIs" dxfId="1" priority="608" operator="greaterThan">
-      <formula>AE33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF34">
-    <cfRule type="cellIs" dxfId="1" priority="613" operator="greaterThan">
-      <formula>AE34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF35">
-    <cfRule type="cellIs" dxfId="1" priority="618" operator="greaterThan">
-      <formula>AE35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF36">
-    <cfRule type="cellIs" dxfId="1" priority="623" operator="greaterThan">
-      <formula>AE36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF37">
-    <cfRule type="cellIs" dxfId="1" priority="628" operator="greaterThan">
-      <formula>AE37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF40">
-    <cfRule type="cellIs" dxfId="1" priority="633" operator="greaterThan">
-      <formula>AE40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF7">
-    <cfRule type="cellIs" dxfId="1" priority="503" operator="greaterThan">
-      <formula>AE7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF8">
-    <cfRule type="cellIs" dxfId="1" priority="508" operator="greaterThan">
-      <formula>AE8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF9">
-    <cfRule type="cellIs" dxfId="1" priority="513" operator="greaterThan">
-      <formula>AE9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG10">
-    <cfRule type="cellIs" dxfId="4" priority="520" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG11">
-    <cfRule type="cellIs" dxfId="4" priority="525" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG12">
-    <cfRule type="cellIs" dxfId="4" priority="530" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG13">
-    <cfRule type="cellIs" dxfId="4" priority="535" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG14">
-    <cfRule type="cellIs" dxfId="4" priority="540" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG15">
-    <cfRule type="cellIs" dxfId="4" priority="545" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG21">
-    <cfRule type="cellIs" dxfId="4" priority="550" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG22">
-    <cfRule type="cellIs" dxfId="4" priority="555" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG23">
-    <cfRule type="cellIs" dxfId="4" priority="560" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG24">
-    <cfRule type="cellIs" dxfId="4" priority="565" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG25">
-    <cfRule type="cellIs" dxfId="4" priority="570" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG26">
-    <cfRule type="cellIs" dxfId="4" priority="575" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG27">
-    <cfRule type="cellIs" dxfId="4" priority="580" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG28">
-    <cfRule type="cellIs" dxfId="4" priority="585" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG29">
-    <cfRule type="cellIs" dxfId="4" priority="590" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG30">
-    <cfRule type="cellIs" dxfId="4" priority="595" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG31">
-    <cfRule type="cellIs" dxfId="4" priority="600" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG32">
-    <cfRule type="cellIs" dxfId="4" priority="605" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG33">
-    <cfRule type="cellIs" dxfId="4" priority="610" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG34">
-    <cfRule type="cellIs" dxfId="4" priority="615" operator="lessThanOrEqual">
-      <formula>I34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG35">
-    <cfRule type="cellIs" dxfId="4" priority="620" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG36">
-    <cfRule type="cellIs" dxfId="4" priority="625" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG37">
-    <cfRule type="cellIs" dxfId="4" priority="630" operator="lessThanOrEqual">
-      <formula>I37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG40">
-    <cfRule type="cellIs" dxfId="4" priority="635" operator="lessThanOrEqual">
-      <formula>I40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG7">
-    <cfRule type="cellIs" dxfId="4" priority="505" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG8">
-    <cfRule type="cellIs" dxfId="4" priority="510" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG9">
-    <cfRule type="cellIs" dxfId="4" priority="515" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH10">
-    <cfRule type="cellIs" dxfId="4" priority="519" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH11">
-    <cfRule type="cellIs" dxfId="4" priority="524" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH12">
-    <cfRule type="cellIs" dxfId="4" priority="529" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH13">
-    <cfRule type="cellIs" dxfId="4" priority="534" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH14">
-    <cfRule type="cellIs" dxfId="4" priority="539" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="4" priority="544" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH21">
-    <cfRule type="cellIs" dxfId="4" priority="549" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH22">
-    <cfRule type="cellIs" dxfId="4" priority="554" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH23">
-    <cfRule type="cellIs" dxfId="4" priority="559" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH24">
-    <cfRule type="cellIs" dxfId="4" priority="564" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH25">
-    <cfRule type="cellIs" dxfId="4" priority="569" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH26">
-    <cfRule type="cellIs" dxfId="4" priority="574" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH27">
-    <cfRule type="cellIs" dxfId="4" priority="579" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH28">
-    <cfRule type="cellIs" dxfId="4" priority="584" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH29">
-    <cfRule type="cellIs" dxfId="4" priority="589" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH30">
-    <cfRule type="cellIs" dxfId="4" priority="594" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH31">
-    <cfRule type="cellIs" dxfId="4" priority="599" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH32">
-    <cfRule type="cellIs" dxfId="4" priority="604" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH33">
-    <cfRule type="cellIs" dxfId="4" priority="609" operator="lessThanOrEqual">
-      <formula>J33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH34">
-    <cfRule type="cellIs" dxfId="4" priority="614" operator="lessThanOrEqual">
-      <formula>J34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH35">
-    <cfRule type="cellIs" dxfId="4" priority="619" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH36">
-    <cfRule type="cellIs" dxfId="4" priority="624" operator="lessThanOrEqual">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH37">
-    <cfRule type="cellIs" dxfId="4" priority="629" operator="lessThanOrEqual">
-      <formula>J37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH40">
-    <cfRule type="cellIs" dxfId="4" priority="634" operator="lessThanOrEqual">
-      <formula>J40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH7">
-    <cfRule type="cellIs" dxfId="4" priority="504" operator="lessThanOrEqual">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH8">
-    <cfRule type="cellIs" dxfId="4" priority="509" operator="lessThanOrEqual">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH9">
-    <cfRule type="cellIs" dxfId="4" priority="514" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ10">
-    <cfRule type="cellIs" dxfId="1" priority="652" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="653" operator="lessThan">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ11">
-    <cfRule type="cellIs" dxfId="1" priority="658" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="659" operator="lessThan">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ12">
-    <cfRule type="cellIs" dxfId="1" priority="663" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="664" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ13">
-    <cfRule type="cellIs" dxfId="1" priority="668" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="669" operator="lessThan">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ14">
-    <cfRule type="cellIs" dxfId="1" priority="673" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="674" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ15">
-    <cfRule type="cellIs" dxfId="1" priority="678" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="679" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ21">
-    <cfRule type="cellIs" dxfId="1" priority="683" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="684" operator="lessThan">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ22">
-    <cfRule type="cellIs" dxfId="1" priority="689" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="690" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ23">
-    <cfRule type="cellIs" dxfId="1" priority="694" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="695" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ24">
-    <cfRule type="cellIs" dxfId="1" priority="699" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="700" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ25">
-    <cfRule type="cellIs" dxfId="1" priority="705" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="706" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ26">
-    <cfRule type="cellIs" dxfId="1" priority="710" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="711" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27">
-    <cfRule type="cellIs" dxfId="1" priority="715" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="716" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ28">
-    <cfRule type="cellIs" dxfId="1" priority="720" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="721" operator="lessThan">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ29">
-    <cfRule type="cellIs" dxfId="1" priority="725" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="726" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ30">
-    <cfRule type="cellIs" dxfId="1" priority="730" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="731" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ31">
-    <cfRule type="cellIs" dxfId="1" priority="735" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="736" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ32">
-    <cfRule type="cellIs" dxfId="1" priority="741" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="742" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ33">
-    <cfRule type="cellIs" dxfId="1" priority="746" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="747" operator="lessThan">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ35">
+  <conditionalFormatting sqref="AO9">
     <cfRule type="cellIs" dxfId="1" priority="751" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="752" operator="lessThan">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ36">
-    <cfRule type="cellIs" dxfId="1" priority="756" operator="equal">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP12">
+    <cfRule type="expression" dxfId="3" priority="759">
+      <formula>AND(AP12&gt;0,AP12&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="760" operator="greaterThan">
+      <formula>AO12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP21">
+    <cfRule type="expression" dxfId="3" priority="765">
+      <formula>AND(AP21&gt;0,AP21&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="766" operator="greaterThan">
+      <formula>AO21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP22">
+    <cfRule type="expression" dxfId="3" priority="771">
+      <formula>AND(AP22&gt;0,AP22&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="772" operator="greaterThan">
+      <formula>AO22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP23">
+    <cfRule type="expression" dxfId="3" priority="777">
+      <formula>AND(AP23&gt;0,AP23&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="778" operator="greaterThan">
+      <formula>AO23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP25">
+    <cfRule type="expression" dxfId="3" priority="783">
+      <formula>AND(AP25&gt;0,AP25&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="784" operator="greaterThan">
+      <formula>AO25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP27">
+    <cfRule type="expression" dxfId="3" priority="789">
+      <formula>AND(AP27&gt;0,AP27&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="790" operator="greaterThan">
+      <formula>AO27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP29">
+    <cfRule type="expression" dxfId="3" priority="795">
+      <formula>AND(AP29&gt;0,AP29&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="796" operator="greaterThan">
+      <formula>AO29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP31">
+    <cfRule type="expression" dxfId="3" priority="801">
+      <formula>AND(AP31&gt;0,AP31&lt;30)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="802" operator="greaterThan">
+      <formula>AO31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP33">
+    <cfRule type="expression" dxfId="3" priority="807">
+      <formula>AND(AP33&gt;0,AP33&lt;18)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="808" operator="greaterThan">
+      <formula>AO33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP36">
+    <cfRule type="expression" dxfId="3" priority="813">
+      <formula>AND(AP36&gt;0,AP36&lt;50)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="814" operator="greaterThan">
+      <formula>AO36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP37">
+    <cfRule type="expression" dxfId="3" priority="819">
+      <formula>AND(AP37&gt;0,AP37&lt;20)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="820" operator="greaterThan">
+      <formula>AO37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP9">
+    <cfRule type="expression" dxfId="3" priority="753">
+      <formula>AND(AP9&gt;0,AP9&lt;20)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="754" operator="greaterThan">
+      <formula>AO9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ12">
+    <cfRule type="cellIs" dxfId="4" priority="762" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ21">
+    <cfRule type="cellIs" dxfId="4" priority="768" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ22">
+    <cfRule type="cellIs" dxfId="4" priority="774" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ23">
+    <cfRule type="cellIs" dxfId="4" priority="780" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ25">
+    <cfRule type="cellIs" dxfId="4" priority="786" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ27">
+    <cfRule type="cellIs" dxfId="4" priority="792" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ29">
+    <cfRule type="cellIs" dxfId="4" priority="798" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ31">
+    <cfRule type="cellIs" dxfId="4" priority="804" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ33">
+    <cfRule type="cellIs" dxfId="4" priority="810" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ36">
+    <cfRule type="cellIs" dxfId="4" priority="816" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ37">
+    <cfRule type="cellIs" dxfId="4" priority="822" operator="lessThanOrEqual">
+      <formula>I37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ9">
+    <cfRule type="cellIs" dxfId="4" priority="756" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR12">
+    <cfRule type="cellIs" dxfId="4" priority="761" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR21">
+    <cfRule type="cellIs" dxfId="4" priority="767" operator="lessThanOrEqual">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR22">
+    <cfRule type="cellIs" dxfId="4" priority="773" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR23">
+    <cfRule type="cellIs" dxfId="4" priority="779" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR25">
+    <cfRule type="cellIs" dxfId="4" priority="785" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR27">
+    <cfRule type="cellIs" dxfId="4" priority="791" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR29">
+    <cfRule type="cellIs" dxfId="4" priority="797" operator="lessThanOrEqual">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR31">
+    <cfRule type="cellIs" dxfId="4" priority="803" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR33">
+    <cfRule type="cellIs" dxfId="4" priority="809" operator="lessThanOrEqual">
+      <formula>J33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR36">
+    <cfRule type="cellIs" dxfId="4" priority="815" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR37">
+    <cfRule type="cellIs" dxfId="4" priority="821" operator="lessThanOrEqual">
+      <formula>J37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR9">
+    <cfRule type="cellIs" dxfId="4" priority="755" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT14">
+    <cfRule type="cellIs" dxfId="1" priority="823" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="757" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="824" operator="lessThan">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT15">
+    <cfRule type="cellIs" dxfId="1" priority="829" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="830" operator="lessThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT30">
+    <cfRule type="cellIs" dxfId="1" priority="835" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="836" operator="lessThan">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT36">
+    <cfRule type="cellIs" dxfId="1" priority="841" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="842" operator="lessThan">
       <formula>H36</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ37">
-    <cfRule type="cellIs" dxfId="1" priority="761" operator="equal">
+  <conditionalFormatting sqref="AT37">
+    <cfRule type="cellIs" dxfId="1" priority="847" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="762" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="848" operator="lessThan">
       <formula>H37</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ40">
-    <cfRule type="cellIs" dxfId="1" priority="766" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="767" operator="lessThan">
-      <formula>H40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ7">
-    <cfRule type="cellIs" dxfId="1" priority="636" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="637" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ8">
-    <cfRule type="cellIs" dxfId="1" priority="641" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="642" operator="lessThan">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9">
-    <cfRule type="cellIs" dxfId="1" priority="646" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="647" operator="lessThan">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK10">
-    <cfRule type="expression" dxfId="3" priority="654">
-      <formula>AND(AK10&gt;0,AK10&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="655" operator="greaterThan">
-      <formula>AJ10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK11">
-    <cfRule type="cellIs" dxfId="1" priority="660" operator="greaterThan">
-      <formula>AJ11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK12">
-    <cfRule type="cellIs" dxfId="1" priority="665" operator="greaterThan">
-      <formula>AJ12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK13">
-    <cfRule type="cellIs" dxfId="1" priority="670" operator="greaterThan">
-      <formula>AJ13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK14">
-    <cfRule type="cellIs" dxfId="1" priority="675" operator="greaterThan">
-      <formula>AJ14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK15">
-    <cfRule type="cellIs" dxfId="1" priority="680" operator="greaterThan">
-      <formula>AJ15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK21">
-    <cfRule type="expression" dxfId="3" priority="685">
-      <formula>AND(AK21&gt;0,AK21&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="686" operator="greaterThan">
-      <formula>AJ21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK22">
-    <cfRule type="cellIs" dxfId="1" priority="691" operator="greaterThan">
-      <formula>AJ22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK23">
-    <cfRule type="cellIs" dxfId="1" priority="696" operator="greaterThan">
-      <formula>AJ23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK24">
-    <cfRule type="expression" dxfId="3" priority="701">
-      <formula>AND(AK24&gt;0,AK24&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="702" operator="greaterThan">
-      <formula>AJ24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK25">
-    <cfRule type="cellIs" dxfId="1" priority="707" operator="greaterThan">
-      <formula>AJ25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK26">
-    <cfRule type="cellIs" dxfId="1" priority="712" operator="greaterThan">
-      <formula>AJ26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK27">
-    <cfRule type="cellIs" dxfId="1" priority="717" operator="greaterThan">
-      <formula>AJ27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK28">
-    <cfRule type="cellIs" dxfId="1" priority="722" operator="greaterThan">
-      <formula>AJ28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK29">
-    <cfRule type="cellIs" dxfId="1" priority="727" operator="greaterThan">
-      <formula>AJ29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK30">
-    <cfRule type="cellIs" dxfId="1" priority="732" operator="greaterThan">
-      <formula>AJ30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK31">
-    <cfRule type="expression" dxfId="3" priority="737">
-      <formula>AND(AK31&gt;0,AK31&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="738" operator="greaterThan">
-      <formula>AJ31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK32">
-    <cfRule type="cellIs" dxfId="1" priority="743" operator="greaterThan">
-      <formula>AJ32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK33">
-    <cfRule type="cellIs" dxfId="1" priority="748" operator="greaterThan">
-      <formula>AJ33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK35">
-    <cfRule type="cellIs" dxfId="1" priority="753" operator="greaterThan">
-      <formula>AJ35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK36">
-    <cfRule type="cellIs" dxfId="1" priority="758" operator="greaterThan">
-      <formula>AJ36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK37">
-    <cfRule type="cellIs" dxfId="1" priority="763" operator="greaterThan">
-      <formula>AJ37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK40">
-    <cfRule type="cellIs" dxfId="1" priority="768" operator="greaterThan">
-      <formula>AJ40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK7">
-    <cfRule type="cellIs" dxfId="1" priority="638" operator="greaterThan">
-      <formula>AJ7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK8">
-    <cfRule type="cellIs" dxfId="1" priority="643" operator="greaterThan">
-      <formula>AJ8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK9">
-    <cfRule type="expression" dxfId="3" priority="648">
-      <formula>AND(AK9&gt;0,AK9&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="649" operator="greaterThan">
-      <formula>AJ9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL10">
-    <cfRule type="cellIs" dxfId="4" priority="657" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL11">
-    <cfRule type="cellIs" dxfId="4" priority="662" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL12">
-    <cfRule type="cellIs" dxfId="4" priority="667" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL13">
-    <cfRule type="cellIs" dxfId="4" priority="672" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL14">
-    <cfRule type="cellIs" dxfId="4" priority="677" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AU14">
+    <cfRule type="expression" dxfId="3" priority="825">
+      <formula>AND(AU14&gt;0,AU14&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="826" operator="greaterThan">
+      <formula>AT14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU15">
+    <cfRule type="expression" dxfId="3" priority="831">
+      <formula>AND(AU15&gt;0,AU15&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="832" operator="greaterThan">
+      <formula>AT15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU30">
+    <cfRule type="expression" dxfId="3" priority="837">
+      <formula>AND(AU30&gt;0,AU30&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="838" operator="greaterThan">
+      <formula>AT30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU36">
+    <cfRule type="expression" dxfId="3" priority="843">
+      <formula>AND(AU36&gt;0,AU36&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="844" operator="greaterThan">
+      <formula>AT36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU37">
+    <cfRule type="cellIs" dxfId="1" priority="849" operator="greaterThan">
+      <formula>AT37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV14">
+    <cfRule type="cellIs" dxfId="4" priority="828" operator="lessThanOrEqual">
       <formula>I14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL15">
-    <cfRule type="cellIs" dxfId="4" priority="682" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AV15">
+    <cfRule type="cellIs" dxfId="4" priority="834" operator="lessThanOrEqual">
       <formula>I15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL21">
-    <cfRule type="cellIs" dxfId="4" priority="688" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL22">
-    <cfRule type="cellIs" dxfId="4" priority="693" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL23">
-    <cfRule type="cellIs" dxfId="4" priority="698" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL24">
-    <cfRule type="cellIs" dxfId="4" priority="704" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL25">
-    <cfRule type="cellIs" dxfId="4" priority="709" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL26">
-    <cfRule type="cellIs" dxfId="4" priority="714" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL27">
-    <cfRule type="cellIs" dxfId="4" priority="719" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL28">
-    <cfRule type="cellIs" dxfId="4" priority="724" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL29">
-    <cfRule type="cellIs" dxfId="4" priority="729" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL30">
-    <cfRule type="cellIs" dxfId="4" priority="734" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AV30">
+    <cfRule type="cellIs" dxfId="4" priority="840" operator="lessThanOrEqual">
       <formula>I30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL31">
-    <cfRule type="cellIs" dxfId="4" priority="740" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL32">
-    <cfRule type="cellIs" dxfId="4" priority="745" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL33">
-    <cfRule type="cellIs" dxfId="4" priority="750" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL35">
-    <cfRule type="cellIs" dxfId="4" priority="755" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL36">
-    <cfRule type="cellIs" dxfId="4" priority="760" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AV36">
+    <cfRule type="cellIs" dxfId="4" priority="846" operator="lessThanOrEqual">
       <formula>I36</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL37">
-    <cfRule type="cellIs" dxfId="4" priority="765" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AV37">
+    <cfRule type="cellIs" dxfId="4" priority="851" operator="lessThanOrEqual">
       <formula>I37</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL40">
-    <cfRule type="cellIs" dxfId="4" priority="770" operator="lessThanOrEqual">
-      <formula>I40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL7">
-    <cfRule type="cellIs" dxfId="4" priority="640" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL8">
-    <cfRule type="cellIs" dxfId="4" priority="645" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL9">
-    <cfRule type="cellIs" dxfId="4" priority="651" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM10">
-    <cfRule type="cellIs" dxfId="4" priority="656" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM11">
-    <cfRule type="cellIs" dxfId="4" priority="661" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM12">
-    <cfRule type="cellIs" dxfId="4" priority="666" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM13">
-    <cfRule type="cellIs" dxfId="4" priority="671" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM14">
-    <cfRule type="cellIs" dxfId="4" priority="676" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AW14">
+    <cfRule type="cellIs" dxfId="4" priority="827" operator="lessThanOrEqual">
       <formula>J14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM15">
-    <cfRule type="cellIs" dxfId="4" priority="681" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AW15">
+    <cfRule type="cellIs" dxfId="4" priority="833" operator="lessThanOrEqual">
       <formula>J15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM21">
-    <cfRule type="cellIs" dxfId="4" priority="687" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM22">
-    <cfRule type="cellIs" dxfId="4" priority="692" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM23">
-    <cfRule type="cellIs" dxfId="4" priority="697" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM24">
-    <cfRule type="cellIs" dxfId="4" priority="703" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM25">
-    <cfRule type="cellIs" dxfId="4" priority="708" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM26">
-    <cfRule type="cellIs" dxfId="4" priority="713" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM27">
-    <cfRule type="cellIs" dxfId="4" priority="718" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM28">
-    <cfRule type="cellIs" dxfId="4" priority="723" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM29">
-    <cfRule type="cellIs" dxfId="4" priority="728" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM30">
-    <cfRule type="cellIs" dxfId="4" priority="733" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AW30">
+    <cfRule type="cellIs" dxfId="4" priority="839" operator="lessThanOrEqual">
       <formula>J30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM31">
-    <cfRule type="cellIs" dxfId="4" priority="739" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM32">
-    <cfRule type="cellIs" dxfId="4" priority="744" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM33">
-    <cfRule type="cellIs" dxfId="4" priority="749" operator="lessThanOrEqual">
-      <formula>J33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM35">
-    <cfRule type="cellIs" dxfId="4" priority="754" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM36">
-    <cfRule type="cellIs" dxfId="4" priority="759" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AW36">
+    <cfRule type="cellIs" dxfId="4" priority="845" operator="lessThanOrEqual">
       <formula>J36</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM37">
-    <cfRule type="cellIs" dxfId="4" priority="764" operator="lessThanOrEqual">
-      <formula>J37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM40">
-    <cfRule type="cellIs" dxfId="4" priority="769" operator="lessThanOrEqual">
-      <formula>J40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM7">
-    <cfRule type="cellIs" dxfId="4" priority="639" operator="lessThanOrEqual">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM8">
-    <cfRule type="cellIs" dxfId="4" priority="644" operator="lessThanOrEqual">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM9">
-    <cfRule type="cellIs" dxfId="4" priority="650" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO12">
-    <cfRule type="cellIs" dxfId="1" priority="777" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="778" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO21">
-    <cfRule type="cellIs" dxfId="1" priority="783" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="784" operator="lessThan">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO22">
-    <cfRule type="cellIs" dxfId="1" priority="789" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="790" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO23">
-    <cfRule type="cellIs" dxfId="1" priority="795" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="796" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO25">
-    <cfRule type="cellIs" dxfId="1" priority="801" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="802" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO27">
-    <cfRule type="cellIs" dxfId="1" priority="807" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="808" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO29">
-    <cfRule type="cellIs" dxfId="1" priority="813" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="814" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO31">
-    <cfRule type="cellIs" dxfId="1" priority="819" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="820" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO33">
-    <cfRule type="cellIs" dxfId="1" priority="825" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="826" operator="lessThan">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO36">
-    <cfRule type="cellIs" dxfId="1" priority="831" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="832" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO37">
-    <cfRule type="cellIs" dxfId="1" priority="837" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="838" operator="lessThan">
-      <formula>H37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO9">
-    <cfRule type="cellIs" dxfId="1" priority="771" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="772" operator="lessThan">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP12">
-    <cfRule type="expression" dxfId="3" priority="779">
-      <formula>AND(AP12&gt;0,AP12&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="780" operator="greaterThan">
-      <formula>AO12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP21">
-    <cfRule type="expression" dxfId="3" priority="785">
-      <formula>AND(AP21&gt;0,AP21&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="786" operator="greaterThan">
-      <formula>AO21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP22">
-    <cfRule type="expression" dxfId="3" priority="791">
-      <formula>AND(AP22&gt;0,AP22&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="792" operator="greaterThan">
-      <formula>AO22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP23">
-    <cfRule type="expression" dxfId="3" priority="797">
-      <formula>AND(AP23&gt;0,AP23&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="798" operator="greaterThan">
-      <formula>AO23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP25">
-    <cfRule type="expression" dxfId="3" priority="803">
-      <formula>AND(AP25&gt;0,AP25&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="804" operator="greaterThan">
-      <formula>AO25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP27">
-    <cfRule type="expression" dxfId="3" priority="809">
-      <formula>AND(AP27&gt;0,AP27&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="810" operator="greaterThan">
-      <formula>AO27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP29">
-    <cfRule type="expression" dxfId="3" priority="815">
-      <formula>AND(AP29&gt;0,AP29&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="816" operator="greaterThan">
-      <formula>AO29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP31">
-    <cfRule type="expression" dxfId="3" priority="821">
-      <formula>AND(AP31&gt;0,AP31&lt;30)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="822" operator="greaterThan">
-      <formula>AO31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP33">
-    <cfRule type="expression" dxfId="3" priority="827">
-      <formula>AND(AP33&gt;0,AP33&lt;18)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="828" operator="greaterThan">
-      <formula>AO33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP36">
-    <cfRule type="expression" dxfId="3" priority="833">
-      <formula>AND(AP36&gt;0,AP36&lt;50)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="834" operator="greaterThan">
-      <formula>AO36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP37">
-    <cfRule type="expression" dxfId="3" priority="839">
-      <formula>AND(AP37&gt;0,AP37&lt;20)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="840" operator="greaterThan">
-      <formula>AO37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP9">
-    <cfRule type="expression" dxfId="3" priority="773">
-      <formula>AND(AP9&gt;0,AP9&lt;20)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="774" operator="greaterThan">
-      <formula>AO9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ12">
-    <cfRule type="cellIs" dxfId="4" priority="782" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ21">
-    <cfRule type="cellIs" dxfId="4" priority="788" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ22">
-    <cfRule type="cellIs" dxfId="4" priority="794" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ23">
-    <cfRule type="cellIs" dxfId="4" priority="800" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ25">
-    <cfRule type="cellIs" dxfId="4" priority="806" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27">
-    <cfRule type="cellIs" dxfId="4" priority="812" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ29">
-    <cfRule type="cellIs" dxfId="4" priority="818" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ31">
-    <cfRule type="cellIs" dxfId="4" priority="824" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ33">
-    <cfRule type="cellIs" dxfId="4" priority="830" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ36">
-    <cfRule type="cellIs" dxfId="4" priority="836" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ37">
-    <cfRule type="cellIs" dxfId="4" priority="842" operator="lessThanOrEqual">
-      <formula>I37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ9">
-    <cfRule type="cellIs" dxfId="4" priority="776" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR12">
-    <cfRule type="cellIs" dxfId="4" priority="781" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR21">
-    <cfRule type="cellIs" dxfId="4" priority="787" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR22">
-    <cfRule type="cellIs" dxfId="4" priority="793" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR23">
-    <cfRule type="cellIs" dxfId="4" priority="799" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR25">
-    <cfRule type="cellIs" dxfId="4" priority="805" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR27">
-    <cfRule type="cellIs" dxfId="4" priority="811" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR29">
-    <cfRule type="cellIs" dxfId="4" priority="817" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR31">
-    <cfRule type="cellIs" dxfId="4" priority="823" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR33">
-    <cfRule type="cellIs" dxfId="4" priority="829" operator="lessThanOrEqual">
-      <formula>J33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR36">
-    <cfRule type="cellIs" dxfId="4" priority="835" operator="lessThanOrEqual">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR37">
-    <cfRule type="cellIs" dxfId="4" priority="841" operator="lessThanOrEqual">
-      <formula>J37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR9">
-    <cfRule type="cellIs" dxfId="4" priority="775" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT14">
-    <cfRule type="cellIs" dxfId="1" priority="843" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="844" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT15">
-    <cfRule type="cellIs" dxfId="1" priority="849" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="850" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT30">
-    <cfRule type="cellIs" dxfId="1" priority="855" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="856" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT36">
-    <cfRule type="cellIs" dxfId="1" priority="861" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="862" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT37">
-    <cfRule type="cellIs" dxfId="1" priority="867" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="868" operator="lessThan">
-      <formula>H37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU14">
-    <cfRule type="expression" dxfId="3" priority="845">
-      <formula>AND(AU14&gt;0,AU14&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="846" operator="greaterThan">
-      <formula>AT14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU15">
-    <cfRule type="expression" dxfId="3" priority="851">
-      <formula>AND(AU15&gt;0,AU15&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="852" operator="greaterThan">
-      <formula>AT15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU30">
-    <cfRule type="expression" dxfId="3" priority="857">
-      <formula>AND(AU30&gt;0,AU30&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="858" operator="greaterThan">
-      <formula>AT30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU36">
-    <cfRule type="expression" dxfId="3" priority="863">
-      <formula>AND(AU36&gt;0,AU36&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="864" operator="greaterThan">
-      <formula>AT36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU37">
-    <cfRule type="cellIs" dxfId="1" priority="869" operator="greaterThan">
-      <formula>AT37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV14">
-    <cfRule type="cellIs" dxfId="4" priority="848" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV15">
-    <cfRule type="cellIs" dxfId="4" priority="854" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV30">
-    <cfRule type="cellIs" dxfId="4" priority="860" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV36">
-    <cfRule type="cellIs" dxfId="4" priority="866" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV37">
-    <cfRule type="cellIs" dxfId="4" priority="871" operator="lessThanOrEqual">
-      <formula>I37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW14">
-    <cfRule type="cellIs" dxfId="4" priority="847" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW15">
-    <cfRule type="cellIs" dxfId="4" priority="853" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW30">
-    <cfRule type="cellIs" dxfId="4" priority="859" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW36">
-    <cfRule type="cellIs" dxfId="4" priority="865" operator="lessThanOrEqual">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AW37">
-    <cfRule type="cellIs" dxfId="4" priority="870" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="850" operator="lessThanOrEqual">
       <formula>J37</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13365,187 +13170,155 @@
       <formula>H15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P16">
+  <conditionalFormatting sqref="P21">
     <cfRule type="cellIs" dxfId="1" priority="182" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="183" operator="lessThan">
-      <formula>H16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P22">
     <cfRule type="cellIs" dxfId="1" priority="187" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="188" operator="lessThan">
-      <formula>H17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P18">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P23">
     <cfRule type="cellIs" dxfId="1" priority="192" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="193" operator="lessThan">
-      <formula>H18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P24">
     <cfRule type="cellIs" dxfId="1" priority="197" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="198" operator="lessThan">
-      <formula>H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25">
     <cfRule type="cellIs" dxfId="1" priority="202" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="203" operator="lessThan">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P22">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26">
     <cfRule type="cellIs" dxfId="1" priority="207" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="208" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27">
     <cfRule type="cellIs" dxfId="1" priority="212" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="213" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P24">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28">
     <cfRule type="cellIs" dxfId="1" priority="217" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="218" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P25">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P29">
     <cfRule type="cellIs" dxfId="1" priority="222" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="223" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P30">
     <cfRule type="cellIs" dxfId="1" priority="227" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="228" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P27">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P31">
     <cfRule type="cellIs" dxfId="1" priority="232" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="233" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P28">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P32">
     <cfRule type="cellIs" dxfId="1" priority="237" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="238" operator="lessThan">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P29">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33">
     <cfRule type="cellIs" dxfId="1" priority="242" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="243" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P30">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34">
     <cfRule type="cellIs" dxfId="1" priority="247" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="248" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P31">
-    <cfRule type="cellIs" dxfId="1" priority="252" operator="equal">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35">
+    <cfRule type="cellIs" dxfId="1" priority="253" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="253" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P32">
-    <cfRule type="cellIs" dxfId="1" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="254" operator="lessThan">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36">
+    <cfRule type="cellIs" dxfId="1" priority="258" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="258" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P33">
-    <cfRule type="cellIs" dxfId="1" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="259" operator="lessThan">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37">
+    <cfRule type="cellIs" dxfId="1" priority="263" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="263" operator="lessThan">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P34">
-    <cfRule type="cellIs" dxfId="1" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="264" operator="lessThan">
+      <formula>H37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39">
+    <cfRule type="cellIs" dxfId="1" priority="268" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="268" operator="lessThan">
-      <formula>H34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P35">
+    <cfRule type="cellIs" dxfId="2" priority="269" operator="lessThan">
+      <formula>H39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40">
     <cfRule type="cellIs" dxfId="1" priority="273" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="274" operator="lessThan">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P36">
-    <cfRule type="cellIs" dxfId="1" priority="278" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="279" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P37">
-    <cfRule type="cellIs" dxfId="1" priority="283" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="284" operator="lessThan">
-      <formula>H37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P39">
-    <cfRule type="cellIs" dxfId="1" priority="288" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="289" operator="lessThan">
-      <formula>H39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P40">
-    <cfRule type="cellIs" dxfId="1" priority="293" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="294" operator="lessThan">
       <formula>H40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13603,121 +13376,101 @@
       <formula>P15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q16">
+  <conditionalFormatting sqref="Q21">
     <cfRule type="cellIs" dxfId="1" priority="184" operator="greaterThan">
-      <formula>P16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q17">
+      <formula>P21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22">
     <cfRule type="cellIs" dxfId="1" priority="189" operator="greaterThan">
-      <formula>P17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q18">
+      <formula>P22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23">
     <cfRule type="cellIs" dxfId="1" priority="194" operator="greaterThan">
-      <formula>P18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
+      <formula>P23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24">
     <cfRule type="cellIs" dxfId="1" priority="199" operator="greaterThan">
-      <formula>P19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q21">
+      <formula>P24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25">
     <cfRule type="cellIs" dxfId="1" priority="204" operator="greaterThan">
-      <formula>P21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
+      <formula>P25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26">
     <cfRule type="cellIs" dxfId="1" priority="209" operator="greaterThan">
-      <formula>P22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
+      <formula>P26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27">
     <cfRule type="cellIs" dxfId="1" priority="214" operator="greaterThan">
-      <formula>P23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q24">
+      <formula>P27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28">
     <cfRule type="cellIs" dxfId="1" priority="219" operator="greaterThan">
-      <formula>P24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25">
+      <formula>P28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q29">
     <cfRule type="cellIs" dxfId="1" priority="224" operator="greaterThan">
-      <formula>P25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q26">
+      <formula>P29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q30">
     <cfRule type="cellIs" dxfId="1" priority="229" operator="greaterThan">
-      <formula>P26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q27">
+      <formula>P30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q31">
     <cfRule type="cellIs" dxfId="1" priority="234" operator="greaterThan">
-      <formula>P27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q28">
+      <formula>P31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q32">
     <cfRule type="cellIs" dxfId="1" priority="239" operator="greaterThan">
-      <formula>P28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q29">
+      <formula>P32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q33">
     <cfRule type="cellIs" dxfId="1" priority="244" operator="greaterThan">
-      <formula>P29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q30">
-    <cfRule type="cellIs" dxfId="1" priority="249" operator="greaterThan">
-      <formula>P30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q31">
-    <cfRule type="cellIs" dxfId="1" priority="254" operator="greaterThan">
-      <formula>P31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q32">
-    <cfRule type="cellIs" dxfId="1" priority="259" operator="greaterThan">
-      <formula>P32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q33">
-    <cfRule type="cellIs" dxfId="1" priority="264" operator="greaterThan">
       <formula>P33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="expression" dxfId="3" priority="269">
+    <cfRule type="expression" dxfId="3" priority="249">
       <formula>AND(Q34&gt;0,Q34&lt;2000)</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="250" operator="greaterThan">
+      <formula>P34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35">
+    <cfRule type="cellIs" dxfId="1" priority="255" operator="greaterThan">
+      <formula>P35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q36">
+    <cfRule type="cellIs" dxfId="1" priority="260" operator="greaterThan">
+      <formula>P36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q37">
+    <cfRule type="cellIs" dxfId="1" priority="265" operator="greaterThan">
+      <formula>P37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q39">
     <cfRule type="cellIs" dxfId="1" priority="270" operator="greaterThan">
-      <formula>P34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q35">
+      <formula>P39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q40">
     <cfRule type="cellIs" dxfId="1" priority="275" operator="greaterThan">
-      <formula>P35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q36">
-    <cfRule type="cellIs" dxfId="1" priority="280" operator="greaterThan">
-      <formula>P36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q37">
-    <cfRule type="cellIs" dxfId="1" priority="285" operator="greaterThan">
-      <formula>P37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q39">
-    <cfRule type="cellIs" dxfId="1" priority="290" operator="greaterThan">
-      <formula>P39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q40">
-    <cfRule type="cellIs" dxfId="1" priority="295" operator="greaterThan">
       <formula>P40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13766,118 +13519,98 @@
       <formula>I15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R16">
+  <conditionalFormatting sqref="R21">
     <cfRule type="cellIs" dxfId="4" priority="186" operator="lessThanOrEqual">
-      <formula>I16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22">
     <cfRule type="cellIs" dxfId="4" priority="191" operator="lessThanOrEqual">
-      <formula>I17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
     <cfRule type="cellIs" dxfId="4" priority="196" operator="lessThanOrEqual">
-      <formula>I18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24">
     <cfRule type="cellIs" dxfId="4" priority="201" operator="lessThanOrEqual">
-      <formula>I19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R21">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25">
     <cfRule type="cellIs" dxfId="4" priority="206" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26">
     <cfRule type="cellIs" dxfId="4" priority="211" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R23">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27">
     <cfRule type="cellIs" dxfId="4" priority="216" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R24">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R28">
     <cfRule type="cellIs" dxfId="4" priority="221" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R25">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29">
     <cfRule type="cellIs" dxfId="4" priority="226" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R26">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R30">
     <cfRule type="cellIs" dxfId="4" priority="231" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R27">
+      <formula>I30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31">
     <cfRule type="cellIs" dxfId="4" priority="236" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R28">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32">
     <cfRule type="cellIs" dxfId="4" priority="241" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R29">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R33">
     <cfRule type="cellIs" dxfId="4" priority="246" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R30">
-    <cfRule type="cellIs" dxfId="4" priority="251" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R31">
-    <cfRule type="cellIs" dxfId="4" priority="256" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R32">
-    <cfRule type="cellIs" dxfId="4" priority="261" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R33">
-    <cfRule type="cellIs" dxfId="4" priority="266" operator="lessThanOrEqual">
       <formula>I33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34">
+    <cfRule type="cellIs" dxfId="4" priority="252" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R35">
+    <cfRule type="cellIs" dxfId="4" priority="257" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R36">
+    <cfRule type="cellIs" dxfId="4" priority="262" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R37">
+    <cfRule type="cellIs" dxfId="4" priority="267" operator="lessThanOrEqual">
+      <formula>I37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R39">
     <cfRule type="cellIs" dxfId="4" priority="272" operator="lessThanOrEqual">
-      <formula>I34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R35">
+      <formula>I39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R40">
     <cfRule type="cellIs" dxfId="4" priority="277" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R36">
-    <cfRule type="cellIs" dxfId="4" priority="282" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R37">
-    <cfRule type="cellIs" dxfId="4" priority="287" operator="lessThanOrEqual">
-      <formula>I37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R39">
-    <cfRule type="cellIs" dxfId="4" priority="292" operator="lessThanOrEqual">
-      <formula>I39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R40">
-    <cfRule type="cellIs" dxfId="4" priority="297" operator="lessThanOrEqual">
       <formula>I40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13926,118 +13659,98 @@
       <formula>J15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S16">
+  <conditionalFormatting sqref="S21">
     <cfRule type="cellIs" dxfId="4" priority="185" operator="lessThanOrEqual">
-      <formula>J16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S17">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22">
     <cfRule type="cellIs" dxfId="4" priority="190" operator="lessThanOrEqual">
-      <formula>J17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S18">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23">
     <cfRule type="cellIs" dxfId="4" priority="195" operator="lessThanOrEqual">
-      <formula>J18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S19">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24">
     <cfRule type="cellIs" dxfId="4" priority="200" operator="lessThanOrEqual">
-      <formula>J19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S21">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25">
     <cfRule type="cellIs" dxfId="4" priority="205" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S22">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26">
     <cfRule type="cellIs" dxfId="4" priority="210" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S23">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27">
     <cfRule type="cellIs" dxfId="4" priority="215" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S24">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S28">
     <cfRule type="cellIs" dxfId="4" priority="220" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S29">
     <cfRule type="cellIs" dxfId="4" priority="225" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30">
     <cfRule type="cellIs" dxfId="4" priority="230" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27">
+      <formula>J30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S31">
     <cfRule type="cellIs" dxfId="4" priority="235" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S28">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32">
     <cfRule type="cellIs" dxfId="4" priority="240" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S33">
     <cfRule type="cellIs" dxfId="4" priority="245" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S30">
-    <cfRule type="cellIs" dxfId="4" priority="250" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S31">
-    <cfRule type="cellIs" dxfId="4" priority="255" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S32">
-    <cfRule type="cellIs" dxfId="4" priority="260" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S33">
-    <cfRule type="cellIs" dxfId="4" priority="265" operator="lessThanOrEqual">
       <formula>J33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34">
+    <cfRule type="cellIs" dxfId="4" priority="251" operator="lessThanOrEqual">
+      <formula>J34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S35">
+    <cfRule type="cellIs" dxfId="4" priority="256" operator="lessThanOrEqual">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36">
+    <cfRule type="cellIs" dxfId="4" priority="261" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S37">
+    <cfRule type="cellIs" dxfId="4" priority="266" operator="lessThanOrEqual">
+      <formula>J37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S39">
     <cfRule type="cellIs" dxfId="4" priority="271" operator="lessThanOrEqual">
-      <formula>J34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S35">
+      <formula>J39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S40">
     <cfRule type="cellIs" dxfId="4" priority="276" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S36">
-    <cfRule type="cellIs" dxfId="4" priority="281" operator="lessThanOrEqual">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S37">
-    <cfRule type="cellIs" dxfId="4" priority="286" operator="lessThanOrEqual">
-      <formula>J37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S39">
-    <cfRule type="cellIs" dxfId="4" priority="291" operator="lessThanOrEqual">
-      <formula>J39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S40">
-    <cfRule type="cellIs" dxfId="4" priority="296" operator="lessThanOrEqual">
       <formula>J40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14057,738 +13770,738 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="1" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="296" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="317" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="297" operator="lessThan">
       <formula>H10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="1" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="302" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="323" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="303" operator="lessThan">
       <formula>H11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="cellIs" dxfId="1" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="308" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="329" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="309" operator="lessThan">
       <formula>H12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13">
-    <cfRule type="cellIs" dxfId="1" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="314" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="335" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="315" operator="lessThan">
       <formula>H13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14">
-    <cfRule type="cellIs" dxfId="1" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="320" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="341" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="321" operator="lessThan">
       <formula>H14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15">
-    <cfRule type="cellIs" dxfId="1" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="326" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="347" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="327" operator="lessThan">
       <formula>H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U21">
-    <cfRule type="cellIs" dxfId="1" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="331" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="352" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="332" operator="lessThan">
       <formula>H21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22">
-    <cfRule type="cellIs" dxfId="1" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="337" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="358" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="338" operator="lessThan">
       <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U23">
-    <cfRule type="cellIs" dxfId="1" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="343" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="364" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="344" operator="lessThan">
       <formula>H23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U24">
-    <cfRule type="cellIs" dxfId="1" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="349" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="370" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="350" operator="lessThan">
       <formula>H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25">
-    <cfRule type="cellIs" dxfId="1" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="355" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="376" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="356" operator="lessThan">
       <formula>H25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U26">
-    <cfRule type="cellIs" dxfId="1" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="361" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="382" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="362" operator="lessThan">
       <formula>H26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="1" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="367" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="388" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="368" operator="lessThan">
       <formula>H27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="1" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="373" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="394" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="374" operator="lessThan">
       <formula>H28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="1" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="379" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="400" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="380" operator="lessThan">
       <formula>H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U30">
-    <cfRule type="cellIs" dxfId="1" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="385" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="406" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="386" operator="lessThan">
       <formula>H30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31">
-    <cfRule type="cellIs" dxfId="1" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="391" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="412" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="392" operator="lessThan">
       <formula>H31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32">
-    <cfRule type="cellIs" dxfId="1" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="397" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="418" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="398" operator="lessThan">
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U33">
-    <cfRule type="cellIs" dxfId="1" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="402" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="423" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="403" operator="lessThan">
       <formula>H33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U35">
-    <cfRule type="cellIs" dxfId="1" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="408" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="429" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="409" operator="lessThan">
       <formula>H35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U36">
-    <cfRule type="cellIs" dxfId="1" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="413" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="434" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="414" operator="lessThan">
       <formula>H36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U37">
-    <cfRule type="cellIs" dxfId="1" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="419" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="440" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="420" operator="lessThan">
       <formula>H37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U40">
-    <cfRule type="cellIs" dxfId="1" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="424" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="445" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="425" operator="lessThan">
       <formula>H40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="cellIs" dxfId="1" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="278" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="299" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="279" operator="lessThan">
       <formula>H7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="cellIs" dxfId="1" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="284" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="305" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="285" operator="lessThan">
       <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="cellIs" dxfId="1" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="290" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="311" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="291" operator="lessThan">
       <formula>H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="expression" dxfId="3" priority="318">
+    <cfRule type="expression" dxfId="3" priority="298">
       <formula>AND(V10&gt;0,V10&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="319" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="299" operator="greaterThan">
       <formula>U10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="expression" dxfId="3" priority="324">
+    <cfRule type="expression" dxfId="3" priority="304">
       <formula>AND(V11&gt;0,V11&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="325" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="305" operator="greaterThan">
       <formula>U11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="3" priority="330">
+    <cfRule type="expression" dxfId="3" priority="310">
       <formula>AND(V12&gt;0,V12&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="331" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="311" operator="greaterThan">
       <formula>U12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13">
-    <cfRule type="expression" dxfId="3" priority="336">
+    <cfRule type="expression" dxfId="3" priority="316">
       <formula>AND(V13&gt;0,V13&lt;10000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="337" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="317" operator="greaterThan">
       <formula>U13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="expression" dxfId="3" priority="342">
+    <cfRule type="expression" dxfId="3" priority="322">
       <formula>AND(V14&gt;0,V14&lt;4000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="343" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="323" operator="greaterThan">
       <formula>U14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="cellIs" dxfId="1" priority="348" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="328" operator="greaterThan">
       <formula>U15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="expression" dxfId="3" priority="353">
+    <cfRule type="expression" dxfId="3" priority="333">
       <formula>AND(V21&gt;0,V21&lt;30000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="354" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="334" operator="greaterThan">
       <formula>U21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="expression" dxfId="3" priority="359">
+    <cfRule type="expression" dxfId="3" priority="339">
       <formula>AND(V22&gt;0,V22&lt;30000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="360" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="340" operator="greaterThan">
       <formula>U22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="expression" dxfId="3" priority="365">
+    <cfRule type="expression" dxfId="3" priority="345">
       <formula>AND(V23&gt;0,V23&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="366" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="346" operator="greaterThan">
       <formula>U23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="expression" dxfId="3" priority="371">
+    <cfRule type="expression" dxfId="3" priority="351">
       <formula>AND(V24&gt;0,V24&lt;30000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="372" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="352" operator="greaterThan">
       <formula>U24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25">
-    <cfRule type="expression" dxfId="3" priority="377">
+    <cfRule type="expression" dxfId="3" priority="357">
       <formula>AND(V25&gt;0,V25&lt;30000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="378" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="358" operator="greaterThan">
       <formula>U25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V26">
-    <cfRule type="expression" dxfId="3" priority="383">
+    <cfRule type="expression" dxfId="3" priority="363">
       <formula>AND(V26&gt;0,V26&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="384" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="364" operator="greaterThan">
       <formula>U26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V27">
-    <cfRule type="expression" dxfId="3" priority="389">
+    <cfRule type="expression" dxfId="3" priority="369">
       <formula>AND(V27&gt;0,V27&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="390" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="370" operator="greaterThan">
       <formula>U27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V28">
-    <cfRule type="expression" dxfId="3" priority="395">
+    <cfRule type="expression" dxfId="3" priority="375">
       <formula>AND(V28&gt;0,V28&lt;30000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="396" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="376" operator="greaterThan">
       <formula>U28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29">
-    <cfRule type="expression" dxfId="3" priority="401">
+    <cfRule type="expression" dxfId="3" priority="381">
       <formula>AND(V29&gt;0,V29&lt;30000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="402" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="382" operator="greaterThan">
       <formula>U29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V30">
-    <cfRule type="expression" dxfId="3" priority="407">
+    <cfRule type="expression" dxfId="3" priority="387">
       <formula>AND(V30&gt;0,V30&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="408" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="388" operator="greaterThan">
       <formula>U30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V31">
-    <cfRule type="expression" dxfId="3" priority="413">
+    <cfRule type="expression" dxfId="3" priority="393">
       <formula>AND(V31&gt;0,V31&lt;5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="414" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="394" operator="greaterThan">
       <formula>U31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V32">
-    <cfRule type="cellIs" dxfId="1" priority="419" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="399" operator="greaterThan">
       <formula>U32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V33">
-    <cfRule type="expression" dxfId="3" priority="424">
+    <cfRule type="expression" dxfId="3" priority="404">
       <formula>AND(V33&gt;0,V33&lt;5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="425" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="405" operator="greaterThan">
       <formula>U33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="1" priority="430" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="410" operator="greaterThan">
       <formula>U35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36">
-    <cfRule type="expression" dxfId="3" priority="435">
+    <cfRule type="expression" dxfId="3" priority="415">
       <formula>AND(V36&gt;0,V36&lt;5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="436" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="416" operator="greaterThan">
       <formula>U36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V37">
-    <cfRule type="cellIs" dxfId="1" priority="441" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="421" operator="greaterThan">
       <formula>U37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V40">
-    <cfRule type="expression" dxfId="3" priority="446">
+    <cfRule type="expression" dxfId="3" priority="426">
       <formula>AND(V40&gt;0,V40&lt;5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="447" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="427" operator="greaterThan">
       <formula>U40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="expression" dxfId="3" priority="300">
+    <cfRule type="expression" dxfId="3" priority="280">
       <formula>AND(V7&gt;0,V7&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="301" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="281" operator="greaterThan">
       <formula>U7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8">
-    <cfRule type="expression" dxfId="3" priority="306">
+    <cfRule type="expression" dxfId="3" priority="286">
       <formula>AND(V8&gt;0,V8&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="307" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="287" operator="greaterThan">
       <formula>U8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="expression" dxfId="3" priority="312">
+    <cfRule type="expression" dxfId="3" priority="292">
       <formula>AND(V9&gt;0,V9&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="313" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="293" operator="greaterThan">
       <formula>U9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="cellIs" dxfId="4" priority="321" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="301" operator="lessThanOrEqual">
       <formula>I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
-    <cfRule type="cellIs" dxfId="4" priority="327" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="307" operator="lessThanOrEqual">
       <formula>I11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="cellIs" dxfId="4" priority="333" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="313" operator="lessThanOrEqual">
       <formula>I12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="cellIs" dxfId="4" priority="339" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="319" operator="lessThanOrEqual">
       <formula>I13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14">
-    <cfRule type="cellIs" dxfId="4" priority="345" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="325" operator="lessThanOrEqual">
       <formula>I14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="4" priority="350" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="330" operator="lessThanOrEqual">
       <formula>I15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21">
-    <cfRule type="cellIs" dxfId="4" priority="356" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="336" operator="lessThanOrEqual">
       <formula>I21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W22">
-    <cfRule type="cellIs" dxfId="4" priority="362" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="342" operator="lessThanOrEqual">
       <formula>I22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="cellIs" dxfId="4" priority="368" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="348" operator="lessThanOrEqual">
       <formula>I23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24">
-    <cfRule type="cellIs" dxfId="4" priority="374" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="354" operator="lessThanOrEqual">
       <formula>I24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="cellIs" dxfId="4" priority="380" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="360" operator="lessThanOrEqual">
       <formula>I25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="cellIs" dxfId="4" priority="386" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="366" operator="lessThanOrEqual">
       <formula>I26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W27">
-    <cfRule type="cellIs" dxfId="4" priority="392" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="372" operator="lessThanOrEqual">
       <formula>I27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W28">
-    <cfRule type="cellIs" dxfId="4" priority="398" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="378" operator="lessThanOrEqual">
       <formula>I28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29">
-    <cfRule type="cellIs" dxfId="4" priority="404" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="384" operator="lessThanOrEqual">
       <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30">
-    <cfRule type="cellIs" dxfId="4" priority="410" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="390" operator="lessThanOrEqual">
       <formula>I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31">
-    <cfRule type="cellIs" dxfId="4" priority="416" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="396" operator="lessThanOrEqual">
       <formula>I31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" dxfId="4" priority="421" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="401" operator="lessThanOrEqual">
       <formula>I32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W33">
-    <cfRule type="cellIs" dxfId="4" priority="427" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="407" operator="lessThanOrEqual">
       <formula>I33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="cellIs" dxfId="4" priority="432" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="412" operator="lessThanOrEqual">
       <formula>I35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36">
-    <cfRule type="cellIs" dxfId="4" priority="438" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="418" operator="lessThanOrEqual">
       <formula>I36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W37">
-    <cfRule type="cellIs" dxfId="4" priority="443" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="423" operator="lessThanOrEqual">
       <formula>I37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W40">
-    <cfRule type="cellIs" dxfId="4" priority="449" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="429" operator="lessThanOrEqual">
       <formula>I40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7">
-    <cfRule type="cellIs" dxfId="4" priority="303" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="283" operator="lessThanOrEqual">
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8">
-    <cfRule type="cellIs" dxfId="4" priority="309" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="289" operator="lessThanOrEqual">
       <formula>I8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9">
-    <cfRule type="cellIs" dxfId="4" priority="315" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="295" operator="lessThanOrEqual">
       <formula>I9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10">
-    <cfRule type="cellIs" dxfId="4" priority="320" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="300" operator="lessThanOrEqual">
       <formula>J10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="cellIs" dxfId="4" priority="326" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="306" operator="lessThanOrEqual">
       <formula>J11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="cellIs" dxfId="4" priority="332" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="312" operator="lessThanOrEqual">
       <formula>J12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13">
-    <cfRule type="cellIs" dxfId="4" priority="338" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="318" operator="lessThanOrEqual">
       <formula>J13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="cellIs" dxfId="4" priority="344" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="324" operator="lessThanOrEqual">
       <formula>J14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="4" priority="349" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="329" operator="lessThanOrEqual">
       <formula>J15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21">
-    <cfRule type="cellIs" dxfId="4" priority="355" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="335" operator="lessThanOrEqual">
       <formula>J21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22">
-    <cfRule type="cellIs" dxfId="4" priority="361" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="341" operator="lessThanOrEqual">
       <formula>J22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23">
-    <cfRule type="cellIs" dxfId="4" priority="367" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="347" operator="lessThanOrEqual">
       <formula>J23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="4" priority="373" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="353" operator="lessThanOrEqual">
       <formula>J24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25">
-    <cfRule type="cellIs" dxfId="4" priority="379" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="359" operator="lessThanOrEqual">
       <formula>J25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26">
-    <cfRule type="cellIs" dxfId="4" priority="385" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="365" operator="lessThanOrEqual">
       <formula>J26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27">
-    <cfRule type="cellIs" dxfId="4" priority="391" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="371" operator="lessThanOrEqual">
       <formula>J27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="4" priority="397" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="377" operator="lessThanOrEqual">
       <formula>J28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X29">
-    <cfRule type="cellIs" dxfId="4" priority="403" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="383" operator="lessThanOrEqual">
       <formula>J29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X30">
-    <cfRule type="cellIs" dxfId="4" priority="409" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="389" operator="lessThanOrEqual">
       <formula>J30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X31">
-    <cfRule type="cellIs" dxfId="4" priority="415" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="395" operator="lessThanOrEqual">
       <formula>J31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="4" priority="420" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="400" operator="lessThanOrEqual">
       <formula>J32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X33">
-    <cfRule type="cellIs" dxfId="4" priority="426" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="406" operator="lessThanOrEqual">
       <formula>J33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X35">
-    <cfRule type="cellIs" dxfId="4" priority="431" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="411" operator="lessThanOrEqual">
       <formula>J35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36">
-    <cfRule type="cellIs" dxfId="4" priority="437" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="417" operator="lessThanOrEqual">
       <formula>J36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X37">
-    <cfRule type="cellIs" dxfId="4" priority="442" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="422" operator="lessThanOrEqual">
       <formula>J37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X40">
-    <cfRule type="cellIs" dxfId="4" priority="448" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="428" operator="lessThanOrEqual">
       <formula>J40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7">
-    <cfRule type="cellIs" dxfId="4" priority="302" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="282" operator="lessThanOrEqual">
       <formula>J7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8">
-    <cfRule type="cellIs" dxfId="4" priority="308" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="288" operator="lessThanOrEqual">
       <formula>J8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X9">
-    <cfRule type="cellIs" dxfId="4" priority="314" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="294" operator="lessThanOrEqual">
       <formula>J9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="cellIs" dxfId="1" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="436" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="457" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="437" operator="lessThan">
       <formula>H11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z12">
-    <cfRule type="cellIs" dxfId="1" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="442" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="463" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="443" operator="lessThan">
       <formula>H12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z20">
-    <cfRule type="cellIs" dxfId="1" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="448" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="469" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="449" operator="lessThan">
       <formula>H20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22">
-    <cfRule type="cellIs" dxfId="1" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="453" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="474" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="454" operator="lessThan">
       <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z27">
-    <cfRule type="cellIs" dxfId="1" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="459" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="480" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="460" operator="lessThan">
       <formula>H27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z29">
-    <cfRule type="cellIs" dxfId="1" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="465" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="486" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="466" operator="lessThan">
       <formula>H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z30">
-    <cfRule type="cellIs" dxfId="1" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="471" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="492" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="472" operator="lessThan">
       <formula>H30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z34">
-    <cfRule type="cellIs" dxfId="1" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="476" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="497" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="477" operator="lessThan">
       <formula>H34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8">
-    <cfRule type="cellIs" dxfId="1" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="430" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="451" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="431" operator="lessThan">
       <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14845,135 +14558,127 @@
     <hyperlink ref="AI15" r:id="rId50"/>
     <hyperlink ref="AN15" r:id="rId51"/>
     <hyperlink ref="AX15" r:id="rId52"/>
-    <hyperlink ref="G16" r:id="rId53"/>
-    <hyperlink ref="T16" r:id="rId54"/>
-    <hyperlink ref="G17" r:id="rId55"/>
-    <hyperlink ref="T17" r:id="rId56"/>
-    <hyperlink ref="G18" r:id="rId57"/>
-    <hyperlink ref="T18" r:id="rId58"/>
-    <hyperlink ref="G19" r:id="rId59"/>
-    <hyperlink ref="T19" r:id="rId60"/>
-    <hyperlink ref="G20" r:id="rId61"/>
-    <hyperlink ref="AD20" r:id="rId62"/>
-    <hyperlink ref="G21" r:id="rId63"/>
-    <hyperlink ref="T21" r:id="rId64"/>
-    <hyperlink ref="Y21" r:id="rId65"/>
-    <hyperlink ref="AI21" r:id="rId66"/>
-    <hyperlink ref="AN21" r:id="rId67"/>
-    <hyperlink ref="AS21" r:id="rId68"/>
-    <hyperlink ref="G22" r:id="rId69"/>
-    <hyperlink ref="T22" r:id="rId70"/>
-    <hyperlink ref="Y22" r:id="rId71"/>
-    <hyperlink ref="AD22" r:id="rId72"/>
-    <hyperlink ref="AI22" r:id="rId73"/>
-    <hyperlink ref="AN22" r:id="rId74"/>
-    <hyperlink ref="AS22" r:id="rId75"/>
-    <hyperlink ref="G23" r:id="rId76"/>
-    <hyperlink ref="T23" r:id="rId77"/>
-    <hyperlink ref="Y23" r:id="rId78"/>
-    <hyperlink ref="AI23" r:id="rId79"/>
-    <hyperlink ref="AN23" r:id="rId80"/>
-    <hyperlink ref="AS23" r:id="rId81"/>
-    <hyperlink ref="G24" r:id="rId82"/>
-    <hyperlink ref="T24" r:id="rId83"/>
-    <hyperlink ref="Y24" r:id="rId84"/>
-    <hyperlink ref="AI24" r:id="rId85"/>
-    <hyperlink ref="AN24" r:id="rId86"/>
-    <hyperlink ref="G25" r:id="rId87"/>
-    <hyperlink ref="T25" r:id="rId88"/>
-    <hyperlink ref="Y25" r:id="rId89"/>
-    <hyperlink ref="AI25" r:id="rId90"/>
-    <hyperlink ref="AN25" r:id="rId91"/>
-    <hyperlink ref="AS25" r:id="rId92"/>
-    <hyperlink ref="G26" r:id="rId93"/>
-    <hyperlink ref="T26" r:id="rId94"/>
-    <hyperlink ref="Y26" r:id="rId95"/>
-    <hyperlink ref="AI26" r:id="rId96"/>
-    <hyperlink ref="AN26" r:id="rId97"/>
-    <hyperlink ref="G27" r:id="rId98"/>
-    <hyperlink ref="T27" r:id="rId99"/>
-    <hyperlink ref="Y27" r:id="rId100"/>
-    <hyperlink ref="AD27" r:id="rId101"/>
-    <hyperlink ref="AI27" r:id="rId102"/>
-    <hyperlink ref="AN27" r:id="rId103"/>
-    <hyperlink ref="AS27" r:id="rId104"/>
-    <hyperlink ref="G28" r:id="rId105"/>
-    <hyperlink ref="T28" r:id="rId106"/>
-    <hyperlink ref="Y28" r:id="rId107"/>
-    <hyperlink ref="AI28" r:id="rId108"/>
-    <hyperlink ref="AN28" r:id="rId109"/>
-    <hyperlink ref="G29" r:id="rId110"/>
-    <hyperlink ref="T29" r:id="rId111"/>
-    <hyperlink ref="Y29" r:id="rId112"/>
-    <hyperlink ref="AD29" r:id="rId113"/>
-    <hyperlink ref="AI29" r:id="rId114"/>
-    <hyperlink ref="AN29" r:id="rId115"/>
-    <hyperlink ref="AS29" r:id="rId116"/>
-    <hyperlink ref="G30" r:id="rId117"/>
-    <hyperlink ref="T30" r:id="rId118"/>
-    <hyperlink ref="Y30" r:id="rId119"/>
-    <hyperlink ref="AD30" r:id="rId120"/>
-    <hyperlink ref="AI30" r:id="rId121"/>
-    <hyperlink ref="AN30" r:id="rId122"/>
-    <hyperlink ref="AX30" r:id="rId123"/>
-    <hyperlink ref="G31" r:id="rId124"/>
-    <hyperlink ref="T31" r:id="rId125"/>
-    <hyperlink ref="Y31" r:id="rId126"/>
-    <hyperlink ref="AI31" r:id="rId127"/>
-    <hyperlink ref="AN31" r:id="rId128"/>
-    <hyperlink ref="AS31" r:id="rId129"/>
-    <hyperlink ref="G32" r:id="rId130"/>
-    <hyperlink ref="T32" r:id="rId131"/>
-    <hyperlink ref="Y32" r:id="rId132"/>
-    <hyperlink ref="AI32" r:id="rId133"/>
-    <hyperlink ref="AN32" r:id="rId134"/>
-    <hyperlink ref="G33" r:id="rId135"/>
-    <hyperlink ref="T33" r:id="rId136"/>
-    <hyperlink ref="Y33" r:id="rId137"/>
-    <hyperlink ref="AI33" r:id="rId138"/>
-    <hyperlink ref="AN33" r:id="rId139"/>
-    <hyperlink ref="AS33" r:id="rId140"/>
-    <hyperlink ref="G34" r:id="rId141"/>
-    <hyperlink ref="T34" r:id="rId142"/>
-    <hyperlink ref="AD34" r:id="rId143"/>
-    <hyperlink ref="AI34" r:id="rId144"/>
-    <hyperlink ref="G35" r:id="rId145"/>
-    <hyperlink ref="T35" r:id="rId146"/>
-    <hyperlink ref="Y35" r:id="rId147"/>
-    <hyperlink ref="AI35" r:id="rId148"/>
-    <hyperlink ref="AN35" r:id="rId149"/>
-    <hyperlink ref="G36" r:id="rId150"/>
-    <hyperlink ref="T36" r:id="rId151"/>
-    <hyperlink ref="Y36" r:id="rId152"/>
-    <hyperlink ref="AI36" r:id="rId153"/>
-    <hyperlink ref="AN36" r:id="rId154"/>
-    <hyperlink ref="AS36" r:id="rId155"/>
-    <hyperlink ref="AX36" r:id="rId156"/>
-    <hyperlink ref="G37" r:id="rId157"/>
-    <hyperlink ref="T37" r:id="rId158"/>
-    <hyperlink ref="Y37" r:id="rId159"/>
-    <hyperlink ref="AI37" r:id="rId160"/>
-    <hyperlink ref="AN37" r:id="rId161"/>
-    <hyperlink ref="AS37" r:id="rId162"/>
-    <hyperlink ref="AX37" r:id="rId163"/>
-    <hyperlink ref="G38" r:id="rId164"/>
-    <hyperlink ref="G39" r:id="rId165"/>
-    <hyperlink ref="T39" r:id="rId166"/>
-    <hyperlink ref="G40" r:id="rId167"/>
-    <hyperlink ref="T40" r:id="rId168"/>
-    <hyperlink ref="Y40" r:id="rId169"/>
-    <hyperlink ref="AI40" r:id="rId170"/>
-    <hyperlink ref="AN40" r:id="rId171"/>
-    <hyperlink ref="K42" r:id="rId172"/>
-    <hyperlink ref="P42" r:id="rId173"/>
-    <hyperlink ref="U42" r:id="rId174"/>
-    <hyperlink ref="Z42" r:id="rId175"/>
-    <hyperlink ref="AE42" r:id="rId176"/>
-    <hyperlink ref="AJ42" r:id="rId177"/>
-    <hyperlink ref="AO42" r:id="rId178"/>
-    <hyperlink ref="AT42" r:id="rId179"/>
+    <hyperlink ref="G20" r:id="rId53"/>
+    <hyperlink ref="AD20" r:id="rId54"/>
+    <hyperlink ref="G21" r:id="rId55"/>
+    <hyperlink ref="T21" r:id="rId56"/>
+    <hyperlink ref="Y21" r:id="rId57"/>
+    <hyperlink ref="AI21" r:id="rId58"/>
+    <hyperlink ref="AN21" r:id="rId59"/>
+    <hyperlink ref="AS21" r:id="rId60"/>
+    <hyperlink ref="G22" r:id="rId61"/>
+    <hyperlink ref="T22" r:id="rId62"/>
+    <hyperlink ref="Y22" r:id="rId63"/>
+    <hyperlink ref="AD22" r:id="rId64"/>
+    <hyperlink ref="AI22" r:id="rId65"/>
+    <hyperlink ref="AN22" r:id="rId66"/>
+    <hyperlink ref="AS22" r:id="rId67"/>
+    <hyperlink ref="G23" r:id="rId68"/>
+    <hyperlink ref="T23" r:id="rId69"/>
+    <hyperlink ref="Y23" r:id="rId70"/>
+    <hyperlink ref="AI23" r:id="rId71"/>
+    <hyperlink ref="AN23" r:id="rId72"/>
+    <hyperlink ref="AS23" r:id="rId73"/>
+    <hyperlink ref="G24" r:id="rId74"/>
+    <hyperlink ref="T24" r:id="rId75"/>
+    <hyperlink ref="Y24" r:id="rId76"/>
+    <hyperlink ref="AI24" r:id="rId77"/>
+    <hyperlink ref="AN24" r:id="rId78"/>
+    <hyperlink ref="G25" r:id="rId79"/>
+    <hyperlink ref="T25" r:id="rId80"/>
+    <hyperlink ref="Y25" r:id="rId81"/>
+    <hyperlink ref="AI25" r:id="rId82"/>
+    <hyperlink ref="AN25" r:id="rId83"/>
+    <hyperlink ref="AS25" r:id="rId84"/>
+    <hyperlink ref="G26" r:id="rId85"/>
+    <hyperlink ref="T26" r:id="rId86"/>
+    <hyperlink ref="Y26" r:id="rId87"/>
+    <hyperlink ref="AI26" r:id="rId88"/>
+    <hyperlink ref="AN26" r:id="rId89"/>
+    <hyperlink ref="G27" r:id="rId90"/>
+    <hyperlink ref="T27" r:id="rId91"/>
+    <hyperlink ref="Y27" r:id="rId92"/>
+    <hyperlink ref="AD27" r:id="rId93"/>
+    <hyperlink ref="AI27" r:id="rId94"/>
+    <hyperlink ref="AN27" r:id="rId95"/>
+    <hyperlink ref="AS27" r:id="rId96"/>
+    <hyperlink ref="G28" r:id="rId97"/>
+    <hyperlink ref="T28" r:id="rId98"/>
+    <hyperlink ref="Y28" r:id="rId99"/>
+    <hyperlink ref="AI28" r:id="rId100"/>
+    <hyperlink ref="AN28" r:id="rId101"/>
+    <hyperlink ref="G29" r:id="rId102"/>
+    <hyperlink ref="T29" r:id="rId103"/>
+    <hyperlink ref="Y29" r:id="rId104"/>
+    <hyperlink ref="AD29" r:id="rId105"/>
+    <hyperlink ref="AI29" r:id="rId106"/>
+    <hyperlink ref="AN29" r:id="rId107"/>
+    <hyperlink ref="AS29" r:id="rId108"/>
+    <hyperlink ref="G30" r:id="rId109"/>
+    <hyperlink ref="T30" r:id="rId110"/>
+    <hyperlink ref="Y30" r:id="rId111"/>
+    <hyperlink ref="AD30" r:id="rId112"/>
+    <hyperlink ref="AI30" r:id="rId113"/>
+    <hyperlink ref="AN30" r:id="rId114"/>
+    <hyperlink ref="AX30" r:id="rId115"/>
+    <hyperlink ref="G31" r:id="rId116"/>
+    <hyperlink ref="T31" r:id="rId117"/>
+    <hyperlink ref="Y31" r:id="rId118"/>
+    <hyperlink ref="AI31" r:id="rId119"/>
+    <hyperlink ref="AN31" r:id="rId120"/>
+    <hyperlink ref="AS31" r:id="rId121"/>
+    <hyperlink ref="G32" r:id="rId122"/>
+    <hyperlink ref="T32" r:id="rId123"/>
+    <hyperlink ref="Y32" r:id="rId124"/>
+    <hyperlink ref="AI32" r:id="rId125"/>
+    <hyperlink ref="AN32" r:id="rId126"/>
+    <hyperlink ref="G33" r:id="rId127"/>
+    <hyperlink ref="T33" r:id="rId128"/>
+    <hyperlink ref="Y33" r:id="rId129"/>
+    <hyperlink ref="AI33" r:id="rId130"/>
+    <hyperlink ref="AN33" r:id="rId131"/>
+    <hyperlink ref="AS33" r:id="rId132"/>
+    <hyperlink ref="G34" r:id="rId133"/>
+    <hyperlink ref="T34" r:id="rId134"/>
+    <hyperlink ref="AD34" r:id="rId135"/>
+    <hyperlink ref="AI34" r:id="rId136"/>
+    <hyperlink ref="G35" r:id="rId137"/>
+    <hyperlink ref="T35" r:id="rId138"/>
+    <hyperlink ref="Y35" r:id="rId139"/>
+    <hyperlink ref="AI35" r:id="rId140"/>
+    <hyperlink ref="AN35" r:id="rId141"/>
+    <hyperlink ref="G36" r:id="rId142"/>
+    <hyperlink ref="T36" r:id="rId143"/>
+    <hyperlink ref="Y36" r:id="rId144"/>
+    <hyperlink ref="AI36" r:id="rId145"/>
+    <hyperlink ref="AN36" r:id="rId146"/>
+    <hyperlink ref="AS36" r:id="rId147"/>
+    <hyperlink ref="AX36" r:id="rId148"/>
+    <hyperlink ref="G37" r:id="rId149"/>
+    <hyperlink ref="T37" r:id="rId150"/>
+    <hyperlink ref="Y37" r:id="rId151"/>
+    <hyperlink ref="AI37" r:id="rId152"/>
+    <hyperlink ref="AN37" r:id="rId153"/>
+    <hyperlink ref="AS37" r:id="rId154"/>
+    <hyperlink ref="AX37" r:id="rId155"/>
+    <hyperlink ref="G38" r:id="rId156"/>
+    <hyperlink ref="G39" r:id="rId157"/>
+    <hyperlink ref="T39" r:id="rId158"/>
+    <hyperlink ref="G40" r:id="rId159"/>
+    <hyperlink ref="T40" r:id="rId160"/>
+    <hyperlink ref="Y40" r:id="rId161"/>
+    <hyperlink ref="AI40" r:id="rId162"/>
+    <hyperlink ref="AN40" r:id="rId163"/>
+    <hyperlink ref="K42" r:id="rId164"/>
+    <hyperlink ref="P42" r:id="rId165"/>
+    <hyperlink ref="U42" r:id="rId166"/>
+    <hyperlink ref="Z42" r:id="rId167"/>
+    <hyperlink ref="AE42" r:id="rId168"/>
+    <hyperlink ref="AJ42" r:id="rId169"/>
+    <hyperlink ref="AO42" r:id="rId170"/>
+    <hyperlink ref="AT42" r:id="rId171"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId180"/>
+  <legacyDrawing r:id="rId172"/>
 </worksheet>
 </file>
--- a/documentation/reDIP-SID-BOM.xlsx
+++ b/documentation/reDIP-SID-BOM.xlsx
@@ -3060,11 +3060,11 @@
     25   $0.20      $5.00
    100   $0.18     $18.19
    250   $0.17     $42.75
-   500   $0.16     $78.23
-  1000   $0.13    $130.99
-  2500   $0.13    $318.38
-  8500   $0.12  $1,020.59
- 17000   $0.11  $1,917.43</t>
+   500   $0.16     $78.22
+  1000   $0.13    $130.97
+  2500   $0.13    $318.32
+  8500   $0.12  $1,020.43
+ 17000   $0.11  $1,917.26</t>
         </r>
       </text>
     </comment>
@@ -3080,31 +3080,10 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    10   £0.16      £1.55
-    50   £0.15      £7.30
-   100   £0.13     £13.30
-   500   £0.12     £61.50</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $1.31      $1.31
-    10   $1.01     $10.07
-    30   $0.95     $28.53
-   100   $0.90     $89.52
-   500   $0.87    $435.20
-  1000   $0.86    $858.20</t>
+    10   £0.15      £1.51
+    50   £0.14      £7.15
+   100   £0.13     £13.00
+   500   £0.11     £56.00</t>
         </r>
       </text>
     </comment>
@@ -3122,10 +3101,10 @@
 ================
      1   $0.23      $0.23
     10   $0.22      $2.18
-    50   $0.20     $10.10
-   100   $0.18     $18.00
-  1000   $0.12    $123.00
- 10000   $0.12  $1,230.00</t>
+    50   $0.20     $10.05
+   100   $0.19     $18.90
+  1000   $0.15    $154.00
+ 10000   $0.15  $1,540.00</t>
         </r>
       </text>
     </comment>
@@ -3141,29 +3120,9 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.15      $0.15
-  8500   $0.16  $1,377.00
-100000   $0.14 $13,600.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AV30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (GBP):
-  Qty  -  Unit£  -  Ext£
-================
-     5   £0.17      £0.87
-   100   £0.14     £14.25
-  1000   £0.10     £96.10
-  3000   £0.08    £249.30
-  8500   £0.08    £691.90</t>
+     1   $0.16      $0.16
+  8500   $0.17  $1,462.00
+100000   $0.14 $14,400.00</t>
         </r>
       </text>
     </comment>
@@ -4324,7 +4283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="332">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -4452,9 +4411,9 @@
     <t>GRM033R60J224KE15D</t>
   </si>
   <si>
-    <t>C7,C18: 1.2V DC DERATED TO 0.1uF
+    <t>C8,C9,C15-C17,C19,C20,C22,C23: 3.3V DC DERATED TO 0.1uF
 C10: 1.65V DC VAG DERATED TO 0.1uF
-C8,C9,C15-C17,C19,C20,C22,C23: 3.3V DC DERATED TO 0.1uF</t>
+C7,C18: 1.2V DC DERATED TO 0.1uF</t>
   </si>
   <si>
     <t>D1,D2</t>
@@ -4679,7 +4638,7 @@
     <t>SW1</t>
   </si>
   <si>
-    <t>KXT331LHS</t>
+    <t>KXT311LHS</t>
   </si>
   <si>
     <t>SW TACT 3.0 x 2.0 mm</t>
@@ -4874,7 +4833,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>lø. 21. aug. 2021 kl. 09.36 +0200</t>
+    <t>lø. 21. aug. 2021 kl. 22.57 +0200</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -4889,7 +4848,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2021-08-21 09:36:50</t>
+    <t>2021-08-21 22:57:35</t>
   </si>
   <si>
     <t>Arrow</t>
@@ -4967,7 +4926,7 @@
     <t>P123220CT-ND</t>
   </si>
   <si>
-    <t>CKN10779CT-ND</t>
+    <t>CKN10777CT-ND</t>
   </si>
   <si>
     <t>NCP115AMX120TCGOSCT-ND</t>
@@ -5054,7 +5013,7 @@
     <t>3303148</t>
   </si>
   <si>
-    <t>3023200</t>
+    <t>3023197</t>
   </si>
   <si>
     <t>3010452</t>
@@ -5102,9 +5061,6 @@
     <t>C713500</t>
   </si>
   <si>
-    <t>C221822</t>
-  </si>
-  <si>
     <t>C2683750</t>
   </si>
   <si>
@@ -5165,7 +5121,7 @@
     <t>667ERJ1GNJ101C</t>
   </si>
   <si>
-    <t>611KXT331LHS</t>
+    <t>611KXT311LHS</t>
   </si>
   <si>
     <t>863NCP115AMX120TCG</t>
@@ -5249,7 +5205,7 @@
     <t>51W5773</t>
   </si>
   <si>
-    <t>35AH1369</t>
+    <t>35AH1367</t>
   </si>
   <si>
     <t>97AC7838</t>
@@ -5319,9 +5275,6 @@
   </si>
   <si>
     <t>SMLLX0201UPGCTR</t>
-  </si>
-  <si>
-    <t>KXT331</t>
   </si>
   <si>
     <t>MCP6H01TE/OT</t>
@@ -6123,28 +6076,28 @@
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AK5" s="13"/>
       <c r="AL5" s="13"/>
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
       <c r="AO5" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AP5" s="14"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="14"/>
       <c r="AS5" s="14"/>
       <c r="AT5" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AU5" s="15"/>
       <c r="AV5" s="15"/>
@@ -6377,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AJ7" s="17">
         <v>20</v>
@@ -6391,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="AN7" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -6482,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AJ8" s="17">
         <v>20</v>
@@ -6496,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:50">
@@ -6573,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AJ9" s="20" t="s">
         <v>196</v>
@@ -6587,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AO9" s="17">
         <v>60</v>
@@ -6601,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -6678,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AJ10" s="20" t="s">
         <v>196</v>
@@ -6692,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -6783,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AJ11" s="17">
         <v>80000</v>
@@ -6797,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -6888,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ12" s="17">
         <v>19878</v>
@@ -6902,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AO12" s="17">
         <v>7000</v>
@@ -6916,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -6990,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ13" s="20" t="s">
         <v>196</v>
@@ -7004,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -7078,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AJ14" s="17">
         <v>5</v>
@@ -7092,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AT14" s="17">
         <v>3427</v>
@@ -7106,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -7180,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ15" s="17">
         <v>3287</v>
@@ -7194,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AT15" s="17">
         <v>2779</v>
@@ -7208,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -7237,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:45">
       <c r="A17" s="17" t="s">
         <v>61</v>
       </c>
@@ -7263,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:45">
       <c r="A18" s="17" t="s">
         <v>65</v>
       </c>
@@ -7289,7 +7242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:45">
       <c r="A19" s="17" t="s">
         <v>69</v>
       </c>
@@ -7315,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:45">
       <c r="A20" s="17" t="s">
         <v>73</v>
       </c>
@@ -7364,7 +7317,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:45">
       <c r="A21" s="17" t="s">
         <v>79</v>
       </c>
@@ -7435,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ21" s="20" t="s">
         <v>196</v>
@@ -7449,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="AN21" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AO21" s="17">
         <v>38000</v>
@@ -7463,10 +7416,10 @@
         <v>0</v>
       </c>
       <c r="AS21" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:45">
       <c r="A22" s="17" t="s">
         <v>85</v>
       </c>
@@ -7551,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AJ22" s="20" t="s">
         <v>196</v>
@@ -7565,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="AN22" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AO22" s="17">
         <v>58000</v>
@@ -7579,10 +7532,10 @@
         <v>0</v>
       </c>
       <c r="AS22" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:45">
       <c r="A23" s="17" t="s">
         <v>89</v>
       </c>
@@ -7653,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AJ23" s="17">
         <v>90000</v>
@@ -7667,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="AN23" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AO23" s="17">
         <v>772637</v>
@@ -7681,10 +7634,10 @@
         <v>0</v>
       </c>
       <c r="AS23" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:45">
       <c r="A24" s="17" t="s">
         <v>93</v>
       </c>
@@ -7755,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AJ24" s="20" t="s">
         <v>196</v>
@@ -7769,10 +7722,10 @@
         <v>0</v>
       </c>
       <c r="AN24" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:45">
       <c r="A25" s="17" t="s">
         <v>97</v>
       </c>
@@ -7843,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AJ25" s="20" t="s">
         <v>196</v>
@@ -7857,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AO25" s="17">
         <v>28000</v>
@@ -7871,10 +7824,10 @@
         <v>0</v>
       </c>
       <c r="AS25" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:45">
       <c r="A26" s="17" t="s">
         <v>101</v>
       </c>
@@ -7945,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="AI26" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AJ26" s="17">
         <v>45000</v>
@@ -7959,10 +7912,10 @@
         <v>0</v>
       </c>
       <c r="AN26" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:45">
       <c r="A27" s="17" t="s">
         <v>105</v>
       </c>
@@ -8047,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="AI27" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AJ27" s="17">
         <v>120000</v>
@@ -8061,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AO27" s="17">
         <v>699000</v>
@@ -8075,10 +8028,10 @@
         <v>0</v>
       </c>
       <c r="AS27" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:45">
       <c r="A28" s="17" t="s">
         <v>108</v>
       </c>
@@ -8149,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AJ28" s="20" t="s">
         <v>196</v>
@@ -8163,10 +8116,10 @@
         <v>0</v>
       </c>
       <c r="AN28" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:45">
       <c r="A29" s="17" t="s">
         <v>112</v>
       </c>
@@ -8251,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AJ29" s="20" t="s">
         <v>196</v>
@@ -8265,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="AN29" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AO29" s="17">
         <v>37000</v>
@@ -8279,10 +8232,10 @@
         <v>0</v>
       </c>
       <c r="AS29" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:45">
       <c r="A30" s="17" t="s">
         <v>116</v>
       </c>
@@ -8314,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="17">
-        <v>94253</v>
+        <v>6438</v>
       </c>
       <c r="R30" s="18">
-        <f>iferror(lookup(if(Q30="",H30,Q30),{0,1,10,25,100,250,500,1000,2500,8500,17000},{0.0,0.22,0.211,0.2,0.1819,0.171,0.15646,0.13099,0.12735,0.12007,0.11279}),"")</f>
+        <f>iferror(lookup(if(Q30="",H30,Q30),{0,1,10,25,100,250,500,1000,2500,8500,17000},{0.0,0.22,0.211,0.2,0.1819,0.171,0.15644,0.13097,0.12733,0.12005,0.11278}),"")</f>
         <v>0</v>
       </c>
       <c r="S30" s="18">
@@ -8328,10 +8281,10 @@
         <v>213</v>
       </c>
       <c r="U30" s="17">
-        <v>4297</v>
+        <v>882</v>
       </c>
       <c r="W30" s="18">
-        <f>iferror(USD_GBP*lookup(if(V30="",H30,V30),{0,1,10,50,100,500},{0.0,0.155,0.155,0.146,0.133,0.123}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V30="",H30,V30),{0,1,10,50,100,500},{0.0,0.151,0.151,0.143,0.13,0.112}),"")</f>
         <v>0</v>
       </c>
       <c r="X30" s="18">
@@ -8341,25 +8294,11 @@
       <c r="Y30" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="Z30" s="17">
-        <v>16447</v>
-      </c>
-      <c r="AB30" s="18">
-        <f>iferror(lookup(if(AA30="",H30,AA30),{0,1,10,30,100,500,1000},{0.0,1.3101,1.0067,0.9509,0.8952,0.8704,0.8582}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="18">
-        <f>iferror(if(AA30="",H30,AA30)*AB30,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="19" t="s">
-        <v>258</v>
-      </c>
       <c r="AE30" s="17">
-        <v>5389</v>
+        <v>9735</v>
       </c>
       <c r="AG30" s="18">
-        <f>iferror(lookup(if(AF30="",H30,AF30),{0,1,10,50,100,1000,10000},{0.0,0.23,0.218,0.202,0.18,0.123,0.123}),"")</f>
+        <f>iferror(lookup(if(AF30="",H30,AF30),{0,1,10,50,100,1000,10000},{0.0,0.23,0.218,0.201,0.189,0.154,0.154}),"")</f>
         <v>0</v>
       </c>
       <c r="AH30" s="18">
@@ -8367,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="AI30" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AJ30" s="17">
-        <v>6884</v>
+        <v>7158</v>
       </c>
       <c r="AL30" s="18">
-        <f>iferror(lookup(if(AK30="",H30,AK30),{0,1,8500,100000},{0.0,0.148,0.162,0.136}),"")</f>
+        <f>iferror(lookup(if(AK30="",H30,AK30),{0,1,8500,100000},{0.0,0.157,0.172,0.144}),"")</f>
         <v>0</v>
       </c>
       <c r="AM30" s="18">
@@ -8381,24 +8320,10 @@
         <v>0</v>
       </c>
       <c r="AN30" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="AT30" s="17">
-        <v>2865</v>
-      </c>
-      <c r="AV30" s="18">
-        <f>iferror(USD_GBP*lookup(if(AU30="",H30,AU30),{0,1,5,100,1000,3000,8500},{0.0,0.174,0.174,0.1425,0.0961,0.0831,0.0814}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AW30" s="18">
-        <f>iferror(if(AU30="",H30,AU30)*AV30,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AX30" s="19" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:45">
       <c r="A31" s="17" t="s">
         <v>121</v>
       </c>
@@ -8469,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AJ31" s="17">
         <v>1912</v>
@@ -8483,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AO31" s="17">
         <v>3000</v>
@@ -8497,10 +8422,10 @@
         <v>0</v>
       </c>
       <c r="AS31" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:45">
       <c r="A32" s="17" t="s">
         <v>126</v>
       </c>
@@ -8571,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="AI32" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AJ32" s="20" t="s">
         <v>196</v>
@@ -8585,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="AN32" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:50">
@@ -8659,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AJ33" s="20" t="s">
         <v>196</v>
@@ -8673,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="AN33" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AO33" s="17">
         <v>12</v>
@@ -8687,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:50">
@@ -8747,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="AD34" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AE34" s="17">
         <v>627</v>
@@ -8761,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:50">
@@ -8838,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="AI35" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ35" s="20" t="s">
         <v>196</v>
@@ -8852,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="AN35" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:50">
@@ -8926,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AJ36" s="20" t="s">
         <v>196</v>
@@ -8940,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="AN36" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AO36" s="17">
         <v>2400</v>
@@ -8954,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AT36" s="20" t="s">
         <v>196</v>
@@ -9042,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AJ37" s="17">
         <v>2970</v>
@@ -9056,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="AN37" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AO37" s="17">
         <v>1660</v>
@@ -9070,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AT37" s="20" t="s">
         <v>196</v>
@@ -9084,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="AX37" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:50">
@@ -9245,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="AI40" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AJ40" s="17">
         <v>2945</v>
@@ -9259,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="AN40" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:50">
@@ -9457,7 +9382,7 @@
     </row>
     <row r="45" spans="1:50">
       <c r="A45" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L45">
         <f t="array" ref="L45">IFERROR(CONCATENATE(INDEX(O7:O40,SMALL(IF(ISNUMBER(L7:L40),IF(L7:L40&gt;0,IF(O7:O40&lt;&gt;"",ROW(L7:L40)-MIN(ROW(L7:L40))+1))),ROW()-ROW(A$43)+1)),",",TEXT(INDEX(L7:L40,SMALL(IF(ISNUMBER(L7:L40),IF(L7:L40&gt;0,IF(O7:O40&lt;&gt;"",ROW(L7:L40)-MIN(ROW(L7:L40))+1))),ROW()-ROW(A$43)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A40,SMALL(IF(ISNUMBER(L7:L40),IF(L7:L40&gt;0,IF(O7:O40&lt;&gt;"",ROW(L7:L40)-MIN(ROW(L7:L40))+1))),ROW()-ROW(A$43)+1)),",",";")),"")</f>
@@ -10865,13 +10790,8 @@
       <formula>Z29</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA30">
+  <conditionalFormatting sqref="AA34">
     <cfRule type="cellIs" dxfId="1" priority="473" operator="greaterThan">
-      <formula>Z30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA34">
-    <cfRule type="cellIs" dxfId="1" priority="478" operator="greaterThan">
       <formula>Z34</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10913,13 +10833,8 @@
       <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB30">
+  <conditionalFormatting sqref="AB34">
     <cfRule type="cellIs" dxfId="4" priority="475" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB34">
-    <cfRule type="cellIs" dxfId="4" priority="480" operator="lessThanOrEqual">
       <formula>I34</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10958,13 +10873,8 @@
       <formula>J29</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC30">
+  <conditionalFormatting sqref="AC34">
     <cfRule type="cellIs" dxfId="4" priority="474" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC34">
-    <cfRule type="cellIs" dxfId="4" priority="479" operator="lessThanOrEqual">
       <formula>J34</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10974,1675 +10884,1649 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE10">
+    <cfRule type="cellIs" dxfId="1" priority="491" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="492" operator="lessThan">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE11">
     <cfRule type="cellIs" dxfId="1" priority="496" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="497" operator="lessThan">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE11">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE12">
     <cfRule type="cellIs" dxfId="1" priority="501" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="502" operator="lessThan">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE12">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE13">
     <cfRule type="cellIs" dxfId="1" priority="506" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="507" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE13">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE14">
     <cfRule type="cellIs" dxfId="1" priority="511" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="512" operator="lessThan">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE14">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE15">
     <cfRule type="cellIs" dxfId="1" priority="516" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="517" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE15">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE21">
     <cfRule type="cellIs" dxfId="1" priority="521" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="522" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE21">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE22">
     <cfRule type="cellIs" dxfId="1" priority="526" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="527" operator="lessThan">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE22">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23">
     <cfRule type="cellIs" dxfId="1" priority="531" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="532" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE24">
     <cfRule type="cellIs" dxfId="1" priority="536" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="537" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE25">
     <cfRule type="cellIs" dxfId="1" priority="541" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="542" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE26">
     <cfRule type="cellIs" dxfId="1" priority="546" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="547" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE26">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE27">
     <cfRule type="cellIs" dxfId="1" priority="551" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="552" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE28">
     <cfRule type="cellIs" dxfId="1" priority="556" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="557" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE29">
     <cfRule type="cellIs" dxfId="1" priority="561" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="562" operator="lessThan">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE30">
     <cfRule type="cellIs" dxfId="1" priority="566" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="567" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE31">
     <cfRule type="cellIs" dxfId="1" priority="571" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="572" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE32">
     <cfRule type="cellIs" dxfId="1" priority="576" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="577" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE32">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE33">
     <cfRule type="cellIs" dxfId="1" priority="581" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="582" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE33">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE34">
     <cfRule type="cellIs" dxfId="1" priority="586" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="587" operator="lessThan">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE35">
     <cfRule type="cellIs" dxfId="1" priority="591" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="592" operator="lessThan">
-      <formula>H34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE35">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE36">
     <cfRule type="cellIs" dxfId="1" priority="596" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="597" operator="lessThan">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE36">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE37">
     <cfRule type="cellIs" dxfId="1" priority="601" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="602" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE37">
+      <formula>H37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE40">
     <cfRule type="cellIs" dxfId="1" priority="606" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="607" operator="lessThan">
+      <formula>H40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE7">
+    <cfRule type="cellIs" dxfId="1" priority="476" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="477" operator="lessThan">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8">
+    <cfRule type="cellIs" dxfId="1" priority="481" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="482" operator="lessThan">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9">
+    <cfRule type="cellIs" dxfId="1" priority="486" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="487" operator="lessThan">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF10">
+    <cfRule type="cellIs" dxfId="1" priority="493" operator="greaterThan">
+      <formula>AE10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11">
+    <cfRule type="cellIs" dxfId="1" priority="498" operator="greaterThan">
+      <formula>AE11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF12">
+    <cfRule type="cellIs" dxfId="1" priority="503" operator="greaterThan">
+      <formula>AE12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF13">
+    <cfRule type="cellIs" dxfId="1" priority="508" operator="greaterThan">
+      <formula>AE13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14">
+    <cfRule type="cellIs" dxfId="1" priority="513" operator="greaterThan">
+      <formula>AE14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF15">
+    <cfRule type="cellIs" dxfId="1" priority="518" operator="greaterThan">
+      <formula>AE15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF21">
+    <cfRule type="cellIs" dxfId="1" priority="523" operator="greaterThan">
+      <formula>AE21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF22">
+    <cfRule type="cellIs" dxfId="1" priority="528" operator="greaterThan">
+      <formula>AE22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF23">
+    <cfRule type="cellIs" dxfId="1" priority="533" operator="greaterThan">
+      <formula>AE23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF24">
+    <cfRule type="cellIs" dxfId="1" priority="538" operator="greaterThan">
+      <formula>AE24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF25">
+    <cfRule type="cellIs" dxfId="1" priority="543" operator="greaterThan">
+      <formula>AE25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF26">
+    <cfRule type="cellIs" dxfId="1" priority="548" operator="greaterThan">
+      <formula>AE26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF27">
+    <cfRule type="cellIs" dxfId="1" priority="553" operator="greaterThan">
+      <formula>AE27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF28">
+    <cfRule type="cellIs" dxfId="1" priority="558" operator="greaterThan">
+      <formula>AE28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF29">
+    <cfRule type="cellIs" dxfId="1" priority="563" operator="greaterThan">
+      <formula>AE29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF30">
+    <cfRule type="cellIs" dxfId="1" priority="568" operator="greaterThan">
+      <formula>AE30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF31">
+    <cfRule type="cellIs" dxfId="1" priority="573" operator="greaterThan">
+      <formula>AE31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF32">
+    <cfRule type="cellIs" dxfId="1" priority="578" operator="greaterThan">
+      <formula>AE32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF33">
+    <cfRule type="cellIs" dxfId="1" priority="583" operator="greaterThan">
+      <formula>AE33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF34">
+    <cfRule type="cellIs" dxfId="1" priority="588" operator="greaterThan">
+      <formula>AE34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF35">
+    <cfRule type="cellIs" dxfId="1" priority="593" operator="greaterThan">
+      <formula>AE35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF36">
+    <cfRule type="cellIs" dxfId="1" priority="598" operator="greaterThan">
+      <formula>AE36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF37">
+    <cfRule type="cellIs" dxfId="1" priority="603" operator="greaterThan">
+      <formula>AE37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF40">
+    <cfRule type="cellIs" dxfId="1" priority="608" operator="greaterThan">
+      <formula>AE40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF7">
+    <cfRule type="cellIs" dxfId="1" priority="478" operator="greaterThan">
+      <formula>AE7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8">
+    <cfRule type="cellIs" dxfId="1" priority="483" operator="greaterThan">
+      <formula>AE8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9">
+    <cfRule type="cellIs" dxfId="1" priority="488" operator="greaterThan">
+      <formula>AE9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="cellIs" dxfId="4" priority="495" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG11">
+    <cfRule type="cellIs" dxfId="4" priority="500" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG12">
+    <cfRule type="cellIs" dxfId="4" priority="505" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG13">
+    <cfRule type="cellIs" dxfId="4" priority="510" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG14">
+    <cfRule type="cellIs" dxfId="4" priority="515" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15">
+    <cfRule type="cellIs" dxfId="4" priority="520" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG21">
+    <cfRule type="cellIs" dxfId="4" priority="525" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG22">
+    <cfRule type="cellIs" dxfId="4" priority="530" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG23">
+    <cfRule type="cellIs" dxfId="4" priority="535" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG24">
+    <cfRule type="cellIs" dxfId="4" priority="540" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="cellIs" dxfId="4" priority="545" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG26">
+    <cfRule type="cellIs" dxfId="4" priority="550" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG27">
+    <cfRule type="cellIs" dxfId="4" priority="555" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG28">
+    <cfRule type="cellIs" dxfId="4" priority="560" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG29">
+    <cfRule type="cellIs" dxfId="4" priority="565" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG30">
+    <cfRule type="cellIs" dxfId="4" priority="570" operator="lessThanOrEqual">
+      <formula>I30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG31">
+    <cfRule type="cellIs" dxfId="4" priority="575" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG32">
+    <cfRule type="cellIs" dxfId="4" priority="580" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG33">
+    <cfRule type="cellIs" dxfId="4" priority="585" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG34">
+    <cfRule type="cellIs" dxfId="4" priority="590" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG35">
+    <cfRule type="cellIs" dxfId="4" priority="595" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG36">
+    <cfRule type="cellIs" dxfId="4" priority="600" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG37">
+    <cfRule type="cellIs" dxfId="4" priority="605" operator="lessThanOrEqual">
+      <formula>I37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG40">
+    <cfRule type="cellIs" dxfId="4" priority="610" operator="lessThanOrEqual">
+      <formula>I40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG7">
+    <cfRule type="cellIs" dxfId="4" priority="480" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="cellIs" dxfId="4" priority="485" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9">
+    <cfRule type="cellIs" dxfId="4" priority="490" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH10">
+    <cfRule type="cellIs" dxfId="4" priority="494" operator="lessThanOrEqual">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH11">
+    <cfRule type="cellIs" dxfId="4" priority="499" operator="lessThanOrEqual">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH12">
+    <cfRule type="cellIs" dxfId="4" priority="504" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH13">
+    <cfRule type="cellIs" dxfId="4" priority="509" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH14">
+    <cfRule type="cellIs" dxfId="4" priority="514" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15">
+    <cfRule type="cellIs" dxfId="4" priority="519" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH21">
+    <cfRule type="cellIs" dxfId="4" priority="524" operator="lessThanOrEqual">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH22">
+    <cfRule type="cellIs" dxfId="4" priority="529" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH23">
+    <cfRule type="cellIs" dxfId="4" priority="534" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24">
+    <cfRule type="cellIs" dxfId="4" priority="539" operator="lessThanOrEqual">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH25">
+    <cfRule type="cellIs" dxfId="4" priority="544" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH26">
+    <cfRule type="cellIs" dxfId="4" priority="549" operator="lessThanOrEqual">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH27">
+    <cfRule type="cellIs" dxfId="4" priority="554" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH28">
+    <cfRule type="cellIs" dxfId="4" priority="559" operator="lessThanOrEqual">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH29">
+    <cfRule type="cellIs" dxfId="4" priority="564" operator="lessThanOrEqual">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH30">
+    <cfRule type="cellIs" dxfId="4" priority="569" operator="lessThanOrEqual">
+      <formula>J30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH31">
+    <cfRule type="cellIs" dxfId="4" priority="574" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH32">
+    <cfRule type="cellIs" dxfId="4" priority="579" operator="lessThanOrEqual">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33">
+    <cfRule type="cellIs" dxfId="4" priority="584" operator="lessThanOrEqual">
+      <formula>J33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH34">
+    <cfRule type="cellIs" dxfId="4" priority="589" operator="lessThanOrEqual">
+      <formula>J34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="cellIs" dxfId="4" priority="594" operator="lessThanOrEqual">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH36">
+    <cfRule type="cellIs" dxfId="4" priority="599" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH37">
+    <cfRule type="cellIs" dxfId="4" priority="604" operator="lessThanOrEqual">
+      <formula>J37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH40">
+    <cfRule type="cellIs" dxfId="4" priority="609" operator="lessThanOrEqual">
+      <formula>J40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="cellIs" dxfId="4" priority="479" operator="lessThanOrEqual">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH8">
+    <cfRule type="cellIs" dxfId="4" priority="484" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9">
+    <cfRule type="cellIs" dxfId="4" priority="489" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ10">
+    <cfRule type="cellIs" dxfId="1" priority="627" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="628" operator="lessThan">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ11">
+    <cfRule type="cellIs" dxfId="1" priority="633" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="634" operator="lessThan">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ12">
+    <cfRule type="cellIs" dxfId="1" priority="638" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="639" operator="lessThan">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13">
+    <cfRule type="cellIs" dxfId="1" priority="643" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="644" operator="lessThan">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ14">
+    <cfRule type="cellIs" dxfId="1" priority="648" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="649" operator="lessThan">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ15">
+    <cfRule type="cellIs" dxfId="1" priority="653" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="654" operator="lessThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ21">
+    <cfRule type="cellIs" dxfId="1" priority="658" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="659" operator="lessThan">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ22">
+    <cfRule type="cellIs" dxfId="1" priority="664" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="665" operator="lessThan">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ23">
+    <cfRule type="cellIs" dxfId="1" priority="669" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="670" operator="lessThan">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ24">
+    <cfRule type="cellIs" dxfId="1" priority="674" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="675" operator="lessThan">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ25">
+    <cfRule type="cellIs" dxfId="1" priority="680" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="681" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ26">
+    <cfRule type="cellIs" dxfId="1" priority="685" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="686" operator="lessThan">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ27">
+    <cfRule type="cellIs" dxfId="1" priority="690" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="691" operator="lessThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ28">
+    <cfRule type="cellIs" dxfId="1" priority="695" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="696" operator="lessThan">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ29">
+    <cfRule type="cellIs" dxfId="1" priority="700" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="701" operator="lessThan">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ30">
+    <cfRule type="cellIs" dxfId="1" priority="705" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="706" operator="lessThan">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ31">
+    <cfRule type="cellIs" dxfId="1" priority="710" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="711" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ32">
+    <cfRule type="cellIs" dxfId="1" priority="716" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="717" operator="lessThan">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ33">
+    <cfRule type="cellIs" dxfId="1" priority="721" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="722" operator="lessThan">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ35">
+    <cfRule type="cellIs" dxfId="1" priority="726" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="727" operator="lessThan">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ36">
+    <cfRule type="cellIs" dxfId="1" priority="731" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="732" operator="lessThan">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ37">
+    <cfRule type="cellIs" dxfId="1" priority="736" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="737" operator="lessThan">
       <formula>H37</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE40">
+  <conditionalFormatting sqref="AJ40">
+    <cfRule type="cellIs" dxfId="1" priority="741" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="742" operator="lessThan">
+      <formula>H40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ7">
     <cfRule type="cellIs" dxfId="1" priority="611" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="612" operator="lessThan">
-      <formula>H40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE7">
-    <cfRule type="cellIs" dxfId="1" priority="481" operator="equal">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ8">
+    <cfRule type="cellIs" dxfId="1" priority="616" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="482" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE8">
-    <cfRule type="cellIs" dxfId="1" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="617" operator="lessThan">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ9">
+    <cfRule type="cellIs" dxfId="1" priority="621" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="487" operator="lessThan">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE9">
-    <cfRule type="cellIs" dxfId="1" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="622" operator="lessThan">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK10">
+    <cfRule type="expression" dxfId="3" priority="629">
+      <formula>AND(AK10&gt;0,AK10&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="630" operator="greaterThan">
+      <formula>AJ10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK11">
+    <cfRule type="cellIs" dxfId="1" priority="635" operator="greaterThan">
+      <formula>AJ11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK12">
+    <cfRule type="cellIs" dxfId="1" priority="640" operator="greaterThan">
+      <formula>AJ12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13">
+    <cfRule type="cellIs" dxfId="1" priority="645" operator="greaterThan">
+      <formula>AJ13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK14">
+    <cfRule type="cellIs" dxfId="1" priority="650" operator="greaterThan">
+      <formula>AJ14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK15">
+    <cfRule type="cellIs" dxfId="1" priority="655" operator="greaterThan">
+      <formula>AJ15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK21">
+    <cfRule type="expression" dxfId="3" priority="660">
+      <formula>AND(AK21&gt;0,AK21&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="661" operator="greaterThan">
+      <formula>AJ21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK22">
+    <cfRule type="cellIs" dxfId="1" priority="666" operator="greaterThan">
+      <formula>AJ22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK23">
+    <cfRule type="cellIs" dxfId="1" priority="671" operator="greaterThan">
+      <formula>AJ23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK24">
+    <cfRule type="expression" dxfId="3" priority="676">
+      <formula>AND(AK24&gt;0,AK24&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="677" operator="greaterThan">
+      <formula>AJ24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK25">
+    <cfRule type="cellIs" dxfId="1" priority="682" operator="greaterThan">
+      <formula>AJ25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK26">
+    <cfRule type="cellIs" dxfId="1" priority="687" operator="greaterThan">
+      <formula>AJ26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK27">
+    <cfRule type="cellIs" dxfId="1" priority="692" operator="greaterThan">
+      <formula>AJ27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK28">
+    <cfRule type="cellIs" dxfId="1" priority="697" operator="greaterThan">
+      <formula>AJ28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK29">
+    <cfRule type="cellIs" dxfId="1" priority="702" operator="greaterThan">
+      <formula>AJ29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK30">
+    <cfRule type="cellIs" dxfId="1" priority="707" operator="greaterThan">
+      <formula>AJ30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK31">
+    <cfRule type="expression" dxfId="3" priority="712">
+      <formula>AND(AK31&gt;0,AK31&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="713" operator="greaterThan">
+      <formula>AJ31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK32">
+    <cfRule type="cellIs" dxfId="1" priority="718" operator="greaterThan">
+      <formula>AJ32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK33">
+    <cfRule type="cellIs" dxfId="1" priority="723" operator="greaterThan">
+      <formula>AJ33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK35">
+    <cfRule type="cellIs" dxfId="1" priority="728" operator="greaterThan">
+      <formula>AJ35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK36">
+    <cfRule type="cellIs" dxfId="1" priority="733" operator="greaterThan">
+      <formula>AJ36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK37">
+    <cfRule type="cellIs" dxfId="1" priority="738" operator="greaterThan">
+      <formula>AJ37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK40">
+    <cfRule type="cellIs" dxfId="1" priority="743" operator="greaterThan">
+      <formula>AJ40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK7">
+    <cfRule type="cellIs" dxfId="1" priority="613" operator="greaterThan">
+      <formula>AJ7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK8">
+    <cfRule type="cellIs" dxfId="1" priority="618" operator="greaterThan">
+      <formula>AJ8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK9">
+    <cfRule type="expression" dxfId="3" priority="623">
+      <formula>AND(AK9&gt;0,AK9&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="624" operator="greaterThan">
+      <formula>AJ9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL10">
+    <cfRule type="cellIs" dxfId="4" priority="632" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL11">
+    <cfRule type="cellIs" dxfId="4" priority="637" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL12">
+    <cfRule type="cellIs" dxfId="4" priority="642" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL13">
+    <cfRule type="cellIs" dxfId="4" priority="647" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL14">
+    <cfRule type="cellIs" dxfId="4" priority="652" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL15">
+    <cfRule type="cellIs" dxfId="4" priority="657" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL21">
+    <cfRule type="cellIs" dxfId="4" priority="663" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL22">
+    <cfRule type="cellIs" dxfId="4" priority="668" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL23">
+    <cfRule type="cellIs" dxfId="4" priority="673" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL24">
+    <cfRule type="cellIs" dxfId="4" priority="679" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL25">
+    <cfRule type="cellIs" dxfId="4" priority="684" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL26">
+    <cfRule type="cellIs" dxfId="4" priority="689" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL27">
+    <cfRule type="cellIs" dxfId="4" priority="694" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL28">
+    <cfRule type="cellIs" dxfId="4" priority="699" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL29">
+    <cfRule type="cellIs" dxfId="4" priority="704" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL30">
+    <cfRule type="cellIs" dxfId="4" priority="709" operator="lessThanOrEqual">
+      <formula>I30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL31">
+    <cfRule type="cellIs" dxfId="4" priority="715" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL32">
+    <cfRule type="cellIs" dxfId="4" priority="720" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL33">
+    <cfRule type="cellIs" dxfId="4" priority="725" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL35">
+    <cfRule type="cellIs" dxfId="4" priority="730" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL36">
+    <cfRule type="cellIs" dxfId="4" priority="735" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL37">
+    <cfRule type="cellIs" dxfId="4" priority="740" operator="lessThanOrEqual">
+      <formula>I37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL40">
+    <cfRule type="cellIs" dxfId="4" priority="745" operator="lessThanOrEqual">
+      <formula>I40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL7">
+    <cfRule type="cellIs" dxfId="4" priority="615" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL8">
+    <cfRule type="cellIs" dxfId="4" priority="620" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL9">
+    <cfRule type="cellIs" dxfId="4" priority="626" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM10">
+    <cfRule type="cellIs" dxfId="4" priority="631" operator="lessThanOrEqual">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM11">
+    <cfRule type="cellIs" dxfId="4" priority="636" operator="lessThanOrEqual">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM12">
+    <cfRule type="cellIs" dxfId="4" priority="641" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM13">
+    <cfRule type="cellIs" dxfId="4" priority="646" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM14">
+    <cfRule type="cellIs" dxfId="4" priority="651" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM15">
+    <cfRule type="cellIs" dxfId="4" priority="656" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM21">
+    <cfRule type="cellIs" dxfId="4" priority="662" operator="lessThanOrEqual">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM22">
+    <cfRule type="cellIs" dxfId="4" priority="667" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM23">
+    <cfRule type="cellIs" dxfId="4" priority="672" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM24">
+    <cfRule type="cellIs" dxfId="4" priority="678" operator="lessThanOrEqual">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM25">
+    <cfRule type="cellIs" dxfId="4" priority="683" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM26">
+    <cfRule type="cellIs" dxfId="4" priority="688" operator="lessThanOrEqual">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM27">
+    <cfRule type="cellIs" dxfId="4" priority="693" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM28">
+    <cfRule type="cellIs" dxfId="4" priority="698" operator="lessThanOrEqual">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM29">
+    <cfRule type="cellIs" dxfId="4" priority="703" operator="lessThanOrEqual">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM30">
+    <cfRule type="cellIs" dxfId="4" priority="708" operator="lessThanOrEqual">
+      <formula>J30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM31">
+    <cfRule type="cellIs" dxfId="4" priority="714" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM32">
+    <cfRule type="cellIs" dxfId="4" priority="719" operator="lessThanOrEqual">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM33">
+    <cfRule type="cellIs" dxfId="4" priority="724" operator="lessThanOrEqual">
+      <formula>J33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM35">
+    <cfRule type="cellIs" dxfId="4" priority="729" operator="lessThanOrEqual">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM36">
+    <cfRule type="cellIs" dxfId="4" priority="734" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM37">
+    <cfRule type="cellIs" dxfId="4" priority="739" operator="lessThanOrEqual">
+      <formula>J37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM40">
+    <cfRule type="cellIs" dxfId="4" priority="744" operator="lessThanOrEqual">
+      <formula>J40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM7">
+    <cfRule type="cellIs" dxfId="4" priority="614" operator="lessThanOrEqual">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM8">
+    <cfRule type="cellIs" dxfId="4" priority="619" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM9">
+    <cfRule type="cellIs" dxfId="4" priority="625" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO12">
+    <cfRule type="cellIs" dxfId="1" priority="752" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="492" operator="lessThan">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF10">
-    <cfRule type="cellIs" dxfId="1" priority="498" operator="greaterThan">
-      <formula>AE10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11">
-    <cfRule type="cellIs" dxfId="1" priority="503" operator="greaterThan">
-      <formula>AE11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF12">
-    <cfRule type="cellIs" dxfId="1" priority="508" operator="greaterThan">
-      <formula>AE12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13">
-    <cfRule type="cellIs" dxfId="1" priority="513" operator="greaterThan">
-      <formula>AE13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14">
-    <cfRule type="cellIs" dxfId="1" priority="518" operator="greaterThan">
-      <formula>AE14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
-    <cfRule type="cellIs" dxfId="1" priority="523" operator="greaterThan">
-      <formula>AE15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF21">
-    <cfRule type="cellIs" dxfId="1" priority="528" operator="greaterThan">
-      <formula>AE21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF22">
-    <cfRule type="cellIs" dxfId="1" priority="533" operator="greaterThan">
-      <formula>AE22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF23">
-    <cfRule type="cellIs" dxfId="1" priority="538" operator="greaterThan">
-      <formula>AE23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF24">
-    <cfRule type="cellIs" dxfId="1" priority="543" operator="greaterThan">
-      <formula>AE24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF25">
-    <cfRule type="cellIs" dxfId="1" priority="548" operator="greaterThan">
-      <formula>AE25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF26">
-    <cfRule type="cellIs" dxfId="1" priority="553" operator="greaterThan">
-      <formula>AE26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
-    <cfRule type="cellIs" dxfId="1" priority="558" operator="greaterThan">
-      <formula>AE27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF28">
-    <cfRule type="cellIs" dxfId="1" priority="563" operator="greaterThan">
-      <formula>AE28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF29">
-    <cfRule type="cellIs" dxfId="1" priority="568" operator="greaterThan">
-      <formula>AE29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF30">
-    <cfRule type="cellIs" dxfId="1" priority="573" operator="greaterThan">
-      <formula>AE30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF31">
-    <cfRule type="cellIs" dxfId="1" priority="578" operator="greaterThan">
-      <formula>AE31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF32">
-    <cfRule type="cellIs" dxfId="1" priority="583" operator="greaterThan">
-      <formula>AE32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF33">
-    <cfRule type="cellIs" dxfId="1" priority="588" operator="greaterThan">
-      <formula>AE33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF34">
-    <cfRule type="cellIs" dxfId="1" priority="593" operator="greaterThan">
-      <formula>AE34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF35">
-    <cfRule type="cellIs" dxfId="1" priority="598" operator="greaterThan">
-      <formula>AE35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF36">
-    <cfRule type="cellIs" dxfId="1" priority="603" operator="greaterThan">
-      <formula>AE36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF37">
-    <cfRule type="cellIs" dxfId="1" priority="608" operator="greaterThan">
-      <formula>AE37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF40">
-    <cfRule type="cellIs" dxfId="1" priority="613" operator="greaterThan">
-      <formula>AE40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF7">
-    <cfRule type="cellIs" dxfId="1" priority="483" operator="greaterThan">
-      <formula>AE7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF8">
-    <cfRule type="cellIs" dxfId="1" priority="488" operator="greaterThan">
-      <formula>AE8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF9">
-    <cfRule type="cellIs" dxfId="1" priority="493" operator="greaterThan">
-      <formula>AE9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG10">
-    <cfRule type="cellIs" dxfId="4" priority="500" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG11">
-    <cfRule type="cellIs" dxfId="4" priority="505" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG12">
-    <cfRule type="cellIs" dxfId="4" priority="510" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG13">
-    <cfRule type="cellIs" dxfId="4" priority="515" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG14">
-    <cfRule type="cellIs" dxfId="4" priority="520" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG15">
-    <cfRule type="cellIs" dxfId="4" priority="525" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG21">
-    <cfRule type="cellIs" dxfId="4" priority="530" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG22">
-    <cfRule type="cellIs" dxfId="4" priority="535" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG23">
-    <cfRule type="cellIs" dxfId="4" priority="540" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG24">
-    <cfRule type="cellIs" dxfId="4" priority="545" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG25">
-    <cfRule type="cellIs" dxfId="4" priority="550" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG26">
-    <cfRule type="cellIs" dxfId="4" priority="555" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG27">
-    <cfRule type="cellIs" dxfId="4" priority="560" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG28">
-    <cfRule type="cellIs" dxfId="4" priority="565" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG29">
-    <cfRule type="cellIs" dxfId="4" priority="570" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG30">
-    <cfRule type="cellIs" dxfId="4" priority="575" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG31">
-    <cfRule type="cellIs" dxfId="4" priority="580" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG32">
-    <cfRule type="cellIs" dxfId="4" priority="585" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG33">
-    <cfRule type="cellIs" dxfId="4" priority="590" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG34">
-    <cfRule type="cellIs" dxfId="4" priority="595" operator="lessThanOrEqual">
-      <formula>I34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG35">
-    <cfRule type="cellIs" dxfId="4" priority="600" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG36">
-    <cfRule type="cellIs" dxfId="4" priority="605" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG37">
-    <cfRule type="cellIs" dxfId="4" priority="610" operator="lessThanOrEqual">
-      <formula>I37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG40">
-    <cfRule type="cellIs" dxfId="4" priority="615" operator="lessThanOrEqual">
-      <formula>I40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG7">
-    <cfRule type="cellIs" dxfId="4" priority="485" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG8">
-    <cfRule type="cellIs" dxfId="4" priority="490" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG9">
-    <cfRule type="cellIs" dxfId="4" priority="495" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH10">
-    <cfRule type="cellIs" dxfId="4" priority="499" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH11">
-    <cfRule type="cellIs" dxfId="4" priority="504" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH12">
-    <cfRule type="cellIs" dxfId="4" priority="509" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH13">
-    <cfRule type="cellIs" dxfId="4" priority="514" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH14">
-    <cfRule type="cellIs" dxfId="4" priority="519" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="4" priority="524" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH21">
-    <cfRule type="cellIs" dxfId="4" priority="529" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH22">
-    <cfRule type="cellIs" dxfId="4" priority="534" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH23">
-    <cfRule type="cellIs" dxfId="4" priority="539" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH24">
-    <cfRule type="cellIs" dxfId="4" priority="544" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH25">
-    <cfRule type="cellIs" dxfId="4" priority="549" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH26">
-    <cfRule type="cellIs" dxfId="4" priority="554" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH27">
-    <cfRule type="cellIs" dxfId="4" priority="559" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH28">
-    <cfRule type="cellIs" dxfId="4" priority="564" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH29">
-    <cfRule type="cellIs" dxfId="4" priority="569" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH30">
-    <cfRule type="cellIs" dxfId="4" priority="574" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH31">
-    <cfRule type="cellIs" dxfId="4" priority="579" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH32">
-    <cfRule type="cellIs" dxfId="4" priority="584" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH33">
-    <cfRule type="cellIs" dxfId="4" priority="589" operator="lessThanOrEqual">
-      <formula>J33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH34">
-    <cfRule type="cellIs" dxfId="4" priority="594" operator="lessThanOrEqual">
-      <formula>J34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH35">
-    <cfRule type="cellIs" dxfId="4" priority="599" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH36">
-    <cfRule type="cellIs" dxfId="4" priority="604" operator="lessThanOrEqual">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH37">
-    <cfRule type="cellIs" dxfId="4" priority="609" operator="lessThanOrEqual">
-      <formula>J37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH40">
-    <cfRule type="cellIs" dxfId="4" priority="614" operator="lessThanOrEqual">
-      <formula>J40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH7">
-    <cfRule type="cellIs" dxfId="4" priority="484" operator="lessThanOrEqual">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH8">
-    <cfRule type="cellIs" dxfId="4" priority="489" operator="lessThanOrEqual">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH9">
-    <cfRule type="cellIs" dxfId="4" priority="494" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ10">
-    <cfRule type="cellIs" dxfId="1" priority="632" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="753" operator="lessThan">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO21">
+    <cfRule type="cellIs" dxfId="1" priority="758" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="633" operator="lessThan">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ11">
-    <cfRule type="cellIs" dxfId="1" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="759" operator="lessThan">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO22">
+    <cfRule type="cellIs" dxfId="1" priority="764" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="639" operator="lessThan">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ12">
-    <cfRule type="cellIs" dxfId="1" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="765" operator="lessThan">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO23">
+    <cfRule type="cellIs" dxfId="1" priority="770" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="644" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ13">
-    <cfRule type="cellIs" dxfId="1" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="771" operator="lessThan">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO25">
+    <cfRule type="cellIs" dxfId="1" priority="776" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="649" operator="lessThan">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ14">
-    <cfRule type="cellIs" dxfId="1" priority="653" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="777" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO27">
+    <cfRule type="cellIs" dxfId="1" priority="782" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="654" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ15">
-    <cfRule type="cellIs" dxfId="1" priority="658" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="783" operator="lessThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO29">
+    <cfRule type="cellIs" dxfId="1" priority="788" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="659" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ21">
-    <cfRule type="cellIs" dxfId="1" priority="663" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="789" operator="lessThan">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO31">
+    <cfRule type="cellIs" dxfId="1" priority="794" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="664" operator="lessThan">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ22">
-    <cfRule type="cellIs" dxfId="1" priority="669" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="795" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO33">
+    <cfRule type="cellIs" dxfId="1" priority="800" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="670" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ23">
-    <cfRule type="cellIs" dxfId="1" priority="674" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="801" operator="lessThan">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO36">
+    <cfRule type="cellIs" dxfId="1" priority="806" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="675" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ24">
-    <cfRule type="cellIs" dxfId="1" priority="679" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="807" operator="lessThan">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO37">
+    <cfRule type="cellIs" dxfId="1" priority="812" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="680" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ25">
-    <cfRule type="cellIs" dxfId="1" priority="685" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="686" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ26">
-    <cfRule type="cellIs" dxfId="1" priority="690" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="691" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27">
-    <cfRule type="cellIs" dxfId="1" priority="695" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="696" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ28">
-    <cfRule type="cellIs" dxfId="1" priority="700" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="701" operator="lessThan">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ29">
-    <cfRule type="cellIs" dxfId="1" priority="705" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="706" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ30">
-    <cfRule type="cellIs" dxfId="1" priority="710" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="711" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ31">
-    <cfRule type="cellIs" dxfId="1" priority="715" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="716" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ32">
-    <cfRule type="cellIs" dxfId="1" priority="721" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="722" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ33">
-    <cfRule type="cellIs" dxfId="1" priority="726" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="727" operator="lessThan">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ35">
-    <cfRule type="cellIs" dxfId="1" priority="731" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="732" operator="lessThan">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ36">
-    <cfRule type="cellIs" dxfId="1" priority="736" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="737" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ37">
-    <cfRule type="cellIs" dxfId="1" priority="741" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="742" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="813" operator="lessThan">
       <formula>H37</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ40">
+  <conditionalFormatting sqref="AO9">
     <cfRule type="cellIs" dxfId="1" priority="746" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="747" operator="lessThan">
-      <formula>H40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ7">
-    <cfRule type="cellIs" dxfId="1" priority="616" operator="equal">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP12">
+    <cfRule type="expression" dxfId="3" priority="754">
+      <formula>AND(AP12&gt;0,AP12&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="755" operator="greaterThan">
+      <formula>AO12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP21">
+    <cfRule type="expression" dxfId="3" priority="760">
+      <formula>AND(AP21&gt;0,AP21&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="761" operator="greaterThan">
+      <formula>AO21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP22">
+    <cfRule type="expression" dxfId="3" priority="766">
+      <formula>AND(AP22&gt;0,AP22&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="767" operator="greaterThan">
+      <formula>AO22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP23">
+    <cfRule type="expression" dxfId="3" priority="772">
+      <formula>AND(AP23&gt;0,AP23&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="773" operator="greaterThan">
+      <formula>AO23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP25">
+    <cfRule type="expression" dxfId="3" priority="778">
+      <formula>AND(AP25&gt;0,AP25&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="779" operator="greaterThan">
+      <formula>AO25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP27">
+    <cfRule type="expression" dxfId="3" priority="784">
+      <formula>AND(AP27&gt;0,AP27&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="785" operator="greaterThan">
+      <formula>AO27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP29">
+    <cfRule type="expression" dxfId="3" priority="790">
+      <formula>AND(AP29&gt;0,AP29&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="791" operator="greaterThan">
+      <formula>AO29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP31">
+    <cfRule type="expression" dxfId="3" priority="796">
+      <formula>AND(AP31&gt;0,AP31&lt;30)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="797" operator="greaterThan">
+      <formula>AO31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP33">
+    <cfRule type="expression" dxfId="3" priority="802">
+      <formula>AND(AP33&gt;0,AP33&lt;18)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="803" operator="greaterThan">
+      <formula>AO33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP36">
+    <cfRule type="expression" dxfId="3" priority="808">
+      <formula>AND(AP36&gt;0,AP36&lt;50)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="809" operator="greaterThan">
+      <formula>AO36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP37">
+    <cfRule type="expression" dxfId="3" priority="814">
+      <formula>AND(AP37&gt;0,AP37&lt;20)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="815" operator="greaterThan">
+      <formula>AO37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP9">
+    <cfRule type="expression" dxfId="3" priority="748">
+      <formula>AND(AP9&gt;0,AP9&lt;20)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="749" operator="greaterThan">
+      <formula>AO9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ12">
+    <cfRule type="cellIs" dxfId="4" priority="757" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ21">
+    <cfRule type="cellIs" dxfId="4" priority="763" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ22">
+    <cfRule type="cellIs" dxfId="4" priority="769" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ23">
+    <cfRule type="cellIs" dxfId="4" priority="775" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ25">
+    <cfRule type="cellIs" dxfId="4" priority="781" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ27">
+    <cfRule type="cellIs" dxfId="4" priority="787" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ29">
+    <cfRule type="cellIs" dxfId="4" priority="793" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ31">
+    <cfRule type="cellIs" dxfId="4" priority="799" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ33">
+    <cfRule type="cellIs" dxfId="4" priority="805" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ36">
+    <cfRule type="cellIs" dxfId="4" priority="811" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ37">
+    <cfRule type="cellIs" dxfId="4" priority="817" operator="lessThanOrEqual">
+      <formula>I37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ9">
+    <cfRule type="cellIs" dxfId="4" priority="751" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR12">
+    <cfRule type="cellIs" dxfId="4" priority="756" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR21">
+    <cfRule type="cellIs" dxfId="4" priority="762" operator="lessThanOrEqual">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR22">
+    <cfRule type="cellIs" dxfId="4" priority="768" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR23">
+    <cfRule type="cellIs" dxfId="4" priority="774" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR25">
+    <cfRule type="cellIs" dxfId="4" priority="780" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR27">
+    <cfRule type="cellIs" dxfId="4" priority="786" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR29">
+    <cfRule type="cellIs" dxfId="4" priority="792" operator="lessThanOrEqual">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR31">
+    <cfRule type="cellIs" dxfId="4" priority="798" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR33">
+    <cfRule type="cellIs" dxfId="4" priority="804" operator="lessThanOrEqual">
+      <formula>J33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR36">
+    <cfRule type="cellIs" dxfId="4" priority="810" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR37">
+    <cfRule type="cellIs" dxfId="4" priority="816" operator="lessThanOrEqual">
+      <formula>J37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR9">
+    <cfRule type="cellIs" dxfId="4" priority="750" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT14">
+    <cfRule type="cellIs" dxfId="1" priority="818" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="617" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ8">
-    <cfRule type="cellIs" dxfId="1" priority="621" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="819" operator="lessThan">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT15">
+    <cfRule type="cellIs" dxfId="1" priority="824" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="622" operator="lessThan">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9">
-    <cfRule type="cellIs" dxfId="1" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="825" operator="lessThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT36">
+    <cfRule type="cellIs" dxfId="1" priority="830" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="627" operator="lessThan">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK10">
-    <cfRule type="expression" dxfId="3" priority="634">
-      <formula>AND(AK10&gt;0,AK10&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="635" operator="greaterThan">
-      <formula>AJ10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK11">
-    <cfRule type="cellIs" dxfId="1" priority="640" operator="greaterThan">
-      <formula>AJ11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK12">
-    <cfRule type="cellIs" dxfId="1" priority="645" operator="greaterThan">
-      <formula>AJ12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK13">
-    <cfRule type="cellIs" dxfId="1" priority="650" operator="greaterThan">
-      <formula>AJ13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK14">
-    <cfRule type="cellIs" dxfId="1" priority="655" operator="greaterThan">
-      <formula>AJ14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK15">
-    <cfRule type="cellIs" dxfId="1" priority="660" operator="greaterThan">
-      <formula>AJ15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK21">
-    <cfRule type="expression" dxfId="3" priority="665">
-      <formula>AND(AK21&gt;0,AK21&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="666" operator="greaterThan">
-      <formula>AJ21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK22">
-    <cfRule type="cellIs" dxfId="1" priority="671" operator="greaterThan">
-      <formula>AJ22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK23">
-    <cfRule type="cellIs" dxfId="1" priority="676" operator="greaterThan">
-      <formula>AJ23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK24">
-    <cfRule type="expression" dxfId="3" priority="681">
-      <formula>AND(AK24&gt;0,AK24&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="682" operator="greaterThan">
-      <formula>AJ24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK25">
-    <cfRule type="cellIs" dxfId="1" priority="687" operator="greaterThan">
-      <formula>AJ25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK26">
-    <cfRule type="cellIs" dxfId="1" priority="692" operator="greaterThan">
-      <formula>AJ26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK27">
-    <cfRule type="cellIs" dxfId="1" priority="697" operator="greaterThan">
-      <formula>AJ27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK28">
-    <cfRule type="cellIs" dxfId="1" priority="702" operator="greaterThan">
-      <formula>AJ28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK29">
-    <cfRule type="cellIs" dxfId="1" priority="707" operator="greaterThan">
-      <formula>AJ29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK30">
-    <cfRule type="cellIs" dxfId="1" priority="712" operator="greaterThan">
-      <formula>AJ30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK31">
-    <cfRule type="expression" dxfId="3" priority="717">
-      <formula>AND(AK31&gt;0,AK31&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="718" operator="greaterThan">
-      <formula>AJ31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK32">
-    <cfRule type="cellIs" dxfId="1" priority="723" operator="greaterThan">
-      <formula>AJ32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK33">
-    <cfRule type="cellIs" dxfId="1" priority="728" operator="greaterThan">
-      <formula>AJ33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK35">
-    <cfRule type="cellIs" dxfId="1" priority="733" operator="greaterThan">
-      <formula>AJ35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK36">
-    <cfRule type="cellIs" dxfId="1" priority="738" operator="greaterThan">
-      <formula>AJ36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK37">
-    <cfRule type="cellIs" dxfId="1" priority="743" operator="greaterThan">
-      <formula>AJ37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK40">
-    <cfRule type="cellIs" dxfId="1" priority="748" operator="greaterThan">
-      <formula>AJ40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK7">
-    <cfRule type="cellIs" dxfId="1" priority="618" operator="greaterThan">
-      <formula>AJ7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK8">
-    <cfRule type="cellIs" dxfId="1" priority="623" operator="greaterThan">
-      <formula>AJ8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK9">
-    <cfRule type="expression" dxfId="3" priority="628">
-      <formula>AND(AK9&gt;0,AK9&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="629" operator="greaterThan">
-      <formula>AJ9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL10">
-    <cfRule type="cellIs" dxfId="4" priority="637" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL11">
-    <cfRule type="cellIs" dxfId="4" priority="642" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL12">
-    <cfRule type="cellIs" dxfId="4" priority="647" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL13">
-    <cfRule type="cellIs" dxfId="4" priority="652" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL14">
-    <cfRule type="cellIs" dxfId="4" priority="657" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="831" operator="lessThan">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT37">
+    <cfRule type="cellIs" dxfId="1" priority="836" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="837" operator="lessThan">
+      <formula>H37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU14">
+    <cfRule type="expression" dxfId="3" priority="820">
+      <formula>AND(AU14&gt;0,AU14&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="821" operator="greaterThan">
+      <formula>AT14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU15">
+    <cfRule type="expression" dxfId="3" priority="826">
+      <formula>AND(AU15&gt;0,AU15&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="827" operator="greaterThan">
+      <formula>AT15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU36">
+    <cfRule type="expression" dxfId="3" priority="832">
+      <formula>AND(AU36&gt;0,AU36&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="833" operator="greaterThan">
+      <formula>AT36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU37">
+    <cfRule type="cellIs" dxfId="1" priority="838" operator="greaterThan">
+      <formula>AT37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV14">
+    <cfRule type="cellIs" dxfId="4" priority="823" operator="lessThanOrEqual">
       <formula>I14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL15">
-    <cfRule type="cellIs" dxfId="4" priority="662" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AV15">
+    <cfRule type="cellIs" dxfId="4" priority="829" operator="lessThanOrEqual">
       <formula>I15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL21">
-    <cfRule type="cellIs" dxfId="4" priority="668" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL22">
-    <cfRule type="cellIs" dxfId="4" priority="673" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL23">
-    <cfRule type="cellIs" dxfId="4" priority="678" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL24">
-    <cfRule type="cellIs" dxfId="4" priority="684" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL25">
-    <cfRule type="cellIs" dxfId="4" priority="689" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL26">
-    <cfRule type="cellIs" dxfId="4" priority="694" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL27">
-    <cfRule type="cellIs" dxfId="4" priority="699" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL28">
-    <cfRule type="cellIs" dxfId="4" priority="704" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL29">
-    <cfRule type="cellIs" dxfId="4" priority="709" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL30">
-    <cfRule type="cellIs" dxfId="4" priority="714" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL31">
-    <cfRule type="cellIs" dxfId="4" priority="720" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL32">
-    <cfRule type="cellIs" dxfId="4" priority="725" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL33">
-    <cfRule type="cellIs" dxfId="4" priority="730" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL35">
-    <cfRule type="cellIs" dxfId="4" priority="735" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL36">
-    <cfRule type="cellIs" dxfId="4" priority="740" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AV36">
+    <cfRule type="cellIs" dxfId="4" priority="835" operator="lessThanOrEqual">
       <formula>I36</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL37">
-    <cfRule type="cellIs" dxfId="4" priority="745" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AV37">
+    <cfRule type="cellIs" dxfId="4" priority="840" operator="lessThanOrEqual">
       <formula>I37</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL40">
-    <cfRule type="cellIs" dxfId="4" priority="750" operator="lessThanOrEqual">
-      <formula>I40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL7">
-    <cfRule type="cellIs" dxfId="4" priority="620" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL8">
-    <cfRule type="cellIs" dxfId="4" priority="625" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL9">
-    <cfRule type="cellIs" dxfId="4" priority="631" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM10">
-    <cfRule type="cellIs" dxfId="4" priority="636" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM11">
-    <cfRule type="cellIs" dxfId="4" priority="641" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM12">
-    <cfRule type="cellIs" dxfId="4" priority="646" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM13">
-    <cfRule type="cellIs" dxfId="4" priority="651" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM14">
-    <cfRule type="cellIs" dxfId="4" priority="656" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AW14">
+    <cfRule type="cellIs" dxfId="4" priority="822" operator="lessThanOrEqual">
       <formula>J14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM15">
-    <cfRule type="cellIs" dxfId="4" priority="661" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AW15">
+    <cfRule type="cellIs" dxfId="4" priority="828" operator="lessThanOrEqual">
       <formula>J15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM21">
-    <cfRule type="cellIs" dxfId="4" priority="667" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM22">
-    <cfRule type="cellIs" dxfId="4" priority="672" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM23">
-    <cfRule type="cellIs" dxfId="4" priority="677" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM24">
-    <cfRule type="cellIs" dxfId="4" priority="683" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM25">
-    <cfRule type="cellIs" dxfId="4" priority="688" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM26">
-    <cfRule type="cellIs" dxfId="4" priority="693" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM27">
-    <cfRule type="cellIs" dxfId="4" priority="698" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM28">
-    <cfRule type="cellIs" dxfId="4" priority="703" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM29">
-    <cfRule type="cellIs" dxfId="4" priority="708" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM30">
-    <cfRule type="cellIs" dxfId="4" priority="713" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM31">
-    <cfRule type="cellIs" dxfId="4" priority="719" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM32">
-    <cfRule type="cellIs" dxfId="4" priority="724" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM33">
-    <cfRule type="cellIs" dxfId="4" priority="729" operator="lessThanOrEqual">
-      <formula>J33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM35">
-    <cfRule type="cellIs" dxfId="4" priority="734" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM36">
-    <cfRule type="cellIs" dxfId="4" priority="739" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AW36">
+    <cfRule type="cellIs" dxfId="4" priority="834" operator="lessThanOrEqual">
       <formula>J36</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM37">
-    <cfRule type="cellIs" dxfId="4" priority="744" operator="lessThanOrEqual">
-      <formula>J37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM40">
-    <cfRule type="cellIs" dxfId="4" priority="749" operator="lessThanOrEqual">
-      <formula>J40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM7">
-    <cfRule type="cellIs" dxfId="4" priority="619" operator="lessThanOrEqual">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM8">
-    <cfRule type="cellIs" dxfId="4" priority="624" operator="lessThanOrEqual">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM9">
-    <cfRule type="cellIs" dxfId="4" priority="630" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO12">
-    <cfRule type="cellIs" dxfId="1" priority="757" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="758" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO21">
-    <cfRule type="cellIs" dxfId="1" priority="763" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="764" operator="lessThan">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO22">
-    <cfRule type="cellIs" dxfId="1" priority="769" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="770" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO23">
-    <cfRule type="cellIs" dxfId="1" priority="775" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="776" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO25">
-    <cfRule type="cellIs" dxfId="1" priority="781" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="782" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO27">
-    <cfRule type="cellIs" dxfId="1" priority="787" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="788" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO29">
-    <cfRule type="cellIs" dxfId="1" priority="793" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="794" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO31">
-    <cfRule type="cellIs" dxfId="1" priority="799" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="800" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO33">
-    <cfRule type="cellIs" dxfId="1" priority="805" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="806" operator="lessThan">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO36">
-    <cfRule type="cellIs" dxfId="1" priority="811" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="812" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO37">
-    <cfRule type="cellIs" dxfId="1" priority="817" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="818" operator="lessThan">
-      <formula>H37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO9">
-    <cfRule type="cellIs" dxfId="1" priority="751" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="752" operator="lessThan">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP12">
-    <cfRule type="expression" dxfId="3" priority="759">
-      <formula>AND(AP12&gt;0,AP12&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="760" operator="greaterThan">
-      <formula>AO12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP21">
-    <cfRule type="expression" dxfId="3" priority="765">
-      <formula>AND(AP21&gt;0,AP21&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="766" operator="greaterThan">
-      <formula>AO21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP22">
-    <cfRule type="expression" dxfId="3" priority="771">
-      <formula>AND(AP22&gt;0,AP22&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="772" operator="greaterThan">
-      <formula>AO22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP23">
-    <cfRule type="expression" dxfId="3" priority="777">
-      <formula>AND(AP23&gt;0,AP23&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="778" operator="greaterThan">
-      <formula>AO23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP25">
-    <cfRule type="expression" dxfId="3" priority="783">
-      <formula>AND(AP25&gt;0,AP25&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="784" operator="greaterThan">
-      <formula>AO25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP27">
-    <cfRule type="expression" dxfId="3" priority="789">
-      <formula>AND(AP27&gt;0,AP27&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="790" operator="greaterThan">
-      <formula>AO27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP29">
-    <cfRule type="expression" dxfId="3" priority="795">
-      <formula>AND(AP29&gt;0,AP29&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="796" operator="greaterThan">
-      <formula>AO29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP31">
-    <cfRule type="expression" dxfId="3" priority="801">
-      <formula>AND(AP31&gt;0,AP31&lt;30)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="802" operator="greaterThan">
-      <formula>AO31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP33">
-    <cfRule type="expression" dxfId="3" priority="807">
-      <formula>AND(AP33&gt;0,AP33&lt;18)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="808" operator="greaterThan">
-      <formula>AO33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP36">
-    <cfRule type="expression" dxfId="3" priority="813">
-      <formula>AND(AP36&gt;0,AP36&lt;50)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="814" operator="greaterThan">
-      <formula>AO36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP37">
-    <cfRule type="expression" dxfId="3" priority="819">
-      <formula>AND(AP37&gt;0,AP37&lt;20)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="820" operator="greaterThan">
-      <formula>AO37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP9">
-    <cfRule type="expression" dxfId="3" priority="753">
-      <formula>AND(AP9&gt;0,AP9&lt;20)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="754" operator="greaterThan">
-      <formula>AO9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ12">
-    <cfRule type="cellIs" dxfId="4" priority="762" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ21">
-    <cfRule type="cellIs" dxfId="4" priority="768" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ22">
-    <cfRule type="cellIs" dxfId="4" priority="774" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ23">
-    <cfRule type="cellIs" dxfId="4" priority="780" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ25">
-    <cfRule type="cellIs" dxfId="4" priority="786" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27">
-    <cfRule type="cellIs" dxfId="4" priority="792" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ29">
-    <cfRule type="cellIs" dxfId="4" priority="798" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ31">
-    <cfRule type="cellIs" dxfId="4" priority="804" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ33">
-    <cfRule type="cellIs" dxfId="4" priority="810" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ36">
-    <cfRule type="cellIs" dxfId="4" priority="816" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ37">
-    <cfRule type="cellIs" dxfId="4" priority="822" operator="lessThanOrEqual">
-      <formula>I37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ9">
-    <cfRule type="cellIs" dxfId="4" priority="756" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR12">
-    <cfRule type="cellIs" dxfId="4" priority="761" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR21">
-    <cfRule type="cellIs" dxfId="4" priority="767" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR22">
-    <cfRule type="cellIs" dxfId="4" priority="773" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR23">
-    <cfRule type="cellIs" dxfId="4" priority="779" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR25">
-    <cfRule type="cellIs" dxfId="4" priority="785" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR27">
-    <cfRule type="cellIs" dxfId="4" priority="791" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR29">
-    <cfRule type="cellIs" dxfId="4" priority="797" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR31">
-    <cfRule type="cellIs" dxfId="4" priority="803" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR33">
-    <cfRule type="cellIs" dxfId="4" priority="809" operator="lessThanOrEqual">
-      <formula>J33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR36">
-    <cfRule type="cellIs" dxfId="4" priority="815" operator="lessThanOrEqual">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR37">
-    <cfRule type="cellIs" dxfId="4" priority="821" operator="lessThanOrEqual">
-      <formula>J37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR9">
-    <cfRule type="cellIs" dxfId="4" priority="755" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT14">
-    <cfRule type="cellIs" dxfId="1" priority="823" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="824" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT15">
-    <cfRule type="cellIs" dxfId="1" priority="829" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="830" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT30">
-    <cfRule type="cellIs" dxfId="1" priority="835" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="836" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT36">
-    <cfRule type="cellIs" dxfId="1" priority="841" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="842" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT37">
-    <cfRule type="cellIs" dxfId="1" priority="847" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="848" operator="lessThan">
-      <formula>H37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU14">
-    <cfRule type="expression" dxfId="3" priority="825">
-      <formula>AND(AU14&gt;0,AU14&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="826" operator="greaterThan">
-      <formula>AT14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU15">
-    <cfRule type="expression" dxfId="3" priority="831">
-      <formula>AND(AU15&gt;0,AU15&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="832" operator="greaterThan">
-      <formula>AT15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU30">
-    <cfRule type="expression" dxfId="3" priority="837">
-      <formula>AND(AU30&gt;0,AU30&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="838" operator="greaterThan">
-      <formula>AT30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU36">
-    <cfRule type="expression" dxfId="3" priority="843">
-      <formula>AND(AU36&gt;0,AU36&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="844" operator="greaterThan">
-      <formula>AT36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU37">
-    <cfRule type="cellIs" dxfId="1" priority="849" operator="greaterThan">
-      <formula>AT37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV14">
-    <cfRule type="cellIs" dxfId="4" priority="828" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV15">
-    <cfRule type="cellIs" dxfId="4" priority="834" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV30">
-    <cfRule type="cellIs" dxfId="4" priority="840" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV36">
-    <cfRule type="cellIs" dxfId="4" priority="846" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV37">
-    <cfRule type="cellIs" dxfId="4" priority="851" operator="lessThanOrEqual">
-      <formula>I37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW14">
-    <cfRule type="cellIs" dxfId="4" priority="827" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW15">
-    <cfRule type="cellIs" dxfId="4" priority="833" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW30">
+  <conditionalFormatting sqref="AW37">
     <cfRule type="cellIs" dxfId="4" priority="839" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW36">
-    <cfRule type="cellIs" dxfId="4" priority="845" operator="lessThanOrEqual">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW37">
-    <cfRule type="cellIs" dxfId="4" priority="850" operator="lessThanOrEqual">
       <formula>J37</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14481,19 +14365,11 @@
       <formula>H29</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z30">
+  <conditionalFormatting sqref="Z34">
     <cfRule type="cellIs" dxfId="1" priority="471" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="472" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z34">
-    <cfRule type="cellIs" dxfId="1" priority="476" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="477" operator="lessThan">
       <formula>H34</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14617,68 +14493,66 @@
     <hyperlink ref="G30" r:id="rId109"/>
     <hyperlink ref="T30" r:id="rId110"/>
     <hyperlink ref="Y30" r:id="rId111"/>
-    <hyperlink ref="AD30" r:id="rId112"/>
-    <hyperlink ref="AI30" r:id="rId113"/>
-    <hyperlink ref="AN30" r:id="rId114"/>
-    <hyperlink ref="AX30" r:id="rId115"/>
-    <hyperlink ref="G31" r:id="rId116"/>
-    <hyperlink ref="T31" r:id="rId117"/>
-    <hyperlink ref="Y31" r:id="rId118"/>
-    <hyperlink ref="AI31" r:id="rId119"/>
-    <hyperlink ref="AN31" r:id="rId120"/>
-    <hyperlink ref="AS31" r:id="rId121"/>
-    <hyperlink ref="G32" r:id="rId122"/>
-    <hyperlink ref="T32" r:id="rId123"/>
-    <hyperlink ref="Y32" r:id="rId124"/>
-    <hyperlink ref="AI32" r:id="rId125"/>
-    <hyperlink ref="AN32" r:id="rId126"/>
-    <hyperlink ref="G33" r:id="rId127"/>
-    <hyperlink ref="T33" r:id="rId128"/>
-    <hyperlink ref="Y33" r:id="rId129"/>
-    <hyperlink ref="AI33" r:id="rId130"/>
-    <hyperlink ref="AN33" r:id="rId131"/>
-    <hyperlink ref="AS33" r:id="rId132"/>
-    <hyperlink ref="G34" r:id="rId133"/>
-    <hyperlink ref="T34" r:id="rId134"/>
-    <hyperlink ref="AD34" r:id="rId135"/>
-    <hyperlink ref="AI34" r:id="rId136"/>
-    <hyperlink ref="G35" r:id="rId137"/>
-    <hyperlink ref="T35" r:id="rId138"/>
-    <hyperlink ref="Y35" r:id="rId139"/>
-    <hyperlink ref="AI35" r:id="rId140"/>
-    <hyperlink ref="AN35" r:id="rId141"/>
-    <hyperlink ref="G36" r:id="rId142"/>
-    <hyperlink ref="T36" r:id="rId143"/>
-    <hyperlink ref="Y36" r:id="rId144"/>
-    <hyperlink ref="AI36" r:id="rId145"/>
-    <hyperlink ref="AN36" r:id="rId146"/>
-    <hyperlink ref="AS36" r:id="rId147"/>
-    <hyperlink ref="AX36" r:id="rId148"/>
-    <hyperlink ref="G37" r:id="rId149"/>
-    <hyperlink ref="T37" r:id="rId150"/>
-    <hyperlink ref="Y37" r:id="rId151"/>
-    <hyperlink ref="AI37" r:id="rId152"/>
-    <hyperlink ref="AN37" r:id="rId153"/>
-    <hyperlink ref="AS37" r:id="rId154"/>
-    <hyperlink ref="AX37" r:id="rId155"/>
-    <hyperlink ref="G38" r:id="rId156"/>
-    <hyperlink ref="G39" r:id="rId157"/>
-    <hyperlink ref="T39" r:id="rId158"/>
-    <hyperlink ref="G40" r:id="rId159"/>
-    <hyperlink ref="T40" r:id="rId160"/>
-    <hyperlink ref="Y40" r:id="rId161"/>
-    <hyperlink ref="AI40" r:id="rId162"/>
-    <hyperlink ref="AN40" r:id="rId163"/>
-    <hyperlink ref="K42" r:id="rId164"/>
-    <hyperlink ref="P42" r:id="rId165"/>
-    <hyperlink ref="U42" r:id="rId166"/>
-    <hyperlink ref="Z42" r:id="rId167"/>
-    <hyperlink ref="AE42" r:id="rId168"/>
-    <hyperlink ref="AJ42" r:id="rId169"/>
-    <hyperlink ref="AO42" r:id="rId170"/>
-    <hyperlink ref="AT42" r:id="rId171"/>
+    <hyperlink ref="AI30" r:id="rId112"/>
+    <hyperlink ref="AN30" r:id="rId113"/>
+    <hyperlink ref="G31" r:id="rId114"/>
+    <hyperlink ref="T31" r:id="rId115"/>
+    <hyperlink ref="Y31" r:id="rId116"/>
+    <hyperlink ref="AI31" r:id="rId117"/>
+    <hyperlink ref="AN31" r:id="rId118"/>
+    <hyperlink ref="AS31" r:id="rId119"/>
+    <hyperlink ref="G32" r:id="rId120"/>
+    <hyperlink ref="T32" r:id="rId121"/>
+    <hyperlink ref="Y32" r:id="rId122"/>
+    <hyperlink ref="AI32" r:id="rId123"/>
+    <hyperlink ref="AN32" r:id="rId124"/>
+    <hyperlink ref="G33" r:id="rId125"/>
+    <hyperlink ref="T33" r:id="rId126"/>
+    <hyperlink ref="Y33" r:id="rId127"/>
+    <hyperlink ref="AI33" r:id="rId128"/>
+    <hyperlink ref="AN33" r:id="rId129"/>
+    <hyperlink ref="AS33" r:id="rId130"/>
+    <hyperlink ref="G34" r:id="rId131"/>
+    <hyperlink ref="T34" r:id="rId132"/>
+    <hyperlink ref="AD34" r:id="rId133"/>
+    <hyperlink ref="AI34" r:id="rId134"/>
+    <hyperlink ref="G35" r:id="rId135"/>
+    <hyperlink ref="T35" r:id="rId136"/>
+    <hyperlink ref="Y35" r:id="rId137"/>
+    <hyperlink ref="AI35" r:id="rId138"/>
+    <hyperlink ref="AN35" r:id="rId139"/>
+    <hyperlink ref="G36" r:id="rId140"/>
+    <hyperlink ref="T36" r:id="rId141"/>
+    <hyperlink ref="Y36" r:id="rId142"/>
+    <hyperlink ref="AI36" r:id="rId143"/>
+    <hyperlink ref="AN36" r:id="rId144"/>
+    <hyperlink ref="AS36" r:id="rId145"/>
+    <hyperlink ref="AX36" r:id="rId146"/>
+    <hyperlink ref="G37" r:id="rId147"/>
+    <hyperlink ref="T37" r:id="rId148"/>
+    <hyperlink ref="Y37" r:id="rId149"/>
+    <hyperlink ref="AI37" r:id="rId150"/>
+    <hyperlink ref="AN37" r:id="rId151"/>
+    <hyperlink ref="AS37" r:id="rId152"/>
+    <hyperlink ref="AX37" r:id="rId153"/>
+    <hyperlink ref="G38" r:id="rId154"/>
+    <hyperlink ref="G39" r:id="rId155"/>
+    <hyperlink ref="T39" r:id="rId156"/>
+    <hyperlink ref="G40" r:id="rId157"/>
+    <hyperlink ref="T40" r:id="rId158"/>
+    <hyperlink ref="Y40" r:id="rId159"/>
+    <hyperlink ref="AI40" r:id="rId160"/>
+    <hyperlink ref="AN40" r:id="rId161"/>
+    <hyperlink ref="K42" r:id="rId162"/>
+    <hyperlink ref="P42" r:id="rId163"/>
+    <hyperlink ref="U42" r:id="rId164"/>
+    <hyperlink ref="Z42" r:id="rId165"/>
+    <hyperlink ref="AE42" r:id="rId166"/>
+    <hyperlink ref="AJ42" r:id="rId167"/>
+    <hyperlink ref="AO42" r:id="rId168"/>
+    <hyperlink ref="AT42" r:id="rId169"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId172"/>
+  <legacyDrawing r:id="rId170"/>
 </worksheet>
 </file>
--- a/documentation/reDIP-SID-BOM.xlsx
+++ b/documentation/reDIP-SID-BOM.xlsx
@@ -4578,9 +4578,9 @@
     <t>GRM033R60J224KE15D</t>
   </si>
   <si>
-    <t>C9,C20: 1.2V DC DERATED TO 0.1uF
+    <t>C10,C11,C17-C19,C21,C22,C24,C25: 3.3V DC DERATED TO 0.1uF
 C12: 1.65V DC VAG DERATED TO 0.1uF
-C10,C11,C17-C19,C21,C22,C24,C25: 3.3V DC DERATED TO 0.1uF</t>
+C9,C20: 1.2V DC DERATED TO 0.1uF</t>
   </si>
   <si>
     <t>D1</t>
@@ -5030,7 +5030,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>Sat Aug 28 10:53:18 2021</t>
+    <t>Sat Aug 28 15:47:27 2021</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -5045,7 +5045,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2021-08-28 10:53:20</t>
+    <t>2021-08-28 15:47:29</t>
   </si>
   <si>
     <t>Arrow</t>

--- a/documentation/reDIP-SID-BOM.xlsx
+++ b/documentation/reDIP-SID-BOM.xlsx
@@ -3175,6 +3175,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.26      $1.26
+    10   $0.96      $9.62
+    30   $0.91     $27.21
+   100   $0.85     $85.17
+   500   $0.83    $413.55
+  1000   $0.81    $814.90</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AG31" authorId="0">
       <text>
         <r>
@@ -4450,7 +4471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="353">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -4578,9 +4599,9 @@
     <t>GRM033R60J224KE15D</t>
   </si>
   <si>
-    <t>C10,C11,C17-C19,C21,C22,C24,C25: 3.3V DC DERATED TO 0.1uF
-C12: 1.65V DC VAG DERATED TO 0.1uF
-C9,C20: 1.2V DC DERATED TO 0.1uF</t>
+    <t>C12: 1.65V DC VAG DERATED TO 0.1uF
+C9,C20: 1.2V DC DERATED TO 0.1uF
+C10,C11,C17-C19,C21,C22,C24,C25: 3.3V DC DERATED TO 0.1uF</t>
   </si>
   <si>
     <t>D1</t>
@@ -5030,7 +5051,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>Sat Aug 28 15:47:27 2021</t>
+    <t>ti. 31. aug. 2021 kl. 20.26 +0200</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -5045,7 +5066,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2021-08-28 15:47:29</t>
+    <t>2021-08-31 20:26:40</t>
   </si>
   <si>
     <t>Arrow</t>
@@ -5271,6 +5292,9 @@
   </si>
   <si>
     <t>C717002</t>
+  </si>
+  <si>
+    <t>C221820</t>
   </si>
   <si>
     <t>C891222</t>
@@ -6303,28 +6327,28 @@
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK5" s="13"/>
       <c r="AL5" s="13"/>
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
       <c r="AO5" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP5" s="14"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="14"/>
       <c r="AS5" s="14"/>
       <c r="AT5" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AU5" s="15"/>
       <c r="AV5" s="15"/>
@@ -6571,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AJ7" s="17">
         <v>2620</v>
@@ -6585,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="AN7" s="20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -6662,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ8" s="19" t="s">
         <v>205</v>
@@ -6676,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO8" s="17">
         <v>60</v>
@@ -6690,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:50">
@@ -6767,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AJ9" s="17">
         <v>30000</v>
@@ -6781,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -6872,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AJ10" s="17">
         <v>70000</v>
@@ -6886,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -6963,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AJ11" s="17">
         <v>20</v>
@@ -6977,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -7068,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ12" s="17">
         <v>19858</v>
@@ -7082,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO12" s="17">
         <v>7000</v>
@@ -7096,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -7173,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ13" s="17">
         <v>123000</v>
@@ -7187,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO13" s="17">
         <v>4550</v>
@@ -7201,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -7275,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ14" s="17">
         <v>5</v>
@@ -7289,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AT14" s="17">
         <v>3427</v>
@@ -7303,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -7377,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ15" s="17">
         <v>3287</v>
@@ -7391,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AT15" s="17">
         <v>2779</v>
@@ -7405,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="20" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -7646,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AJ21" s="17">
         <v>60000</v>
@@ -7660,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="AN21" s="20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -7734,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AJ22" s="19" t="s">
         <v>205</v>
@@ -7748,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="AN22" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -7836,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AJ23" s="19" t="s">
         <v>205</v>
@@ -7850,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="AN23" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO23" s="17">
         <v>37000</v>
@@ -7864,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:45">
@@ -7938,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ24" s="17">
         <v>105000</v>
@@ -7952,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="AN24" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO24" s="17">
         <v>772637</v>
@@ -7966,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:45">
@@ -8040,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AJ25" s="19" t="s">
         <v>205</v>
@@ -8054,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO25" s="17">
         <v>38000</v>
@@ -8068,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="AS25" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:45">
@@ -8142,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="AI26" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ26" s="19" t="s">
         <v>205</v>
@@ -8156,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="AN26" s="20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:45">
@@ -8230,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="AI27" s="20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AJ27" s="19" t="s">
         <v>205</v>
@@ -8244,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO27" s="17">
         <v>28000</v>
@@ -8258,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:45">
@@ -8332,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:45">
@@ -8420,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AJ29" s="17">
         <v>176</v>
@@ -8434,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="AN29" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO29" s="17">
         <v>3000</v>
@@ -8448,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:45">
@@ -8536,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="AI30" s="20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AJ30" s="17">
         <v>56605</v>
@@ -8550,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO30" s="17">
         <v>699000</v>
@@ -8564,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:45">
@@ -8599,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="17">
-        <v>6438</v>
+        <v>5438</v>
       </c>
       <c r="R31" s="18">
         <f>iferror(lookup(if(Q31="",H31,Q31),{0,1,10,25,100,250,500,1000,2500,8500,17000},{0.0,0.22,0.211,0.2,0.1819,0.171,0.15644,0.13097,0.12733,0.12005,0.11278}),"")</f>
@@ -8613,7 +8637,7 @@
         <v>224</v>
       </c>
       <c r="U31" s="17">
-        <v>882</v>
+        <v>3986</v>
       </c>
       <c r="W31" s="18">
         <f>iferror(USD_GBP*lookup(if(V31="",H31,V31),{0,1,10,50,100,500},{0.0,0.151,0.151,0.143,0.13,0.112}),"")</f>
@@ -8626,8 +8650,22 @@
       <c r="Y31" s="20" t="s">
         <v>255</v>
       </c>
+      <c r="Z31" s="17">
+        <v>11625</v>
+      </c>
+      <c r="AB31" s="18">
+        <f>iferror(lookup(if(AA31="",H31,AA31),{0,1,10,30,100,500,1000},{0.0,1.2639,0.9625,0.9071,0.8517,0.8271,0.8149}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="18">
+        <f>iferror(if(AA31="",H31,AA31)*AB31,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="20" t="s">
+        <v>273</v>
+      </c>
       <c r="AE31" s="17">
-        <v>9735</v>
+        <v>9700</v>
       </c>
       <c r="AG31" s="18">
         <f>iferror(lookup(if(AF31="",H31,AF31),{0,1,10,50,100,1000,10000},{0.0,0.23,0.218,0.201,0.189,0.154,0.154}),"")</f>
@@ -8638,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AJ31" s="17">
         <v>7158</v>
@@ -8652,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:45">
@@ -8726,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AI32" s="20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AJ32" s="17">
         <v>1412</v>
@@ -8740,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="AN32" s="20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO32" s="17">
         <v>3000</v>
@@ -8754,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:50">
@@ -8877,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ34" s="17">
         <v>1998</v>
@@ -8891,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="AN34" s="20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:50">
@@ -8965,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="AI35" s="20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ35" s="19" t="s">
         <v>205</v>
@@ -8979,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="AN35" s="20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO35" s="17">
         <v>12</v>
@@ -8993,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:50">
@@ -9067,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="AD36" s="20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AE36" s="17">
         <v>3429</v>
@@ -9081,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AJ36" s="17">
         <v>1817</v>
@@ -9095,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="AN36" s="20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:50">
@@ -9155,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="AD37" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AE37" s="17">
         <v>527</v>
@@ -9169,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:50">
@@ -9246,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="AI38" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AJ38" s="19" t="s">
         <v>205</v>
@@ -9260,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:50">
@@ -9334,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="AI39" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ39" s="17">
         <v>33</v>
@@ -9348,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO39" s="17">
         <v>2400</v>
@@ -9362,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="AS39" s="20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AT39" s="19" t="s">
         <v>205</v>
@@ -9450,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="AI40" s="20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AJ40" s="17">
         <v>2360</v>
@@ -9464,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="AN40" s="20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO40" s="17">
         <v>1660</v>
@@ -9478,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AT40" s="19" t="s">
         <v>205</v>
@@ -9492,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="AX40" s="20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:50">
@@ -9604,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="AI42" s="20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ42" s="17">
         <v>2940</v>
@@ -9618,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:50">
@@ -9816,7 +9854,7 @@
     </row>
     <row r="47" spans="1:50">
       <c r="A47" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L47">
         <f t="array" ref="L47">IFERROR(CONCATENATE(INDEX(O7:O42,SMALL(IF(ISNUMBER(L7:L42),IF(L7:L42&gt;0,IF(O7:O42&lt;&gt;"",ROW(L7:L42)-MIN(ROW(L7:L42))+1))),ROW()-ROW(A$45)+1)),",",TEXT(INDEX(L7:L42,SMALL(IF(ISNUMBER(L7:L42),IF(L7:L42&gt;0,IF(O7:O42&lt;&gt;"",ROW(L7:L42)-MIN(ROW(L7:L42))+1))),ROW()-ROW(A$45)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A42,SMALL(IF(ISNUMBER(L7:L42),IF(L7:L42&gt;0,IF(O7:O42&lt;&gt;"",ROW(L7:L42)-MIN(ROW(L7:L42))+1))),ROW()-ROW(A$45)+1)),",",";")),"")</f>
@@ -11316,13 +11354,18 @@
       <formula>Z30</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AA31">
+    <cfRule type="cellIs" dxfId="1" priority="509" operator="greaterThan">
+      <formula>Z31</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AA36">
-    <cfRule type="cellIs" dxfId="1" priority="509" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="514" operator="greaterThan">
       <formula>Z36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA37">
-    <cfRule type="cellIs" dxfId="1" priority="514" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="519" operator="greaterThan">
       <formula>Z37</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11369,13 +11412,18 @@
       <formula>I30</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AB31">
+    <cfRule type="cellIs" dxfId="4" priority="511" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AB36">
-    <cfRule type="cellIs" dxfId="4" priority="511" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="516" operator="lessThanOrEqual">
       <formula>I36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB37">
-    <cfRule type="cellIs" dxfId="4" priority="516" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="521" operator="lessThanOrEqual">
       <formula>I37</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11419,13 +11467,18 @@
       <formula>J30</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AC31">
+    <cfRule type="cellIs" dxfId="4" priority="510" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AC36">
-    <cfRule type="cellIs" dxfId="4" priority="510" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="515" operator="lessThanOrEqual">
       <formula>J36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC37">
-    <cfRule type="cellIs" dxfId="4" priority="515" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="520" operator="lessThanOrEqual">
       <formula>J37</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11435,1741 +11488,1741 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE10">
+    <cfRule type="cellIs" dxfId="1" priority="537" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="538" operator="lessThan">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE11">
+    <cfRule type="cellIs" dxfId="1" priority="542" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="543" operator="lessThan">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE12">
+    <cfRule type="cellIs" dxfId="1" priority="547" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="548" operator="lessThan">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE13">
+    <cfRule type="cellIs" dxfId="1" priority="552" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="553" operator="lessThan">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE14">
+    <cfRule type="cellIs" dxfId="1" priority="557" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="558" operator="lessThan">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE15">
+    <cfRule type="cellIs" dxfId="1" priority="562" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="563" operator="lessThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE21">
+    <cfRule type="cellIs" dxfId="1" priority="567" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="568" operator="lessThan">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE22">
+    <cfRule type="cellIs" dxfId="1" priority="572" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="573" operator="lessThan">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23">
+    <cfRule type="cellIs" dxfId="1" priority="577" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="578" operator="lessThan">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE24">
+    <cfRule type="cellIs" dxfId="1" priority="582" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="583" operator="lessThan">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE25">
+    <cfRule type="cellIs" dxfId="1" priority="587" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="588" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE26">
+    <cfRule type="cellIs" dxfId="1" priority="592" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="593" operator="lessThan">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE27">
+    <cfRule type="cellIs" dxfId="1" priority="597" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="598" operator="lessThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE28">
+    <cfRule type="cellIs" dxfId="1" priority="602" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="603" operator="lessThan">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE29">
+    <cfRule type="cellIs" dxfId="1" priority="607" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="608" operator="lessThan">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE30">
+    <cfRule type="cellIs" dxfId="1" priority="612" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="613" operator="lessThan">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="cellIs" dxfId="1" priority="617" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="618" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE32">
+    <cfRule type="cellIs" dxfId="1" priority="622" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="623" operator="lessThan">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE34">
+    <cfRule type="cellIs" dxfId="1" priority="627" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="628" operator="lessThan">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE35">
+    <cfRule type="cellIs" dxfId="1" priority="632" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="633" operator="lessThan">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE36">
+    <cfRule type="cellIs" dxfId="1" priority="637" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="638" operator="lessThan">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE37">
+    <cfRule type="cellIs" dxfId="1" priority="642" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="643" operator="lessThan">
+      <formula>H37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE38">
+    <cfRule type="cellIs" dxfId="1" priority="647" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="648" operator="lessThan">
+      <formula>H38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE39">
+    <cfRule type="cellIs" dxfId="1" priority="652" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="653" operator="lessThan">
+      <formula>H39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE40">
+    <cfRule type="cellIs" dxfId="1" priority="657" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="658" operator="lessThan">
+      <formula>H40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE42">
+    <cfRule type="cellIs" dxfId="1" priority="662" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="663" operator="lessThan">
+      <formula>H42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE7">
+    <cfRule type="cellIs" dxfId="1" priority="522" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="523" operator="lessThan">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8">
+    <cfRule type="cellIs" dxfId="1" priority="527" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="528" operator="lessThan">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9">
     <cfRule type="cellIs" dxfId="1" priority="532" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="533" operator="lessThan">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF10">
+    <cfRule type="cellIs" dxfId="1" priority="539" operator="greaterThan">
+      <formula>AE10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11">
+    <cfRule type="cellIs" dxfId="1" priority="544" operator="greaterThan">
+      <formula>AE11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF12">
+    <cfRule type="cellIs" dxfId="1" priority="549" operator="greaterThan">
+      <formula>AE12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF13">
+    <cfRule type="cellIs" dxfId="1" priority="554" operator="greaterThan">
+      <formula>AE13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14">
+    <cfRule type="cellIs" dxfId="1" priority="559" operator="greaterThan">
+      <formula>AE14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF15">
+    <cfRule type="cellIs" dxfId="1" priority="564" operator="greaterThan">
+      <formula>AE15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF21">
+    <cfRule type="cellIs" dxfId="1" priority="569" operator="greaterThan">
+      <formula>AE21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF22">
+    <cfRule type="cellIs" dxfId="1" priority="574" operator="greaterThan">
+      <formula>AE22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF23">
+    <cfRule type="cellIs" dxfId="1" priority="579" operator="greaterThan">
+      <formula>AE23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF24">
+    <cfRule type="cellIs" dxfId="1" priority="584" operator="greaterThan">
+      <formula>AE24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF25">
+    <cfRule type="cellIs" dxfId="1" priority="589" operator="greaterThan">
+      <formula>AE25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF26">
+    <cfRule type="cellIs" dxfId="1" priority="594" operator="greaterThan">
+      <formula>AE26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF27">
+    <cfRule type="cellIs" dxfId="1" priority="599" operator="greaterThan">
+      <formula>AE27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF28">
+    <cfRule type="cellIs" dxfId="1" priority="604" operator="greaterThan">
+      <formula>AE28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF29">
+    <cfRule type="cellIs" dxfId="1" priority="609" operator="greaterThan">
+      <formula>AE29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF30">
+    <cfRule type="cellIs" dxfId="1" priority="614" operator="greaterThan">
+      <formula>AE30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF31">
+    <cfRule type="cellIs" dxfId="1" priority="619" operator="greaterThan">
+      <formula>AE31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF32">
+    <cfRule type="cellIs" dxfId="1" priority="624" operator="greaterThan">
+      <formula>AE32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF34">
+    <cfRule type="cellIs" dxfId="1" priority="629" operator="greaterThan">
+      <formula>AE34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF35">
+    <cfRule type="cellIs" dxfId="1" priority="634" operator="greaterThan">
+      <formula>AE35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF36">
+    <cfRule type="cellIs" dxfId="1" priority="639" operator="greaterThan">
+      <formula>AE36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF37">
+    <cfRule type="cellIs" dxfId="1" priority="644" operator="greaterThan">
+      <formula>AE37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF38">
+    <cfRule type="cellIs" dxfId="1" priority="649" operator="greaterThan">
+      <formula>AE38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF39">
+    <cfRule type="cellIs" dxfId="1" priority="654" operator="greaterThan">
+      <formula>AE39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF40">
+    <cfRule type="cellIs" dxfId="1" priority="659" operator="greaterThan">
+      <formula>AE40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF42">
+    <cfRule type="cellIs" dxfId="1" priority="664" operator="greaterThan">
+      <formula>AE42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF7">
+    <cfRule type="cellIs" dxfId="1" priority="524" operator="greaterThan">
+      <formula>AE7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8">
+    <cfRule type="cellIs" dxfId="1" priority="529" operator="greaterThan">
+      <formula>AE8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9">
+    <cfRule type="cellIs" dxfId="1" priority="534" operator="greaterThan">
+      <formula>AE9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="cellIs" dxfId="4" priority="541" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG11">
+    <cfRule type="cellIs" dxfId="4" priority="546" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG12">
+    <cfRule type="cellIs" dxfId="4" priority="551" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG13">
+    <cfRule type="cellIs" dxfId="4" priority="556" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG14">
+    <cfRule type="cellIs" dxfId="4" priority="561" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15">
+    <cfRule type="cellIs" dxfId="4" priority="566" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG21">
+    <cfRule type="cellIs" dxfId="4" priority="571" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG22">
+    <cfRule type="cellIs" dxfId="4" priority="576" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG23">
+    <cfRule type="cellIs" dxfId="4" priority="581" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG24">
+    <cfRule type="cellIs" dxfId="4" priority="586" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="cellIs" dxfId="4" priority="591" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG26">
+    <cfRule type="cellIs" dxfId="4" priority="596" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG27">
+    <cfRule type="cellIs" dxfId="4" priority="601" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG28">
+    <cfRule type="cellIs" dxfId="4" priority="606" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG29">
+    <cfRule type="cellIs" dxfId="4" priority="611" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG30">
+    <cfRule type="cellIs" dxfId="4" priority="616" operator="lessThanOrEqual">
+      <formula>I30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG31">
+    <cfRule type="cellIs" dxfId="4" priority="621" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG32">
+    <cfRule type="cellIs" dxfId="4" priority="626" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG34">
+    <cfRule type="cellIs" dxfId="4" priority="631" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG35">
+    <cfRule type="cellIs" dxfId="4" priority="636" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG36">
+    <cfRule type="cellIs" dxfId="4" priority="641" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG37">
+    <cfRule type="cellIs" dxfId="4" priority="646" operator="lessThanOrEqual">
+      <formula>I37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG38">
+    <cfRule type="cellIs" dxfId="4" priority="651" operator="lessThanOrEqual">
+      <formula>I38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG39">
+    <cfRule type="cellIs" dxfId="4" priority="656" operator="lessThanOrEqual">
+      <formula>I39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG40">
+    <cfRule type="cellIs" dxfId="4" priority="661" operator="lessThanOrEqual">
+      <formula>I40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG42">
+    <cfRule type="cellIs" dxfId="4" priority="666" operator="lessThanOrEqual">
+      <formula>I42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG7">
+    <cfRule type="cellIs" dxfId="4" priority="526" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="cellIs" dxfId="4" priority="531" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9">
+    <cfRule type="cellIs" dxfId="4" priority="536" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH10">
+    <cfRule type="cellIs" dxfId="4" priority="540" operator="lessThanOrEqual">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH11">
+    <cfRule type="cellIs" dxfId="4" priority="545" operator="lessThanOrEqual">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH12">
+    <cfRule type="cellIs" dxfId="4" priority="550" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH13">
+    <cfRule type="cellIs" dxfId="4" priority="555" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH14">
+    <cfRule type="cellIs" dxfId="4" priority="560" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15">
+    <cfRule type="cellIs" dxfId="4" priority="565" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH21">
+    <cfRule type="cellIs" dxfId="4" priority="570" operator="lessThanOrEqual">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH22">
+    <cfRule type="cellIs" dxfId="4" priority="575" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH23">
+    <cfRule type="cellIs" dxfId="4" priority="580" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24">
+    <cfRule type="cellIs" dxfId="4" priority="585" operator="lessThanOrEqual">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH25">
+    <cfRule type="cellIs" dxfId="4" priority="590" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH26">
+    <cfRule type="cellIs" dxfId="4" priority="595" operator="lessThanOrEqual">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH27">
+    <cfRule type="cellIs" dxfId="4" priority="600" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH28">
+    <cfRule type="cellIs" dxfId="4" priority="605" operator="lessThanOrEqual">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH29">
+    <cfRule type="cellIs" dxfId="4" priority="610" operator="lessThanOrEqual">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH30">
+    <cfRule type="cellIs" dxfId="4" priority="615" operator="lessThanOrEqual">
+      <formula>J30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH31">
+    <cfRule type="cellIs" dxfId="4" priority="620" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH32">
+    <cfRule type="cellIs" dxfId="4" priority="625" operator="lessThanOrEqual">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH34">
+    <cfRule type="cellIs" dxfId="4" priority="630" operator="lessThanOrEqual">
+      <formula>J34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="cellIs" dxfId="4" priority="635" operator="lessThanOrEqual">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH36">
+    <cfRule type="cellIs" dxfId="4" priority="640" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH37">
+    <cfRule type="cellIs" dxfId="4" priority="645" operator="lessThanOrEqual">
+      <formula>J37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH38">
+    <cfRule type="cellIs" dxfId="4" priority="650" operator="lessThanOrEqual">
+      <formula>J38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH39">
+    <cfRule type="cellIs" dxfId="4" priority="655" operator="lessThanOrEqual">
+      <formula>J39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH40">
+    <cfRule type="cellIs" dxfId="4" priority="660" operator="lessThanOrEqual">
+      <formula>J40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH42">
+    <cfRule type="cellIs" dxfId="4" priority="665" operator="lessThanOrEqual">
+      <formula>J42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="cellIs" dxfId="4" priority="525" operator="lessThanOrEqual">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH8">
+    <cfRule type="cellIs" dxfId="4" priority="530" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9">
+    <cfRule type="cellIs" dxfId="4" priority="535" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ10">
+    <cfRule type="cellIs" dxfId="1" priority="683" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="684" operator="lessThan">
       <formula>H10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE11">
-    <cfRule type="cellIs" dxfId="1" priority="537" operator="equal">
+  <conditionalFormatting sqref="AJ11">
+    <cfRule type="cellIs" dxfId="1" priority="688" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="538" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="689" operator="lessThan">
       <formula>H11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE12">
-    <cfRule type="cellIs" dxfId="1" priority="542" operator="equal">
+  <conditionalFormatting sqref="AJ12">
+    <cfRule type="cellIs" dxfId="1" priority="693" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="543" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="694" operator="lessThan">
       <formula>H12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE13">
-    <cfRule type="cellIs" dxfId="1" priority="547" operator="equal">
+  <conditionalFormatting sqref="AJ13">
+    <cfRule type="cellIs" dxfId="1" priority="698" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="548" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="699" operator="lessThan">
       <formula>H13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE14">
-    <cfRule type="cellIs" dxfId="1" priority="552" operator="equal">
+  <conditionalFormatting sqref="AJ14">
+    <cfRule type="cellIs" dxfId="1" priority="703" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="553" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="704" operator="lessThan">
       <formula>H14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE15">
-    <cfRule type="cellIs" dxfId="1" priority="557" operator="equal">
+  <conditionalFormatting sqref="AJ15">
+    <cfRule type="cellIs" dxfId="1" priority="708" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="558" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="709" operator="lessThan">
       <formula>H15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE21">
-    <cfRule type="cellIs" dxfId="1" priority="562" operator="equal">
+  <conditionalFormatting sqref="AJ21">
+    <cfRule type="cellIs" dxfId="1" priority="713" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="563" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="714" operator="lessThan">
       <formula>H21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE22">
-    <cfRule type="cellIs" dxfId="1" priority="567" operator="equal">
+  <conditionalFormatting sqref="AJ22">
+    <cfRule type="cellIs" dxfId="1" priority="718" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="568" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="719" operator="lessThan">
       <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
-    <cfRule type="cellIs" dxfId="1" priority="572" operator="equal">
+  <conditionalFormatting sqref="AJ23">
+    <cfRule type="cellIs" dxfId="1" priority="723" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="573" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="724" operator="lessThan">
       <formula>H23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
-    <cfRule type="cellIs" dxfId="1" priority="577" operator="equal">
+  <conditionalFormatting sqref="AJ24">
+    <cfRule type="cellIs" dxfId="1" priority="728" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="578" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="729" operator="lessThan">
       <formula>H24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
-    <cfRule type="cellIs" dxfId="1" priority="582" operator="equal">
+  <conditionalFormatting sqref="AJ25">
+    <cfRule type="cellIs" dxfId="1" priority="733" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="583" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="734" operator="lessThan">
       <formula>H25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE26">
-    <cfRule type="cellIs" dxfId="1" priority="587" operator="equal">
+  <conditionalFormatting sqref="AJ26">
+    <cfRule type="cellIs" dxfId="1" priority="739" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="588" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="740" operator="lessThan">
       <formula>H26</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
-    <cfRule type="cellIs" dxfId="1" priority="592" operator="equal">
+  <conditionalFormatting sqref="AJ27">
+    <cfRule type="cellIs" dxfId="1" priority="744" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="593" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="745" operator="lessThan">
       <formula>H27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
-    <cfRule type="cellIs" dxfId="1" priority="597" operator="equal">
+  <conditionalFormatting sqref="AJ29">
+    <cfRule type="cellIs" dxfId="1" priority="750" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="598" operator="lessThan">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
-    <cfRule type="cellIs" dxfId="1" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="751" operator="lessThan">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ30">
+    <cfRule type="cellIs" dxfId="1" priority="755" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="603" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
-    <cfRule type="cellIs" dxfId="1" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="756" operator="lessThan">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ31">
+    <cfRule type="cellIs" dxfId="1" priority="760" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="608" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
-    <cfRule type="cellIs" dxfId="1" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="761" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ32">
+    <cfRule type="cellIs" dxfId="1" priority="765" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="613" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE32">
-    <cfRule type="cellIs" dxfId="1" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="766" operator="lessThan">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ34">
+    <cfRule type="cellIs" dxfId="1" priority="771" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="618" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
-    <cfRule type="cellIs" dxfId="1" priority="622" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="772" operator="lessThan">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ35">
+    <cfRule type="cellIs" dxfId="1" priority="776" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="623" operator="lessThan">
-      <formula>H34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE35">
-    <cfRule type="cellIs" dxfId="1" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="777" operator="lessThan">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ36">
+    <cfRule type="cellIs" dxfId="1" priority="781" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="628" operator="lessThan">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE36">
-    <cfRule type="cellIs" dxfId="1" priority="632" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="782" operator="lessThan">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ38">
+    <cfRule type="cellIs" dxfId="1" priority="786" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="633" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE37">
-    <cfRule type="cellIs" dxfId="1" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="787" operator="lessThan">
+      <formula>H38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ39">
+    <cfRule type="cellIs" dxfId="1" priority="791" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="638" operator="lessThan">
-      <formula>H37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE38">
-    <cfRule type="cellIs" dxfId="1" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="792" operator="lessThan">
+      <formula>H39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ40">
+    <cfRule type="cellIs" dxfId="1" priority="796" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="643" operator="lessThan">
-      <formula>H38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE39">
-    <cfRule type="cellIs" dxfId="1" priority="647" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="797" operator="lessThan">
+      <formula>H40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ42">
+    <cfRule type="cellIs" dxfId="1" priority="801" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="648" operator="lessThan">
-      <formula>H39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE40">
-    <cfRule type="cellIs" dxfId="1" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="802" operator="lessThan">
+      <formula>H42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ7">
+    <cfRule type="cellIs" dxfId="1" priority="667" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="653" operator="lessThan">
-      <formula>H40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE42">
-    <cfRule type="cellIs" dxfId="1" priority="657" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="668" operator="lessThan">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ8">
+    <cfRule type="cellIs" dxfId="1" priority="672" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="658" operator="lessThan">
-      <formula>H42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE7">
-    <cfRule type="cellIs" dxfId="1" priority="517" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="518" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE8">
-    <cfRule type="cellIs" dxfId="1" priority="522" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="523" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="673" operator="lessThan">
       <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE9">
-    <cfRule type="cellIs" dxfId="1" priority="527" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="528" operator="lessThan">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF10">
-    <cfRule type="cellIs" dxfId="1" priority="534" operator="greaterThan">
-      <formula>AE10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11">
-    <cfRule type="cellIs" dxfId="1" priority="539" operator="greaterThan">
-      <formula>AE11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF12">
-    <cfRule type="cellIs" dxfId="1" priority="544" operator="greaterThan">
-      <formula>AE12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13">
-    <cfRule type="cellIs" dxfId="1" priority="549" operator="greaterThan">
-      <formula>AE13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14">
-    <cfRule type="cellIs" dxfId="1" priority="554" operator="greaterThan">
-      <formula>AE14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
-    <cfRule type="cellIs" dxfId="1" priority="559" operator="greaterThan">
-      <formula>AE15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF21">
-    <cfRule type="cellIs" dxfId="1" priority="564" operator="greaterThan">
-      <formula>AE21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF22">
-    <cfRule type="cellIs" dxfId="1" priority="569" operator="greaterThan">
-      <formula>AE22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF23">
-    <cfRule type="cellIs" dxfId="1" priority="574" operator="greaterThan">
-      <formula>AE23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF24">
-    <cfRule type="cellIs" dxfId="1" priority="579" operator="greaterThan">
-      <formula>AE24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF25">
-    <cfRule type="cellIs" dxfId="1" priority="584" operator="greaterThan">
-      <formula>AE25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF26">
-    <cfRule type="cellIs" dxfId="1" priority="589" operator="greaterThan">
-      <formula>AE26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
-    <cfRule type="cellIs" dxfId="1" priority="594" operator="greaterThan">
-      <formula>AE27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF28">
-    <cfRule type="cellIs" dxfId="1" priority="599" operator="greaterThan">
-      <formula>AE28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF29">
-    <cfRule type="cellIs" dxfId="1" priority="604" operator="greaterThan">
-      <formula>AE29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF30">
-    <cfRule type="cellIs" dxfId="1" priority="609" operator="greaterThan">
-      <formula>AE30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF31">
-    <cfRule type="cellIs" dxfId="1" priority="614" operator="greaterThan">
-      <formula>AE31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF32">
-    <cfRule type="cellIs" dxfId="1" priority="619" operator="greaterThan">
-      <formula>AE32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF34">
-    <cfRule type="cellIs" dxfId="1" priority="624" operator="greaterThan">
-      <formula>AE34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF35">
-    <cfRule type="cellIs" dxfId="1" priority="629" operator="greaterThan">
-      <formula>AE35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF36">
-    <cfRule type="cellIs" dxfId="1" priority="634" operator="greaterThan">
-      <formula>AE36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF37">
-    <cfRule type="cellIs" dxfId="1" priority="639" operator="greaterThan">
-      <formula>AE37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF38">
-    <cfRule type="cellIs" dxfId="1" priority="644" operator="greaterThan">
-      <formula>AE38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF39">
-    <cfRule type="cellIs" dxfId="1" priority="649" operator="greaterThan">
-      <formula>AE39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF40">
-    <cfRule type="cellIs" dxfId="1" priority="654" operator="greaterThan">
-      <formula>AE40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF42">
-    <cfRule type="cellIs" dxfId="1" priority="659" operator="greaterThan">
-      <formula>AE42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF7">
-    <cfRule type="cellIs" dxfId="1" priority="519" operator="greaterThan">
-      <formula>AE7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF8">
-    <cfRule type="cellIs" dxfId="1" priority="524" operator="greaterThan">
-      <formula>AE8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF9">
-    <cfRule type="cellIs" dxfId="1" priority="529" operator="greaterThan">
-      <formula>AE9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG10">
-    <cfRule type="cellIs" dxfId="4" priority="536" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG11">
-    <cfRule type="cellIs" dxfId="4" priority="541" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG12">
-    <cfRule type="cellIs" dxfId="4" priority="546" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG13">
-    <cfRule type="cellIs" dxfId="4" priority="551" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG14">
-    <cfRule type="cellIs" dxfId="4" priority="556" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG15">
-    <cfRule type="cellIs" dxfId="4" priority="561" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG21">
-    <cfRule type="cellIs" dxfId="4" priority="566" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG22">
-    <cfRule type="cellIs" dxfId="4" priority="571" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG23">
-    <cfRule type="cellIs" dxfId="4" priority="576" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG24">
-    <cfRule type="cellIs" dxfId="4" priority="581" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG25">
-    <cfRule type="cellIs" dxfId="4" priority="586" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG26">
-    <cfRule type="cellIs" dxfId="4" priority="591" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG27">
-    <cfRule type="cellIs" dxfId="4" priority="596" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG28">
-    <cfRule type="cellIs" dxfId="4" priority="601" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG29">
-    <cfRule type="cellIs" dxfId="4" priority="606" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG30">
-    <cfRule type="cellIs" dxfId="4" priority="611" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG31">
-    <cfRule type="cellIs" dxfId="4" priority="616" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG32">
-    <cfRule type="cellIs" dxfId="4" priority="621" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG34">
-    <cfRule type="cellIs" dxfId="4" priority="626" operator="lessThanOrEqual">
-      <formula>I34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG35">
-    <cfRule type="cellIs" dxfId="4" priority="631" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG36">
-    <cfRule type="cellIs" dxfId="4" priority="636" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG37">
-    <cfRule type="cellIs" dxfId="4" priority="641" operator="lessThanOrEqual">
-      <formula>I37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG38">
-    <cfRule type="cellIs" dxfId="4" priority="646" operator="lessThanOrEqual">
-      <formula>I38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG39">
-    <cfRule type="cellIs" dxfId="4" priority="651" operator="lessThanOrEqual">
-      <formula>I39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG40">
-    <cfRule type="cellIs" dxfId="4" priority="656" operator="lessThanOrEqual">
-      <formula>I40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG42">
-    <cfRule type="cellIs" dxfId="4" priority="661" operator="lessThanOrEqual">
-      <formula>I42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG7">
-    <cfRule type="cellIs" dxfId="4" priority="521" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG8">
-    <cfRule type="cellIs" dxfId="4" priority="526" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG9">
-    <cfRule type="cellIs" dxfId="4" priority="531" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH10">
-    <cfRule type="cellIs" dxfId="4" priority="535" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH11">
-    <cfRule type="cellIs" dxfId="4" priority="540" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH12">
-    <cfRule type="cellIs" dxfId="4" priority="545" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH13">
-    <cfRule type="cellIs" dxfId="4" priority="550" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH14">
-    <cfRule type="cellIs" dxfId="4" priority="555" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="4" priority="560" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH21">
-    <cfRule type="cellIs" dxfId="4" priority="565" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH22">
-    <cfRule type="cellIs" dxfId="4" priority="570" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH23">
-    <cfRule type="cellIs" dxfId="4" priority="575" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH24">
-    <cfRule type="cellIs" dxfId="4" priority="580" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH25">
-    <cfRule type="cellIs" dxfId="4" priority="585" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH26">
-    <cfRule type="cellIs" dxfId="4" priority="590" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH27">
-    <cfRule type="cellIs" dxfId="4" priority="595" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH28">
-    <cfRule type="cellIs" dxfId="4" priority="600" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH29">
-    <cfRule type="cellIs" dxfId="4" priority="605" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH30">
-    <cfRule type="cellIs" dxfId="4" priority="610" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH31">
-    <cfRule type="cellIs" dxfId="4" priority="615" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH32">
-    <cfRule type="cellIs" dxfId="4" priority="620" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH34">
-    <cfRule type="cellIs" dxfId="4" priority="625" operator="lessThanOrEqual">
-      <formula>J34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH35">
-    <cfRule type="cellIs" dxfId="4" priority="630" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH36">
-    <cfRule type="cellIs" dxfId="4" priority="635" operator="lessThanOrEqual">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH37">
-    <cfRule type="cellIs" dxfId="4" priority="640" operator="lessThanOrEqual">
-      <formula>J37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH38">
-    <cfRule type="cellIs" dxfId="4" priority="645" operator="lessThanOrEqual">
-      <formula>J38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH39">
-    <cfRule type="cellIs" dxfId="4" priority="650" operator="lessThanOrEqual">
-      <formula>J39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH40">
-    <cfRule type="cellIs" dxfId="4" priority="655" operator="lessThanOrEqual">
-      <formula>J40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH42">
-    <cfRule type="cellIs" dxfId="4" priority="660" operator="lessThanOrEqual">
-      <formula>J42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH7">
-    <cfRule type="cellIs" dxfId="4" priority="520" operator="lessThanOrEqual">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH8">
-    <cfRule type="cellIs" dxfId="4" priority="525" operator="lessThanOrEqual">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH9">
-    <cfRule type="cellIs" dxfId="4" priority="530" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ10">
+  <conditionalFormatting sqref="AJ9">
     <cfRule type="cellIs" dxfId="1" priority="678" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="679" operator="lessThan">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ11">
-    <cfRule type="cellIs" dxfId="1" priority="683" operator="equal">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK10">
+    <cfRule type="cellIs" dxfId="1" priority="685" operator="greaterThan">
+      <formula>AJ10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK11">
+    <cfRule type="cellIs" dxfId="1" priority="690" operator="greaterThan">
+      <formula>AJ11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK12">
+    <cfRule type="cellIs" dxfId="1" priority="695" operator="greaterThan">
+      <formula>AJ12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13">
+    <cfRule type="cellIs" dxfId="1" priority="700" operator="greaterThan">
+      <formula>AJ13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK14">
+    <cfRule type="cellIs" dxfId="1" priority="705" operator="greaterThan">
+      <formula>AJ14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK15">
+    <cfRule type="cellIs" dxfId="1" priority="710" operator="greaterThan">
+      <formula>AJ15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK21">
+    <cfRule type="cellIs" dxfId="1" priority="715" operator="greaterThan">
+      <formula>AJ21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK22">
+    <cfRule type="cellIs" dxfId="1" priority="720" operator="greaterThan">
+      <formula>AJ22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK23">
+    <cfRule type="cellIs" dxfId="1" priority="725" operator="greaterThan">
+      <formula>AJ23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK24">
+    <cfRule type="cellIs" dxfId="1" priority="730" operator="greaterThan">
+      <formula>AJ24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK25">
+    <cfRule type="expression" dxfId="3" priority="735">
+      <formula>AND(AK25&gt;0,AK25&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="736" operator="greaterThan">
+      <formula>AJ25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK26">
+    <cfRule type="cellIs" dxfId="1" priority="741" operator="greaterThan">
+      <formula>AJ26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK27">
+    <cfRule type="expression" dxfId="3" priority="746">
+      <formula>AND(AK27&gt;0,AK27&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="747" operator="greaterThan">
+      <formula>AJ27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK29">
+    <cfRule type="cellIs" dxfId="1" priority="752" operator="greaterThan">
+      <formula>AJ29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK30">
+    <cfRule type="cellIs" dxfId="1" priority="757" operator="greaterThan">
+      <formula>AJ30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK31">
+    <cfRule type="cellIs" dxfId="1" priority="762" operator="greaterThan">
+      <formula>AJ31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK32">
+    <cfRule type="expression" dxfId="3" priority="767">
+      <formula>AND(AK32&gt;0,AK32&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="768" operator="greaterThan">
+      <formula>AJ32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK34">
+    <cfRule type="cellIs" dxfId="1" priority="773" operator="greaterThan">
+      <formula>AJ34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK35">
+    <cfRule type="cellIs" dxfId="1" priority="778" operator="greaterThan">
+      <formula>AJ35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK36">
+    <cfRule type="cellIs" dxfId="1" priority="783" operator="greaterThan">
+      <formula>AJ36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK38">
+    <cfRule type="cellIs" dxfId="1" priority="788" operator="greaterThan">
+      <formula>AJ38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK39">
+    <cfRule type="cellIs" dxfId="1" priority="793" operator="greaterThan">
+      <formula>AJ39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK40">
+    <cfRule type="cellIs" dxfId="1" priority="798" operator="greaterThan">
+      <formula>AJ40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK42">
+    <cfRule type="cellIs" dxfId="1" priority="803" operator="greaterThan">
+      <formula>AJ42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK7">
+    <cfRule type="cellIs" dxfId="1" priority="669" operator="greaterThan">
+      <formula>AJ7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK8">
+    <cfRule type="expression" dxfId="3" priority="674">
+      <formula>AND(AK8&gt;0,AK8&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="675" operator="greaterThan">
+      <formula>AJ8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK9">
+    <cfRule type="cellIs" dxfId="1" priority="680" operator="greaterThan">
+      <formula>AJ9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL10">
+    <cfRule type="cellIs" dxfId="4" priority="687" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL11">
+    <cfRule type="cellIs" dxfId="4" priority="692" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL12">
+    <cfRule type="cellIs" dxfId="4" priority="697" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL13">
+    <cfRule type="cellIs" dxfId="4" priority="702" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL14">
+    <cfRule type="cellIs" dxfId="4" priority="707" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL15">
+    <cfRule type="cellIs" dxfId="4" priority="712" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL21">
+    <cfRule type="cellIs" dxfId="4" priority="717" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL22">
+    <cfRule type="cellIs" dxfId="4" priority="722" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL23">
+    <cfRule type="cellIs" dxfId="4" priority="727" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL24">
+    <cfRule type="cellIs" dxfId="4" priority="732" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL25">
+    <cfRule type="cellIs" dxfId="4" priority="738" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL26">
+    <cfRule type="cellIs" dxfId="4" priority="743" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL27">
+    <cfRule type="cellIs" dxfId="4" priority="749" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL29">
+    <cfRule type="cellIs" dxfId="4" priority="754" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL30">
+    <cfRule type="cellIs" dxfId="4" priority="759" operator="lessThanOrEqual">
+      <formula>I30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL31">
+    <cfRule type="cellIs" dxfId="4" priority="764" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL32">
+    <cfRule type="cellIs" dxfId="4" priority="770" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL34">
+    <cfRule type="cellIs" dxfId="4" priority="775" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL35">
+    <cfRule type="cellIs" dxfId="4" priority="780" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL36">
+    <cfRule type="cellIs" dxfId="4" priority="785" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL38">
+    <cfRule type="cellIs" dxfId="4" priority="790" operator="lessThanOrEqual">
+      <formula>I38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL39">
+    <cfRule type="cellIs" dxfId="4" priority="795" operator="lessThanOrEqual">
+      <formula>I39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL40">
+    <cfRule type="cellIs" dxfId="4" priority="800" operator="lessThanOrEqual">
+      <formula>I40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL42">
+    <cfRule type="cellIs" dxfId="4" priority="805" operator="lessThanOrEqual">
+      <formula>I42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL7">
+    <cfRule type="cellIs" dxfId="4" priority="671" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL8">
+    <cfRule type="cellIs" dxfId="4" priority="677" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL9">
+    <cfRule type="cellIs" dxfId="4" priority="682" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM10">
+    <cfRule type="cellIs" dxfId="4" priority="686" operator="lessThanOrEqual">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM11">
+    <cfRule type="cellIs" dxfId="4" priority="691" operator="lessThanOrEqual">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM12">
+    <cfRule type="cellIs" dxfId="4" priority="696" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM13">
+    <cfRule type="cellIs" dxfId="4" priority="701" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM14">
+    <cfRule type="cellIs" dxfId="4" priority="706" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM15">
+    <cfRule type="cellIs" dxfId="4" priority="711" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM21">
+    <cfRule type="cellIs" dxfId="4" priority="716" operator="lessThanOrEqual">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM22">
+    <cfRule type="cellIs" dxfId="4" priority="721" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM23">
+    <cfRule type="cellIs" dxfId="4" priority="726" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM24">
+    <cfRule type="cellIs" dxfId="4" priority="731" operator="lessThanOrEqual">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM25">
+    <cfRule type="cellIs" dxfId="4" priority="737" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM26">
+    <cfRule type="cellIs" dxfId="4" priority="742" operator="lessThanOrEqual">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM27">
+    <cfRule type="cellIs" dxfId="4" priority="748" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM29">
+    <cfRule type="cellIs" dxfId="4" priority="753" operator="lessThanOrEqual">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM30">
+    <cfRule type="cellIs" dxfId="4" priority="758" operator="lessThanOrEqual">
+      <formula>J30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM31">
+    <cfRule type="cellIs" dxfId="4" priority="763" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM32">
+    <cfRule type="cellIs" dxfId="4" priority="769" operator="lessThanOrEqual">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM34">
+    <cfRule type="cellIs" dxfId="4" priority="774" operator="lessThanOrEqual">
+      <formula>J34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM35">
+    <cfRule type="cellIs" dxfId="4" priority="779" operator="lessThanOrEqual">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM36">
+    <cfRule type="cellIs" dxfId="4" priority="784" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM38">
+    <cfRule type="cellIs" dxfId="4" priority="789" operator="lessThanOrEqual">
+      <formula>J38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM39">
+    <cfRule type="cellIs" dxfId="4" priority="794" operator="lessThanOrEqual">
+      <formula>J39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM40">
+    <cfRule type="cellIs" dxfId="4" priority="799" operator="lessThanOrEqual">
+      <formula>J40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM42">
+    <cfRule type="cellIs" dxfId="4" priority="804" operator="lessThanOrEqual">
+      <formula>J42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM7">
+    <cfRule type="cellIs" dxfId="4" priority="670" operator="lessThanOrEqual">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM8">
+    <cfRule type="cellIs" dxfId="4" priority="676" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM9">
+    <cfRule type="cellIs" dxfId="4" priority="681" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO12">
+    <cfRule type="cellIs" dxfId="1" priority="812" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="684" operator="lessThan">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ12">
-    <cfRule type="cellIs" dxfId="1" priority="688" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="813" operator="lessThan">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO13">
+    <cfRule type="cellIs" dxfId="1" priority="818" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="689" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ13">
-    <cfRule type="cellIs" dxfId="1" priority="693" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="819" operator="lessThan">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO23">
+    <cfRule type="cellIs" dxfId="1" priority="824" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="694" operator="lessThan">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ14">
-    <cfRule type="cellIs" dxfId="1" priority="698" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="825" operator="lessThan">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO24">
+    <cfRule type="cellIs" dxfId="1" priority="830" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="699" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="831" operator="lessThan">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO25">
+    <cfRule type="cellIs" dxfId="1" priority="836" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="837" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO27">
+    <cfRule type="cellIs" dxfId="1" priority="842" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="843" operator="lessThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO29">
+    <cfRule type="cellIs" dxfId="1" priority="848" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="849" operator="lessThan">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO30">
+    <cfRule type="cellIs" dxfId="1" priority="854" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="855" operator="lessThan">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO32">
+    <cfRule type="cellIs" dxfId="1" priority="860" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="861" operator="lessThan">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO35">
+    <cfRule type="cellIs" dxfId="1" priority="866" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="867" operator="lessThan">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO39">
+    <cfRule type="cellIs" dxfId="1" priority="872" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="873" operator="lessThan">
+      <formula>H39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO40">
+    <cfRule type="cellIs" dxfId="1" priority="878" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="879" operator="lessThan">
+      <formula>H40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO8">
+    <cfRule type="cellIs" dxfId="1" priority="806" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="807" operator="lessThan">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP12">
+    <cfRule type="expression" dxfId="3" priority="814">
+      <formula>AND(AP12&gt;0,AP12&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="815" operator="greaterThan">
+      <formula>AO12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP13">
+    <cfRule type="expression" dxfId="3" priority="820">
+      <formula>AND(AP13&gt;0,AP13&lt;50)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="821" operator="greaterThan">
+      <formula>AO13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP23">
+    <cfRule type="expression" dxfId="3" priority="826">
+      <formula>AND(AP23&gt;0,AP23&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="827" operator="greaterThan">
+      <formula>AO23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP24">
+    <cfRule type="expression" dxfId="3" priority="832">
+      <formula>AND(AP24&gt;0,AP24&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="833" operator="greaterThan">
+      <formula>AO24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP25">
+    <cfRule type="expression" dxfId="3" priority="838">
+      <formula>AND(AP25&gt;0,AP25&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="839" operator="greaterThan">
+      <formula>AO25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP27">
+    <cfRule type="expression" dxfId="3" priority="844">
+      <formula>AND(AP27&gt;0,AP27&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="845" operator="greaterThan">
+      <formula>AO27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP29">
+    <cfRule type="expression" dxfId="3" priority="850">
+      <formula>AND(AP29&gt;0,AP29&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="851" operator="greaterThan">
+      <formula>AO29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP30">
+    <cfRule type="expression" dxfId="3" priority="856">
+      <formula>AND(AP30&gt;0,AP30&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="857" operator="greaterThan">
+      <formula>AO30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP32">
+    <cfRule type="expression" dxfId="3" priority="862">
+      <formula>AND(AP32&gt;0,AP32&lt;30)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="863" operator="greaterThan">
+      <formula>AO32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP35">
+    <cfRule type="expression" dxfId="3" priority="868">
+      <formula>AND(AP35&gt;0,AP35&lt;18)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="869" operator="greaterThan">
+      <formula>AO35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP39">
+    <cfRule type="expression" dxfId="3" priority="874">
+      <formula>AND(AP39&gt;0,AP39&lt;50)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="875" operator="greaterThan">
+      <formula>AO39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP40">
+    <cfRule type="expression" dxfId="3" priority="880">
+      <formula>AND(AP40&gt;0,AP40&lt;20)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="881" operator="greaterThan">
+      <formula>AO40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP8">
+    <cfRule type="expression" dxfId="3" priority="808">
+      <formula>AND(AP8&gt;0,AP8&lt;20)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="809" operator="greaterThan">
+      <formula>AO8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ12">
+    <cfRule type="cellIs" dxfId="4" priority="817" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ13">
+    <cfRule type="cellIs" dxfId="4" priority="823" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ23">
+    <cfRule type="cellIs" dxfId="4" priority="829" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ24">
+    <cfRule type="cellIs" dxfId="4" priority="835" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ25">
+    <cfRule type="cellIs" dxfId="4" priority="841" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ27">
+    <cfRule type="cellIs" dxfId="4" priority="847" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ29">
+    <cfRule type="cellIs" dxfId="4" priority="853" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ30">
+    <cfRule type="cellIs" dxfId="4" priority="859" operator="lessThanOrEqual">
+      <formula>I30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ32">
+    <cfRule type="cellIs" dxfId="4" priority="865" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ35">
+    <cfRule type="cellIs" dxfId="4" priority="871" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ39">
+    <cfRule type="cellIs" dxfId="4" priority="877" operator="lessThanOrEqual">
+      <formula>I39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ40">
+    <cfRule type="cellIs" dxfId="4" priority="883" operator="lessThanOrEqual">
+      <formula>I40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ8">
+    <cfRule type="cellIs" dxfId="4" priority="811" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR12">
+    <cfRule type="cellIs" dxfId="4" priority="816" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR13">
+    <cfRule type="cellIs" dxfId="4" priority="822" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR23">
+    <cfRule type="cellIs" dxfId="4" priority="828" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR24">
+    <cfRule type="cellIs" dxfId="4" priority="834" operator="lessThanOrEqual">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR25">
+    <cfRule type="cellIs" dxfId="4" priority="840" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR27">
+    <cfRule type="cellIs" dxfId="4" priority="846" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR29">
+    <cfRule type="cellIs" dxfId="4" priority="852" operator="lessThanOrEqual">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR30">
+    <cfRule type="cellIs" dxfId="4" priority="858" operator="lessThanOrEqual">
+      <formula>J30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR32">
+    <cfRule type="cellIs" dxfId="4" priority="864" operator="lessThanOrEqual">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR35">
+    <cfRule type="cellIs" dxfId="4" priority="870" operator="lessThanOrEqual">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR39">
+    <cfRule type="cellIs" dxfId="4" priority="876" operator="lessThanOrEqual">
+      <formula>J39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR40">
+    <cfRule type="cellIs" dxfId="4" priority="882" operator="lessThanOrEqual">
+      <formula>J40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR8">
+    <cfRule type="cellIs" dxfId="4" priority="810" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT14">
+    <cfRule type="cellIs" dxfId="1" priority="884" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="885" operator="lessThan">
       <formula>H14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ15">
-    <cfRule type="cellIs" dxfId="1" priority="703" operator="equal">
+  <conditionalFormatting sqref="AT15">
+    <cfRule type="cellIs" dxfId="1" priority="890" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="704" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="891" operator="lessThan">
       <formula>H15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ21">
-    <cfRule type="cellIs" dxfId="1" priority="708" operator="equal">
+  <conditionalFormatting sqref="AT39">
+    <cfRule type="cellIs" dxfId="1" priority="896" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="709" operator="lessThan">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ22">
-    <cfRule type="cellIs" dxfId="1" priority="713" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="897" operator="lessThan">
+      <formula>H39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT40">
+    <cfRule type="cellIs" dxfId="1" priority="902" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="714" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ23">
-    <cfRule type="cellIs" dxfId="1" priority="718" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="719" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ24">
-    <cfRule type="cellIs" dxfId="1" priority="723" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="724" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ25">
-    <cfRule type="cellIs" dxfId="1" priority="728" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="729" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ26">
-    <cfRule type="cellIs" dxfId="1" priority="734" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="735" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27">
-    <cfRule type="cellIs" dxfId="1" priority="739" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="740" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ29">
-    <cfRule type="cellIs" dxfId="1" priority="745" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="746" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ30">
-    <cfRule type="cellIs" dxfId="1" priority="750" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="751" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ31">
-    <cfRule type="cellIs" dxfId="1" priority="755" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="756" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ32">
-    <cfRule type="cellIs" dxfId="1" priority="760" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="761" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ34">
-    <cfRule type="cellIs" dxfId="1" priority="766" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="767" operator="lessThan">
-      <formula>H34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ35">
-    <cfRule type="cellIs" dxfId="1" priority="771" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="772" operator="lessThan">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ36">
-    <cfRule type="cellIs" dxfId="1" priority="776" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="777" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ38">
-    <cfRule type="cellIs" dxfId="1" priority="781" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="782" operator="lessThan">
-      <formula>H38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ39">
-    <cfRule type="cellIs" dxfId="1" priority="786" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="787" operator="lessThan">
-      <formula>H39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ40">
-    <cfRule type="cellIs" dxfId="1" priority="791" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="792" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="903" operator="lessThan">
       <formula>H40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ42">
-    <cfRule type="cellIs" dxfId="1" priority="796" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="797" operator="lessThan">
-      <formula>H42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ7">
-    <cfRule type="cellIs" dxfId="1" priority="662" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="663" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ8">
-    <cfRule type="cellIs" dxfId="1" priority="667" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="668" operator="lessThan">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9">
-    <cfRule type="cellIs" dxfId="1" priority="673" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="674" operator="lessThan">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK10">
-    <cfRule type="cellIs" dxfId="1" priority="680" operator="greaterThan">
-      <formula>AJ10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK11">
-    <cfRule type="cellIs" dxfId="1" priority="685" operator="greaterThan">
-      <formula>AJ11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK12">
-    <cfRule type="cellIs" dxfId="1" priority="690" operator="greaterThan">
-      <formula>AJ12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK13">
-    <cfRule type="cellIs" dxfId="1" priority="695" operator="greaterThan">
-      <formula>AJ13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK14">
-    <cfRule type="cellIs" dxfId="1" priority="700" operator="greaterThan">
-      <formula>AJ14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK15">
-    <cfRule type="cellIs" dxfId="1" priority="705" operator="greaterThan">
-      <formula>AJ15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK21">
-    <cfRule type="cellIs" dxfId="1" priority="710" operator="greaterThan">
-      <formula>AJ21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK22">
-    <cfRule type="cellIs" dxfId="1" priority="715" operator="greaterThan">
-      <formula>AJ22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK23">
-    <cfRule type="cellIs" dxfId="1" priority="720" operator="greaterThan">
-      <formula>AJ23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK24">
-    <cfRule type="cellIs" dxfId="1" priority="725" operator="greaterThan">
-      <formula>AJ24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK25">
-    <cfRule type="expression" dxfId="3" priority="730">
-      <formula>AND(AK25&gt;0,AK25&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="731" operator="greaterThan">
-      <formula>AJ25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK26">
-    <cfRule type="cellIs" dxfId="1" priority="736" operator="greaterThan">
-      <formula>AJ26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK27">
-    <cfRule type="expression" dxfId="3" priority="741">
-      <formula>AND(AK27&gt;0,AK27&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="742" operator="greaterThan">
-      <formula>AJ27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK29">
-    <cfRule type="cellIs" dxfId="1" priority="747" operator="greaterThan">
-      <formula>AJ29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK30">
-    <cfRule type="cellIs" dxfId="1" priority="752" operator="greaterThan">
-      <formula>AJ30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK31">
-    <cfRule type="cellIs" dxfId="1" priority="757" operator="greaterThan">
-      <formula>AJ31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK32">
-    <cfRule type="expression" dxfId="3" priority="762">
-      <formula>AND(AK32&gt;0,AK32&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="763" operator="greaterThan">
-      <formula>AJ32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK34">
-    <cfRule type="cellIs" dxfId="1" priority="768" operator="greaterThan">
-      <formula>AJ34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK35">
-    <cfRule type="cellIs" dxfId="1" priority="773" operator="greaterThan">
-      <formula>AJ35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK36">
-    <cfRule type="cellIs" dxfId="1" priority="778" operator="greaterThan">
-      <formula>AJ36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK38">
-    <cfRule type="cellIs" dxfId="1" priority="783" operator="greaterThan">
-      <formula>AJ38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK39">
-    <cfRule type="cellIs" dxfId="1" priority="788" operator="greaterThan">
-      <formula>AJ39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK40">
-    <cfRule type="cellIs" dxfId="1" priority="793" operator="greaterThan">
-      <formula>AJ40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK42">
-    <cfRule type="cellIs" dxfId="1" priority="798" operator="greaterThan">
-      <formula>AJ42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK7">
-    <cfRule type="cellIs" dxfId="1" priority="664" operator="greaterThan">
-      <formula>AJ7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK8">
-    <cfRule type="expression" dxfId="3" priority="669">
-      <formula>AND(AK8&gt;0,AK8&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="670" operator="greaterThan">
-      <formula>AJ8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK9">
-    <cfRule type="cellIs" dxfId="1" priority="675" operator="greaterThan">
-      <formula>AJ9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL10">
-    <cfRule type="cellIs" dxfId="4" priority="682" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL11">
-    <cfRule type="cellIs" dxfId="4" priority="687" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL12">
-    <cfRule type="cellIs" dxfId="4" priority="692" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL13">
-    <cfRule type="cellIs" dxfId="4" priority="697" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL14">
-    <cfRule type="cellIs" dxfId="4" priority="702" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AU14">
+    <cfRule type="expression" dxfId="3" priority="886">
+      <formula>AND(AU14&gt;0,AU14&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="887" operator="greaterThan">
+      <formula>AT14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU15">
+    <cfRule type="expression" dxfId="3" priority="892">
+      <formula>AND(AU15&gt;0,AU15&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="893" operator="greaterThan">
+      <formula>AT15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU39">
+    <cfRule type="expression" dxfId="3" priority="898">
+      <formula>AND(AU39&gt;0,AU39&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="899" operator="greaterThan">
+      <formula>AT39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU40">
+    <cfRule type="cellIs" dxfId="1" priority="904" operator="greaterThan">
+      <formula>AT40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV14">
+    <cfRule type="cellIs" dxfId="4" priority="889" operator="lessThanOrEqual">
       <formula>I14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL15">
-    <cfRule type="cellIs" dxfId="4" priority="707" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AV15">
+    <cfRule type="cellIs" dxfId="4" priority="895" operator="lessThanOrEqual">
       <formula>I15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL21">
-    <cfRule type="cellIs" dxfId="4" priority="712" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL22">
-    <cfRule type="cellIs" dxfId="4" priority="717" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL23">
-    <cfRule type="cellIs" dxfId="4" priority="722" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL24">
-    <cfRule type="cellIs" dxfId="4" priority="727" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL25">
-    <cfRule type="cellIs" dxfId="4" priority="733" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL26">
-    <cfRule type="cellIs" dxfId="4" priority="738" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL27">
-    <cfRule type="cellIs" dxfId="4" priority="744" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL29">
-    <cfRule type="cellIs" dxfId="4" priority="749" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL30">
-    <cfRule type="cellIs" dxfId="4" priority="754" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL31">
-    <cfRule type="cellIs" dxfId="4" priority="759" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL32">
-    <cfRule type="cellIs" dxfId="4" priority="765" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL34">
-    <cfRule type="cellIs" dxfId="4" priority="770" operator="lessThanOrEqual">
-      <formula>I34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL35">
-    <cfRule type="cellIs" dxfId="4" priority="775" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL36">
-    <cfRule type="cellIs" dxfId="4" priority="780" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL38">
-    <cfRule type="cellIs" dxfId="4" priority="785" operator="lessThanOrEqual">
-      <formula>I38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL39">
-    <cfRule type="cellIs" dxfId="4" priority="790" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AV39">
+    <cfRule type="cellIs" dxfId="4" priority="901" operator="lessThanOrEqual">
       <formula>I39</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL40">
-    <cfRule type="cellIs" dxfId="4" priority="795" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AV40">
+    <cfRule type="cellIs" dxfId="4" priority="906" operator="lessThanOrEqual">
       <formula>I40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL42">
-    <cfRule type="cellIs" dxfId="4" priority="800" operator="lessThanOrEqual">
-      <formula>I42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL7">
-    <cfRule type="cellIs" dxfId="4" priority="666" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL8">
-    <cfRule type="cellIs" dxfId="4" priority="672" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL9">
-    <cfRule type="cellIs" dxfId="4" priority="677" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM10">
-    <cfRule type="cellIs" dxfId="4" priority="681" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM11">
-    <cfRule type="cellIs" dxfId="4" priority="686" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM12">
-    <cfRule type="cellIs" dxfId="4" priority="691" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM13">
-    <cfRule type="cellIs" dxfId="4" priority="696" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM14">
-    <cfRule type="cellIs" dxfId="4" priority="701" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AW14">
+    <cfRule type="cellIs" dxfId="4" priority="888" operator="lessThanOrEqual">
       <formula>J14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM15">
-    <cfRule type="cellIs" dxfId="4" priority="706" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AW15">
+    <cfRule type="cellIs" dxfId="4" priority="894" operator="lessThanOrEqual">
       <formula>J15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM21">
-    <cfRule type="cellIs" dxfId="4" priority="711" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM22">
-    <cfRule type="cellIs" dxfId="4" priority="716" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM23">
-    <cfRule type="cellIs" dxfId="4" priority="721" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM24">
-    <cfRule type="cellIs" dxfId="4" priority="726" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM25">
-    <cfRule type="cellIs" dxfId="4" priority="732" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM26">
-    <cfRule type="cellIs" dxfId="4" priority="737" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM27">
-    <cfRule type="cellIs" dxfId="4" priority="743" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM29">
-    <cfRule type="cellIs" dxfId="4" priority="748" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM30">
-    <cfRule type="cellIs" dxfId="4" priority="753" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM31">
-    <cfRule type="cellIs" dxfId="4" priority="758" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM32">
-    <cfRule type="cellIs" dxfId="4" priority="764" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM34">
-    <cfRule type="cellIs" dxfId="4" priority="769" operator="lessThanOrEqual">
-      <formula>J34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM35">
-    <cfRule type="cellIs" dxfId="4" priority="774" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM36">
-    <cfRule type="cellIs" dxfId="4" priority="779" operator="lessThanOrEqual">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM38">
-    <cfRule type="cellIs" dxfId="4" priority="784" operator="lessThanOrEqual">
-      <formula>J38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM39">
-    <cfRule type="cellIs" dxfId="4" priority="789" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AW39">
+    <cfRule type="cellIs" dxfId="4" priority="900" operator="lessThanOrEqual">
       <formula>J39</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM40">
-    <cfRule type="cellIs" dxfId="4" priority="794" operator="lessThanOrEqual">
-      <formula>J40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM42">
-    <cfRule type="cellIs" dxfId="4" priority="799" operator="lessThanOrEqual">
-      <formula>J42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM7">
-    <cfRule type="cellIs" dxfId="4" priority="665" operator="lessThanOrEqual">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM8">
-    <cfRule type="cellIs" dxfId="4" priority="671" operator="lessThanOrEqual">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM9">
-    <cfRule type="cellIs" dxfId="4" priority="676" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO12">
-    <cfRule type="cellIs" dxfId="1" priority="807" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="808" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO13">
-    <cfRule type="cellIs" dxfId="1" priority="813" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="814" operator="lessThan">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO23">
-    <cfRule type="cellIs" dxfId="1" priority="819" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="820" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO24">
-    <cfRule type="cellIs" dxfId="1" priority="825" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="826" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO25">
-    <cfRule type="cellIs" dxfId="1" priority="831" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="832" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO27">
-    <cfRule type="cellIs" dxfId="1" priority="837" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="838" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO29">
-    <cfRule type="cellIs" dxfId="1" priority="843" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="844" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO30">
-    <cfRule type="cellIs" dxfId="1" priority="849" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="850" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO32">
-    <cfRule type="cellIs" dxfId="1" priority="855" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="856" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO35">
-    <cfRule type="cellIs" dxfId="1" priority="861" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="862" operator="lessThan">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO39">
-    <cfRule type="cellIs" dxfId="1" priority="867" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="868" operator="lessThan">
-      <formula>H39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO40">
-    <cfRule type="cellIs" dxfId="1" priority="873" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="874" operator="lessThan">
-      <formula>H40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO8">
-    <cfRule type="cellIs" dxfId="1" priority="801" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="802" operator="lessThan">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP12">
-    <cfRule type="expression" dxfId="3" priority="809">
-      <formula>AND(AP12&gt;0,AP12&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="810" operator="greaterThan">
-      <formula>AO12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP13">
-    <cfRule type="expression" dxfId="3" priority="815">
-      <formula>AND(AP13&gt;0,AP13&lt;50)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="816" operator="greaterThan">
-      <formula>AO13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP23">
-    <cfRule type="expression" dxfId="3" priority="821">
-      <formula>AND(AP23&gt;0,AP23&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="822" operator="greaterThan">
-      <formula>AO23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP24">
-    <cfRule type="expression" dxfId="3" priority="827">
-      <formula>AND(AP24&gt;0,AP24&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="828" operator="greaterThan">
-      <formula>AO24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP25">
-    <cfRule type="expression" dxfId="3" priority="833">
-      <formula>AND(AP25&gt;0,AP25&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="834" operator="greaterThan">
-      <formula>AO25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP27">
-    <cfRule type="expression" dxfId="3" priority="839">
-      <formula>AND(AP27&gt;0,AP27&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="840" operator="greaterThan">
-      <formula>AO27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP29">
-    <cfRule type="expression" dxfId="3" priority="845">
-      <formula>AND(AP29&gt;0,AP29&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="846" operator="greaterThan">
-      <formula>AO29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP30">
-    <cfRule type="expression" dxfId="3" priority="851">
-      <formula>AND(AP30&gt;0,AP30&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="852" operator="greaterThan">
-      <formula>AO30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP32">
-    <cfRule type="expression" dxfId="3" priority="857">
-      <formula>AND(AP32&gt;0,AP32&lt;30)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="858" operator="greaterThan">
-      <formula>AO32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP35">
-    <cfRule type="expression" dxfId="3" priority="863">
-      <formula>AND(AP35&gt;0,AP35&lt;18)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="864" operator="greaterThan">
-      <formula>AO35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP39">
-    <cfRule type="expression" dxfId="3" priority="869">
-      <formula>AND(AP39&gt;0,AP39&lt;50)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="870" operator="greaterThan">
-      <formula>AO39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP40">
-    <cfRule type="expression" dxfId="3" priority="875">
-      <formula>AND(AP40&gt;0,AP40&lt;20)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="876" operator="greaterThan">
-      <formula>AO40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP8">
-    <cfRule type="expression" dxfId="3" priority="803">
-      <formula>AND(AP8&gt;0,AP8&lt;20)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="804" operator="greaterThan">
-      <formula>AO8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ12">
-    <cfRule type="cellIs" dxfId="4" priority="812" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ13">
-    <cfRule type="cellIs" dxfId="4" priority="818" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ23">
-    <cfRule type="cellIs" dxfId="4" priority="824" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ24">
-    <cfRule type="cellIs" dxfId="4" priority="830" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ25">
-    <cfRule type="cellIs" dxfId="4" priority="836" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27">
-    <cfRule type="cellIs" dxfId="4" priority="842" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ29">
-    <cfRule type="cellIs" dxfId="4" priority="848" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ30">
-    <cfRule type="cellIs" dxfId="4" priority="854" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ32">
-    <cfRule type="cellIs" dxfId="4" priority="860" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ35">
-    <cfRule type="cellIs" dxfId="4" priority="866" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ39">
-    <cfRule type="cellIs" dxfId="4" priority="872" operator="lessThanOrEqual">
-      <formula>I39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ40">
-    <cfRule type="cellIs" dxfId="4" priority="878" operator="lessThanOrEqual">
-      <formula>I40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ8">
-    <cfRule type="cellIs" dxfId="4" priority="806" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR12">
-    <cfRule type="cellIs" dxfId="4" priority="811" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR13">
-    <cfRule type="cellIs" dxfId="4" priority="817" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR23">
-    <cfRule type="cellIs" dxfId="4" priority="823" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR24">
-    <cfRule type="cellIs" dxfId="4" priority="829" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR25">
-    <cfRule type="cellIs" dxfId="4" priority="835" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR27">
-    <cfRule type="cellIs" dxfId="4" priority="841" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR29">
-    <cfRule type="cellIs" dxfId="4" priority="847" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR30">
-    <cfRule type="cellIs" dxfId="4" priority="853" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR32">
-    <cfRule type="cellIs" dxfId="4" priority="859" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR35">
-    <cfRule type="cellIs" dxfId="4" priority="865" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR39">
-    <cfRule type="cellIs" dxfId="4" priority="871" operator="lessThanOrEqual">
-      <formula>J39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR40">
-    <cfRule type="cellIs" dxfId="4" priority="877" operator="lessThanOrEqual">
-      <formula>J40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR8">
-    <cfRule type="cellIs" dxfId="4" priority="805" operator="lessThanOrEqual">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT14">
-    <cfRule type="cellIs" dxfId="1" priority="879" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="880" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT15">
-    <cfRule type="cellIs" dxfId="1" priority="885" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="886" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT39">
-    <cfRule type="cellIs" dxfId="1" priority="891" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="892" operator="lessThan">
-      <formula>H39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT40">
-    <cfRule type="cellIs" dxfId="1" priority="897" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="898" operator="lessThan">
-      <formula>H40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU14">
-    <cfRule type="expression" dxfId="3" priority="881">
-      <formula>AND(AU14&gt;0,AU14&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="882" operator="greaterThan">
-      <formula>AT14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU15">
-    <cfRule type="expression" dxfId="3" priority="887">
-      <formula>AND(AU15&gt;0,AU15&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="888" operator="greaterThan">
-      <formula>AT15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU39">
-    <cfRule type="expression" dxfId="3" priority="893">
-      <formula>AND(AU39&gt;0,AU39&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="894" operator="greaterThan">
-      <formula>AT39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU40">
-    <cfRule type="cellIs" dxfId="1" priority="899" operator="greaterThan">
-      <formula>AT40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV14">
-    <cfRule type="cellIs" dxfId="4" priority="884" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV15">
-    <cfRule type="cellIs" dxfId="4" priority="890" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV39">
-    <cfRule type="cellIs" dxfId="4" priority="896" operator="lessThanOrEqual">
-      <formula>I39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV40">
-    <cfRule type="cellIs" dxfId="4" priority="901" operator="lessThanOrEqual">
-      <formula>I40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW14">
-    <cfRule type="cellIs" dxfId="4" priority="883" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW15">
-    <cfRule type="cellIs" dxfId="4" priority="889" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW39">
-    <cfRule type="cellIs" dxfId="4" priority="895" operator="lessThanOrEqual">
-      <formula>J39</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AW40">
-    <cfRule type="cellIs" dxfId="4" priority="900" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="905" operator="lessThanOrEqual">
       <formula>J40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15142,19 +15195,27 @@
       <formula>H30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z36">
+  <conditionalFormatting sqref="Z31">
     <cfRule type="cellIs" dxfId="1" priority="507" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="508" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z37">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z36">
     <cfRule type="cellIs" dxfId="1" priority="512" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="513" operator="lessThan">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z37">
+    <cfRule type="cellIs" dxfId="1" priority="517" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="518" operator="lessThan">
       <formula>H37</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15284,72 +15345,73 @@
     <hyperlink ref="G31" r:id="rId115"/>
     <hyperlink ref="T31" r:id="rId116"/>
     <hyperlink ref="Y31" r:id="rId117"/>
-    <hyperlink ref="AI31" r:id="rId118"/>
-    <hyperlink ref="AN31" r:id="rId119"/>
-    <hyperlink ref="G32" r:id="rId120"/>
-    <hyperlink ref="T32" r:id="rId121"/>
-    <hyperlink ref="Y32" r:id="rId122"/>
-    <hyperlink ref="AI32" r:id="rId123"/>
-    <hyperlink ref="AN32" r:id="rId124"/>
-    <hyperlink ref="AS32" r:id="rId125"/>
-    <hyperlink ref="G33" r:id="rId126"/>
-    <hyperlink ref="T33" r:id="rId127"/>
-    <hyperlink ref="G34" r:id="rId128"/>
-    <hyperlink ref="T34" r:id="rId129"/>
-    <hyperlink ref="Y34" r:id="rId130"/>
-    <hyperlink ref="AI34" r:id="rId131"/>
-    <hyperlink ref="AN34" r:id="rId132"/>
-    <hyperlink ref="G35" r:id="rId133"/>
-    <hyperlink ref="T35" r:id="rId134"/>
-    <hyperlink ref="Y35" r:id="rId135"/>
-    <hyperlink ref="AI35" r:id="rId136"/>
-    <hyperlink ref="AN35" r:id="rId137"/>
-    <hyperlink ref="AS35" r:id="rId138"/>
-    <hyperlink ref="G36" r:id="rId139"/>
-    <hyperlink ref="T36" r:id="rId140"/>
-    <hyperlink ref="Y36" r:id="rId141"/>
-    <hyperlink ref="AD36" r:id="rId142"/>
-    <hyperlink ref="AI36" r:id="rId143"/>
-    <hyperlink ref="AN36" r:id="rId144"/>
-    <hyperlink ref="G37" r:id="rId145"/>
-    <hyperlink ref="T37" r:id="rId146"/>
-    <hyperlink ref="AD37" r:id="rId147"/>
-    <hyperlink ref="AI37" r:id="rId148"/>
-    <hyperlink ref="G38" r:id="rId149"/>
-    <hyperlink ref="T38" r:id="rId150"/>
-    <hyperlink ref="Y38" r:id="rId151"/>
-    <hyperlink ref="AI38" r:id="rId152"/>
-    <hyperlink ref="AN38" r:id="rId153"/>
-    <hyperlink ref="G39" r:id="rId154"/>
-    <hyperlink ref="T39" r:id="rId155"/>
-    <hyperlink ref="Y39" r:id="rId156"/>
-    <hyperlink ref="AI39" r:id="rId157"/>
-    <hyperlink ref="AN39" r:id="rId158"/>
-    <hyperlink ref="AS39" r:id="rId159"/>
-    <hyperlink ref="AX39" r:id="rId160"/>
-    <hyperlink ref="G40" r:id="rId161"/>
-    <hyperlink ref="T40" r:id="rId162"/>
-    <hyperlink ref="Y40" r:id="rId163"/>
-    <hyperlink ref="AI40" r:id="rId164"/>
-    <hyperlink ref="AN40" r:id="rId165"/>
-    <hyperlink ref="AS40" r:id="rId166"/>
-    <hyperlink ref="AX40" r:id="rId167"/>
-    <hyperlink ref="G41" r:id="rId168"/>
-    <hyperlink ref="G42" r:id="rId169"/>
-    <hyperlink ref="T42" r:id="rId170"/>
-    <hyperlink ref="Y42" r:id="rId171"/>
-    <hyperlink ref="AI42" r:id="rId172"/>
-    <hyperlink ref="AN42" r:id="rId173"/>
-    <hyperlink ref="K44" r:id="rId174"/>
-    <hyperlink ref="P44" r:id="rId175"/>
-    <hyperlink ref="U44" r:id="rId176"/>
-    <hyperlink ref="Z44" r:id="rId177"/>
-    <hyperlink ref="AE44" r:id="rId178"/>
-    <hyperlink ref="AJ44" r:id="rId179"/>
-    <hyperlink ref="AO44" r:id="rId180"/>
-    <hyperlink ref="AT44" r:id="rId181"/>
+    <hyperlink ref="AD31" r:id="rId118"/>
+    <hyperlink ref="AI31" r:id="rId119"/>
+    <hyperlink ref="AN31" r:id="rId120"/>
+    <hyperlink ref="G32" r:id="rId121"/>
+    <hyperlink ref="T32" r:id="rId122"/>
+    <hyperlink ref="Y32" r:id="rId123"/>
+    <hyperlink ref="AI32" r:id="rId124"/>
+    <hyperlink ref="AN32" r:id="rId125"/>
+    <hyperlink ref="AS32" r:id="rId126"/>
+    <hyperlink ref="G33" r:id="rId127"/>
+    <hyperlink ref="T33" r:id="rId128"/>
+    <hyperlink ref="G34" r:id="rId129"/>
+    <hyperlink ref="T34" r:id="rId130"/>
+    <hyperlink ref="Y34" r:id="rId131"/>
+    <hyperlink ref="AI34" r:id="rId132"/>
+    <hyperlink ref="AN34" r:id="rId133"/>
+    <hyperlink ref="G35" r:id="rId134"/>
+    <hyperlink ref="T35" r:id="rId135"/>
+    <hyperlink ref="Y35" r:id="rId136"/>
+    <hyperlink ref="AI35" r:id="rId137"/>
+    <hyperlink ref="AN35" r:id="rId138"/>
+    <hyperlink ref="AS35" r:id="rId139"/>
+    <hyperlink ref="G36" r:id="rId140"/>
+    <hyperlink ref="T36" r:id="rId141"/>
+    <hyperlink ref="Y36" r:id="rId142"/>
+    <hyperlink ref="AD36" r:id="rId143"/>
+    <hyperlink ref="AI36" r:id="rId144"/>
+    <hyperlink ref="AN36" r:id="rId145"/>
+    <hyperlink ref="G37" r:id="rId146"/>
+    <hyperlink ref="T37" r:id="rId147"/>
+    <hyperlink ref="AD37" r:id="rId148"/>
+    <hyperlink ref="AI37" r:id="rId149"/>
+    <hyperlink ref="G38" r:id="rId150"/>
+    <hyperlink ref="T38" r:id="rId151"/>
+    <hyperlink ref="Y38" r:id="rId152"/>
+    <hyperlink ref="AI38" r:id="rId153"/>
+    <hyperlink ref="AN38" r:id="rId154"/>
+    <hyperlink ref="G39" r:id="rId155"/>
+    <hyperlink ref="T39" r:id="rId156"/>
+    <hyperlink ref="Y39" r:id="rId157"/>
+    <hyperlink ref="AI39" r:id="rId158"/>
+    <hyperlink ref="AN39" r:id="rId159"/>
+    <hyperlink ref="AS39" r:id="rId160"/>
+    <hyperlink ref="AX39" r:id="rId161"/>
+    <hyperlink ref="G40" r:id="rId162"/>
+    <hyperlink ref="T40" r:id="rId163"/>
+    <hyperlink ref="Y40" r:id="rId164"/>
+    <hyperlink ref="AI40" r:id="rId165"/>
+    <hyperlink ref="AN40" r:id="rId166"/>
+    <hyperlink ref="AS40" r:id="rId167"/>
+    <hyperlink ref="AX40" r:id="rId168"/>
+    <hyperlink ref="G41" r:id="rId169"/>
+    <hyperlink ref="G42" r:id="rId170"/>
+    <hyperlink ref="T42" r:id="rId171"/>
+    <hyperlink ref="Y42" r:id="rId172"/>
+    <hyperlink ref="AI42" r:id="rId173"/>
+    <hyperlink ref="AN42" r:id="rId174"/>
+    <hyperlink ref="K44" r:id="rId175"/>
+    <hyperlink ref="P44" r:id="rId176"/>
+    <hyperlink ref="U44" r:id="rId177"/>
+    <hyperlink ref="Z44" r:id="rId178"/>
+    <hyperlink ref="AE44" r:id="rId179"/>
+    <hyperlink ref="AJ44" r:id="rId180"/>
+    <hyperlink ref="AO44" r:id="rId181"/>
+    <hyperlink ref="AT44" r:id="rId182"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId182"/>
+  <legacyDrawing r:id="rId183"/>
 </worksheet>
 </file>
--- a/documentation/reDIP-SID-BOM.xlsx
+++ b/documentation/reDIP-SID-BOM.xlsx
@@ -987,7 +987,6 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.44      $0.44
     10   $0.31      $3.10
     25   $0.27      $6.70
     50   $0.23     $11.30
@@ -1027,19 +1026,6 @@
    500   $0.12     $58.04
   1000   $0.10     $98.02
   4000   $0.09    $350.80</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -1087,19 +1073,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AL8" authorId="0">
       <text>
         <r>
@@ -1112,6 +1085,7 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
+     1   $0.36      $0.36
     10   $0.27      $2.70
     25   $0.23      $5.85
     50   $0.20      $9.85
@@ -1312,12 +1286,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.44      $0.44
-    10   $0.31      $3.06
-    50   $0.31     $15.30
-   100   $0.18     $18.40
-  1000   $0.12    $116.00
- 10000   $0.09    $940.00</t>
+     1   $0.43      $0.43
+    10   $0.22      $2.15
+    50   $0.22     $10.75
+   100   $0.18     $18.50
+  1000   $0.12    $117.00
+ 10000   $0.10    $980.00</t>
         </r>
       </text>
     </comment>
@@ -1769,7 +1743,7 @@
      5   £0.14      £0.71
     25   £0.12      £3.07
    100   £0.08      £7.58
-   500   £0.06     £28.90
+   500   £0.06     £28.85
   4000   £0.04    £173.20</t>
         </r>
       </text>
@@ -2015,12 +1989,13 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.11      $0.11
+     1   $0.01      $0.01
     10   $0.06      $0.62
     25   $0.05      $1.25
     50   $0.04      $1.90
    100   $0.03      $2.60
- 15000   $0.01    $135.00</t>
+ 15000   $0.01    $135.00
+ 90000   $0.01    $810.00</t>
         </r>
       </text>
     </comment>
@@ -2121,7 +2096,6 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.00      $0.00
  15000   $0.00     $75.00
  30000   $0.00    $120.00</t>
         </r>
@@ -2329,8 +2303,21 @@
    500   £0.02      £9.00
   2500   £0.01     £30.00
   7500   £0.01     £67.50
- 15000   £0.01     £91.50
+ 15000   £0.01    £105.00
  75000   £0.01    £382.50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -2493,6 +2480,7 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
+     1   $0.00      $0.00
  15000   $0.00     $75.00
  30000   $0.00    $120.00</t>
         </r>
@@ -2517,20 +2505,119 @@
         </r>
       </text>
     </comment>
-    <comment ref="P26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="R26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.05      $0.53
+   100   $0.02      $2.17
+  1000   $0.01      $9.75
+  2500   $0.01     $21.15
+  5000   $0.01     $34.95
+ 15000   $0.01     $91.05</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+    10   £0.04      £0.40
+   100   £0.02      £1.73
+   150   £0.02      £2.59
+   500   £0.01      £4.10
+  2500   £0.01     £17.00
+  7500   £0.01     £45.75
+ 15000   £0.01     £84.00
+ 75000   £0.01    £405.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.05      $0.53
+    50   $0.05      $2.65
+   100   $0.02      $2.20
+  1000   $0.01     $10.00
+ 10000   $0.01     $90.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.11      $0.11
+    10   $0.05      $0.47
+    25   $0.04      $0.95
+    50   $0.03      $1.45
+   100   $0.02      $2.00
+   250   $0.02      $5.50
+   500   $0.02      $8.50
+  1000   $0.01     $14.00
+  2500   $0.01     $25.00
+  5000   $0.02    $110.00
+ 10000   $0.02    $170.00
+ 15000   $0.02    $255.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+  1000   £0.01      £7.00
+  5000   £0.01     £30.00
+ 10000   £0.01     £60.00
+ 15000   £0.00     £75.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2552,123 +2639,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="U26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (GBP):
-  Qty  -  Unit£  -  Ext£
-================
- 30000   £0.01    £156.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.10      $0.10
-    10   $0.03      $0.31
-    50   $0.03      $1.55
-   100   $0.01      $1.40
-  1000   $0.01      $7.00
- 10000   $0.00     $50.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.01      $0.01
-  5000   $0.01     $35.00
- 10000   $0.01     $60.00
- 15000   $0.01     $90.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.10      $0.10
-    10   $0.03      $0.28
-   100   $0.01      $1.15
-  1000   $0.01      $5.18
-  2500   $0.00     $11.25
-  5000   $0.00     $18.55
- 15000   $0.00     $48.45</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="U27" authorId="0">
       <text>
         <r>
@@ -2840,19 +2810,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="P29" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="R29" authorId="0">
       <text>
         <r>
@@ -2872,19 +2829,6 @@
   2500   $0.01     $21.15
   5000   $0.01     $34.95
  15000   $0.01     $91.05</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U29" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -3100,9 +3044,9 @@
 ================
      1   $0.11      $0.11
     10   $0.06      $0.57
-    25   $0.05      $1.15
+    25   $0.07      $1.65
     50   $0.04      $1.75
-   100   $0.02      $2.40
+   100   $0.03      $2.70
    250   $0.02      $5.50
    500   $0.02      $8.00
   1000   $0.01     $11.00
@@ -3292,11 +3236,11 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.46      $0.46
-    10   $0.34      $3.43
-    50   $0.34     $17.15
-   100   $0.17     $17.20
-  1000   $0.10     $99.00
- 10000   $0.08    $770.00</t>
+    10   $0.30      $3.01
+    50   $0.30     $15.05
+   100   $0.16     $16.10
+  1000   $0.10    $102.00
+ 10000   $0.07    $680.00</t>
         </r>
       </text>
     </comment>
@@ -3316,7 +3260,6 @@
     10   $0.33      $3.26
    100   $0.15     $15.10
   6000   $0.06    $390.00
-  9000   $0.06    $585.00
  18000   $0.06  $1,098.00
  48000   $0.06  $2,688.00
  90000   $0.05  $4,770.00</t>
@@ -3592,15 +3535,9 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.65      $0.65
      5   $0.65      $3.23
     10   $0.54      $5.38
-   100   $0.38     $38.40
-  3000   $0.15    $438.00
-  6000   $0.14    $858.00
- 12000   $0.14  $1,680.00
- 18000   $0.14  $2,484.00
- 24000   $0.14  $3,264.00</t>
+   100   $0.38     $38.40</t>
         </r>
       </text>
     </comment>
@@ -3924,8 +3861,7 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $4.49      $4.49
-    10   $4.43     $44.30
-  2450   $4.43 $10,853.50</t>
+    10   $4.43     $44.30</t>
         </r>
       </text>
     </comment>
@@ -3969,6 +3905,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="U39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="W39" authorId="0">
       <text>
         <r>
@@ -4035,9 +3984,9 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.27      $0.27
-    10   $0.26      $2.58
-   100   $0.23     $23.20
+     1   $0.14      $0.14
+    10   $0.25      $2.47
+   100   $0.22     $22.20
   3000   $0.13    $393.00
   4000   $0.13    $524.00
   6000   $0.12    $702.00
@@ -4062,8 +4011,8 @@
     50   £0.29     £14.40
    100   £0.22     £22.20
   1000   £0.21    £214.00
-  4000   £0.20    £800.00
-  8000   £0.18  £1,440.00
+  4000   £0.10    £380.00
+  8000   £0.08    £680.00
  24000   £0.08  £1,944.00
  48000   £0.07  £3,552.00
 100000   £0.07  £7,200.00</t>
@@ -4097,9 +4046,9 @@
 ================
      5   £0.17      £0.87
     25   £0.15      £3.82
-   100   £0.13     £13.21
-   500   £0.12     £57.76
-  2000   £0.11    £215.62</t>
+   100   £0.13     £13.25
+   500   £0.12     £57.88
+  2000   £0.11    £216.10</t>
         </r>
       </text>
     </comment>
@@ -4153,12 +4102,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.66      $0.66
-    10   $0.66      $6.60
-    50   $0.56     $28.00
-   100   $0.52     $52.20
-  1000   $0.52    $522.00
- 10000   $0.52  $5,220.00</t>
+     1   $0.71      $0.71
+    10   $0.71      $7.10
+    50   $0.60     $30.00
+   100   $0.57     $56.60
+  1000   $0.57    $566.00
+ 10000   $0.57  $5,660.00</t>
         </r>
       </text>
     </comment>
@@ -4225,7 +4174,7 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     1   £0.62      £0.62
+     1   £0.61      £0.61
     10   £0.57      £5.70
     25   £0.52     £13.00
    100   £0.47     £47.00</t>
@@ -4471,7 +4420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="355">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -4536,6 +4485,9 @@
     <t>CAP TANT 10uF 6.3V 20% 0603</t>
   </si>
   <si>
+    <t>CP_EIA-1608-08_AVX-J</t>
+  </si>
+  <si>
     <t>Vishay</t>
   </si>
   <si>
@@ -4600,8 +4552,8 @@
   </si>
   <si>
     <t>C12: 1.65V DC VAG DERATED TO 0.1uF
-C9,C20: 1.2V DC DERATED TO 0.1uF
-C10,C11,C17-C19,C21,C22,C24,C25: 3.3V DC DERATED TO 0.1uF</t>
+C10,C11,C17-C19,C21,C22,C24,C25: 3.3V DC DERATED TO 0.1uF
+C9,C20: 1.2V DC DERATED TO 0.1uF</t>
   </si>
   <si>
     <t>D1</t>
@@ -4769,7 +4721,7 @@
     <t>ERJ-1GN0R00C</t>
   </si>
   <si>
-    <t>R2,R3,R15</t>
+    <t>R2,R3,R14,R15</t>
   </si>
   <si>
     <t>2.2k</t>
@@ -4787,13 +4739,13 @@
     <t>22</t>
   </si>
   <si>
-    <t>RES 22Ω 50mW 5% 0201</t>
-  </si>
-  <si>
-    <t>ERJ-1GNJ220C</t>
-  </si>
-  <si>
-    <t>R4,R14</t>
+    <t>RES 22Ω 50mW 1% 0201</t>
+  </si>
+  <si>
+    <t>ERJ-1GNF22R0C</t>
+  </si>
+  <si>
+    <t>R4</t>
   </si>
   <si>
     <t>1.5k</t>
@@ -4847,7 +4799,7 @@
     <t>KXT311LHS</t>
   </si>
   <si>
-    <t>SW TACT 3.0 x 2.0 mm</t>
+    <t>SW TACT 100gf 3.0x2.0 mm</t>
   </si>
   <si>
     <t>SW_SPST_CK_KXT3</t>
@@ -5051,7 +5003,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>ti. 31. aug. 2021 kl. 20.26 +0200</t>
+    <t>to. 02. sep. 2021 kl. 20.28 +0200</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -5066,7 +5018,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2021-08-31 20:26:40</t>
+    <t>2021-09-02 20:28:58</t>
   </si>
   <si>
     <t>Arrow</t>
@@ -5132,7 +5084,7 @@
     <t>P123277CT-ND</t>
   </si>
   <si>
-    <t>P123275CT-ND</t>
+    <t>P122843CT-ND</t>
   </si>
   <si>
     <t>P123246CT-ND</t>
@@ -5225,7 +5177,7 @@
     <t>3303211</t>
   </si>
   <si>
-    <t>3303209</t>
+    <t>2302291</t>
   </si>
   <si>
     <t>3303177</t>
@@ -5348,7 +5300,7 @@
     <t>667ERJ1GNJ222C</t>
   </si>
   <si>
-    <t>667ERJ1GNJ220C</t>
+    <t>667ERJ1GNF22R0C</t>
   </si>
   <si>
     <t>667ERJ1GNJ152C</t>
@@ -5438,7 +5390,7 @@
     <t>51W5827</t>
   </si>
   <si>
-    <t>51W5825</t>
+    <t>85Y7497</t>
   </si>
   <si>
     <t>51W5799</t>
@@ -5447,7 +5399,7 @@
     <t>85Y7485</t>
   </si>
   <si>
-    <t>85Y7484</t>
+    <t>05X8796</t>
   </si>
   <si>
     <t>35AH1367</t>
@@ -5496,6 +5448,9 @@
   </si>
   <si>
     <t>1797128</t>
+  </si>
+  <si>
+    <t>1797146</t>
   </si>
   <si>
     <t>1797145</t>
@@ -6171,13 +6126,13 @@
   <sheetData>
     <row r="1" spans="1:50">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J1" s="3">
         <v>100</v>
@@ -6185,13 +6140,13 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J2" s="4">
         <f>TotalCost/BoardQty</f>
@@ -6200,13 +6155,13 @@
     </row>
     <row r="3" spans="1:50">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J3" s="5">
         <f>SUM(J7:J42)</f>
@@ -6279,10 +6234,10 @@
     </row>
     <row r="4" spans="1:50">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -6299,56 +6254,56 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK5" s="13"/>
       <c r="AL5" s="13"/>
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
       <c r="AO5" s="14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AP5" s="14"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="14"/>
       <c r="AS5" s="14"/>
       <c r="AT5" s="15" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AU5" s="15"/>
       <c r="AV5" s="15"/>
@@ -6387,10 +6342,10 @@
         <v>9</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>8</v>
@@ -6399,13 +6354,13 @@
         <v>9</v>
       </c>
       <c r="O6" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q6" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>200</v>
       </c>
       <c r="R6" s="16" t="s">
         <v>8</v>
@@ -6414,13 +6369,13 @@
         <v>9</v>
       </c>
       <c r="T6" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="V6" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>200</v>
       </c>
       <c r="W6" s="16" t="s">
         <v>8</v>
@@ -6429,13 +6384,13 @@
         <v>9</v>
       </c>
       <c r="Y6" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA6" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="Z6" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA6" s="16" t="s">
-        <v>200</v>
       </c>
       <c r="AB6" s="16" t="s">
         <v>8</v>
@@ -6444,13 +6399,13 @@
         <v>9</v>
       </c>
       <c r="AD6" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE6" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF6" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="AE6" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AF6" s="16" t="s">
-        <v>200</v>
       </c>
       <c r="AG6" s="16" t="s">
         <v>8</v>
@@ -6459,13 +6414,13 @@
         <v>9</v>
       </c>
       <c r="AI6" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ6" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK6" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="AJ6" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK6" s="16" t="s">
-        <v>200</v>
       </c>
       <c r="AL6" s="16" t="s">
         <v>8</v>
@@ -6474,13 +6429,13 @@
         <v>9</v>
       </c>
       <c r="AN6" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="AO6" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP6" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="AO6" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AP6" s="16" t="s">
-        <v>200</v>
       </c>
       <c r="AQ6" s="16" t="s">
         <v>8</v>
@@ -6489,13 +6444,13 @@
         <v>9</v>
       </c>
       <c r="AS6" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT6" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU6" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="AT6" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AU6" s="16" t="s">
-        <v>200</v>
       </c>
       <c r="AV6" s="16" t="s">
         <v>8</v>
@@ -6504,7 +6459,7 @@
         <v>9</v>
       </c>
       <c r="AX6" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -6542,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R7" s="18">
         <f>iferror(lookup(if(Q7="",H7,Q7),{0,1,10,50,100,500,1000,4000},{0.0,0.37,0.258,0.1808,0.1549,0.11618,0.09811,0.07633}),"")</f>
@@ -6553,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U7" s="17">
         <v>2620</v>
@@ -6567,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z7" s="17">
         <v>15450</v>
@@ -6581,10 +6536,10 @@
         <v>0</v>
       </c>
       <c r="AD7" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AE7" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG7" s="18">
         <f>iferror(lookup(if(AF7="",H7,AF7),{0,1,10,50,100,1000,10000},{0.0,0.37,0.258,0.258,0.154,0.098,0.083}),"")</f>
@@ -6595,13 +6550,13 @@
         <v>0</v>
       </c>
       <c r="AI7" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ7" s="17">
         <v>2620</v>
       </c>
       <c r="AL7" s="18">
-        <f>iferror(lookup(if(AK7="",H7,AK7),{0,1,10,25,50,100},{0.0,0.444,0.31,0.268,0.226,0.185}),"")</f>
+        <f>iferror(lookup(if(AK7="",H7,AK7),{0,1,10,25,50,100},{0.0,0.31,0.31,0.268,0.226,0.185}),"")</f>
         <v>0</v>
       </c>
       <c r="AM7" s="18">
@@ -6609,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="AN7" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -6623,16 +6578,16 @@
         <v>20</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>22</v>
       </c>
       <c r="H8" s="17">
         <f>BoardQty*2</f>
@@ -6647,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R8" s="18">
         <f>iferror(lookup(if(Q8="",H8,Q8),{0,1,10,50,100,500,1000,4000},{0.0,0.37,0.258,0.1806,0.1548,0.11608,0.09802,0.0877}),"")</f>
@@ -6658,10 +6613,10 @@
         <v>0</v>
       </c>
       <c r="T8" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="U8" s="17">
+        <v>3999</v>
       </c>
       <c r="W8" s="18">
         <f>iferror(USD_GBP*lookup(if(V8="",H8,V8),{0,1,10,100,150,500,1000,2000,4000,20000},{0.0,0.187,0.187,0.139,0.139,0.0899,0.0759,0.0743,0.0728,0.0603}),"")</f>
@@ -6672,10 +6627,10 @@
         <v>0</v>
       </c>
       <c r="Y8" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AE8" s="17">
-        <v>5792</v>
+        <v>5615</v>
       </c>
       <c r="AG8" s="18">
         <f>iferror(lookup(if(AF8="",H8,AF8),{0,1,10,50,100,1000,10000},{0.0,0.36,0.27,0.27,0.161,0.102,0.075}),"")</f>
@@ -6686,13 +6641,13 @@
         <v>0</v>
       </c>
       <c r="AI8" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="AJ8" s="19" t="s">
-        <v>205</v>
+        <v>279</v>
+      </c>
+      <c r="AJ8" s="17">
+        <v>3999</v>
       </c>
       <c r="AL8" s="18">
-        <f>iferror(lookup(if(AK8="",H8,AK8),{0,1,10,25,50,100,4000,8000},{0.0,0.27,0.27,0.234,0.197,0.161,0.081,0.075}),"")</f>
+        <f>iferror(lookup(if(AK8="",H8,AK8),{0,1,10,25,50,100,4000,8000},{0.0,0.36,0.27,0.234,0.197,0.161,0.081,0.075}),"")</f>
         <v>0</v>
       </c>
       <c r="AM8" s="18">
@@ -6700,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO8" s="17">
         <v>60</v>
@@ -6714,30 +6669,30 @@
         <v>0</v>
       </c>
       <c r="AS8" s="20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:50">
       <c r="A9" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="17">
         <f>BoardQty*3</f>
@@ -6752,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="17">
-        <v>1325828</v>
+        <v>1229375</v>
       </c>
       <c r="R9" s="18">
         <f>iferror(lookup(if(Q9="",H9,Q9),{0,1,10,50,100,500,1000,2500,5000,15000},{0.0,0.25,0.172,0.115,0.0978,0.069,0.06038,0.0575,0.05319,0.04773}),"")</f>
@@ -6763,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U9" s="17">
         <v>30000</v>
@@ -6777,10 +6732,10 @@
         <v>0</v>
       </c>
       <c r="Y9" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AE9" s="17">
-        <v>449900</v>
+        <v>311340</v>
       </c>
       <c r="AG9" s="18">
         <f>iferror(lookup(if(AF9="",H9,AF9),{0,1,10,50,100,1000,10000},{0.0,0.25,0.171,0.171,0.097,0.06,0.051}),"")</f>
@@ -6791,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AJ9" s="17">
         <v>30000</v>
@@ -6805,30 +6760,30 @@
         <v>0</v>
       </c>
       <c r="AN9" s="20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:50">
       <c r="A10" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" s="17">
         <f>BoardQty*3</f>
@@ -6843,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="17">
-        <v>1562960</v>
+        <v>1505944</v>
       </c>
       <c r="R10" s="18">
         <f>iferror(lookup(if(Q10="",H10,Q10),{0,1,10,50,100,500,1000,2500,5000,10000},{0.0,0.44,0.307,0.215,0.1842,0.13818,0.11668,0.11054,0.1044,0.09826}),"")</f>
@@ -6854,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="U10" s="17">
         <v>70000</v>
@@ -6868,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z10" s="17">
         <v>191830</v>
@@ -6882,13 +6837,13 @@
         <v>0</v>
       </c>
       <c r="AD10" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE10" s="17">
-        <v>717689</v>
+        <v>656493</v>
       </c>
       <c r="AG10" s="18">
-        <f>iferror(lookup(if(AF10="",H10,AF10),{0,1,10,50,100,1000,10000},{0.0,0.44,0.306,0.306,0.184,0.116,0.094}),"")</f>
+        <f>iferror(lookup(if(AF10="",H10,AF10),{0,1,10,50,100,1000,10000},{0.0,0.43,0.215,0.215,0.185,0.117,0.098}),"")</f>
         <v>0</v>
       </c>
       <c r="AH10" s="18">
@@ -6896,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AJ10" s="17">
         <v>70000</v>
@@ -6910,30 +6865,30 @@
         <v>0</v>
       </c>
       <c r="AN10" s="20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:50">
       <c r="A11" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="17">
         <f>BoardQty*4</f>
@@ -6948,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="17">
-        <v>13330</v>
+        <v>11330</v>
       </c>
       <c r="R11" s="18">
         <f>iferror(lookup(if(Q11="",H11,Q11),{0,1,10,50,100,500,1000,2500,5000,10000},{0.0,0.29,0.198,0.119,0.1005,0.06876,0.06084,0.05819,0.0529,0.05026}),"")</f>
@@ -6959,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U11" s="17">
         <v>20</v>
@@ -6973,10 +6928,10 @@
         <v>0</v>
       </c>
       <c r="Y11" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AE11" s="17">
-        <v>672</v>
+        <v>1044</v>
       </c>
       <c r="AG11" s="18">
         <f>iferror(lookup(if(AF11="",H11,AF11),{0,1,10,50,100,1000,10000},{0.0,0.29,0.198,0.198,0.101,0.061,0.05}),"")</f>
@@ -6987,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ11" s="17">
         <v>20</v>
@@ -7001,30 +6956,30 @@
         <v>0</v>
       </c>
       <c r="AN11" s="20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:50">
       <c r="A12" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12" s="17">
         <f>BoardQty*12</f>
@@ -7039,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="17">
-        <v>1954105</v>
+        <v>914415</v>
       </c>
       <c r="R12" s="18">
         <f>iferror(lookup(if(Q12="",H12,Q12),{0,1,10,50,100,500,1000,2500,5000,15000},{0.0,0.1,0.034,0.0186,0.0152,0.01086,0.00854,0.00776,0.00714,0.00621}),"")</f>
@@ -7050,10 +7005,10 @@
         <v>0</v>
       </c>
       <c r="T12" s="20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="U12" s="17">
-        <v>28932</v>
+        <v>19708</v>
       </c>
       <c r="W12" s="18">
         <f>iferror(USD_GBP*lookup(if(V12="",H12,V12),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.0206,0.0206,0.0168,0.0168,0.009,0.006,0.0059,0.0054,0.0047}),"")</f>
@@ -7064,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z12" s="17">
         <v>50300</v>
@@ -7078,10 +7033,10 @@
         <v>0</v>
       </c>
       <c r="AD12" s="20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AE12" s="17">
-        <v>789450</v>
+        <v>784410</v>
       </c>
       <c r="AG12" s="18">
         <f>iferror(lookup(if(AF12="",H12,AF12),{0,1,10,50,100,1000,10000},{0.0,0.1,0.034,0.034,0.015,0.009,0.007}),"")</f>
@@ -7092,10 +7047,10 @@
         <v>0</v>
       </c>
       <c r="AI12" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ12" s="17">
-        <v>19858</v>
+        <v>19708</v>
       </c>
       <c r="AL12" s="18">
         <f>iferror(lookup(if(AK12="",H12,AK12),{0,1,10,25,50,100,15000},{0.0,0.12,0.041,0.033,0.026,0.018,0.008}),"")</f>
@@ -7106,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO12" s="17">
         <v>7000</v>
@@ -7120,30 +7075,30 @@
         <v>0</v>
       </c>
       <c r="AS12" s="20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:50">
       <c r="A13" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="H13" s="17">
         <f>BoardQty*1</f>
@@ -7169,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U13" s="17">
         <v>4</v>
@@ -7183,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AE13" s="17">
         <v>5460</v>
@@ -7197,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ13" s="17">
         <v>123000</v>
@@ -7211,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO13" s="17">
         <v>4550</v>
@@ -7225,27 +7180,27 @@
         <v>0</v>
       </c>
       <c r="AS13" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:50">
       <c r="A14" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="H14" s="17">
         <f>BoardQty*1</f>
@@ -7260,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="17">
-        <v>7992</v>
+        <v>1467</v>
       </c>
       <c r="R14" s="18">
         <f>iferror(lookup(if(Q14="",H14,Q14),{0,1,10,100,500,1000,2000,4000,8000,12000,28000,100000},{0.0,0.32,0.256,0.115,0.10388,0.08533,0.0742,0.0742,0.06678,0.05936,0.05565,0.0525}),"")</f>
@@ -7271,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U14" s="17">
         <v>5</v>
@@ -7285,10 +7240,10 @@
         <v>0</v>
       </c>
       <c r="Y14" s="20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AE14" s="17">
-        <v>3994</v>
+        <v>3844</v>
       </c>
       <c r="AG14" s="18">
         <f>iferror(lookup(if(AF14="",H14,AF14),{0,1,10,50,100,1000,10000},{0.0,0.48,0.266,0.266,0.108,0.089,0.056}),"")</f>
@@ -7299,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ14" s="17">
         <v>5</v>
@@ -7313,13 +7268,13 @@
         <v>0</v>
       </c>
       <c r="AN14" s="20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AT14" s="17">
         <v>3427</v>
       </c>
       <c r="AV14" s="18">
-        <f>iferror(USD_GBP*lookup(if(AU14="",H14,AU14),{0,1,5,25,100,500,4000},{0.0,0.142,0.142,0.1228,0.0758,0.0578,0.0433}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AU14="",H14,AU14),{0,1,5,25,100,500,4000},{0.0,0.142,0.142,0.1228,0.0758,0.0577,0.0433}),"")</f>
         <v>0</v>
       </c>
       <c r="AW14" s="18">
@@ -7327,27 +7282,27 @@
         <v>0</v>
       </c>
       <c r="AX14" s="20" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:50">
       <c r="A15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="G15" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="H15" s="17">
         <f>BoardQty*1</f>
@@ -7362,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="17">
-        <v>17606</v>
+        <v>17496</v>
       </c>
       <c r="R15" s="18">
         <f>iferror(lookup(if(Q15="",H15,Q15),{0,1,10,100,500,1000,2000,4000,8000,12000,28000,100000},{0.0,0.33,0.263,0.1183,0.10684,0.08777,0.07632,0.07632,0.06869,0.06106,0.05724,0.054}),"")</f>
@@ -7373,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U15" s="17">
         <v>3287</v>
@@ -7387,10 +7342,10 @@
         <v>0</v>
       </c>
       <c r="Y15" s="20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AE15" s="17">
-        <v>9600</v>
+        <v>8600</v>
       </c>
       <c r="AG15" s="18">
         <f>iferror(lookup(if(AF15="",H15,AF15),{0,1,10,50,100,1000,10000},{0.0,0.49,0.274,0.274,0.111,0.092,0.057}),"")</f>
@@ -7401,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AJ15" s="17">
         <v>3287</v>
@@ -7415,10 +7370,10 @@
         <v>0</v>
       </c>
       <c r="AN15" s="20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AT15" s="17">
-        <v>2779</v>
+        <v>2669</v>
       </c>
       <c r="AV15" s="18">
         <f>iferror(USD_GBP*lookup(if(AU15="",H15,AU15),{0,1,5,25,100,500,4000},{0.0,0.142,0.142,0.1072,0.0758,0.0547,0.0394}),"")</f>
@@ -7429,21 +7384,21 @@
         <v>0</v>
       </c>
       <c r="AX15" s="20" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:50">
       <c r="A16" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H16" s="17">
         <f>BoardQty*1</f>
@@ -7460,16 +7415,16 @@
     </row>
     <row r="17" spans="1:45">
       <c r="A17" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H17" s="17">
         <f>BoardQty*1</f>
@@ -7486,16 +7441,16 @@
     </row>
     <row r="18" spans="1:45">
       <c r="A18" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H18" s="17">
         <f>BoardQty*1</f>
@@ -7512,16 +7467,16 @@
     </row>
     <row r="19" spans="1:45">
       <c r="A19" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" s="17">
         <f>BoardQty*1</f>
@@ -7538,25 +7493,25 @@
     </row>
     <row r="20" spans="1:45">
       <c r="A20" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="H20" s="17">
         <f>BoardQty*1</f>
@@ -7582,27 +7537,27 @@
         <v>0</v>
       </c>
       <c r="AD20" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:45">
       <c r="A21" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" s="17">
         <f>BoardQty*3</f>
@@ -7617,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R21" s="18">
         <f>iferror(lookup(if(Q21="",H21,Q21),{0,1,10,100,1000,2500,5000,15000},{0.0,0.1,0.053,0.0217,0.00975,0.00846,0.00699,0.00607}),"")</f>
@@ -7628,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U21" s="17">
         <v>15000</v>
@@ -7642,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z21" s="17">
         <v>13800</v>
@@ -7656,10 +7611,10 @@
         <v>0</v>
       </c>
       <c r="AD21" s="20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE21" s="17">
-        <v>11928</v>
+        <v>11028</v>
       </c>
       <c r="AG21" s="18">
         <f>iferror(lookup(if(AF21="",H21,AF21),{0,1,10,50,100,1000,10000},{0.0,0.1,0.056,0.056,0.024,0.012,0.009}),"")</f>
@@ -7670,13 +7625,13 @@
         <v>0</v>
       </c>
       <c r="AI21" s="20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AJ21" s="17">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="AL21" s="18">
-        <f>iferror(lookup(if(AK21="",H21,AK21),{0,1,10,25,50,100,15000},{0.0,0.11,0.062,0.05,0.038,0.026,0.009}),"")</f>
+        <f>iferror(lookup(if(AK21="",H21,AK21),{0,1,10,25,50,100,15000,90000},{0.0,0.009,0.062,0.05,0.038,0.026,0.009,0.009}),"")</f>
         <v>0</v>
       </c>
       <c r="AM21" s="18">
@@ -7684,27 +7639,27 @@
         <v>0</v>
       </c>
       <c r="AN21" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:45">
       <c r="A22" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22" s="17">
         <f>BoardQty*2</f>
@@ -7730,10 +7685,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U22" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W22" s="18">
         <f>iferror(USD_GBP*lookup(if(V22="",H22,V22),{0,1,30000},{0.0,0.0052,0.0052}),"")</f>
@@ -7744,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AE22" s="17">
         <v>76126</v>
@@ -7758,10 +7713,10 @@
         <v>0</v>
       </c>
       <c r="AI22" s="20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AJ22" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL22" s="18">
         <f>iferror(lookup(if(AK22="",H22,AK22),{0,1,15000,30000},{0.0,0.005,0.005,0.004}),"")</f>
@@ -7772,27 +7727,27 @@
         <v>0</v>
       </c>
       <c r="AN22" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:45">
       <c r="A23" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H23" s="17">
         <f>BoardQty*1</f>
@@ -7807,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="17">
-        <v>197768</v>
+        <v>177268</v>
       </c>
       <c r="R23" s="18">
         <f>iferror(lookup(if(Q23="",H23,Q23),{0,1,10,100,1000,2500,5000,15000},{0.0,0.1,0.028,0.0115,0.00518,0.0045,0.00371,0.00323}),"")</f>
@@ -7818,10 +7773,10 @@
         <v>0</v>
       </c>
       <c r="T23" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U23" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W23" s="18">
         <f>iferror(USD_GBP*lookup(if(V23="",H23,V23),{0,1,30000},{0.0,0.0052,0.0052}),"")</f>
@@ -7832,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z23" s="17">
         <v>14850</v>
@@ -7846,10 +7801,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE23" s="17">
-        <v>35879</v>
+        <v>35869</v>
       </c>
       <c r="AG23" s="18">
         <f>iferror(lookup(if(AF23="",H23,AF23),{0,1,10,50,100,1000,10000},{0.0,0.1,0.029,0.029,0.012,0.006,0.005}),"")</f>
@@ -7860,10 +7815,10 @@
         <v>0</v>
       </c>
       <c r="AI23" s="20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ23" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL23" s="18">
         <f>iferror(lookup(if(AK23="",H23,AK23),{0,1,5000,10000,15000},{0.0,0.008,0.007,0.006,0.006}),"")</f>
@@ -7874,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="AN23" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO23" s="17">
         <v>37000</v>
@@ -7888,27 +7843,27 @@
         <v>0</v>
       </c>
       <c r="AS23" s="20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:45">
       <c r="A24" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H24" s="17">
         <f>BoardQty*2</f>
@@ -7923,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R24" s="18">
         <f>iferror(lookup(if(Q24="",H24,Q24),{0,1,10,25,50,100,250,500,1000,5000,15000,30000,75000},{0.0,0.1,0.025,0.018,0.0136,0.01,0.00764,0.00612,0.0045,0.00323,0.00281,0.00247,0.00231}),"")</f>
@@ -7934,13 +7889,13 @@
         <v>0</v>
       </c>
       <c r="T24" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="U24" s="17">
-        <v>105000</v>
+        <v>90000</v>
       </c>
       <c r="W24" s="18">
-        <f>iferror(USD_GBP*lookup(if(V24="",H24,V24),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.04,0.04,0.024,0.024,0.018,0.012,0.009,0.0061,0.0051}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V24="",H24,V24),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.04,0.04,0.024,0.024,0.018,0.012,0.009,0.007,0.0051}),"")</f>
         <v>0</v>
       </c>
       <c r="X24" s="18">
@@ -7948,10 +7903,10 @@
         <v>0</v>
       </c>
       <c r="Y24" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE24" s="17">
-        <v>814826</v>
+        <v>249</v>
+      </c>
+      <c r="AE24" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="AG24" s="18">
         <f>iferror(lookup(if(AF24="",H24,AF24),{0,1,10,50,100,1000,10000},{0.0,0.1,0.029,0.029,0.012,0.006,0.004}),"")</f>
@@ -7962,10 +7917,10 @@
         <v>0</v>
       </c>
       <c r="AI24" s="20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AJ24" s="17">
-        <v>105000</v>
+        <v>90000</v>
       </c>
       <c r="AL24" s="18">
         <f>iferror(lookup(if(AK24="",H24,AK24),{0,1,25,100,250,500,1000,2500,5000,15000},{0.0,0.006,0.021,0.009,0.008,0.007,0.006,0.005,0.004,0.006}),"")</f>
@@ -7976,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="AN24" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO24" s="17">
         <v>772637</v>
@@ -7990,30 +7945,30 @@
         <v>0</v>
       </c>
       <c r="AS24" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:45">
       <c r="A25" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H25" s="17">
-        <f>BoardQty*3</f>
+        <f>BoardQty*4</f>
         <v>0</v>
       </c>
       <c r="I25" s="18">
@@ -8025,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="17">
-        <v>132420</v>
+        <v>132270</v>
       </c>
       <c r="R25" s="18">
         <f>iferror(lookup(if(Q25="",H25,Q25),{0,1,10,100,1000,2500,5000,15000},{0.0,0.1,0.028,0.0115,0.00518,0.0045,0.00371,0.00323}),"")</f>
@@ -8036,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="T25" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U25" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W25" s="18">
         <f>iferror(USD_GBP*lookup(if(V25="",H25,V25),{0,1,30000},{0.0,0.0055,0.0055}),"")</f>
@@ -8050,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="Y25" s="20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AE25" s="17">
-        <v>8743</v>
+        <v>68243</v>
       </c>
       <c r="AG25" s="18">
         <f>iferror(lookup(if(AF25="",H25,AF25),{0,1,10,50,100,1000,10000},{0.0,0.1,0.031,0.031,0.014,0.007,0.005}),"")</f>
@@ -8064,10 +8019,10 @@
         <v>0</v>
       </c>
       <c r="AI25" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ25" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL25" s="18">
         <f>iferror(lookup(if(AK25="",H25,AK25),{0,1,15000,30000},{0.0,0.005,0.005,0.004}),"")</f>
@@ -8078,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO25" s="17">
         <v>38000</v>
@@ -8092,27 +8047,27 @@
         <v>0</v>
       </c>
       <c r="AS25" s="20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:45">
       <c r="A26" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H26" s="17">
         <f>BoardQty*1</f>
@@ -8126,11 +8081,11 @@
         <f>iferror(H26*I26,"")</f>
         <v>0</v>
       </c>
-      <c r="P26" s="19" t="s">
-        <v>205</v>
+      <c r="P26" s="17">
+        <v>3420</v>
       </c>
       <c r="R26" s="18">
-        <f>iferror(lookup(if(Q26="",H26,Q26),{0,1,10,100,1000,2500,5000,15000},{0.0,0.1,0.028,0.0115,0.00518,0.0045,0.00371,0.00323}),"")</f>
+        <f>iferror(lookup(if(Q26="",H26,Q26),{0,1,10,100,1000,2500,5000,15000},{0.0,0.1,0.053,0.0217,0.00975,0.00846,0.00699,0.00607}),"")</f>
         <v>0</v>
       </c>
       <c r="S26" s="18">
@@ -8138,13 +8093,13 @@
         <v>0</v>
       </c>
       <c r="T26" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="U26" s="19" t="s">
-        <v>205</v>
+        <v>220</v>
+      </c>
+      <c r="U26" s="17">
+        <v>15000</v>
       </c>
       <c r="W26" s="18">
-        <f>iferror(USD_GBP*lookup(if(V26="",H26,V26),{0,1,30000},{0.0,0.0052,0.0052}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V26="",H26,V26),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.04,0.04,0.0173,0.0173,0.0082,0.0068,0.0061,0.0056,0.0054}),"")</f>
         <v>0</v>
       </c>
       <c r="X26" s="18">
@@ -8152,13 +8107,13 @@
         <v>0</v>
       </c>
       <c r="Y26" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE26" s="19" t="s">
-        <v>205</v>
+        <v>251</v>
+      </c>
+      <c r="AE26" s="17">
+        <v>193908</v>
       </c>
       <c r="AG26" s="18">
-        <f>iferror(lookup(if(AF26="",H26,AF26),{0,1,10,50,100,1000,10000},{0.0,0.1,0.031,0.031,0.014,0.007,0.005}),"")</f>
+        <f>iferror(lookup(if(AF26="",H26,AF26),{0,1,10,50,100,1000,10000},{0.0,0.1,0.053,0.053,0.022,0.01,0.009}),"")</f>
         <v>0</v>
       </c>
       <c r="AH26" s="18">
@@ -8166,13 +8121,13 @@
         <v>0</v>
       </c>
       <c r="AI26" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="AJ26" s="19" t="s">
-        <v>205</v>
+        <v>292</v>
+      </c>
+      <c r="AJ26" s="17">
+        <v>15000</v>
       </c>
       <c r="AL26" s="18">
-        <f>iferror(lookup(if(AK26="",H26,AK26),{0,1,5000,10000,15000},{0.0,0.008,0.007,0.006,0.006}),"")</f>
+        <f>iferror(lookup(if(AK26="",H26,AK26),{0,1,10,25,50,100,250,500,1000,2500,5000,10000,15000},{0.0,0.11,0.047,0.038,0.029,0.02,0.022,0.017,0.014,0.01,0.022,0.017,0.017}),"")</f>
         <v>0</v>
       </c>
       <c r="AM26" s="18">
@@ -8180,30 +8135,44 @@
         <v>0</v>
       </c>
       <c r="AN26" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="AO26" s="17">
+        <v>25000</v>
+      </c>
+      <c r="AQ26" s="18">
+        <f>iferror(USD_GBP*lookup(if(AP26="",H26,AP26),{0,1,1000,5000,10000,15000},{0.0,0.007,0.007,0.006,0.006,0.005}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AR26" s="18">
+        <f>iferror(if(AP26="",H26,AP26)*AQ26,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AS26" s="20" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:45">
       <c r="A27" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H27" s="17">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="I27" s="18">
@@ -8226,10 +8195,10 @@
         <v>0</v>
       </c>
       <c r="T27" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="U27" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W27" s="18">
         <f>iferror(USD_GBP*lookup(if(V27="",H27,V27),{0,1,30000},{0.0,0.007,0.007}),"")</f>
@@ -8240,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AE27" s="17">
         <v>33452</v>
@@ -8254,10 +8223,10 @@
         <v>0</v>
       </c>
       <c r="AI27" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AJ27" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL27" s="18">
         <f>iferror(lookup(if(AK27="",H27,AK27),{0,1,15000,30000},{0.0,0.005,0.005,0.004}),"")</f>
@@ -8268,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO27" s="17">
         <v>28000</v>
@@ -8282,27 +8251,27 @@
         <v>0</v>
       </c>
       <c r="AS27" s="20" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:45">
       <c r="A28" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H28" s="17">
         <f>BoardQty*1</f>
@@ -8317,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="17">
-        <v>46291</v>
+        <v>46041</v>
       </c>
       <c r="R28" s="18">
         <f>iferror(lookup(if(Q28="",H28,Q28),{0,1,10,100,1000,2500,5000,15000},{0.0,0.1,0.053,0.0217,0.00975,0.00846,0.00699,0.00607}),"")</f>
@@ -8328,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="T28" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U28" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W28" s="18">
         <f>iferror(USD_GBP*lookup(if(V28="",H28,V28),{0,1,30000},{0.0,0.0063,0.0063}),"")</f>
@@ -8342,10 +8311,10 @@
         <v>0</v>
       </c>
       <c r="Y28" s="20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AE28" s="17">
-        <v>4916</v>
+        <v>4876</v>
       </c>
       <c r="AG28" s="18">
         <f>iferror(lookup(if(AF28="",H28,AF28),{0,1,10,50,100,1000,10000},{0.0,0.1,0.053,0.053,0.022,0.01,0.007}),"")</f>
@@ -8356,27 +8325,27 @@
         <v>0</v>
       </c>
       <c r="AI28" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:45">
       <c r="A29" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H29" s="17">
         <f>BoardQty*1</f>
@@ -8390,8 +8359,8 @@
         <f>iferror(H29*I29,"")</f>
         <v>0</v>
       </c>
-      <c r="P29" s="19" t="s">
-        <v>205</v>
+      <c r="P29" s="17">
+        <v>9730</v>
       </c>
       <c r="R29" s="18">
         <f>iferror(lookup(if(Q29="",H29,Q29),{0,1,10,100,1000,2500,5000,15000},{0.0,0.1,0.053,0.0217,0.00975,0.00846,0.00699,0.00607}),"")</f>
@@ -8402,10 +8371,10 @@
         <v>0</v>
       </c>
       <c r="T29" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="U29" s="19" t="s">
-        <v>205</v>
+        <v>223</v>
+      </c>
+      <c r="U29" s="17">
+        <v>3898</v>
       </c>
       <c r="W29" s="18">
         <f>iferror(USD_GBP*lookup(if(V29="",H29,V29),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.0486,0.0486,0.0195,0.0195,0.0082,0.0068,0.006,0.0056,0.0054}),"")</f>
@@ -8416,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="Y29" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z29" s="17">
         <v>200</v>
@@ -8430,10 +8399,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AE29" s="17">
-        <v>470109</v>
+        <v>464769</v>
       </c>
       <c r="AG29" s="18">
         <f>iferror(lookup(if(AF29="",H29,AF29),{0,1,10,50,100,1000,10000},{0.0,0.1,0.053,0.053,0.022,0.021,0.019}),"")</f>
@@ -8444,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AJ29" s="17">
         <v>176</v>
@@ -8458,10 +8427,10 @@
         <v>0</v>
       </c>
       <c r="AN29" s="20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO29" s="17">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="AQ29" s="18">
         <f>iferror(USD_GBP*lookup(if(AP29="",H29,AP29),{0,1,1000,5000,10000,15000},{0.0,0.007,0.007,0.006,0.006,0.006}),"")</f>
@@ -8472,27 +8441,27 @@
         <v>0</v>
       </c>
       <c r="AS29" s="20" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:45">
       <c r="A30" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H30" s="17">
         <f>BoardQty*4</f>
@@ -8507,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="17">
-        <v>2000</v>
+        <v>317823</v>
       </c>
       <c r="R30" s="18">
         <f>iferror(lookup(if(Q30="",H30,Q30),{0,1,10,100,1000,2500,5000,15000},{0.0,0.1,0.053,0.0217,0.00975,0.00846,0.00699,0.00607}),"")</f>
@@ -8518,10 +8487,10 @@
         <v>0</v>
       </c>
       <c r="T30" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U30" s="17">
-        <v>64759</v>
+        <v>60465</v>
       </c>
       <c r="W30" s="18">
         <f>iferror(USD_GBP*lookup(if(V30="",H30,V30),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.0558,0.0558,0.0227,0.0227,0.0097,0.0081,0.0072,0.0056,0.0054}),"")</f>
@@ -8532,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z30" s="17">
         <v>15000</v>
@@ -8546,10 +8515,10 @@
         <v>0</v>
       </c>
       <c r="AD30" s="20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AE30" s="17">
-        <v>9436</v>
+        <v>2058</v>
       </c>
       <c r="AG30" s="18">
         <f>iferror(lookup(if(AF30="",H30,AF30),{0,1,10,50,100,1000,10000},{0.0,0.1,0.053,0.053,0.022,0.01,0.007}),"")</f>
@@ -8560,13 +8529,13 @@
         <v>0</v>
       </c>
       <c r="AI30" s="20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AJ30" s="17">
-        <v>56605</v>
+        <v>56445</v>
       </c>
       <c r="AL30" s="18">
-        <f>iferror(lookup(if(AK30="",H30,AK30),{0,1,10,25,50,100,250,500,1000,2500,5000,10000,15000,20000},{0.0,0.11,0.057,0.046,0.035,0.024,0.022,0.016,0.011,0.01,0.009,0.013,0.013,0.009}),"")</f>
+        <f>iferror(lookup(if(AK30="",H30,AK30),{0,1,10,25,50,100,250,500,1000,2500,5000,10000,15000,20000},{0.0,0.114,0.057,0.066,0.035,0.027,0.022,0.016,0.011,0.01,0.009,0.013,0.013,0.009}),"")</f>
         <v>0</v>
       </c>
       <c r="AM30" s="18">
@@ -8574,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="AN30" s="20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO30" s="17">
-        <v>699000</v>
+        <v>697000</v>
       </c>
       <c r="AQ30" s="18">
         <f>iferror(USD_GBP*lookup(if(AP30="",H30,AP30),{0,1,1000,15000},{0.0,0.007,0.007,0.006}),"")</f>
@@ -8588,27 +8557,27 @@
         <v>0</v>
       </c>
       <c r="AS30" s="20" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:45">
       <c r="A31" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>124</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>123</v>
       </c>
       <c r="H31" s="17">
         <f>BoardQty*1</f>
@@ -8634,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U31" s="17">
         <v>3986</v>
@@ -8648,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z31" s="17">
         <v>11625</v>
@@ -8662,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="AD31" s="20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AE31" s="17">
         <v>9700</v>
@@ -8676,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AJ31" s="17">
         <v>7158</v>
@@ -8690,27 +8659,27 @@
         <v>0</v>
       </c>
       <c r="AN31" s="20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:45">
       <c r="A32" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="H32" s="17">
         <f>BoardQty*2</f>
@@ -8736,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U32" s="17">
         <v>1437</v>
@@ -8750,13 +8719,13 @@
         <v>0</v>
       </c>
       <c r="Y32" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AE32" s="17">
-        <v>939</v>
+        <v>2590</v>
       </c>
       <c r="AG32" s="18">
-        <f>iferror(lookup(if(AF32="",H32,AF32),{0,1,10,50,100,1000,10000},{0.0,0.46,0.343,0.343,0.172,0.099,0.077}),"")</f>
+        <f>iferror(lookup(if(AF32="",H32,AF32),{0,1,10,50,100,1000,10000},{0.0,0.46,0.301,0.301,0.161,0.102,0.068}),"")</f>
         <v>0</v>
       </c>
       <c r="AH32" s="18">
@@ -8764,13 +8733,13 @@
         <v>0</v>
       </c>
       <c r="AI32" s="20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ32" s="17">
         <v>1412</v>
       </c>
       <c r="AL32" s="18">
-        <f>iferror(lookup(if(AK32="",H32,AK32),{0,1,5,10,100,6000,9000,18000,48000,90000},{0.0,0.399,0.399,0.326,0.151,0.065,0.065,0.061,0.056,0.053}),"")</f>
+        <f>iferror(lookup(if(AK32="",H32,AK32),{0,1,5,10,100,6000,18000,48000,90000},{0.0,0.399,0.399,0.326,0.151,0.065,0.061,0.056,0.053}),"")</f>
         <v>0</v>
       </c>
       <c r="AM32" s="18">
@@ -8778,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="AN32" s="20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO32" s="17">
         <v>3000</v>
@@ -8792,30 +8761,30 @@
         <v>0</v>
       </c>
       <c r="AS32" s="20" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:50">
       <c r="A33" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C33" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>133</v>
       </c>
       <c r="H33" s="17">
         <f>BoardQty*1</f>
@@ -8830,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="17">
-        <v>16413</v>
+        <v>15601</v>
       </c>
       <c r="R33" s="18">
         <f>iferror(lookup(if(Q33="",H33,Q33),{0,1,10,25,50,100,250,500,1000,5000},{0.0,1.97,1.798,1.7496,1.7408,1.556,1.55152,1.5281,1.46322,1.36231}),"")</f>
@@ -8841,27 +8810,27 @@
         <v>0</v>
       </c>
       <c r="T33" s="20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:50">
       <c r="A34" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C34" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>139</v>
       </c>
       <c r="H34" s="17">
         <f>BoardQty*1</f>
@@ -8876,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R34" s="18">
         <f>iferror(lookup(if(Q34="",H34,Q34),{0,1,25,100,2000},{0.0,6.0,5.25,5.005,5.005}),"")</f>
@@ -8887,10 +8856,10 @@
         <v>0</v>
       </c>
       <c r="T34" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="U34" s="17">
-        <v>2000</v>
+        <v>1759</v>
       </c>
       <c r="W34" s="18">
         <f>iferror(USD_GBP*lookup(if(V34="",H34,V34),{0,1,25,100,150},{0.0,4.86,4.26,4.06,4.06}),"")</f>
@@ -8901,10 +8870,10 @@
         <v>0</v>
       </c>
       <c r="Y34" s="20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AE34" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG34" s="18">
         <f>iferror(lookup(if(AF34="",H34,AF34),{0,1,10,50,100,1000,10000},{0.0,6.06,6.06,5.31,5.06,5.06,5.05}),"")</f>
@@ -8915,10 +8884,10 @@
         <v>0</v>
       </c>
       <c r="AI34" s="20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ34" s="17">
-        <v>1998</v>
+        <v>1525</v>
       </c>
       <c r="AL34" s="18">
         <f>iferror(lookup(if(AK34="",H34,AK34),{0,1,10,25,2000,4000,8000,12000},{0.0,5.56,6.03,5.77,5.43,5.27,4.95,4.72}),"")</f>
@@ -8929,27 +8898,27 @@
         <v>0</v>
       </c>
       <c r="AN34" s="20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:50">
       <c r="A35" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C35" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>144</v>
       </c>
       <c r="H35" s="17">
         <f>BoardQty*1</f>
@@ -8964,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R35" s="18">
         <f>iferror(lookup(if(Q35="",H35,Q35),{0,1,10,25,100,250,500,1000,3000},{0.0,0.47,0.402,0.3756,0.3004,0.27892,0.236,0.18236,0.1771}),"")</f>
@@ -8975,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="T35" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="U35" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W35" s="18">
         <f>iferror(USD_GBP*lookup(if(V35="",H35,V35),{0,1,5,10,100,150,500},{0.0,0.554,0.554,0.464,0.286,0.286,0.189}),"")</f>
@@ -8989,10 +8958,10 @@
         <v>0</v>
       </c>
       <c r="Y35" s="20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AE35" s="17">
-        <v>33612</v>
+        <v>29590</v>
       </c>
       <c r="AG35" s="18">
         <f>iferror(lookup(if(AF35="",H35,AF35),{0,1,10,50,100,1000,10000},{0.0,0.47,0.376,0.376,0.279,0.183,0.166}),"")</f>
@@ -9003,13 +8972,13 @@
         <v>0</v>
       </c>
       <c r="AI35" s="20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AJ35" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL35" s="18">
-        <f>iferror(lookup(if(AK35="",H35,AK35),{0,1,5,10,100,3000,6000,12000,18000,24000},{0.0,0.646,0.646,0.538,0.384,0.146,0.143,0.14,0.138,0.136}),"")</f>
+        <f>iferror(lookup(if(AK35="",H35,AK35),{0,1,5,10,100},{0.0,0.646,0.646,0.538,0.384}),"")</f>
         <v>0</v>
       </c>
       <c r="AM35" s="18">
@@ -9017,7 +8986,7 @@
         <v>0</v>
       </c>
       <c r="AN35" s="20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO35" s="17">
         <v>12</v>
@@ -9031,27 +9000,27 @@
         <v>0</v>
       </c>
       <c r="AS35" s="20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:50">
       <c r="A36" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C36" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="H36" s="17">
         <f>BoardQty*1</f>
@@ -9077,10 +9046,10 @@
         <v>0</v>
       </c>
       <c r="T36" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U36" s="17">
-        <v>1817</v>
+        <v>1802</v>
       </c>
       <c r="W36" s="18">
         <f>iferror(USD_GBP*lookup(if(V36="",H36,V36),{0,1,5,10,100,500},{0.0,1.25,1.25,0.929,0.713,0.497}),"")</f>
@@ -9091,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z36" s="17">
         <v>2658</v>
@@ -9105,10 +9074,10 @@
         <v>0</v>
       </c>
       <c r="AD36" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AE36" s="17">
-        <v>3429</v>
+        <v>3078</v>
       </c>
       <c r="AG36" s="18">
         <f>iferror(lookup(if(AF36="",H36,AF36),{0,1,10,50,100,1000,10000},{0.0,1.06,0.95,0.902,0.741,0.486,0.47}),"")</f>
@@ -9119,10 +9088,10 @@
         <v>0</v>
       </c>
       <c r="AI36" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AJ36" s="17">
-        <v>1817</v>
+        <v>1802</v>
       </c>
       <c r="AL36" s="18">
         <f>iferror(lookup(if(AK36="",H36,AK36),{0,1,5,10,100,3000,9000,24000},{0.0,0.436,1.33,1.18,0.856,0.436,0.418,0.388}),"")</f>
@@ -9133,27 +9102,27 @@
         <v>0</v>
       </c>
       <c r="AN36" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:50">
       <c r="A37" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C37" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>151</v>
       </c>
       <c r="H37" s="17">
         <f>BoardQty*1</f>
@@ -9168,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R37" s="18">
         <f>iferror(lookup(if(Q37="",H37,Q37),{0,1,2000},{0.0,1.61,1.61}),"")</f>
@@ -9179,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z37" s="17">
         <v>1934</v>
@@ -9193,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="AD37" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AE37" s="17">
         <v>527</v>
@@ -9207,30 +9176,30 @@
         <v>0</v>
       </c>
       <c r="AI37" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:50">
       <c r="A38" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C38" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="17" t="s">
         <v>157</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>156</v>
       </c>
       <c r="H38" s="17">
         <f>BoardQty*1</f>
@@ -9245,7 +9214,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R38" s="18">
         <f>iferror(lookup(if(Q38="",H38,Q38),{0,1,10},{0.0,3.9,3.85}),"")</f>
@@ -9256,10 +9225,10 @@
         <v>0</v>
       </c>
       <c r="T38" s="20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="U38" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W38" s="18">
         <f>iferror(USD_GBP*lookup(if(V38="",H38,V38),{0,1,10,25,50},{0.0,3.86,3.11,2.93,2.87}),"")</f>
@@ -9270,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="Y38" s="20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AE38" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG38" s="18">
         <f>iferror(lookup(if(AF38="",H38,AF38),{0,1,10,50,100,1000,10000},{0.0,3.93,3.54,3.34,2.9,2.8,2.79}),"")</f>
@@ -9284,13 +9253,13 @@
         <v>0</v>
       </c>
       <c r="AI38" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ38" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL38" s="18">
-        <f>iferror(lookup(if(AK38="",H38,AK38),{0,1,10,2450},{0.0,4.49,4.43,4.43}),"")</f>
+        <f>iferror(lookup(if(AK38="",H38,AK38),{0,1,10},{0.0,4.49,4.43}),"")</f>
         <v>0</v>
       </c>
       <c r="AM38" s="18">
@@ -9298,27 +9267,27 @@
         <v>0</v>
       </c>
       <c r="AN38" s="20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:50">
       <c r="A39" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H39" s="17">
         <f>BoardQty*1</f>
@@ -9333,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R39" s="18">
         <f>iferror(lookup(if(Q39="",H39,Q39),{0,1,10,25,50,100,250,500,1000,4000,8000,12000,28000},{0.0,0.26,0.239,0.228,0.2208,0.2134,0.2024,0.16928,0.13138,0.12512,0.11776,0.1104,0.10304}),"")</f>
@@ -9344,10 +9313,10 @@
         <v>0</v>
       </c>
       <c r="T39" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="U39" s="17">
-        <v>35</v>
+        <v>233</v>
+      </c>
+      <c r="U39" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="W39" s="18">
         <f>iferror(USD_GBP*lookup(if(V39="",H39,V39),{0,1,5,10,100,150,500},{0.0,0.531,0.531,0.424,0.258,0.258,0.144}),"")</f>
@@ -9358,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="Y39" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AE39" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG39" s="18">
         <f>iferror(lookup(if(AF39="",H39,AF39),{0,1,10,50,100,1000,10000},{0.0,0.45,0.367,0.367,0.25,0.141,0.117}),"")</f>
@@ -9372,13 +9341,13 @@
         <v>0</v>
       </c>
       <c r="AI39" s="20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AJ39" s="17">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="AL39" s="18">
-        <f>iferror(lookup(if(AK39="",H39,AK39),{0,1,10,100,3000,4000,6000,12000,18000,30000},{0.0,0.272,0.258,0.232,0.131,0.131,0.117,0.106,0.098,0.091}),"")</f>
+        <f>iferror(lookup(if(AK39="",H39,AK39),{0,1,10,100,3000,4000,6000,12000,18000,30000},{0.0,0.138,0.247,0.222,0.131,0.131,0.117,0.106,0.098,0.091}),"")</f>
         <v>0</v>
       </c>
       <c r="AM39" s="18">
@@ -9386,13 +9355,13 @@
         <v>0</v>
       </c>
       <c r="AN39" s="20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO39" s="17">
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="AQ39" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP39="",H39,AP39),{0,1,50,100,1000,4000,8000,24000,48000,100000},{0.0,0.288,0.288,0.222,0.214,0.2,0.18,0.081,0.074,0.072}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP39="",H39,AP39),{0,1,50,100,1000,4000,8000,24000,48000,100000},{0.0,0.288,0.288,0.222,0.214,0.095,0.085,0.081,0.074,0.072}),"")</f>
         <v>0</v>
       </c>
       <c r="AR39" s="18">
@@ -9400,13 +9369,13 @@
         <v>0</v>
       </c>
       <c r="AS39" s="20" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AT39" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AV39" s="18">
-        <f>iferror(USD_GBP*lookup(if(AU39="",H39,AU39),{0,1,5,25,100,500,2000},{0.0,0.174,0.174,0.1528,0.1321,0.11551,0.10781}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AU39="",H39,AU39),{0,1,5,25,100,500,2000},{0.0,0.174,0.174,0.1528,0.1325,0.11576,0.10805}),"")</f>
         <v>0</v>
       </c>
       <c r="AW39" s="18">
@@ -9414,27 +9383,27 @@
         <v>0</v>
       </c>
       <c r="AX39" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:50">
       <c r="A40" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C40" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="H40" s="17">
         <f>BoardQty*1</f>
@@ -9449,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="17">
-        <v>99264</v>
+        <v>98704</v>
       </c>
       <c r="R40" s="18">
         <f>iferror(lookup(if(Q40="",H40,Q40),{0,1,25,100,3000},{0.0,0.66,0.56,0.54,0.54}),"")</f>
@@ -9460,10 +9429,10 @@
         <v>0</v>
       </c>
       <c r="T40" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U40" s="17">
-        <v>2560</v>
+        <v>2360</v>
       </c>
       <c r="W40" s="18">
         <f>iferror(USD_GBP*lookup(if(V40="",H40,V40),{0,1,25,100,150},{0.0,0.806,0.623,0.535,0.535}),"")</f>
@@ -9474,13 +9443,13 @@
         <v>0</v>
       </c>
       <c r="Y40" s="20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AE40" s="17">
-        <v>17666</v>
+        <v>10868</v>
       </c>
       <c r="AG40" s="18">
-        <f>iferror(lookup(if(AF40="",H40,AF40),{0,1,10,50,100,1000,10000},{0.0,0.66,0.66,0.56,0.522,0.522,0.522}),"")</f>
+        <f>iferror(lookup(if(AF40="",H40,AF40),{0,1,10,50,100,1000,10000},{0.0,0.71,0.71,0.6,0.566,0.566,0.566}),"")</f>
         <v>0</v>
       </c>
       <c r="AH40" s="18">
@@ -9488,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AI40" s="20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ40" s="17">
-        <v>2360</v>
+        <v>2355</v>
       </c>
       <c r="AL40" s="18">
         <f>iferror(lookup(if(AK40="",H40,AK40),{0,1,10,25,3000},{0.0,0.866,0.798,0.729,0.528}),"")</f>
@@ -9502,10 +9471,10 @@
         <v>0</v>
       </c>
       <c r="AN40" s="20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO40" s="17">
-        <v>1660</v>
+        <v>1640</v>
       </c>
       <c r="AQ40" s="18">
         <f>iferror(USD_GBP*lookup(if(AP40="",H40,AP40),{0,1,20,40,100,3000},{0.0,0.481,0.481,0.46,0.415,0.384}),"")</f>
@@ -9516,13 +9485,13 @@
         <v>0</v>
       </c>
       <c r="AS40" s="20" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AT40" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AV40" s="18">
-        <f>iferror(USD_GBP*lookup(if(AU40="",H40,AU40),{0,1,10,25,100},{0.0,0.62,0.57,0.52,0.47}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AU40="",H40,AU40),{0,1,10,25,100},{0.0,0.61,0.57,0.52,0.47}),"")</f>
         <v>0</v>
       </c>
       <c r="AW40" s="18">
@@ -9530,30 +9499,30 @@
         <v>0</v>
       </c>
       <c r="AX40" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:50">
       <c r="A41" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C41" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="17" t="s">
         <v>173</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>172</v>
       </c>
       <c r="H41" s="17">
         <f>BoardQty*1</f>
@@ -9570,25 +9539,25 @@
     </row>
     <row r="42" spans="1:50">
       <c r="A42" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C42" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" s="17" t="s">
         <v>179</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>178</v>
       </c>
       <c r="H42" s="17">
         <f>BoardQty*1</f>
@@ -9603,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="17">
-        <v>3744</v>
+        <v>12744</v>
       </c>
       <c r="R42" s="18">
         <f>iferror(lookup(if(Q42="",H42,Q42),{0,1,10,50,100,500,1000,3000},{0.0,1.62,1.548,1.512,1.296,1.26,1.062,1.008}),"")</f>
@@ -9614,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U42" s="17">
         <v>2830</v>
@@ -9628,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AE42" s="17">
         <v>8080</v>
@@ -9642,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="AI42" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ42" s="17">
         <v>2940</v>
@@ -9656,22 +9625,22 @@
         <v>0</v>
       </c>
       <c r="AN42" s="20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:50">
       <c r="B44" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J44" s="5">
         <f>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(arrow_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(lcsc_part_data)+3)))</f>
         <v>0</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L44" s="6">
         <f>IFERROR(IF(OR(L7:L42),COUNTIFS(L7:L42,"&gt;0",N7:N42,"&lt;&gt;")&amp;" of "&amp;(ROWS(N7:N42)-COUNTBLANK(N7:N42))&amp;" parts purchased",""),"")</f>
@@ -9682,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q44" s="6">
         <f>IFERROR(IF(OR(Q7:Q42),COUNTIFS(Q7:Q42,"&gt;0",S7:S42,"&lt;&gt;")&amp;" of "&amp;(ROWS(S7:S42)-COUNTBLANK(S7:S42))&amp;" parts purchased",""),"")</f>
@@ -9693,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V44" s="6">
         <f>IFERROR(IF(OR(V7:V42),COUNTIFS(V7:V42,"&gt;0",X7:X42,"&lt;&gt;")&amp;" of "&amp;(ROWS(X7:X42)-COUNTBLANK(X7:X42))&amp;" parts purchased",""),"")</f>
@@ -9704,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA44" s="6">
         <f>IFERROR(IF(OR(AA7:AA42),COUNTIFS(AA7:AA42,"&gt;0",AC7:AC42,"&lt;&gt;")&amp;" of "&amp;(ROWS(AC7:AC42)-COUNTBLANK(AC7:AC42))&amp;" parts purchased",""),"")</f>
@@ -9715,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="AE44" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF44" s="6">
         <f>IFERROR(IF(OR(AF7:AF42),COUNTIFS(AF7:AF42,"&gt;0",AH7:AH42,"&lt;&gt;")&amp;" of "&amp;(ROWS(AH7:AH42)-COUNTBLANK(AH7:AH42))&amp;" parts purchased",""),"")</f>
@@ -9726,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK44" s="6">
         <f>IFERROR(IF(OR(AK7:AK42),COUNTIFS(AK7:AK42,"&gt;0",AM7:AM42,"&lt;&gt;")&amp;" of "&amp;(ROWS(AM7:AM42)-COUNTBLANK(AM7:AM42))&amp;" parts purchased",""),"")</f>
@@ -9737,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="AO44" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AP44" s="6">
         <f>IFERROR(IF(OR(AP7:AP42),COUNTIFS(AP7:AP42,"&gt;0",AR7:AR42,"&lt;&gt;")&amp;" of "&amp;(ROWS(AR7:AR42)-COUNTBLANK(AR7:AR42))&amp;" parts purchased",""),"")</f>
@@ -9748,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AU44" s="6">
         <f>IFERROR(IF(OR(AU7:AU42),COUNTIFS(AU7:AU42,"&gt;0",AW7:AW42,"&lt;&gt;")&amp;" of "&amp;(ROWS(AW7:AW42)-COUNTBLANK(AW7:AW42))&amp;" parts purchased",""),"")</f>
@@ -9761,13 +9730,13 @@
     </row>
     <row r="45" spans="1:50">
       <c r="B45" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C45">
         <v>1.293904700565222</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L45">
         <f t="array" ref="L45">IFERROR(CONCATENATE(INDEX(O7:O42,SMALL(IF(ISNUMBER(L7:L42),IF(L7:L42&gt;0,IF(O7:O42&lt;&gt;"",ROW(L7:L42)-MIN(ROW(L7:L42))+1))),ROW()-ROW(A$45)+1)),",",TEXT(INDEX(L7:L42,SMALL(IF(ISNUMBER(L7:L42),IF(L7:L42&gt;0,IF(O7:O42&lt;&gt;"",ROW(L7:L42)-MIN(ROW(L7:L42))+1))),ROW()-ROW(A$45)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A42,SMALL(IF(ISNUMBER(L7:L42),IF(L7:L42&gt;0,IF(O7:O42&lt;&gt;"",ROW(L7:L42)-MIN(ROW(L7:L42))+1))),ROW()-ROW(A$45)+1)),",",";")),"")</f>
@@ -9854,7 +9823,7 @@
     </row>
     <row r="47" spans="1:50">
       <c r="A47" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L47">
         <f t="array" ref="L47">IFERROR(CONCATENATE(INDEX(O7:O42,SMALL(IF(ISNUMBER(L7:L42),IF(L7:L42&gt;0,IF(O7:O42&lt;&gt;"",ROW(L7:L42)-MIN(ROW(L7:L42))+1))),ROW()-ROW(A$45)+1)),",",TEXT(INDEX(L7:L42,SMALL(IF(ISNUMBER(L7:L42),IF(L7:L42&gt;0,IF(O7:O42&lt;&gt;"",ROW(L7:L42)-MIN(ROW(L7:L42))+1))),ROW()-ROW(A$45)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A42,SMALL(IF(ISNUMBER(L7:L42),IF(L7:L42&gt;0,IF(O7:O42&lt;&gt;"",ROW(L7:L42)-MIN(ROW(L7:L42))+1))),ROW()-ROW(A$45)+1)),",",";")),"")</f>
@@ -12219,26 +12188,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ23">
-    <cfRule type="cellIs" dxfId="1" priority="723" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="724" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="724" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="725" operator="lessThan">
       <formula>H23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ24">
-    <cfRule type="cellIs" dxfId="1" priority="728" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="729" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="729" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="730" operator="lessThan">
       <formula>H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ25">
-    <cfRule type="cellIs" dxfId="1" priority="733" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="734" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="734" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="735" operator="lessThan">
       <formula>H25</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12307,42 +12276,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ36">
-    <cfRule type="cellIs" dxfId="1" priority="781" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="782" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="782" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="783" operator="lessThan">
       <formula>H36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ38">
-    <cfRule type="cellIs" dxfId="1" priority="786" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="787" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="787" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="788" operator="lessThan">
       <formula>H38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ39">
-    <cfRule type="cellIs" dxfId="1" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="792" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="792" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="793" operator="lessThan">
       <formula>H39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ40">
-    <cfRule type="cellIs" dxfId="1" priority="796" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="797" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="797" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="798" operator="lessThan">
       <formula>H40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ42">
-    <cfRule type="cellIs" dxfId="1" priority="801" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="802" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="802" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="803" operator="lessThan">
       <formula>H42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12355,10 +12324,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8">
-    <cfRule type="cellIs" dxfId="1" priority="672" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="673" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="673" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="674" operator="lessThan">
       <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12406,24 +12375,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK22">
-    <cfRule type="cellIs" dxfId="1" priority="720" operator="greaterThan">
+    <cfRule type="expression" dxfId="3" priority="720">
+      <formula>AND(AK22&gt;0,AK22&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="721" operator="greaterThan">
       <formula>AJ22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK23">
-    <cfRule type="cellIs" dxfId="1" priority="725" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="726" operator="greaterThan">
       <formula>AJ23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK24">
-    <cfRule type="cellIs" dxfId="1" priority="730" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="731" operator="greaterThan">
       <formula>AJ24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK25">
-    <cfRule type="expression" dxfId="3" priority="735">
-      <formula>AND(AK25&gt;0,AK25&lt;15000)</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="736" operator="greaterThan">
       <formula>AJ25</formula>
     </cfRule>
@@ -12470,44 +12439,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK35">
-    <cfRule type="cellIs" dxfId="1" priority="778" operator="greaterThan">
+    <cfRule type="expression" dxfId="3" priority="778">
+      <formula>AND(AK35&gt;0,AK35&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="779" operator="greaterThan">
       <formula>AJ35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK36">
-    <cfRule type="cellIs" dxfId="1" priority="783" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="784" operator="greaterThan">
       <formula>AJ36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK38">
-    <cfRule type="cellIs" dxfId="1" priority="788" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="789" operator="greaterThan">
       <formula>AJ38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK39">
-    <cfRule type="cellIs" dxfId="1" priority="793" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="794" operator="greaterThan">
       <formula>AJ39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK40">
-    <cfRule type="cellIs" dxfId="1" priority="798" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="799" operator="greaterThan">
       <formula>AJ40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK42">
-    <cfRule type="cellIs" dxfId="1" priority="803" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="804" operator="greaterThan">
       <formula>AJ42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK7">
-    <cfRule type="cellIs" dxfId="1" priority="669" operator="greaterThan">
+    <cfRule type="expression" dxfId="3" priority="669">
+      <formula>AND(AK7&gt;0,AK7&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="670" operator="greaterThan">
       <formula>AJ7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8">
-    <cfRule type="expression" dxfId="3" priority="674">
-      <formula>AND(AK8&gt;0,AK8&lt;10)</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="675" operator="greaterThan">
       <formula>AJ8</formula>
     </cfRule>
@@ -12553,17 +12525,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL22">
-    <cfRule type="cellIs" dxfId="4" priority="722" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="723" operator="lessThanOrEqual">
       <formula>I22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL23">
-    <cfRule type="cellIs" dxfId="4" priority="727" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="728" operator="lessThanOrEqual">
       <formula>I23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL24">
-    <cfRule type="cellIs" dxfId="4" priority="732" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="733" operator="lessThanOrEqual">
       <formula>I24</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12608,37 +12580,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL35">
-    <cfRule type="cellIs" dxfId="4" priority="780" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="781" operator="lessThanOrEqual">
       <formula>I35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL36">
-    <cfRule type="cellIs" dxfId="4" priority="785" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="786" operator="lessThanOrEqual">
       <formula>I36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38">
-    <cfRule type="cellIs" dxfId="4" priority="790" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="791" operator="lessThanOrEqual">
       <formula>I38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL39">
-    <cfRule type="cellIs" dxfId="4" priority="795" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="796" operator="lessThanOrEqual">
       <formula>I39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL40">
-    <cfRule type="cellIs" dxfId="4" priority="800" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="801" operator="lessThanOrEqual">
       <formula>I40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL42">
-    <cfRule type="cellIs" dxfId="4" priority="805" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="806" operator="lessThanOrEqual">
       <formula>I42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL7">
-    <cfRule type="cellIs" dxfId="4" priority="671" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="672" operator="lessThanOrEqual">
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12688,17 +12660,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM22">
-    <cfRule type="cellIs" dxfId="4" priority="721" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="722" operator="lessThanOrEqual">
       <formula>J22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM23">
-    <cfRule type="cellIs" dxfId="4" priority="726" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="727" operator="lessThanOrEqual">
       <formula>J23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM24">
-    <cfRule type="cellIs" dxfId="4" priority="731" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="732" operator="lessThanOrEqual">
       <formula>J24</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12743,37 +12715,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM35">
-    <cfRule type="cellIs" dxfId="4" priority="779" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="780" operator="lessThanOrEqual">
       <formula>J35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM36">
-    <cfRule type="cellIs" dxfId="4" priority="784" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="785" operator="lessThanOrEqual">
       <formula>J36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM38">
-    <cfRule type="cellIs" dxfId="4" priority="789" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="790" operator="lessThanOrEqual">
       <formula>J38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM39">
-    <cfRule type="cellIs" dxfId="4" priority="794" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="795" operator="lessThanOrEqual">
       <formula>J39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM40">
-    <cfRule type="cellIs" dxfId="4" priority="799" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="800" operator="lessThanOrEqual">
       <formula>J40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM42">
-    <cfRule type="cellIs" dxfId="4" priority="804" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="805" operator="lessThanOrEqual">
       <formula>J42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM7">
-    <cfRule type="cellIs" dxfId="4" priority="670" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="671" operator="lessThanOrEqual">
       <formula>J7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12788,441 +12760,467 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO12">
-    <cfRule type="cellIs" dxfId="1" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="813" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="813" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="814" operator="lessThan">
       <formula>H12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13">
-    <cfRule type="cellIs" dxfId="1" priority="818" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="819" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="819" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="820" operator="lessThan">
       <formula>H13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO23">
-    <cfRule type="cellIs" dxfId="1" priority="824" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="825" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="825" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="826" operator="lessThan">
       <formula>H23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24">
-    <cfRule type="cellIs" dxfId="1" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="831" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="831" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="832" operator="lessThan">
       <formula>H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25">
-    <cfRule type="cellIs" dxfId="1" priority="836" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="837" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="837" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="838" operator="lessThan">
       <formula>H25</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AO26">
+    <cfRule type="cellIs" dxfId="1" priority="843" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="844" operator="lessThan">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AO27">
-    <cfRule type="cellIs" dxfId="1" priority="842" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="849" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="843" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="850" operator="lessThan">
       <formula>H27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO29">
-    <cfRule type="cellIs" dxfId="1" priority="848" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="855" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="849" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="856" operator="lessThan">
       <formula>H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO30">
-    <cfRule type="cellIs" dxfId="1" priority="854" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="861" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="855" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="862" operator="lessThan">
       <formula>H30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO32">
-    <cfRule type="cellIs" dxfId="1" priority="860" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="867" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="861" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="868" operator="lessThan">
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO35">
-    <cfRule type="cellIs" dxfId="1" priority="866" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="873" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="867" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="874" operator="lessThan">
       <formula>H35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO39">
-    <cfRule type="cellIs" dxfId="1" priority="872" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="879" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="873" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="880" operator="lessThan">
       <formula>H39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO40">
-    <cfRule type="cellIs" dxfId="1" priority="878" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="885" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="879" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="886" operator="lessThan">
       <formula>H40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO8">
-    <cfRule type="cellIs" dxfId="1" priority="806" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="807" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="807" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="808" operator="lessThan">
       <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12">
-    <cfRule type="expression" dxfId="3" priority="814">
+    <cfRule type="expression" dxfId="3" priority="815">
       <formula>AND(AP12&gt;0,AP12&lt;1000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="815" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="816" operator="greaterThan">
       <formula>AO12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP13">
-    <cfRule type="expression" dxfId="3" priority="820">
+    <cfRule type="expression" dxfId="3" priority="821">
       <formula>AND(AP13&gt;0,AP13&lt;50)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="821" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="822" operator="greaterThan">
       <formula>AO13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP23">
-    <cfRule type="expression" dxfId="3" priority="826">
+    <cfRule type="expression" dxfId="3" priority="827">
       <formula>AND(AP23&gt;0,AP23&lt;1000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="827" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="828" operator="greaterThan">
       <formula>AO23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP24">
-    <cfRule type="expression" dxfId="3" priority="832">
+    <cfRule type="expression" dxfId="3" priority="833">
       <formula>AND(AP24&gt;0,AP24&lt;1000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="833" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="834" operator="greaterThan">
       <formula>AO24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP25">
-    <cfRule type="expression" dxfId="3" priority="838">
+    <cfRule type="expression" dxfId="3" priority="839">
       <formula>AND(AP25&gt;0,AP25&lt;1000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="839" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="840" operator="greaterThan">
       <formula>AO25</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AP26">
+    <cfRule type="expression" dxfId="3" priority="845">
+      <formula>AND(AP26&gt;0,AP26&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="846" operator="greaterThan">
+      <formula>AO26</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AP27">
-    <cfRule type="expression" dxfId="3" priority="844">
+    <cfRule type="expression" dxfId="3" priority="851">
       <formula>AND(AP27&gt;0,AP27&lt;1000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="845" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="852" operator="greaterThan">
       <formula>AO27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP29">
-    <cfRule type="expression" dxfId="3" priority="850">
+    <cfRule type="expression" dxfId="3" priority="857">
       <formula>AND(AP29&gt;0,AP29&lt;1000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="851" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="858" operator="greaterThan">
       <formula>AO29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP30">
-    <cfRule type="expression" dxfId="3" priority="856">
+    <cfRule type="expression" dxfId="3" priority="863">
       <formula>AND(AP30&gt;0,AP30&lt;1000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="857" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="864" operator="greaterThan">
       <formula>AO30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP32">
-    <cfRule type="expression" dxfId="3" priority="862">
+    <cfRule type="expression" dxfId="3" priority="869">
       <formula>AND(AP32&gt;0,AP32&lt;30)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="863" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="870" operator="greaterThan">
       <formula>AO32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP35">
-    <cfRule type="expression" dxfId="3" priority="868">
+    <cfRule type="expression" dxfId="3" priority="875">
       <formula>AND(AP35&gt;0,AP35&lt;18)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="869" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="876" operator="greaterThan">
       <formula>AO35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP39">
-    <cfRule type="expression" dxfId="3" priority="874">
+    <cfRule type="expression" dxfId="3" priority="881">
       <formula>AND(AP39&gt;0,AP39&lt;50)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="875" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="882" operator="greaterThan">
       <formula>AO39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP40">
-    <cfRule type="expression" dxfId="3" priority="880">
+    <cfRule type="expression" dxfId="3" priority="887">
       <formula>AND(AP40&gt;0,AP40&lt;20)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="881" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="888" operator="greaterThan">
       <formula>AO40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP8">
-    <cfRule type="expression" dxfId="3" priority="808">
+    <cfRule type="expression" dxfId="3" priority="809">
       <formula>AND(AP8&gt;0,AP8&lt;20)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="809" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="810" operator="greaterThan">
       <formula>AO8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ12">
+    <cfRule type="cellIs" dxfId="4" priority="818" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ13">
+    <cfRule type="cellIs" dxfId="4" priority="824" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ23">
+    <cfRule type="cellIs" dxfId="4" priority="830" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ24">
+    <cfRule type="cellIs" dxfId="4" priority="836" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ25">
+    <cfRule type="cellIs" dxfId="4" priority="842" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ26">
+    <cfRule type="cellIs" dxfId="4" priority="848" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ27">
+    <cfRule type="cellIs" dxfId="4" priority="854" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ29">
+    <cfRule type="cellIs" dxfId="4" priority="860" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ30">
+    <cfRule type="cellIs" dxfId="4" priority="866" operator="lessThanOrEqual">
+      <formula>I30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ32">
+    <cfRule type="cellIs" dxfId="4" priority="872" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ35">
+    <cfRule type="cellIs" dxfId="4" priority="878" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ39">
+    <cfRule type="cellIs" dxfId="4" priority="884" operator="lessThanOrEqual">
+      <formula>I39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ40">
+    <cfRule type="cellIs" dxfId="4" priority="890" operator="lessThanOrEqual">
+      <formula>I40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ8">
+    <cfRule type="cellIs" dxfId="4" priority="812" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR12">
     <cfRule type="cellIs" dxfId="4" priority="817" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ13">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR13">
     <cfRule type="cellIs" dxfId="4" priority="823" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ23">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR23">
     <cfRule type="cellIs" dxfId="4" priority="829" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ24">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR24">
     <cfRule type="cellIs" dxfId="4" priority="835" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ25">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR25">
     <cfRule type="cellIs" dxfId="4" priority="841" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR26">
     <cfRule type="cellIs" dxfId="4" priority="847" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ29">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR27">
     <cfRule type="cellIs" dxfId="4" priority="853" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ30">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR29">
     <cfRule type="cellIs" dxfId="4" priority="859" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ32">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR30">
     <cfRule type="cellIs" dxfId="4" priority="865" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ35">
+      <formula>J30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR32">
     <cfRule type="cellIs" dxfId="4" priority="871" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ39">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR35">
     <cfRule type="cellIs" dxfId="4" priority="877" operator="lessThanOrEqual">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR39">
+    <cfRule type="cellIs" dxfId="4" priority="883" operator="lessThanOrEqual">
+      <formula>J39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR40">
+    <cfRule type="cellIs" dxfId="4" priority="889" operator="lessThanOrEqual">
+      <formula>J40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR8">
+    <cfRule type="cellIs" dxfId="4" priority="811" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT14">
+    <cfRule type="cellIs" dxfId="1" priority="891" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="892" operator="lessThan">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT15">
+    <cfRule type="cellIs" dxfId="1" priority="897" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="898" operator="lessThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT39">
+    <cfRule type="cellIs" dxfId="1" priority="903" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="904" operator="lessThan">
+      <formula>H39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT40">
+    <cfRule type="cellIs" dxfId="1" priority="909" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="910" operator="lessThan">
+      <formula>H40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU14">
+    <cfRule type="expression" dxfId="3" priority="893">
+      <formula>AND(AU14&gt;0,AU14&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="894" operator="greaterThan">
+      <formula>AT14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU15">
+    <cfRule type="expression" dxfId="3" priority="899">
+      <formula>AND(AU15&gt;0,AU15&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="900" operator="greaterThan">
+      <formula>AT15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU39">
+    <cfRule type="expression" dxfId="3" priority="905">
+      <formula>AND(AU39&gt;0,AU39&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="906" operator="greaterThan">
+      <formula>AT39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU40">
+    <cfRule type="cellIs" dxfId="1" priority="911" operator="greaterThan">
+      <formula>AT40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV14">
+    <cfRule type="cellIs" dxfId="4" priority="896" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV15">
+    <cfRule type="cellIs" dxfId="4" priority="902" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV39">
+    <cfRule type="cellIs" dxfId="4" priority="908" operator="lessThanOrEqual">
       <formula>I39</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ40">
-    <cfRule type="cellIs" dxfId="4" priority="883" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AV40">
+    <cfRule type="cellIs" dxfId="4" priority="913" operator="lessThanOrEqual">
       <formula>I40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ8">
-    <cfRule type="cellIs" dxfId="4" priority="811" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR12">
-    <cfRule type="cellIs" dxfId="4" priority="816" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR13">
-    <cfRule type="cellIs" dxfId="4" priority="822" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR23">
-    <cfRule type="cellIs" dxfId="4" priority="828" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR24">
-    <cfRule type="cellIs" dxfId="4" priority="834" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR25">
-    <cfRule type="cellIs" dxfId="4" priority="840" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR27">
-    <cfRule type="cellIs" dxfId="4" priority="846" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR29">
-    <cfRule type="cellIs" dxfId="4" priority="852" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR30">
-    <cfRule type="cellIs" dxfId="4" priority="858" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR32">
-    <cfRule type="cellIs" dxfId="4" priority="864" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR35">
-    <cfRule type="cellIs" dxfId="4" priority="870" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR39">
-    <cfRule type="cellIs" dxfId="4" priority="876" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AW14">
+    <cfRule type="cellIs" dxfId="4" priority="895" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW15">
+    <cfRule type="cellIs" dxfId="4" priority="901" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW39">
+    <cfRule type="cellIs" dxfId="4" priority="907" operator="lessThanOrEqual">
       <formula>J39</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR40">
-    <cfRule type="cellIs" dxfId="4" priority="882" operator="lessThanOrEqual">
-      <formula>J40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR8">
-    <cfRule type="cellIs" dxfId="4" priority="810" operator="lessThanOrEqual">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT14">
-    <cfRule type="cellIs" dxfId="1" priority="884" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="885" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT15">
-    <cfRule type="cellIs" dxfId="1" priority="890" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="891" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT39">
-    <cfRule type="cellIs" dxfId="1" priority="896" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="897" operator="lessThan">
-      <formula>H39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT40">
-    <cfRule type="cellIs" dxfId="1" priority="902" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="903" operator="lessThan">
-      <formula>H40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU14">
-    <cfRule type="expression" dxfId="3" priority="886">
-      <formula>AND(AU14&gt;0,AU14&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="887" operator="greaterThan">
-      <formula>AT14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU15">
-    <cfRule type="expression" dxfId="3" priority="892">
-      <formula>AND(AU15&gt;0,AU15&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="893" operator="greaterThan">
-      <formula>AT15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU39">
-    <cfRule type="expression" dxfId="3" priority="898">
-      <formula>AND(AU39&gt;0,AU39&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="899" operator="greaterThan">
-      <formula>AT39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU40">
-    <cfRule type="cellIs" dxfId="1" priority="904" operator="greaterThan">
-      <formula>AT40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV14">
-    <cfRule type="cellIs" dxfId="4" priority="889" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV15">
-    <cfRule type="cellIs" dxfId="4" priority="895" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV39">
-    <cfRule type="cellIs" dxfId="4" priority="901" operator="lessThanOrEqual">
-      <formula>I39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV40">
-    <cfRule type="cellIs" dxfId="4" priority="906" operator="lessThanOrEqual">
-      <formula>I40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW14">
-    <cfRule type="cellIs" dxfId="4" priority="888" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW15">
-    <cfRule type="cellIs" dxfId="4" priority="894" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW39">
-    <cfRule type="cellIs" dxfId="4" priority="900" operator="lessThanOrEqual">
-      <formula>J39</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AW40">
-    <cfRule type="cellIs" dxfId="4" priority="905" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="912" operator="lessThanOrEqual">
       <formula>J40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14734,7 +14732,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="V26">
     <cfRule type="expression" dxfId="3" priority="381">
-      <formula>AND(V26&gt;0,V26&lt;30000)</formula>
+      <formula>AND(V26&gt;0,V26&lt;10)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="382" operator="greaterThan">
       <formula>U26</formula>
@@ -15318,100 +15316,101 @@
     <hyperlink ref="Y26" r:id="rId88"/>
     <hyperlink ref="AI26" r:id="rId89"/>
     <hyperlink ref="AN26" r:id="rId90"/>
-    <hyperlink ref="G27" r:id="rId91"/>
-    <hyperlink ref="T27" r:id="rId92"/>
-    <hyperlink ref="Y27" r:id="rId93"/>
-    <hyperlink ref="AI27" r:id="rId94"/>
-    <hyperlink ref="AN27" r:id="rId95"/>
-    <hyperlink ref="AS27" r:id="rId96"/>
-    <hyperlink ref="G28" r:id="rId97"/>
-    <hyperlink ref="T28" r:id="rId98"/>
-    <hyperlink ref="Y28" r:id="rId99"/>
-    <hyperlink ref="AI28" r:id="rId100"/>
-    <hyperlink ref="G29" r:id="rId101"/>
-    <hyperlink ref="T29" r:id="rId102"/>
-    <hyperlink ref="Y29" r:id="rId103"/>
-    <hyperlink ref="AD29" r:id="rId104"/>
-    <hyperlink ref="AI29" r:id="rId105"/>
-    <hyperlink ref="AN29" r:id="rId106"/>
-    <hyperlink ref="AS29" r:id="rId107"/>
-    <hyperlink ref="G30" r:id="rId108"/>
-    <hyperlink ref="T30" r:id="rId109"/>
-    <hyperlink ref="Y30" r:id="rId110"/>
-    <hyperlink ref="AD30" r:id="rId111"/>
-    <hyperlink ref="AI30" r:id="rId112"/>
-    <hyperlink ref="AN30" r:id="rId113"/>
-    <hyperlink ref="AS30" r:id="rId114"/>
-    <hyperlink ref="G31" r:id="rId115"/>
-    <hyperlink ref="T31" r:id="rId116"/>
-    <hyperlink ref="Y31" r:id="rId117"/>
-    <hyperlink ref="AD31" r:id="rId118"/>
-    <hyperlink ref="AI31" r:id="rId119"/>
-    <hyperlink ref="AN31" r:id="rId120"/>
-    <hyperlink ref="G32" r:id="rId121"/>
-    <hyperlink ref="T32" r:id="rId122"/>
-    <hyperlink ref="Y32" r:id="rId123"/>
-    <hyperlink ref="AI32" r:id="rId124"/>
-    <hyperlink ref="AN32" r:id="rId125"/>
-    <hyperlink ref="AS32" r:id="rId126"/>
-    <hyperlink ref="G33" r:id="rId127"/>
-    <hyperlink ref="T33" r:id="rId128"/>
-    <hyperlink ref="G34" r:id="rId129"/>
-    <hyperlink ref="T34" r:id="rId130"/>
-    <hyperlink ref="Y34" r:id="rId131"/>
-    <hyperlink ref="AI34" r:id="rId132"/>
-    <hyperlink ref="AN34" r:id="rId133"/>
-    <hyperlink ref="G35" r:id="rId134"/>
-    <hyperlink ref="T35" r:id="rId135"/>
-    <hyperlink ref="Y35" r:id="rId136"/>
-    <hyperlink ref="AI35" r:id="rId137"/>
-    <hyperlink ref="AN35" r:id="rId138"/>
-    <hyperlink ref="AS35" r:id="rId139"/>
-    <hyperlink ref="G36" r:id="rId140"/>
-    <hyperlink ref="T36" r:id="rId141"/>
-    <hyperlink ref="Y36" r:id="rId142"/>
-    <hyperlink ref="AD36" r:id="rId143"/>
-    <hyperlink ref="AI36" r:id="rId144"/>
-    <hyperlink ref="AN36" r:id="rId145"/>
-    <hyperlink ref="G37" r:id="rId146"/>
-    <hyperlink ref="T37" r:id="rId147"/>
-    <hyperlink ref="AD37" r:id="rId148"/>
-    <hyperlink ref="AI37" r:id="rId149"/>
-    <hyperlink ref="G38" r:id="rId150"/>
-    <hyperlink ref="T38" r:id="rId151"/>
-    <hyperlink ref="Y38" r:id="rId152"/>
-    <hyperlink ref="AI38" r:id="rId153"/>
-    <hyperlink ref="AN38" r:id="rId154"/>
-    <hyperlink ref="G39" r:id="rId155"/>
-    <hyperlink ref="T39" r:id="rId156"/>
-    <hyperlink ref="Y39" r:id="rId157"/>
-    <hyperlink ref="AI39" r:id="rId158"/>
-    <hyperlink ref="AN39" r:id="rId159"/>
-    <hyperlink ref="AS39" r:id="rId160"/>
-    <hyperlink ref="AX39" r:id="rId161"/>
-    <hyperlink ref="G40" r:id="rId162"/>
-    <hyperlink ref="T40" r:id="rId163"/>
-    <hyperlink ref="Y40" r:id="rId164"/>
-    <hyperlink ref="AI40" r:id="rId165"/>
-    <hyperlink ref="AN40" r:id="rId166"/>
-    <hyperlink ref="AS40" r:id="rId167"/>
-    <hyperlink ref="AX40" r:id="rId168"/>
-    <hyperlink ref="G41" r:id="rId169"/>
-    <hyperlink ref="G42" r:id="rId170"/>
-    <hyperlink ref="T42" r:id="rId171"/>
-    <hyperlink ref="Y42" r:id="rId172"/>
-    <hyperlink ref="AI42" r:id="rId173"/>
-    <hyperlink ref="AN42" r:id="rId174"/>
-    <hyperlink ref="K44" r:id="rId175"/>
-    <hyperlink ref="P44" r:id="rId176"/>
-    <hyperlink ref="U44" r:id="rId177"/>
-    <hyperlink ref="Z44" r:id="rId178"/>
-    <hyperlink ref="AE44" r:id="rId179"/>
-    <hyperlink ref="AJ44" r:id="rId180"/>
-    <hyperlink ref="AO44" r:id="rId181"/>
-    <hyperlink ref="AT44" r:id="rId182"/>
+    <hyperlink ref="AS26" r:id="rId91"/>
+    <hyperlink ref="G27" r:id="rId92"/>
+    <hyperlink ref="T27" r:id="rId93"/>
+    <hyperlink ref="Y27" r:id="rId94"/>
+    <hyperlink ref="AI27" r:id="rId95"/>
+    <hyperlink ref="AN27" r:id="rId96"/>
+    <hyperlink ref="AS27" r:id="rId97"/>
+    <hyperlink ref="G28" r:id="rId98"/>
+    <hyperlink ref="T28" r:id="rId99"/>
+    <hyperlink ref="Y28" r:id="rId100"/>
+    <hyperlink ref="AI28" r:id="rId101"/>
+    <hyperlink ref="G29" r:id="rId102"/>
+    <hyperlink ref="T29" r:id="rId103"/>
+    <hyperlink ref="Y29" r:id="rId104"/>
+    <hyperlink ref="AD29" r:id="rId105"/>
+    <hyperlink ref="AI29" r:id="rId106"/>
+    <hyperlink ref="AN29" r:id="rId107"/>
+    <hyperlink ref="AS29" r:id="rId108"/>
+    <hyperlink ref="G30" r:id="rId109"/>
+    <hyperlink ref="T30" r:id="rId110"/>
+    <hyperlink ref="Y30" r:id="rId111"/>
+    <hyperlink ref="AD30" r:id="rId112"/>
+    <hyperlink ref="AI30" r:id="rId113"/>
+    <hyperlink ref="AN30" r:id="rId114"/>
+    <hyperlink ref="AS30" r:id="rId115"/>
+    <hyperlink ref="G31" r:id="rId116"/>
+    <hyperlink ref="T31" r:id="rId117"/>
+    <hyperlink ref="Y31" r:id="rId118"/>
+    <hyperlink ref="AD31" r:id="rId119"/>
+    <hyperlink ref="AI31" r:id="rId120"/>
+    <hyperlink ref="AN31" r:id="rId121"/>
+    <hyperlink ref="G32" r:id="rId122"/>
+    <hyperlink ref="T32" r:id="rId123"/>
+    <hyperlink ref="Y32" r:id="rId124"/>
+    <hyperlink ref="AI32" r:id="rId125"/>
+    <hyperlink ref="AN32" r:id="rId126"/>
+    <hyperlink ref="AS32" r:id="rId127"/>
+    <hyperlink ref="G33" r:id="rId128"/>
+    <hyperlink ref="T33" r:id="rId129"/>
+    <hyperlink ref="G34" r:id="rId130"/>
+    <hyperlink ref="T34" r:id="rId131"/>
+    <hyperlink ref="Y34" r:id="rId132"/>
+    <hyperlink ref="AI34" r:id="rId133"/>
+    <hyperlink ref="AN34" r:id="rId134"/>
+    <hyperlink ref="G35" r:id="rId135"/>
+    <hyperlink ref="T35" r:id="rId136"/>
+    <hyperlink ref="Y35" r:id="rId137"/>
+    <hyperlink ref="AI35" r:id="rId138"/>
+    <hyperlink ref="AN35" r:id="rId139"/>
+    <hyperlink ref="AS35" r:id="rId140"/>
+    <hyperlink ref="G36" r:id="rId141"/>
+    <hyperlink ref="T36" r:id="rId142"/>
+    <hyperlink ref="Y36" r:id="rId143"/>
+    <hyperlink ref="AD36" r:id="rId144"/>
+    <hyperlink ref="AI36" r:id="rId145"/>
+    <hyperlink ref="AN36" r:id="rId146"/>
+    <hyperlink ref="G37" r:id="rId147"/>
+    <hyperlink ref="T37" r:id="rId148"/>
+    <hyperlink ref="AD37" r:id="rId149"/>
+    <hyperlink ref="AI37" r:id="rId150"/>
+    <hyperlink ref="G38" r:id="rId151"/>
+    <hyperlink ref="T38" r:id="rId152"/>
+    <hyperlink ref="Y38" r:id="rId153"/>
+    <hyperlink ref="AI38" r:id="rId154"/>
+    <hyperlink ref="AN38" r:id="rId155"/>
+    <hyperlink ref="G39" r:id="rId156"/>
+    <hyperlink ref="T39" r:id="rId157"/>
+    <hyperlink ref="Y39" r:id="rId158"/>
+    <hyperlink ref="AI39" r:id="rId159"/>
+    <hyperlink ref="AN39" r:id="rId160"/>
+    <hyperlink ref="AS39" r:id="rId161"/>
+    <hyperlink ref="AX39" r:id="rId162"/>
+    <hyperlink ref="G40" r:id="rId163"/>
+    <hyperlink ref="T40" r:id="rId164"/>
+    <hyperlink ref="Y40" r:id="rId165"/>
+    <hyperlink ref="AI40" r:id="rId166"/>
+    <hyperlink ref="AN40" r:id="rId167"/>
+    <hyperlink ref="AS40" r:id="rId168"/>
+    <hyperlink ref="AX40" r:id="rId169"/>
+    <hyperlink ref="G41" r:id="rId170"/>
+    <hyperlink ref="G42" r:id="rId171"/>
+    <hyperlink ref="T42" r:id="rId172"/>
+    <hyperlink ref="Y42" r:id="rId173"/>
+    <hyperlink ref="AI42" r:id="rId174"/>
+    <hyperlink ref="AN42" r:id="rId175"/>
+    <hyperlink ref="K44" r:id="rId176"/>
+    <hyperlink ref="P44" r:id="rId177"/>
+    <hyperlink ref="U44" r:id="rId178"/>
+    <hyperlink ref="Z44" r:id="rId179"/>
+    <hyperlink ref="AE44" r:id="rId180"/>
+    <hyperlink ref="AJ44" r:id="rId181"/>
+    <hyperlink ref="AO44" r:id="rId182"/>
+    <hyperlink ref="AT44" r:id="rId183"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId183"/>
+  <legacyDrawing r:id="rId184"/>
 </worksheet>
 </file>
--- a/documentation/reDIP-SID-BOM.xlsx
+++ b/documentation/reDIP-SID-BOM.xlsx
@@ -1239,12 +1239,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.29      $0.29
-    10   $0.13      $1.32
-    25   $0.13      $3.15
-    50   $0.12      $5.95
-   100   $0.11     $11.30
- 15000   $0.06    $930.00</t>
+     1   $0.05      $0.05
+    10   $0.12      $1.19
+    25   $0.11      $2.77
+    50   $0.10      $5.10
+   100   $0.09      $9.40
+ 15000   $0.05    $780.00</t>
         </r>
       </text>
     </comment>
@@ -1263,15 +1263,15 @@
      1   $0.37      $0.37
     10   $0.22      $2.17
     25   $0.21      $5.37
-   100   $0.18     $17.77
-   250   $0.17     $43.60
-   500   $0.16     $81.55
-  1000   $0.10     $98.80
-  3000   $0.10    $293.40
-  6000   $0.09    $561.60
- 15000   $0.09  $1,390.50
- 30000   $0.09  $2,661.00
- 75000   $0.08  $6,165.00</t>
+   100   $0.18     $18.27
+   250   $0.17     $42.92
+   500   $0.16     $80.55
+  1000   $0.10     $96.40
+  3000   $0.10    $286.20
+  6000   $0.09    $552.00
+ 15000   $0.09  $1,365.00
+ 30000   $0.09  $2,649.00
+ 75000   $0.08  $6,127.50</t>
         </r>
       </text>
     </comment>
@@ -1337,12 +1337,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     5   $0.12      $0.61
-    50   $0.10      $5.04
-   150   $0.09     $12.79
-   500   $0.06     $29.05
-  2500   $0.06    $141.00
-  5000   $0.06    $277.50</t>
+     5   $0.12      $0.59
+    50   $0.10      $4.91
+   150   $0.08     $12.46
+   500   $0.06     $28.30
+  2500   $0.05    $137.25
+  5000   $0.05    $270.50</t>
         </r>
       </text>
     </comment>
@@ -1392,13 +1392,13 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.50      $0.50
-    10   $0.25      $2.47
-    25   $0.24      $5.90
-    50   $0.22     $11.20
-   100   $0.21     $21.20
- 10000   $0.11  $1,110.00
- 20000   $0.11  $2,180.00</t>
+     1   $0.09      $0.09
+    10   $0.21      $2.06
+    25   $0.20      $4.90
+    50   $0.19      $9.35
+   100   $0.18     $17.70
+ 10000   $0.09    $930.00
+ 20000   $0.09  $1,820.00</t>
         </r>
       </text>
     </comment>
@@ -1564,13 +1564,13 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.33      $0.33
-    10   $0.24      $2.41
-    25   $0.24      $5.97
-    50   $0.17      $8.50
-   100   $0.14     $14.45
-   250   $0.14     $35.77
-   500   $0.12     $58.20</t>
+     1   $0.32      $0.32
+    10   $0.24      $2.37
+    25   $0.23      $5.87
+    50   $0.17      $8.49
+   100   $0.14     $14.35
+   250   $0.14     $35.52
+   500   $0.11     $57.45</t>
         </r>
       </text>
     </comment>
@@ -1595,8 +1595,7 @@
   4000   $0.06    $249.08
   8000   $0.06    $471.28
  12000   $0.06    $670.56
- 28000   $0.05  $1,508.08
-100000   $0.04  $4,460.00</t>
+ 40000   $0.05  $2,154.40</t>
         </r>
       </text>
     </comment>
@@ -1676,11 +1675,11 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.44      $0.44
-    10   $0.31      $3.10
-    25   $0.27      $6.70
-    50   $0.23     $11.30
-   100   $0.18     $18.50</t>
+     1   $0.37      $0.37
+    10   $0.26      $2.58
+    25   $0.22      $5.58
+    50   $0.19      $9.45
+   100   $0.15     $15.40</t>
         </r>
       </text>
     </comment>
@@ -1813,6 +1812,7 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
+     1   $0.11      $0.11
     10   $0.27      $2.70
     25   $0.23      $5.85
     50   $0.20      $9.85
@@ -1857,14 +1857,14 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.33      $0.33
-    10   $0.28      $2.85
-    25   $0.24      $6.06
-    50   $0.23     $11.25
-   100   $0.14     $13.50
-   250   $0.11     $26.47
+    10   $0.28      $2.78
+    25   $0.24      $6.04
+    50   $0.22     $11.24
+   100   $0.13     $13.48
+   250   $0.11     $26.58
    500   $0.09     $47.25
-  1000   $0.08     $79.90
-  3000   $0.07    $220.20
+  1000   $0.08     $79.80
+  3000   $0.07    $219.90
   6000   $0.07    $406.20</t>
         </r>
       </text>
@@ -1993,10 +1993,10 @@
   Qty  -  Unit£  -  Ext£
 ================
      5   £0.15      £0.74
-    25   £0.13      £3.20
-   100   £0.08      £7.93
-   500   £0.06     £30.20
-  4000   £0.05    £181.20</t>
+    25   £0.13      £3.23
+   100   £0.08      £8.00
+   500   £0.06     £30.45
+  4000   £0.05    £182.80</t>
         </r>
       </text>
     </comment>
@@ -2102,10 +2102,10 @@
   Qty  -  Unit£  -  Ext£
 ================
      5   £0.15      £0.74
-    25   £0.11      £2.80
-   100   £0.08      £7.93
-   500   £0.06     £28.60
-  4000   £0.04    £164.80</t>
+    25   £0.11      £2.82
+   100   £0.08      £8.00
+   500   £0.06     £28.85
+  4000   £0.04    £166.00</t>
         </r>
       </text>
     </comment>
@@ -2166,9 +2166,9 @@
    160   £0.62     £99.04
    400   £0.58    £231.20
    800   £0.34    £273.60
-  4000   £0.31  £1,232.00
-  8000   £0.28  £2,264.00
- 16000   £0.28  £4,432.00</t>
+  4000   £0.31  £1,240.00
+  8000   £0.29  £2,336.00
+ 16000   £0.28  £4,544.00</t>
         </r>
       </text>
     </comment>
@@ -2205,13 +2205,13 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.81      $0.81
-    10   $0.71      $7.09
-    25   $0.67     $16.70
-    50   $0.64     $32.00
-   100   $0.61     $61.20
-   250   $0.56    $139.00
-   500   $0.50    $250.50
+     1   $0.75      $0.75
+    10   $0.68      $6.82
+    25   $0.64     $16.00
+    50   $0.61     $30.60
+   100   $0.58     $58.40
+   250   $0.53    $132.25
+   500   $0.49    $243.50
    800   $0.50    $400.80</t>
         </r>
       </text>
@@ -2884,17 +2884,15 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.12      $0.12
-    10   $0.07      $0.66
-    25   $0.05      $1.32
-    50   $0.04      $2.00
-   100   $0.03      $2.80
+     1   $0.11      $0.11
+    10   $0.06      $0.60
+    25   $0.05      $1.20
+    50   $0.04      $1.85
+   100   $0.03      $2.50
    250   $0.02      $5.50
    500   $0.02      $8.50
   1000   $0.01     $12.00
   2500   $0.01     $22.50
-  5000   $0.02     $90.00
- 10000   $0.01    $150.00
  15000   $0.01    $225.00
  20000   $0.01    $200.00</t>
         </r>
@@ -3109,21 +3107,8 @@
 ================
      1   $0.08      $0.08
     10   $0.07      $0.68
-    25   $0.05      $1.33
-   100   $0.04      $3.53</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not stocked.</t>
+    25   $0.05      $1.32
+   100   $0.04      $3.50</t>
         </r>
       </text>
     </comment>
@@ -3225,11 +3210,11 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.12      $0.12
-    10   $0.07      $0.66
-    25   $0.05      $1.32
-    50   $0.04      $2.00
-   100   $0.03      $2.80
+     1   $0.13      $0.13
+    10   $0.06      $0.60
+    25   $0.07      $1.85
+    50   $0.04      $1.85
+   100   $0.03      $3.00
    250   $0.03      $6.25
    500   $0.02      $9.00
   1000   $0.01     $12.00
@@ -3377,7 +3362,7 @@
    100   $0.01      $1.15
    250   $0.01      $2.85
    500   $0.01      $5.60
-  1000   $0.01      $6.70
+  1000   $0.01      $6.80
   3000   $0.00      $8.40
  30000   $0.00     $81.00</t>
         </r>
@@ -3610,7 +3595,7 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.01      $0.01
+     1   $0.24      $0.24
     25   $0.02      $0.57
    100   $0.01      $1.00
    250   $0.01      $2.25
@@ -3618,7 +3603,7 @@
   1000   $0.01      $7.00
   2500   $0.01     $12.50
   5000   $0.00     $20.00
- 15000   $0.01    $120.00</t>
+ 15000   $0.01     $90.00</t>
         </r>
       </text>
     </comment>
@@ -3662,6 +3647,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="W30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y30" authorId="0">
       <text>
         <r>
@@ -3738,15 +3736,17 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.12      $0.12
-    10   $0.07      $0.66
-    25   $0.05      $1.32
-    50   $0.04      $2.00
-   100   $0.03      $2.80
-   250   $0.03      $6.25
-   500   $0.02      $9.50
-  1000   $0.02     $16.00
-  2500   $0.01     $27.50
+     1   $0.00      $0.00
+    10   $0.06      $0.60
+    25   $0.00      $0.05
+    50   $0.04      $1.85
+   100   $0.00      $0.20
+   250   $0.00      $0.50
+   500   $0.00      $1.00
+  1000   $0.00      $2.00
+  2500   $0.00      $5.00
+  5000   $0.02    $105.00
+ 10000   $0.02    $160.00
  15000   $0.02    $240.00</t>
         </r>
       </text>
@@ -3911,14 +3911,14 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     5   £0.44      £2.19
-    10   £0.33      £3.29
-   100   £0.17     £16.50
-   500   £0.10     £47.85
-  3000   £0.07    £221.10
-  9000   £0.07    £649.80
- 24000   £0.07  £1,699.20
- 45000   £0.07  £3,118.50</t>
+     5   £0.34      £1.70
+    10   £0.25      £2.54
+   100   £0.13     £12.80
+   500   £0.06     £28.50
+  6000   £0.06    £335.40
+ 18000   £0.05    £984.60
+ 48000   £0.05  £2,572.80
+ 90000   £0.05  £4,716.00</t>
         </r>
       </text>
     </comment>
@@ -3955,13 +3955,14 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
+     1   $0.54      $0.54
      5   $0.54      $2.68
     10   $0.41      $4.09
    100   $0.26     $25.50
-  6000   $0.10    $576.00
- 18000   $0.09  $1,530.00
- 48000   $0.07  $3,312.00
- 90000   $0.06  $5,400.00</t>
+  6000   $0.09    $522.00
+ 18000   $0.08  $1,386.00
+ 48000   $0.06  $3,024.00
+ 90000   $0.06  $4,950.00</t>
         </r>
       </text>
     </comment>
@@ -3990,11 +3991,11 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     5   £0.14      £0.68
-    25   £0.09      £2.16
-   100   £0.07      £7.50
-   500   £0.07     £32.70
-  3000   £0.06    £183.00</t>
+     5   £0.13      £0.67
+    25   £0.09      £2.15
+   100   £0.07      £7.46
+   500   £0.07     £32.55
+  3000   £0.06    £182.10</t>
         </r>
       </text>
     </comment>
@@ -4023,14 +4024,14 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.47      $0.47
-    10   $0.40      $4.02
-    25   $0.38      $9.39
-   100   $0.30     $30.04
-   250   $0.28     $69.73
-   500   $0.24    $118.00
-  1000   $0.18    $182.36
-  3000   $0.18    $531.30</t>
+     1   $0.61      $0.61
+    10   $0.53      $5.25
+    25   $0.49     $12.25
+   100   $0.39     $39.21
+   250   $0.36     $91.02
+   500   $0.31    $154.03
+  1000   $0.24    $238.04
+  3000   $0.23    $693.51</t>
         </r>
       </text>
     </comment>
@@ -4059,10 +4060,10 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     5   £0.55      £2.77
-    10   £0.46      £4.64
-   100   £0.29     £28.60
-   500   £0.19     £94.50</t>
+     5   £0.48      £2.40
+    10   £0.38      £3.82
+   100   £0.28     £28.30
+   500   £0.19     £93.00</t>
         </r>
       </text>
     </comment>
@@ -4091,12 +4092,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.47      $0.47
-    10   $0.38      $3.76
-    50   $0.38     $18.80
-   100   $0.28     $27.90
-  1000   $0.18    $183.00
- 10000   $0.17  $1,660.00</t>
+     1   $0.62      $0.62
+    10   $0.53      $5.26
+    50   $0.53     $26.30
+   100   $0.36     $36.50
+  1000   $0.24    $239.00
+ 10000   $0.20  $2,040.00</t>
         </r>
       </text>
     </comment>
@@ -4412,18 +4413,18 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.26      $0.26
-    10   $0.24      $2.42
-    25   $0.23      $5.76
-    50   $0.22     $11.15
-   100   $0.22     $21.56
-   250   $0.20     $51.11
-   500   $0.17     $85.49
-  1000   $0.13    $132.69
-  4000   $0.13    $505.48
-  8000   $0.12    $951.52
- 12000   $0.11  $1,338.00
- 28000   $0.10  $2,913.96</t>
+     1   $0.47      $0.47
+    10   $0.43      $4.32
+    25   $0.41     $10.31
+    50   $0.40     $19.95
+   100   $0.39     $38.57
+   250   $0.37     $91.45
+   500   $0.31    $152.97
+  1000   $0.24    $237.44
+  4000   $0.23    $904.52
+  8000   $0.21  $1,702.64
+ 12000   $0.20  $2,394.36
+ 28000   $0.19  $5,214.16</t>
         </r>
       </text>
     </comment>
@@ -4452,9 +4453,9 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     5   £0.53      £2.66
-    10   £0.42      £4.24
-   100   £0.26     £25.80
+     5   £0.46      £2.30
+    10   £0.38      £3.75
+   100   £0.26     £25.50
    500   £0.14     £72.00</t>
         </r>
       </text>
@@ -4484,12 +4485,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.45      $0.45
-    10   $0.37      $3.67
-    50   $0.37     $18.35
-   100   $0.25     $25.00
-  1000   $0.14    $141.00
- 10000   $0.12  $1,200.00</t>
+     1   $0.61      $0.61
+    10   $0.52      $5.24
+    50   $0.52     $26.20
+   100   $0.39     $39.10
+  1000   $0.24    $238.00
+ 10000   $0.20  $2,040.00</t>
         </r>
       </text>
     </comment>
@@ -4505,9 +4506,9 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.27      $0.27
-    10   $0.26      $2.55
-   100   $0.23     $22.90
+     1   $0.26      $0.26
+    10   $0.25      $2.48
+   100   $0.22     $22.30
   3000   $0.13    $393.00
   4000   $0.13    $524.00
   6000   $0.12    $702.00
@@ -4578,11 +4579,11 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     5   £0.17      £0.86
-    25   £0.15      £3.74
-   100   £0.13     £12.96
-   500   £0.11     £56.59
-  2000   £0.11    £211.28</t>
+     5   £0.17      £0.85
+    25   £0.15      £3.73
+   100   £0.13     £12.92
+   500   £0.11     £56.42
+  2000   £0.11    £210.64</t>
         </r>
       </text>
     </comment>
@@ -4618,19 +4619,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="W38" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not stocked.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="Y38" authorId="0">
       <text>
         <r>
@@ -4643,9 +4631,9 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     1   £0.80      £0.80
-    25   £0.67     £16.85
-   100   £0.62     £62.00</t>
+     1   £0.85      £0.85
+    25   £0.72     £17.90
+   100   £0.66     £65.80</t>
         </r>
       </text>
     </comment>
@@ -4775,8 +4763,8 @@
   Qty  -  Unit£  -  Ext£
 ================
      1   £0.76      £0.76
-     5   £0.70      £3.50
-    25   £0.64     £16.00
+     5   £0.71      £3.55
+    25   £0.65     £16.25
    100   £0.58     £58.00</t>
         </r>
       </text>
@@ -4850,19 +4838,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not stocked.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="S41" authorId="0">
       <text>
         <r>
@@ -4878,7 +4853,7 @@
      1   $9.15      $9.15
     25   $7.95    $198.75
    100   $7.67    $767.00
-  2000   $6.95 $13,900.04</t>
+  2000   $7.67 $15,340.00</t>
         </r>
       </text>
     </comment>
@@ -4907,11 +4882,11 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     1   £5.87      £5.87
-    10   £5.27     £52.70
-    25   £4.66    £116.50
-    50   £4.57    £228.50
-   100   £4.57    £457.00</t>
+     1   £5.67      £5.67
+    10   £5.33     £53.30
+    25   £4.98    £124.50
+    50   £4.88    £244.00
+   100   £4.88    £488.00</t>
         </r>
       </text>
     </comment>
@@ -5077,11 +5052,11 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $1.18      $1.18
-    10   $1.18     $11.80
-    25   $1.18     $29.50
-    50   $1.18     $59.00
-   100   $1.18    $118.00
+     1   $1.15      $1.15
+    10   $1.15     $11.50
+    25   $1.15     $28.75
+    50   $1.15     $57.50
+   100   $1.15    $115.00
   1000   $1.34  $1,340.00
   2000   $1.28  $2,560.00
   3000   $1.28  $3,840.00
@@ -5277,7 +5252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="360">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -5521,7 +5496,7 @@
     <t>ERJ1GNF1001C</t>
   </si>
   <si>
-    <t>R2</t>
+    <t>R3</t>
   </si>
   <si>
     <t>6.2k</t>
@@ -5533,7 +5508,7 @@
     <t>ERJ1GNF6201C</t>
   </si>
   <si>
-    <t>R3,R4,R15,R16</t>
+    <t>R4,R5,R16,R17</t>
   </si>
   <si>
     <t>2.2k</t>
@@ -5545,7 +5520,7 @@
     <t>ERJ1GNJ222C</t>
   </si>
   <si>
-    <t>R5</t>
+    <t>R6</t>
   </si>
   <si>
     <t>1.5k</t>
@@ -5557,7 +5532,7 @@
     <t>ERJ1GNJ152C</t>
   </si>
   <si>
-    <t>R6</t>
+    <t>R7</t>
   </si>
   <si>
     <t>100k</t>
@@ -5569,7 +5544,7 @@
     <t>ERJ1GNF1003C</t>
   </si>
   <si>
-    <t>R7-R9</t>
+    <t>R8-R10</t>
   </si>
   <si>
     <t>20k</t>
@@ -5581,7 +5556,7 @@
     <t>ERJ1GNF2002C</t>
   </si>
   <si>
-    <t>R10,R14,R17,R18</t>
+    <t>R11,R15,R18,R19</t>
   </si>
   <si>
     <t>10k</t>
@@ -5593,7 +5568,7 @@
     <t>ERJ1GNF1002C</t>
   </si>
   <si>
-    <t>R11,R12</t>
+    <t>R12,R13</t>
   </si>
   <si>
     <t>5.1k</t>
@@ -5605,7 +5580,7 @@
     <t>ERJ1GNJ512C</t>
   </si>
   <si>
-    <t>R13</t>
+    <t>R14</t>
   </si>
   <si>
     <t>100</t>
@@ -5617,7 +5592,7 @@
     <t>ERJ1GNJ101C</t>
   </si>
   <si>
-    <t>R19,R20</t>
+    <t>R20,R21</t>
   </si>
   <si>
     <t>0</t>
@@ -5629,7 +5604,7 @@
     <t>ERJ1GN0R00C</t>
   </si>
   <si>
-    <t>R21</t>
+    <t>R22</t>
   </si>
   <si>
     <t>22</t>
@@ -6220,7 +6195,7 @@
     <t>36AJ9148</t>
   </si>
   <si>
-    <t>85Y7484</t>
+    <t>05X8796</t>
   </si>
   <si>
     <t>51W5889</t>
@@ -6232,7 +6207,7 @@
     <t>51W5934</t>
   </si>
   <si>
-    <t>85Y7497</t>
+    <t>05X8814</t>
   </si>
   <si>
     <t>39AH6819</t>
@@ -6340,7 +6315,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>fr. 08. april 2022 kl. 12.00 +0200</t>
+    <t>fr. 15. april 2022 kl. 11.06 +0200</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -6355,7 +6330,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2022-04-08 12:00:56</t>
+    <t>2022-04-15 11:07:06</t>
   </si>
   <si>
     <t>KiCost® v1.1.6</t>
@@ -7037,7 +7012,7 @@
       </c>
       <c r="J2" s="4">
         <f>TotalCost/BoardQty</f>
-        <v>18.8149</v>
+        <v>19.2805</v>
       </c>
     </row>
     <row r="3" spans="1:58">
@@ -7052,11 +7027,11 @@
       </c>
       <c r="J3" s="5">
         <f>SUM(J7:J42)</f>
-        <v>1881.4907</v>
+        <v>1928.0548</v>
       </c>
       <c r="O3" s="5">
         <f>SUM(O7:O42)</f>
-        <v>299.46</v>
+        <v>298.42</v>
       </c>
       <c r="P3" s="6" t="str">
         <f>(COUNTA(O7:O42)&amp;" of "&amp;ROWS(O7:O42)&amp;" parts found")</f>
@@ -7064,7 +7039,7 @@
       </c>
       <c r="U3" s="5">
         <f>SUM(U7:U42)</f>
-        <v>2171.164</v>
+        <v>2197.344</v>
       </c>
       <c r="V3" s="6" t="str">
         <f>(COUNTA(U7:U42)&amp;" of "&amp;ROWS(U7:U42)&amp;" parts found")</f>
@@ -7072,7 +7047,7 @@
       </c>
       <c r="AA3" s="5">
         <f>SUM(AA7:AA42)</f>
-        <v>1757.6788</v>
+        <v>1798.1738</v>
       </c>
       <c r="AB3" s="6" t="str">
         <f>(COUNTA(AA7:AA42)&amp;" of "&amp;ROWS(AA7:AA42)&amp;" parts found")</f>
@@ -7080,7 +7055,7 @@
       </c>
       <c r="AG3" s="5">
         <f>SUM(AG7:AG42)</f>
-        <v>82.15</v>
+        <v>81.49</v>
       </c>
       <c r="AH3" s="6" t="str">
         <f>(COUNTA(AG7:AG42)&amp;" of "&amp;ROWS(AG7:AG42)&amp;" parts found")</f>
@@ -7088,7 +7063,7 @@
       </c>
       <c r="AM3" s="5">
         <f>SUM(AM7:AM42)</f>
-        <v>2090.6</v>
+        <v>2113.3</v>
       </c>
       <c r="AN3" s="6" t="str">
         <f>(COUNTA(AM7:AM42)&amp;" of "&amp;ROWS(AM7:AM42)&amp;" parts found")</f>
@@ -7096,7 +7071,7 @@
       </c>
       <c r="AS3" s="5">
         <f>SUM(AS7:AS42)</f>
-        <v>1776.1</v>
+        <v>1747.5</v>
       </c>
       <c r="AT3" s="6" t="str">
         <f>(COUNTA(AS7:AS42)&amp;" of "&amp;ROWS(AS7:AS42)&amp;" parts found")</f>
@@ -7104,7 +7079,7 @@
       </c>
       <c r="AY3" s="5">
         <f>SUM(AY7:AY42)</f>
-        <v>364.1719</v>
+        <v>365.2766</v>
       </c>
       <c r="AZ3" s="6" t="str">
         <f>(COUNTA(AY7:AY42)&amp;" of "&amp;ROWS(AY7:AY42)&amp;" parts found")</f>
@@ -7112,7 +7087,7 @@
       </c>
       <c r="BE3" s="5">
         <f>SUM(BE7:BE42)</f>
-        <v>133.1896</v>
+        <v>133.6199</v>
       </c>
       <c r="BF3" s="6" t="str">
         <f>(COUNTA(BE7:BE42)&amp;" of "&amp;ROWS(BE7:BE42)&amp;" parts found")</f>
@@ -7457,14 +7432,14 @@
       <c r="X7" s="17"/>
       <c r="Y7" s="18">
         <f>IFERROR(IF(OR(X7&gt;=Z7,H7&gt;=Z7),USD_GBP*LOOKUP(IF(X7="",H7,X7),{0,1,10,100,500,2500,5000,10000,50000},{0.0,0.088,0.088,0.075,0.046,0.043,0.04,0.034,0.0333}),"MOQ="&amp;Z7),"")</f>
-        <v>0.09810665068903535</v>
+        <v>0.09840425531914895</v>
       </c>
       <c r="Z7" s="17">
         <v>10</v>
       </c>
       <c r="AA7" s="19">
         <f>IFERROR(IF(X7="",H7,X7)*Y7,"")</f>
-        <v>39.2427</v>
+        <v>39.3617</v>
       </c>
       <c r="AB7" s="17" t="s">
         <v>224</v>
@@ -7577,7 +7552,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="17">
-        <v>1214472</v>
+        <v>1147032</v>
       </c>
       <c r="R8" s="17"/>
       <c r="S8" s="18">
@@ -7600,20 +7575,20 @@
       <c r="X8" s="17"/>
       <c r="Y8" s="18">
         <f>IFERROR(IF(OR(X8&gt;=Z8,H8&gt;=Z8),USD_GBP*LOOKUP(IF(X8="",H8,X8),{0,1,10,100,500,2500,7500,15000,75000},{0.0,0.0857,0.0857,0.0735,0.0459,0.0408,0.0398,0.039,0.0382}),"MOQ="&amp;Z8),"")</f>
-        <v>0.09614451767525463</v>
+        <v>0.09643617021276597</v>
       </c>
       <c r="Z8" s="17">
         <v>10</v>
       </c>
       <c r="AA8" s="19">
         <f>IFERROR(IF(X8="",H8,X8)*Y8,"")</f>
-        <v>28.8434</v>
+        <v>28.9309</v>
       </c>
       <c r="AB8" s="17" t="s">
         <v>225</v>
       </c>
       <c r="AC8" s="17">
-        <v>19250</v>
+        <v>10250</v>
       </c>
       <c r="AD8" s="17"/>
       <c r="AE8" s="18">
@@ -7631,7 +7606,7 @@
         <v>254</v>
       </c>
       <c r="AI8" s="17">
-        <v>1198227</v>
+        <v>1197677</v>
       </c>
       <c r="AJ8" s="17"/>
       <c r="AK8" s="18">
@@ -7653,15 +7628,15 @@
       </c>
       <c r="AP8" s="17"/>
       <c r="AQ8" s="18">
-        <f>IFERROR(IF(OR(AP8&gt;=AR8,H8&gt;=AR8),LOOKUP(IF(AP8="",H8,AP8),{0,1,10,25,50,100,15000},{0.0,0.288,0.132,0.126,0.119,0.113,0.062}),"MOQ="&amp;AR8),"")</f>
-        <v>0.113</v>
+        <f>IFERROR(IF(OR(AP8&gt;=AR8,H8&gt;=AR8),LOOKUP(IF(AP8="",H8,AP8),{0,1,10,25,50,100,15000},{0.0,0.052,0.119,0.111,0.102,0.094,0.052}),"MOQ="&amp;AR8),"")</f>
+        <v>0.094</v>
       </c>
       <c r="AR8" s="17">
         <v>1</v>
       </c>
       <c r="AS8" s="19">
         <f>IFERROR(IF(AP8="",H8,AP8)*AQ8,"")</f>
-        <v>33.9</v>
+        <v>28.2</v>
       </c>
       <c r="AT8" s="17" t="s">
         <v>299</v>
@@ -7695,32 +7670,32 @@
       </c>
       <c r="I9" s="18">
         <f>IF(MIN(M9,S9,Y9,AE9,AK9,AQ9,AW9,BC9)&lt;&gt;0,MIN(M9,S9,Y9,AE9,AK9,AQ9,AW9,BC9),"")</f>
-        <v>0.0853</v>
+        <v>0.0831</v>
       </c>
       <c r="J9" s="19">
         <f>IF(AND(ISNUMBER(H9),ISNUMBER(I9)),H9*I9,"")</f>
-        <v>25.59</v>
+        <v>24.93</v>
       </c>
       <c r="K9" s="17">
-        <v>90074</v>
+        <v>89814</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="18">
-        <f>IFERROR(IF(OR(L9&gt;=N9,H9&gt;=N9),LOOKUP(IF(L9="",H9,L9),{0,1,10,25,100,250,500,1000,3000,6000,15000,30000,75000},{0.0,0.3745,0.2169,0.2147,0.1777,0.1744,0.1631,0.0988,0.0978,0.0936,0.0927,0.0887,0.0822}),"MOQ="&amp;N9),"")</f>
-        <v>0.1744</v>
+        <f>IFERROR(IF(OR(L9&gt;=N9,H9&gt;=N9),LOOKUP(IF(L9="",H9,L9),{0,1,10,25,100,250,500,1000,3000,6000,15000,30000,75000},{0.0,0.368,0.2167,0.2146,0.1827,0.1717,0.1611,0.0964,0.0954,0.092,0.091,0.0883,0.0817}),"MOQ="&amp;N9),"")</f>
+        <v>0.1717</v>
       </c>
       <c r="N9" s="17">
         <v>1</v>
       </c>
       <c r="O9" s="19">
         <f>IFERROR(IF(L9="",H9,L9)*M9,"")</f>
-        <v>52.32</v>
+        <v>51.51</v>
       </c>
       <c r="P9" s="17" t="s">
         <v>26</v>
       </c>
       <c r="Q9" s="17">
-        <v>1639292</v>
+        <v>1314071</v>
       </c>
       <c r="R9" s="17"/>
       <c r="S9" s="18">
@@ -7743,38 +7718,38 @@
       <c r="X9" s="17"/>
       <c r="Y9" s="18">
         <f>IFERROR(IF(OR(X9&gt;=Z9,H9&gt;=Z9),USD_GBP*LOOKUP(IF(X9="",H9,X9),{0,1,10,100,500,2500,5000,10000,50000},{0.0,0.158,0.158,0.136,0.086,0.082,0.077,0.0836,0.0716}),"MOQ="&amp;Z9),"")</f>
-        <v>0.17790005991611743</v>
+        <v>0.1784397163120568</v>
       </c>
       <c r="Z9" s="17">
         <v>10</v>
       </c>
       <c r="AA9" s="19">
         <f>IFERROR(IF(X9="",H9,X9)*Y9,"")</f>
-        <v>53.37</v>
+        <v>53.5319</v>
       </c>
       <c r="AB9" s="17" t="s">
         <v>226</v>
       </c>
       <c r="AC9" s="17">
-        <v>29450</v>
+        <v>57620</v>
       </c>
       <c r="AD9" s="17"/>
       <c r="AE9" s="18">
-        <f>IFERROR(IF(OR(AD9&gt;=AF9,H9&gt;=AF9),LOOKUP(IF(AD9="",H9,AD9),{0,1,5,50,150,500,2500,5000},{0.0,0.122,0.122,0.1007,0.0853,0.0581,0.0564,0.0555}),"MOQ="&amp;AF9),"")</f>
-        <v>0.0853</v>
+        <f>IFERROR(IF(OR(AD9&gt;=AF9,H9&gt;=AF9),LOOKUP(IF(AD9="",H9,AD9),{0,1,5,50,150,500,2500,5000},{0.0,0.1189,0.1189,0.0981,0.0831,0.0566,0.0549,0.0541}),"MOQ="&amp;AF9),"")</f>
+        <v>0.0831</v>
       </c>
       <c r="AF9" s="17">
         <v>5</v>
       </c>
       <c r="AG9" s="19">
         <f>IFERROR(IF(AD9="",H9,AD9)*AE9,"")</f>
-        <v>25.59</v>
+        <v>24.93</v>
       </c>
       <c r="AH9" s="17" t="s">
         <v>255</v>
       </c>
       <c r="AI9" s="17">
-        <v>612544</v>
+        <v>644771</v>
       </c>
       <c r="AJ9" s="17"/>
       <c r="AK9" s="18">
@@ -7796,15 +7771,15 @@
       </c>
       <c r="AP9" s="17"/>
       <c r="AQ9" s="18">
-        <f>IFERROR(IF(OR(AP9&gt;=AR9,H9&gt;=AR9),LOOKUP(IF(AP9="",H9,AP9),{0,1,10,25,50,100,10000,20000},{0.0,0.504,0.247,0.236,0.224,0.212,0.111,0.109}),"MOQ="&amp;AR9),"")</f>
-        <v>0.212</v>
+        <f>IFERROR(IF(OR(AP9&gt;=AR9,H9&gt;=AR9),LOOKUP(IF(AP9="",H9,AP9),{0,1,10,25,50,100,10000,20000},{0.0,0.094,0.206,0.196,0.187,0.177,0.093,0.091}),"MOQ="&amp;AR9),"")</f>
+        <v>0.177</v>
       </c>
       <c r="AR9" s="17">
         <v>1</v>
       </c>
       <c r="AS9" s="19">
         <f>IFERROR(IF(AP9="",H9,AP9)*AQ9,"")</f>
-        <v>63.6</v>
+        <v>53.1</v>
       </c>
       <c r="AT9" s="17" t="s">
         <v>300</v>
@@ -7886,14 +7861,14 @@
       <c r="X10" s="17"/>
       <c r="Y10" s="18">
         <f>IFERROR(IF(OR(X10&gt;=Z10,H10&gt;=Z10),USD_GBP*LOOKUP(IF(X10="",H10,X10),{0,1,10,100,500,2500,7500,15000,75000},{0.0,0.0271,0.0271,0.0114,0.0073,0.0052,0.0051,0.0054,0.0047}),"MOQ="&amp;Z10),"")</f>
-        <v>0.009549047333732774</v>
+        <v>0.009578014184397165</v>
       </c>
       <c r="Z10" s="17">
         <v>10</v>
       </c>
       <c r="AA10" s="19">
         <f>IFERROR(IF(X10="",H10,X10)*Y10,"")</f>
-        <v>11.4589</v>
+        <v>11.4936</v>
       </c>
       <c r="AB10" s="17" t="s">
         <v>227</v>
@@ -7958,14 +7933,14 @@
       <c r="AV10" s="17"/>
       <c r="AW10" s="18">
         <f>IFERROR(IF(OR(AV10&gt;=AX10,H10&gt;=AX10),USD_GBP*LOOKUP(IF(AV10="",H10,AV10),{0,1,1000,5000,10000,15000,60000},{0.0,0.007,0.007,0.006,0.006,0.004,0.004}),"MOQ="&amp;AX10),"")</f>
-        <v>0.009156620730976632</v>
+        <v>0.00918439716312057</v>
       </c>
       <c r="AX10" s="17">
         <v>1000</v>
       </c>
       <c r="AY10" s="19">
         <f>IFERROR(IF(AV10="",H10,AV10)*AW10,"")</f>
-        <v>10.9879</v>
+        <v>11.0213</v>
       </c>
       <c r="AZ10" s="17" t="s">
         <v>327</v>
@@ -8010,15 +7985,15 @@
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="18">
-        <f>IFERROR(IF(OR(L11&gt;=N11,H11&gt;=N11),LOOKUP(IF(L11="",H11,L11),{0,1,10,25,50,100,250,500},{0.0,0.3276,0.2414,0.2389,0.17,0.1445,0.1431,0.1164}),"MOQ="&amp;N11),"")</f>
-        <v>0.1445</v>
+        <f>IFERROR(IF(OR(L11&gt;=N11,H11&gt;=N11),LOOKUP(IF(L11="",H11,L11),{0,1,10,25,50,100,250,500},{0.0,0.3216,0.2372,0.2348,0.1699,0.1435,0.1421,0.1149}),"MOQ="&amp;N11),"")</f>
+        <v>0.1435</v>
       </c>
       <c r="N11" s="17">
         <v>1</v>
       </c>
       <c r="O11" s="19">
         <f>IFERROR(IF(L11="",H11,L11)*M11,"")</f>
-        <v>14.45</v>
+        <v>14.35</v>
       </c>
       <c r="P11" s="17" t="s">
         <v>36</v>
@@ -8028,7 +8003,7 @@
       </c>
       <c r="R11" s="17"/>
       <c r="S11" s="18">
-        <f>IFERROR(IF(OR(R11&gt;=T11,H11&gt;=T11),LOOKUP(IF(R11="",H11,R11),{0,1,10,50,100,500,1000,4000,8000,12000,28000,100000},{0.0,0.29,0.202,0.1346,0.1144,0.08078,0.07069,0.06227,0.05891,0.05588,0.05386,0.0446}),"MOQ="&amp;T11),"")</f>
+        <f>IFERROR(IF(OR(R11&gt;=T11,H11&gt;=T11),LOOKUP(IF(R11="",H11,R11),{0,1,10,50,100,500,1000,4000,8000,12000,40000},{0.0,0.29,0.202,0.1346,0.1144,0.08078,0.07069,0.06227,0.05891,0.05588,0.05386}),"MOQ="&amp;T11),"")</f>
         <v>0.1144</v>
       </c>
       <c r="T11" s="17">
@@ -8047,14 +8022,14 @@
       <c r="X11" s="17"/>
       <c r="Y11" s="18">
         <f>IFERROR(IF(OR(X11&gt;=Z11,H11&gt;=Z11),USD_GBP*LOOKUP(IF(X11="",H11,X11),{0,1,10,100,500,1000,2000,4000,20000},{0.0,0.198,0.198,0.119,0.09,0.076,0.07,0.064,0.0627}),"MOQ="&amp;Z11),"")</f>
-        <v>0.15566255242660273</v>
+        <v>0.15613475177304967</v>
       </c>
       <c r="Z11" s="17">
         <v>10</v>
       </c>
       <c r="AA11" s="19">
         <f>IFERROR(IF(X11="",H11,X11)*Y11,"")</f>
-        <v>15.5663</v>
+        <v>15.6135</v>
       </c>
       <c r="AB11" s="17" t="s">
         <v>228</v>
@@ -8100,15 +8075,15 @@
       </c>
       <c r="AP11" s="17"/>
       <c r="AQ11" s="18">
-        <f>IFERROR(IF(OR(AP11&gt;=AR11,H11&gt;=AR11),LOOKUP(IF(AP11="",H11,AP11),{0,1,10,25,50,100},{0.0,0.444,0.31,0.268,0.226,0.185}),"MOQ="&amp;AR11),"")</f>
-        <v>0.185</v>
+        <f>IFERROR(IF(OR(AP11&gt;=AR11,H11&gt;=AR11),LOOKUP(IF(AP11="",H11,AP11),{0,1,10,25,50,100},{0.0,0.37,0.258,0.223,0.189,0.154}),"MOQ="&amp;AR11),"")</f>
+        <v>0.154</v>
       </c>
       <c r="AR11" s="17">
         <v>1</v>
       </c>
       <c r="AS11" s="19">
         <f>IFERROR(IF(AP11="",H11,AP11)*AQ11,"")</f>
-        <v>18.5</v>
+        <v>15.4</v>
       </c>
       <c r="AT11" s="17" t="s">
         <v>302</v>
@@ -8142,11 +8117,11 @@
       </c>
       <c r="I12" s="18">
         <f>IF(MIN(M12,S12,Y12,AE12,AK12,AQ12,AW12,BC12)&lt;&gt;0,MIN(M12,S12,Y12,AE12,AK12,AQ12,AW12,BC12),"")</f>
-        <v>0.15566255242660273</v>
+        <v>0.15613475177304967</v>
       </c>
       <c r="J12" s="19">
         <f>IF(AND(ISNUMBER(H12),ISNUMBER(I12)),H12*I12,"")</f>
-        <v>31.1325</v>
+        <v>31.227</v>
       </c>
       <c r="Q12" s="20" t="s">
         <v>197</v>
@@ -8172,14 +8147,14 @@
       <c r="X12" s="17"/>
       <c r="Y12" s="18">
         <f>IFERROR(IF(OR(X12&gt;=Z12,H12&gt;=Z12),USD_GBP*LOOKUP(IF(X12="",H12,X12),{0,1,10,100,500,1000,2000,4000,20000},{0.0,0.216,0.216,0.129,0.0969,0.0813,0.0796,0.0741,0.0614}),"MOQ="&amp;Z12),"")</f>
-        <v>0.1687434391851408</v>
+        <v>0.1692553191489362</v>
       </c>
       <c r="Z12" s="17">
         <v>10</v>
       </c>
       <c r="AA12" s="19">
         <f>IFERROR(IF(X12="",H12,X12)*Y12,"")</f>
-        <v>33.7487</v>
+        <v>33.8511</v>
       </c>
       <c r="AB12" s="17" t="s">
         <v>229</v>
@@ -8207,11 +8182,11 @@
       </c>
       <c r="AP12" s="17"/>
       <c r="AQ12" s="18">
-        <f>IFERROR(IF(OR(AP12&gt;=AR12,H12&gt;=AR12),LOOKUP(IF(AP12="",H12,AP12),{0,1,10,25,50,100,4000,8000},{0.0,0.27,0.27,0.234,0.197,0.161,0.101,0.094}),"MOQ="&amp;AR12),"")</f>
+        <f>IFERROR(IF(OR(AP12&gt;=AR12,H12&gt;=AR12),LOOKUP(IF(AP12="",H12,AP12),{0,1,10,25,50,100,4000,8000},{0.0,0.109,0.27,0.234,0.197,0.161,0.101,0.094}),"MOQ="&amp;AR12),"")</f>
         <v>0.161</v>
       </c>
       <c r="AR12" s="17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AS12" s="19">
         <f>IFERROR(IF(AP12="",H12,AP12)*AQ12,"")</f>
@@ -8226,14 +8201,14 @@
       <c r="AV12" s="17"/>
       <c r="AW12" s="18">
         <f>IFERROR(IF(OR(AV12&gt;=AX12,H12&gt;=AX12),USD_GBP*LOOKUP(IF(AV12="",H12,AV12),{0,1,20,100,500,1000,2000,4000,16000},{0.0,0.216,0.216,0.119,0.097,0.086,0.084,0.063,0.06}),"MOQ="&amp;AX12),"")</f>
-        <v>0.15566255242660273</v>
+        <v>0.15613475177304967</v>
       </c>
       <c r="AX12" s="17">
         <v>20</v>
       </c>
       <c r="AY12" s="19">
         <f>IFERROR(IF(AV12="",H12,AV12)*AW12,"")</f>
-        <v>31.1325</v>
+        <v>31.227</v>
       </c>
       <c r="AZ12" s="17" t="s">
         <v>328</v>
@@ -8264,26 +8239,26 @@
       </c>
       <c r="I13" s="18">
         <f>IF(MIN(M13,S13,Y13,AE13,AK13,AQ13,AW13,BC13)&lt;&gt;0,MIN(M13,S13,Y13,AE13,AK13,AQ13,AW13,BC13),"")</f>
-        <v>0.1037314319952067</v>
+        <v>0.10496453900709223</v>
       </c>
       <c r="J13" s="19">
         <f>IF(AND(ISNUMBER(H13),ISNUMBER(I13)),H13*I13,"")</f>
-        <v>10.3731</v>
+        <v>10.4965</v>
       </c>
       <c r="K13" s="17">
         <v>8037</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="18">
-        <f>IFERROR(IF(OR(L13&gt;=N13,H13&gt;=N13),LOOKUP(IF(L13="",H13,L13),{0,1,10,25,50,100,250,500,1000,3000,6000},{0.0,0.3336,0.2848,0.2423,0.225,0.135,0.1059,0.0945,0.0799,0.0734,0.0677}),"MOQ="&amp;N13),"")</f>
-        <v>0.135</v>
+        <f>IFERROR(IF(OR(L13&gt;=N13,H13&gt;=N13),LOOKUP(IF(L13="",H13,L13),{0,1,10,25,50,100,250,500,1000,3000,6000},{0.0,0.3335,0.2784,0.2417,0.2247,0.1348,0.1063,0.0945,0.0798,0.0733,0.0677}),"MOQ="&amp;N13),"")</f>
+        <v>0.1348</v>
       </c>
       <c r="N13" s="17">
         <v>1</v>
       </c>
       <c r="O13" s="19">
         <f>IFERROR(IF(L13="",H13,L13)*M13,"")</f>
-        <v>13.5</v>
+        <v>13.48</v>
       </c>
       <c r="P13" s="17" t="s">
         <v>187</v>
@@ -8325,7 +8300,7 @@
         <v>230</v>
       </c>
       <c r="AI13" s="17">
-        <v>2404</v>
+        <v>2204</v>
       </c>
       <c r="AJ13" s="17"/>
       <c r="AK13" s="18">
@@ -8365,15 +8340,15 @@
       </c>
       <c r="BB13" s="17"/>
       <c r="BC13" s="18">
-        <f>IFERROR(IF(OR(BB13&gt;=BD13,H13&gt;=BD13),USD_GBP*LOOKUP(IF(BB13="",H13,BB13),{0,1,5,25,100,500,4000},{0.0,0.148,0.148,0.128,0.0793,0.0604,0.0453}),"MOQ="&amp;BD13),"")</f>
-        <v>0.1037314319952067</v>
+        <f>IFERROR(IF(OR(BB13&gt;=BD13,H13&gt;=BD13),USD_GBP*LOOKUP(IF(BB13="",H13,BB13),{0,1,5,25,100,500,4000},{0.0,0.148,0.148,0.1292,0.08,0.0609,0.0457}),"MOQ="&amp;BD13),"")</f>
+        <v>0.10496453900709223</v>
       </c>
       <c r="BD13" s="17">
         <v>5</v>
       </c>
       <c r="BE13" s="19">
         <f>IFERROR(IF(BB13="",H13,BB13)*BC13,"")</f>
-        <v>10.3731</v>
+        <v>10.4965</v>
       </c>
       <c r="BF13" s="17" t="s">
         <v>187</v>
@@ -8411,7 +8386,7 @@
         <v>3.9</v>
       </c>
       <c r="Q14" s="17">
-        <v>12478</v>
+        <v>12378</v>
       </c>
       <c r="R14" s="17"/>
       <c r="S14" s="18">
@@ -8434,20 +8409,20 @@
       <c r="X14" s="17"/>
       <c r="Y14" s="18">
         <f>IFERROR(IF(OR(X14&gt;=Z14,H14&gt;=Z14),USD_GBP*LOOKUP(IF(X14="",H14,X14),{0,1,25,50,100,250,500},{0.0,0.277,0.22,0.161,0.0993,0.0942,0.0891}),"MOQ="&amp;Z14),"")</f>
-        <v>0.1298932055122828</v>
+        <v>0.1302872340425532</v>
       </c>
       <c r="Z14" s="17">
         <v>1</v>
       </c>
       <c r="AA14" s="19">
         <f>IFERROR(IF(X14="",H14,X14)*Y14,"")</f>
-        <v>12.9893</v>
+        <v>13.0287</v>
       </c>
       <c r="AB14" s="17" t="s">
         <v>231</v>
       </c>
       <c r="AI14" s="17">
-        <v>11240</v>
+        <v>10840</v>
       </c>
       <c r="AJ14" s="17"/>
       <c r="AK14" s="18">
@@ -8487,15 +8462,15 @@
       </c>
       <c r="BB14" s="17"/>
       <c r="BC14" s="18">
-        <f>IFERROR(IF(OR(BB14&gt;=BD14,H14&gt;=BD14),USD_GBP*LOOKUP(IF(BB14="",H14,BB14),{0,1,5,25,100,500,4000},{0.0,0.148,0.148,0.112,0.0793,0.0572,0.0412}),"MOQ="&amp;BD14),"")</f>
-        <v>0.1037314319952067</v>
+        <f>IFERROR(IF(OR(BB14&gt;=BD14,H14&gt;=BD14),USD_GBP*LOOKUP(IF(BB14="",H14,BB14),{0,1,5,25,100,500,4000},{0.0,0.148,0.148,0.1128,0.08,0.0577,0.0415}),"MOQ="&amp;BD14),"")</f>
+        <v>0.10496453900709223</v>
       </c>
       <c r="BD14" s="17">
         <v>5</v>
       </c>
       <c r="BE14" s="19">
         <f>IFERROR(IF(BB14="",H14,BB14)*BC14,"")</f>
-        <v>10.3731</v>
+        <v>10.4965</v>
       </c>
       <c r="BF14" s="17" t="s">
         <v>342</v>
@@ -8640,7 +8615,7 @@
         <v>56.2</v>
       </c>
       <c r="Q19" s="17">
-        <v>35835</v>
+        <v>33259</v>
       </c>
       <c r="R19" s="17"/>
       <c r="S19" s="18">
@@ -8662,21 +8637,21 @@
       </c>
       <c r="X19" s="17"/>
       <c r="Y19" s="18">
-        <f>IFERROR(IF(OR(X19&gt;=Z19,H19&gt;=Z19),USD_GBP*LOOKUP(IF(X19="",H19,X19),{0,1,20,60,160,400,800,4000,8000,16000},{0.0,0.903,0.748,0.671,0.619,0.578,0.342,0.308,0.283,0.277}),"MOQ="&amp;Z19),"")</f>
-        <v>0.8777275014979029</v>
+        <f>IFERROR(IF(OR(X19&gt;=Z19,H19&gt;=Z19),USD_GBP*LOOKUP(IF(X19="",H19,X19),{0,1,20,60,160,400,800,4000,8000,16000},{0.0,0.903,0.748,0.671,0.619,0.578,0.342,0.31,0.292,0.284}),"MOQ="&amp;Z19),"")</f>
+        <v>0.8803900709219861</v>
       </c>
       <c r="Z19" s="17">
         <v>1</v>
       </c>
       <c r="AA19" s="19">
         <f>IFERROR(IF(X19="",H19,X19)*Y19,"")</f>
-        <v>87.7728</v>
+        <v>88.039</v>
       </c>
       <c r="AB19" s="17" t="s">
         <v>232</v>
       </c>
       <c r="AI19" s="17">
-        <v>85163</v>
+        <v>81710</v>
       </c>
       <c r="AJ19" s="17"/>
       <c r="AK19" s="18">
@@ -8698,15 +8673,15 @@
       </c>
       <c r="AP19" s="17"/>
       <c r="AQ19" s="18">
-        <f>IFERROR(IF(OR(AP19&gt;=AR19,H19&gt;=AR19),LOOKUP(IF(AP19="",H19,AP19),{0,1,10,25,50,100,250,500,800},{0.0,0.807,0.709,0.668,0.64,0.612,0.556,0.501,0.501}),"MOQ="&amp;AR19),"")</f>
-        <v>0.612</v>
+        <f>IFERROR(IF(OR(AP19&gt;=AR19,H19&gt;=AR19),LOOKUP(IF(AP19="",H19,AP19),{0,1,10,25,50,100,250,500,800},{0.0,0.754,0.682,0.64,0.612,0.584,0.529,0.487,0.501}),"MOQ="&amp;AR19),"")</f>
+        <v>0.584</v>
       </c>
       <c r="AR19" s="17">
         <v>1</v>
       </c>
       <c r="AS19" s="19">
         <f>IFERROR(IF(AP19="",H19,AP19)*AQ19,"")</f>
-        <v>61.2</v>
+        <v>58.4</v>
       </c>
       <c r="AT19" s="17" t="s">
         <v>306</v>
@@ -8767,14 +8742,14 @@
       <c r="X20" s="17"/>
       <c r="Y20" s="18">
         <f>IFERROR(IF(OR(X20&gt;=Z20,H20&gt;=Z20),USD_GBP*LOOKUP(IF(X20="",H20,X20),{0,1,10,100,500,2500,7500,15000,75000},{0.0,0.0533,0.0533,0.0215,0.0102,0.0068,0.0067,0.0066,0.0065}),"MOQ="&amp;Z20),"")</f>
-        <v>0.028123906530856797</v>
+        <v>0.02820921985815603</v>
       </c>
       <c r="Z20" s="17">
         <v>10</v>
       </c>
       <c r="AA20" s="19">
         <f>IFERROR(IF(X20="",H20,X20)*Y20,"")</f>
-        <v>2.8124</v>
+        <v>2.8209</v>
       </c>
       <c r="AB20" s="17" t="s">
         <v>233</v>
@@ -8877,11 +8852,11 @@
       </c>
       <c r="I21" s="18">
         <f>IF(MIN(M21,S21,Y21,AE21,AK21,AQ21,AW21,BC21)&lt;&gt;0,MIN(M21,S21,Y21,AE21,AK21,AQ21,AW21,BC21),"")</f>
-        <v>0.018444050329538646</v>
+        <v>0.018500000000000003</v>
       </c>
       <c r="J21" s="19">
         <f>IF(AND(ISNUMBER(H21),ISNUMBER(I21)),H21*I21,"")</f>
-        <v>1.8444</v>
+        <v>1.85</v>
       </c>
       <c r="Q21" s="17">
         <v>28274</v>
@@ -8907,14 +8882,14 @@
       <c r="X21" s="17"/>
       <c r="Y21" s="18">
         <f>IFERROR(IF(OR(X21&gt;=Z21,H21&gt;=Z21),USD_GBP*LOOKUP(IF(X21="",H21,X21),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.0257,0.0257,0.0141,0.0141,0.0087,0.0079,0.0041,0.0068,0.0056}),"MOQ="&amp;Z21),"")</f>
-        <v>0.018444050329538646</v>
+        <v>0.018500000000000003</v>
       </c>
       <c r="Z21" s="17">
         <v>10</v>
       </c>
       <c r="AA21" s="19">
         <f>IFERROR(IF(X21="",H21,X21)*Y21,"")</f>
-        <v>1.8444</v>
+        <v>1.85</v>
       </c>
       <c r="AB21" s="17" t="s">
         <v>234</v>
@@ -9268,25 +9243,25 @@
         <v>1.33</v>
       </c>
       <c r="K24" s="17">
-        <v>285000</v>
+        <v>330000</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="18">
-        <f>IFERROR(IF(OR(L24&gt;=N24,H24&gt;=N24),LOOKUP(IF(L24="",H24,L24),{0,1,10,25},{0.0,0.0803,0.0593,0.0587}),"MOQ="&amp;N24),"")</f>
-        <v>0.0587</v>
+        <f>IFERROR(IF(OR(L24&gt;=N24,H24&gt;=N24),LOOKUP(IF(L24="",H24,L24),{0,1,10,25},{0.0,0.0804,0.0594,0.0588}),"MOQ="&amp;N24),"")</f>
+        <v>0.0588</v>
       </c>
       <c r="N24" s="17">
         <v>1</v>
       </c>
       <c r="O24" s="19">
         <f>IFERROR(IF(L24="",H24,L24)*M24,"")</f>
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="P24" s="17" t="s">
         <v>95</v>
       </c>
       <c r="Q24" s="17">
-        <v>504427</v>
+        <v>240905</v>
       </c>
       <c r="R24" s="17"/>
       <c r="S24" s="18">
@@ -9304,19 +9279,19 @@
         <v>205</v>
       </c>
       <c r="W24" s="17">
-        <v>49201</v>
+        <v>47201</v>
       </c>
       <c r="X24" s="17"/>
       <c r="Y24" s="18">
         <f>IFERROR(IF(OR(X24&gt;=Z24,H24&gt;=Z24),USD_GBP*LOOKUP(IF(X24="",H24,X24),{0,1,10,100,500,2500,7500,15000,75000},{0.0,0.0533,0.0533,0.0215,0.0102,0.0068,0.0067,0.0066,0.0065}),"MOQ="&amp;Z24),"")</f>
-        <v>0.028123906530856797</v>
+        <v>0.02820921985815603</v>
       </c>
       <c r="Z24" s="17">
         <v>10</v>
       </c>
       <c r="AA24" s="19">
         <f>IFERROR(IF(X24="",H24,X24)*Y24,"")</f>
-        <v>2.8124</v>
+        <v>2.8209</v>
       </c>
       <c r="AB24" s="17" t="s">
         <v>237</v>
@@ -9340,7 +9315,7 @@
         <v>259</v>
       </c>
       <c r="AI24" s="17">
-        <v>923836</v>
+        <v>919640</v>
       </c>
       <c r="AJ24" s="17"/>
       <c r="AK24" s="18">
@@ -9362,15 +9337,15 @@
       </c>
       <c r="AP24" s="17"/>
       <c r="AQ24" s="18">
-        <f>IFERROR(IF(OR(AP24&gt;=AR24,H24&gt;=AR24),LOOKUP(IF(AP24="",H24,AP24),{0,1,10,25,50,100,250,500,1000,2500,5000,10000,15000,20000},{0.0,0.121,0.066,0.053,0.04,0.028,0.022,0.017,0.012,0.009,0.018,0.015,0.015,0.01}),"MOQ="&amp;AR24),"")</f>
-        <v>0.028</v>
+        <f>IFERROR(IF(OR(AP24&gt;=AR24,H24&gt;=AR24),LOOKUP(IF(AP24="",H24,AP24),{0,1,10,25,50,100,250,500,1000,2500,15000,20000},{0.0,0.11,0.06,0.048,0.037,0.025,0.022,0.017,0.012,0.009,0.015,0.01}),"MOQ="&amp;AR24),"")</f>
+        <v>0.025</v>
       </c>
       <c r="AR24" s="17">
         <v>1</v>
       </c>
       <c r="AS24" s="19">
         <f>IFERROR(IF(AP24="",H24,AP24)*AQ24,"")</f>
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AT24" s="17" t="s">
         <v>311</v>
@@ -9426,7 +9401,7 @@
         <v>3.99</v>
       </c>
       <c r="K25" s="17">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="18">
@@ -9467,20 +9442,20 @@
       <c r="X25" s="17"/>
       <c r="Y25" s="18">
         <f>IFERROR(IF(OR(X25&gt;=Z25,H25&gt;=Z25),USD_GBP*LOOKUP(IF(X25="",H25,X25),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.0257,0.0257,0.0141,0.0141,0.0087,0.0046,0.0041,0.0066,0.0055}),"MOQ="&amp;Z25),"")</f>
-        <v>0.018444050329538646</v>
+        <v>0.018500000000000003</v>
       </c>
       <c r="Z25" s="17">
         <v>10</v>
       </c>
       <c r="AA25" s="19">
         <f>IFERROR(IF(X25="",H25,X25)*Y25,"")</f>
-        <v>5.5332</v>
+        <v>5.55</v>
       </c>
       <c r="AB25" s="17" t="s">
         <v>238</v>
       </c>
       <c r="AC25" s="17">
-        <v>5750</v>
+        <v>5700</v>
       </c>
       <c r="AD25" s="17"/>
       <c r="AE25" s="18">
@@ -9566,25 +9541,25 @@
         <v>5.56</v>
       </c>
       <c r="K26" s="17">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="18">
-        <f>IFERROR(IF(OR(L26&gt;=N26,H26&gt;=N26),LOOKUP(IF(L26="",H26,L26),{0,1,10,25,100},{0.0,0.0817,0.0678,0.0533,0.0353}),"MOQ="&amp;N26),"")</f>
-        <v>0.0353</v>
+        <f>IFERROR(IF(OR(L26&gt;=N26,H26&gt;=N26),LOOKUP(IF(L26="",H26,L26),{0,1,10,25,100},{0.0,0.0816,0.0677,0.053,0.035}),"MOQ="&amp;N26),"")</f>
+        <v>0.035</v>
       </c>
       <c r="N26" s="17">
         <v>1</v>
       </c>
       <c r="O26" s="19">
         <f>IFERROR(IF(L26="",H26,L26)*M26,"")</f>
-        <v>14.12</v>
+        <v>14.0</v>
       </c>
       <c r="P26" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="Q26" s="20" t="s">
-        <v>197</v>
+      <c r="Q26" s="17">
+        <v>8076</v>
       </c>
       <c r="R26" s="17"/>
       <c r="S26" s="18">
@@ -9602,19 +9577,19 @@
         <v>207</v>
       </c>
       <c r="W26" s="17">
-        <v>405000</v>
+        <v>345000</v>
       </c>
       <c r="X26" s="17"/>
       <c r="Y26" s="18">
         <f>IFERROR(IF(OR(X26&gt;=Z26,H26&gt;=Z26),USD_GBP*LOOKUP(IF(X26="",H26,X26),{0,1,10,100,500,2500,7500,15000,75000},{0.0,0.0533,0.0533,0.0215,0.0102,0.0068,0.0067,0.0066,0.0065}),"MOQ="&amp;Z26),"")</f>
-        <v>0.028123906530856797</v>
+        <v>0.02820921985815603</v>
       </c>
       <c r="Z26" s="17">
         <v>10</v>
       </c>
       <c r="AA26" s="19">
         <f>IFERROR(IF(X26="",H26,X26)*Y26,"")</f>
-        <v>11.2496</v>
+        <v>11.2837</v>
       </c>
       <c r="AB26" s="17" t="s">
         <v>239</v>
@@ -9638,7 +9613,7 @@
         <v>261</v>
       </c>
       <c r="AI26" s="17">
-        <v>582049</v>
+        <v>536590</v>
       </c>
       <c r="AJ26" s="17"/>
       <c r="AK26" s="18">
@@ -9656,11 +9631,11 @@
         <v>281</v>
       </c>
       <c r="AO26" s="17">
-        <v>360000</v>
+        <v>345000</v>
       </c>
       <c r="AP26" s="17"/>
       <c r="AQ26" s="18">
-        <f>IFERROR(IF(OR(AP26&gt;=AR26,H26&gt;=AR26),LOOKUP(IF(AP26="",H26,AP26),{0,1,10,25,50,100,250,500,1000,2500,5000,15000,20000},{0.0,0.121,0.066,0.053,0.04,0.028,0.025,0.018,0.012,0.011,0.01,0.009,0.01}),"MOQ="&amp;AR26),"")</f>
+        <f>IFERROR(IF(OR(AP26&gt;=AR26,H26&gt;=AR26),LOOKUP(IF(AP26="",H26,AP26),{0,1,10,25,50,100,250,500,1000,2500,5000,15000,20000},{0.0,0.128,0.06,0.074,0.037,0.03,0.025,0.018,0.012,0.011,0.01,0.009,0.01}),"MOQ="&amp;AR26),"")</f>
         <v>0.025</v>
       </c>
       <c r="AR26" s="17">
@@ -9724,7 +9699,7 @@
         <v>2.6</v>
       </c>
       <c r="Q27" s="17">
-        <v>148810</v>
+        <v>148710</v>
       </c>
       <c r="R27" s="17"/>
       <c r="S27" s="18">
@@ -9760,7 +9735,7 @@
         <v>240</v>
       </c>
       <c r="AI27" s="17">
-        <v>66957</v>
+        <v>65447</v>
       </c>
       <c r="AJ27" s="17"/>
       <c r="AK27" s="18">
@@ -9832,7 +9807,7 @@
       </c>
       <c r="L28" s="17"/>
       <c r="M28" s="18">
-        <f>IFERROR(IF(OR(L28&gt;=N28,H28&gt;=N28),LOOKUP(IF(L28="",H28,L28),{0,1,10,25,100,250,500,1000,3000,30000},{0.0,0.0689,0.0266,0.0264,0.0115,0.0114,0.0112,0.0067,0.0028,0.0027}),"MOQ="&amp;N28),"")</f>
+        <f>IFERROR(IF(OR(L28&gt;=N28,H28&gt;=N28),LOOKUP(IF(L28="",H28,L28),{0,1,10,25,100,250,500,1000,3000,30000},{0.0,0.0689,0.0267,0.0265,0.0115,0.0114,0.0112,0.0068,0.0028,0.0027}),"MOQ="&amp;N28),"")</f>
         <v>0.0115</v>
       </c>
       <c r="N28" s="17">
@@ -9846,7 +9821,7 @@
         <v>111</v>
       </c>
       <c r="Q28" s="17">
-        <v>480293</v>
+        <v>479993</v>
       </c>
       <c r="R28" s="17"/>
       <c r="S28" s="18">
@@ -9900,7 +9875,7 @@
         <v>262</v>
       </c>
       <c r="AI28" s="17">
-        <v>108726</v>
+        <v>107426</v>
       </c>
       <c r="AJ28" s="17"/>
       <c r="AK28" s="18">
@@ -9986,7 +9961,7 @@
         <v>2.0</v>
       </c>
       <c r="Q29" s="17">
-        <v>6317632</v>
+        <v>6183512</v>
       </c>
       <c r="R29" s="17"/>
       <c r="S29" s="18">
@@ -10004,25 +9979,25 @@
         <v>210</v>
       </c>
       <c r="W29" s="17">
-        <v>240000</v>
+        <v>225000</v>
       </c>
       <c r="X29" s="17"/>
       <c r="Y29" s="18">
         <f>IFERROR(IF(OR(X29&gt;=Z29,H29&gt;=Z29),USD_GBP*LOOKUP(IF(X29="",H29,X29),{0,1,10,100,500,2500,7500,15000,75000},{0.0,0.0339,0.0339,0.0136,0.0113,0.0091,0.0069,0.0068,0.0056}),"MOQ="&amp;Z29),"")</f>
-        <v>0.01779000599161174</v>
+        <v>0.017843971631205675</v>
       </c>
       <c r="Z29" s="17">
         <v>10</v>
       </c>
       <c r="AA29" s="19">
         <f>IFERROR(IF(X29="",H29,X29)*Y29,"")</f>
-        <v>3.558</v>
+        <v>3.5688</v>
       </c>
       <c r="AB29" s="17" t="s">
         <v>242</v>
       </c>
       <c r="AI29" s="17">
-        <v>7284611</v>
+        <v>7249011</v>
       </c>
       <c r="AJ29" s="17"/>
       <c r="AK29" s="18">
@@ -10044,7 +10019,7 @@
       </c>
       <c r="AP29" s="17"/>
       <c r="AQ29" s="18">
-        <f>IFERROR(IF(OR(AP29&gt;=AR29,H29&gt;=AR29),LOOKUP(IF(AP29="",H29,AP29),{0,1,25,100,250,500,1000,2500,5000,15000},{0.0,0.008,0.023,0.01,0.009,0.008,0.007,0.005,0.004,0.008}),"MOQ="&amp;AR29),"")</f>
+        <f>IFERROR(IF(OR(AP29&gt;=AR29,H29&gt;=AR29),LOOKUP(IF(AP29="",H29,AP29),{0,1,25,100,250,500,1000,2500,5000,15000},{0.0,0.236,0.023,0.01,0.009,0.008,0.007,0.005,0.004,0.006}),"MOQ="&amp;AR29),"")</f>
         <v>0.01</v>
       </c>
       <c r="AR29" s="17">
@@ -10101,14 +10076,14 @@
       </c>
       <c r="I30" s="18">
         <f>IF(MIN(M30,S30,Y30,AE30,AK30,AQ30,AW30,BC30)&lt;&gt;0,MIN(M30,S30,Y30,AE30,AK30,AQ30,AW30,BC30),"")</f>
-        <v>0.0124</v>
+        <v>0.002</v>
       </c>
       <c r="J30" s="19">
         <f>IF(AND(ISNUMBER(H30),ISNUMBER(I30)),H30*I30,"")</f>
-        <v>1.24</v>
+        <v>0.2</v>
       </c>
       <c r="Q30" s="17">
-        <v>556386</v>
+        <v>553636</v>
       </c>
       <c r="R30" s="17"/>
       <c r="S30" s="18">
@@ -10125,20 +10100,20 @@
       <c r="V30" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="W30" s="17">
-        <v>104</v>
+      <c r="W30" s="20" t="s">
+        <v>197</v>
       </c>
       <c r="X30" s="17"/>
       <c r="Y30" s="18">
         <f>IFERROR(IF(OR(X30&gt;=Z30,H30&gt;=Z30),USD_GBP*LOOKUP(IF(X30="",H30,X30),{0,1,10,100,500,2500,7500,15000,75000},{0.0,0.0619,0.0619,0.025,0.0118,0.0079,0.0067,0.0066,0.0055}),"MOQ="&amp;Z30),"")</f>
-        <v>0.032702216896345115</v>
+        <v>0.03280141843971632</v>
       </c>
       <c r="Z30" s="17">
         <v>10</v>
       </c>
       <c r="AA30" s="19">
         <f>IFERROR(IF(X30="",H30,X30)*Y30,"")</f>
-        <v>3.2702</v>
+        <v>3.2801</v>
       </c>
       <c r="AB30" s="17" t="s">
         <v>243</v>
@@ -10162,7 +10137,7 @@
         <v>263</v>
       </c>
       <c r="AI30" s="17">
-        <v>267080</v>
+        <v>254080</v>
       </c>
       <c r="AJ30" s="17"/>
       <c r="AK30" s="18">
@@ -10180,19 +10155,19 @@
         <v>285</v>
       </c>
       <c r="AO30" s="17">
-        <v>41</v>
+        <v>15000</v>
       </c>
       <c r="AP30" s="17"/>
       <c r="AQ30" s="18">
-        <f>IFERROR(IF(OR(AP30&gt;=AR30,H30&gt;=AR30),LOOKUP(IF(AP30="",H30,AP30),{0,1,10,25,50,100,250,500,1000,2500,15000},{0.0,0.121,0.066,0.053,0.04,0.028,0.025,0.019,0.016,0.011,0.016}),"MOQ="&amp;AR30),"")</f>
-        <v>0.028</v>
+        <f>IFERROR(IF(OR(AP30&gt;=AR30,H30&gt;=AR30),LOOKUP(IF(AP30="",H30,AP30),{0,1,10,25,50,100,250,500,1000,2500,5000,10000,15000},{0.0,0.002,0.06,0.002,0.037,0.002,0.002,0.002,0.002,0.002,0.021,0.016,0.016}),"MOQ="&amp;AR30),"")</f>
+        <v>0.002</v>
       </c>
       <c r="AR30" s="17">
         <v>1</v>
       </c>
       <c r="AS30" s="19">
         <f>IFERROR(IF(AP30="",H30,AP30)*AQ30,"")</f>
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="AT30" s="17" t="s">
         <v>317</v>
@@ -10271,14 +10246,14 @@
       <c r="X31" s="17"/>
       <c r="Y31" s="18">
         <f>IFERROR(IF(OR(X31&gt;=Z31,H31&gt;=Z31),USD_GBP*LOOKUP(IF(X31="",H31,X31),{0,1,10,50,100,500},{0.0,0.165,0.165,0.156,0.142,0.12}),"MOQ="&amp;Z31),"")</f>
-        <v>0.18574859197124025</v>
+        <v>0.18631205673758866</v>
       </c>
       <c r="Z31" s="17">
         <v>10</v>
       </c>
       <c r="AA31" s="19">
         <f>IFERROR(IF(X31="",H31,X31)*Y31,"")</f>
-        <v>18.5749</v>
+        <v>18.6312</v>
       </c>
       <c r="AB31" s="17" t="s">
         <v>244</v>
@@ -10363,14 +10338,14 @@
       </c>
       <c r="I32" s="18">
         <f>IF(MIN(M32,S32,Y32,AE32,AK32,AQ32,AW32,BC32)&lt;&gt;0,MIN(M32,S32,Y32,AE32,AK32,AQ32,AW32,BC32),"")</f>
-        <v>0.09810665068903535</v>
+        <v>0.09787943262411349</v>
       </c>
       <c r="J32" s="19">
         <f>IF(AND(ISNUMBER(H32),ISNUMBER(I32)),H32*I32,"")</f>
-        <v>19.6213</v>
+        <v>19.5759</v>
       </c>
       <c r="Q32" s="17">
-        <v>298</v>
+        <v>188</v>
       </c>
       <c r="R32" s="17"/>
       <c r="S32" s="18">
@@ -10392,21 +10367,21 @@
       </c>
       <c r="X32" s="17"/>
       <c r="Y32" s="18">
-        <f>IFERROR(IF(OR(X32&gt;=Z32,H32&gt;=Z32),USD_GBP*LOOKUP(IF(X32="",H32,X32),{0,1,5,10,100,500,3000,9000,24000,45000},{0.0,0.439,0.439,0.329,0.165,0.0957,0.0737,0.0722,0.0708,0.0693}),"MOQ="&amp;Z32),"")</f>
-        <v>0.21583463151587778</v>
+        <f>IFERROR(IF(OR(X32&gt;=Z32,H32&gt;=Z32),USD_GBP*LOOKUP(IF(X32="",H32,X32),{0,1,5,10,100,500,6000,18000,48000,90000},{0.0,0.339,0.339,0.254,0.128,0.057,0.0559,0.0547,0.0536,0.0524}),"MOQ="&amp;Z32),"")</f>
+        <v>0.16794326241134755</v>
       </c>
       <c r="Z32" s="17">
         <v>5</v>
       </c>
       <c r="AA32" s="19">
         <f>IFERROR(IF(X32="",H32,X32)*Y32,"")</f>
-        <v>43.1669</v>
+        <v>33.5887</v>
       </c>
       <c r="AB32" s="17" t="s">
         <v>245</v>
       </c>
       <c r="AI32" s="17">
-        <v>10729</v>
+        <v>10673</v>
       </c>
       <c r="AJ32" s="17"/>
       <c r="AK32" s="18">
@@ -10428,11 +10403,11 @@
       </c>
       <c r="AP32" s="17"/>
       <c r="AQ32" s="18">
-        <f>IFERROR(IF(OR(AP32&gt;=AR32,H32&gt;=AR32),LOOKUP(IF(AP32="",H32,AP32),{0,1,5,10,100,6000,18000,48000,90000},{0.0,0.536,0.536,0.409,0.255,0.096,0.085,0.069,0.06}),"MOQ="&amp;AR32),"")</f>
+        <f>IFERROR(IF(OR(AP32&gt;=AR32,H32&gt;=AR32),LOOKUP(IF(AP32="",H32,AP32),{0,1,5,10,100,6000,18000,48000,90000},{0.0,0.536,0.536,0.409,0.255,0.087,0.077,0.063,0.055}),"MOQ="&amp;AR32),"")</f>
         <v>0.255</v>
       </c>
       <c r="AR32" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AS32" s="19">
         <f>IFERROR(IF(AP32="",H32,AP32)*AQ32,"")</f>
@@ -10446,15 +10421,15 @@
       </c>
       <c r="BB32" s="17"/>
       <c r="BC32" s="18">
-        <f>IFERROR(IF(OR(BB32&gt;=BD32,H32&gt;=BD32),USD_GBP*LOOKUP(IF(BB32="",H32,BB32),{0,1,5,25,100,500,3000},{0.0,0.136,0.136,0.0864,0.075,0.0654,0.061}),"MOQ="&amp;BD32),"")</f>
-        <v>0.09810665068903535</v>
+        <f>IFERROR(IF(OR(BB32&gt;=BD32,H32&gt;=BD32),USD_GBP*LOOKUP(IF(BB32="",H32,BB32),{0,1,5,25,100,500,3000},{0.0,0.134,0.134,0.086,0.0746,0.0651,0.0607}),"MOQ="&amp;BD32),"")</f>
+        <v>0.09787943262411349</v>
       </c>
       <c r="BD32" s="17">
         <v>5</v>
       </c>
       <c r="BE32" s="19">
         <f>IFERROR(IF(BB32="",H32,BB32)*BC32,"")</f>
-        <v>19.6213</v>
+        <v>19.5759</v>
       </c>
       <c r="BF32" s="17" t="s">
         <v>126</v>
@@ -10485,26 +10460,26 @@
       </c>
       <c r="I33" s="18">
         <f>IF(MIN(M33,S33,Y33,AE33,AK33,AQ33,AW33,BC33)&lt;&gt;0,MIN(M33,S33,Y33,AE33,AK33,AQ33,AW33,BC33),"")</f>
-        <v>0.279</v>
+        <v>0.365</v>
       </c>
       <c r="J33" s="19">
         <f>IF(AND(ISNUMBER(H33),ISNUMBER(I33)),H33*I33,"")</f>
-        <v>27.9</v>
+        <v>36.5</v>
       </c>
       <c r="Q33" s="20" t="s">
         <v>197</v>
       </c>
       <c r="R33" s="17"/>
       <c r="S33" s="18">
-        <f>IFERROR(IF(OR(R33&gt;=T33,H33&gt;=T33),LOOKUP(IF(R33="",H33,R33),{0,1,10,25,100,250,500,1000,3000},{0.0,0.47,0.402,0.3756,0.3004,0.27892,0.236,0.18236,0.1771}),"MOQ="&amp;T33),"")</f>
-        <v>0.3004</v>
+        <f>IFERROR(IF(OR(R33&gt;=T33,H33&gt;=T33),LOOKUP(IF(R33="",H33,R33),{0,1,10,25,100,250,500,1000,3000},{0.0,0.61,0.525,0.49,0.3921,0.36408,0.30806,0.23804,0.23117}),"MOQ="&amp;T33),"")</f>
+        <v>0.3921</v>
       </c>
       <c r="T33" s="17">
         <v>1</v>
       </c>
       <c r="U33" s="19">
         <f>IFERROR(IF(R33="",H33,R33)*S33,"")</f>
-        <v>30.04</v>
+        <v>39.21</v>
       </c>
       <c r="V33" s="17" t="s">
         <v>214</v>
@@ -10514,15 +10489,15 @@
       </c>
       <c r="X33" s="17"/>
       <c r="Y33" s="18">
-        <f>IFERROR(IF(OR(X33&gt;=Z33,H33&gt;=Z33),USD_GBP*LOOKUP(IF(X33="",H33,X33),{0,1,5,10,100,500},{0.0,0.554,0.554,0.464,0.286,0.189}),"MOQ="&amp;Z33),"")</f>
-        <v>0.3741133612941881</v>
+        <f>IFERROR(IF(OR(X33&gt;=Z33,H33&gt;=Z33),USD_GBP*LOOKUP(IF(X33="",H33,X33),{0,1,5,10,100,500},{0.0,0.479,0.479,0.382,0.283,0.186}),"MOQ="&amp;Z33),"")</f>
+        <v>0.37131205673758866</v>
       </c>
       <c r="Z33" s="17">
         <v>5</v>
       </c>
       <c r="AA33" s="19">
         <f>IFERROR(IF(X33="",H33,X33)*Y33,"")</f>
-        <v>37.4113</v>
+        <v>37.1312</v>
       </c>
       <c r="AB33" s="17" t="s">
         <v>246</v>
@@ -10532,15 +10507,15 @@
       </c>
       <c r="AJ33" s="17"/>
       <c r="AK33" s="18">
-        <f>IFERROR(IF(OR(AJ33&gt;=AL33,H33&gt;=AL33),LOOKUP(IF(AJ33="",H33,AJ33),{0,1,10,50,100,1000,10000},{0.0,0.47,0.376,0.376,0.279,0.183,0.166}),"MOQ="&amp;AL33),"")</f>
-        <v>0.279</v>
+        <f>IFERROR(IF(OR(AJ33&gt;=AL33,H33&gt;=AL33),LOOKUP(IF(AJ33="",H33,AJ33),{0,1,10,50,100,1000,10000},{0.0,0.62,0.526,0.526,0.365,0.239,0.204}),"MOQ="&amp;AL33),"")</f>
+        <v>0.365</v>
       </c>
       <c r="AL33" s="17">
         <v>1</v>
       </c>
       <c r="AM33" s="19">
         <f>IFERROR(IF(AJ33="",H33,AJ33)*AK33,"")</f>
-        <v>27.9</v>
+        <v>36.5</v>
       </c>
       <c r="AN33" s="17" t="s">
         <v>288</v>
@@ -10569,14 +10544,14 @@
       <c r="AV33" s="17"/>
       <c r="AW33" s="18">
         <f>IFERROR(IF(OR(AV33&gt;=AX33,H33&gt;=AX33),USD_GBP*LOOKUP(IF(AV33="",H33,AV33),{0,1,18,108,1008,3000,3006,9000},{0.0,0.314,0.314,0.161,0.121,0.146,0.099,0.147}),"MOQ="&amp;AX33),"")</f>
-        <v>0.4107398442180947</v>
+        <v>0.411985815602837</v>
       </c>
       <c r="AX33" s="17">
         <v>18</v>
       </c>
       <c r="AY33" s="19">
         <f>IFERROR(IF(AV33="",H33,AV33)*AW33,"")</f>
-        <v>41.074</v>
+        <v>41.1986</v>
       </c>
       <c r="AZ33" s="17" t="s">
         <v>337</v>
@@ -10776,14 +10751,14 @@
       <c r="X36" s="17"/>
       <c r="Y36" s="18">
         <f>IFERROR(IF(OR(X36&gt;=Z36,H36&gt;=Z36),USD_GBP*LOOKUP(IF(X36="",H36,X36),{0,1,10,25,50},{0.0,4.35,3.91,3.69,3.62}),"MOQ="&amp;Z36),"")</f>
-        <v>4.735281006590773</v>
+        <v>4.749645390070923</v>
       </c>
       <c r="Z36" s="17">
         <v>1</v>
       </c>
       <c r="AA36" s="19">
         <f>IFERROR(IF(X36="",H36,X36)*Y36,"")</f>
-        <v>473.5281</v>
+        <v>474.9645</v>
       </c>
       <c r="AB36" s="17" t="s">
         <v>247</v>
@@ -10850,26 +10825,26 @@
       </c>
       <c r="I37" s="18">
         <f>IF(MIN(M37,S37,Y37,AE37,AK37,AQ37,AW37,BC37)&lt;&gt;0,MIN(M37,S37,Y37,AE37,AK37,AQ37,AW37,BC37),"")</f>
-        <v>0.16952829239065306</v>
+        <v>0.16951773049645394</v>
       </c>
       <c r="J37" s="19">
         <f>IF(AND(ISNUMBER(H37),ISNUMBER(I37)),H37*I37,"")</f>
-        <v>16.9528</v>
+        <v>16.9518</v>
       </c>
       <c r="Q37" s="20" t="s">
         <v>197</v>
       </c>
       <c r="R37" s="17"/>
       <c r="S37" s="18">
-        <f>IFERROR(IF(OR(R37&gt;=T37,H37&gt;=T37),LOOKUP(IF(R37="",H37,R37),{0,1,10,25,50,100,250,500,1000,4000,8000,12000,28000},{0.0,0.26,0.242,0.2304,0.223,0.2156,0.20444,0.17098,0.13269,0.12637,0.11894,0.1115,0.10407}),"MOQ="&amp;T37),"")</f>
-        <v>0.2156</v>
+        <f>IFERROR(IF(OR(R37&gt;=T37,H37&gt;=T37),LOOKUP(IF(R37="",H37,R37),{0,1,10,25,50,100,250,500,1000,4000,8000,12000,28000},{0.0,0.47,0.432,0.4124,0.399,0.3857,0.3658,0.30594,0.23744,0.22613,0.21283,0.19953,0.18622}),"MOQ="&amp;T37),"")</f>
+        <v>0.3857</v>
       </c>
       <c r="T37" s="17">
         <v>1</v>
       </c>
       <c r="U37" s="19">
         <f>IFERROR(IF(R37="",H37,R37)*S37,"")</f>
-        <v>21.56</v>
+        <v>38.57</v>
       </c>
       <c r="V37" s="17" t="s">
         <v>218</v>
@@ -10879,15 +10854,15 @@
       </c>
       <c r="X37" s="17"/>
       <c r="Y37" s="18">
-        <f>IFERROR(IF(OR(X37&gt;=Z37,H37&gt;=Z37),USD_GBP*LOOKUP(IF(X37="",H37,X37),{0,1,5,10,100,500},{0.0,0.531,0.531,0.424,0.258,0.144}),"MOQ="&amp;Z37),"")</f>
-        <v>0.3374868783702816</v>
+        <f>IFERROR(IF(OR(X37&gt;=Z37,H37&gt;=Z37),USD_GBP*LOOKUP(IF(X37="",H37,X37),{0,1,5,10,100,500},{0.0,0.46,0.46,0.375,0.255,0.144}),"MOQ="&amp;Z37),"")</f>
+        <v>0.33457446808510644</v>
       </c>
       <c r="Z37" s="17">
         <v>5</v>
       </c>
       <c r="AA37" s="19">
         <f>IFERROR(IF(X37="",H37,X37)*Y37,"")</f>
-        <v>33.7487</v>
+        <v>33.4574</v>
       </c>
       <c r="AB37" s="17" t="s">
         <v>248</v>
@@ -10897,15 +10872,15 @@
       </c>
       <c r="AJ37" s="17"/>
       <c r="AK37" s="18">
-        <f>IFERROR(IF(OR(AJ37&gt;=AL37,H37&gt;=AL37),LOOKUP(IF(AJ37="",H37,AJ37),{0,1,10,50,100,1000,10000},{0.0,0.45,0.367,0.367,0.25,0.141,0.12}),"MOQ="&amp;AL37),"")</f>
-        <v>0.25</v>
+        <f>IFERROR(IF(OR(AJ37&gt;=AL37,H37&gt;=AL37),LOOKUP(IF(AJ37="",H37,AJ37),{0,1,10,50,100,1000,10000},{0.0,0.61,0.524,0.524,0.391,0.238,0.204}),"MOQ="&amp;AL37),"")</f>
+        <v>0.391</v>
       </c>
       <c r="AL37" s="17">
         <v>1</v>
       </c>
       <c r="AM37" s="19">
         <f>IFERROR(IF(AJ37="",H37,AJ37)*AK37,"")</f>
-        <v>25.0</v>
+        <v>39.1</v>
       </c>
       <c r="AN37" s="17" t="s">
         <v>292</v>
@@ -10915,15 +10890,15 @@
       </c>
       <c r="AP37" s="17"/>
       <c r="AQ37" s="18">
-        <f>IFERROR(IF(OR(AP37&gt;=AR37,H37&gt;=AR37),LOOKUP(IF(AP37="",H37,AP37),{0,1,10,100,3000,4000,6000,12000,18000,30000},{0.0,0.268,0.255,0.229,0.131,0.131,0.117,0.106,0.098,0.091}),"MOQ="&amp;AR37),"")</f>
-        <v>0.229</v>
+        <f>IFERROR(IF(OR(AP37&gt;=AR37,H37&gt;=AR37),LOOKUP(IF(AP37="",H37,AP37),{0,1,10,100,3000,4000,6000,12000,18000,30000},{0.0,0.262,0.248,0.223,0.131,0.131,0.117,0.106,0.098,0.091}),"MOQ="&amp;AR37),"")</f>
+        <v>0.223</v>
       </c>
       <c r="AR37" s="17">
         <v>1</v>
       </c>
       <c r="AS37" s="19">
         <f>IFERROR(IF(AP37="",H37,AP37)*AQ37,"")</f>
-        <v>22.9</v>
+        <v>22.3</v>
       </c>
       <c r="AT37" s="17" t="s">
         <v>322</v>
@@ -10934,14 +10909,14 @@
       <c r="AV37" s="17"/>
       <c r="AW37" s="18">
         <f>IFERROR(IF(OR(AV37&gt;=AX37,H37&gt;=AX37),USD_GBP*LOOKUP(IF(AV37="",H37,AV37),{0,1,50,100,1000,4000,8000,24000,48000,100000},{0.0,0.295,0.295,0.227,0.219,0.205,0.185,0.083,0.076,0.073}),"MOQ="&amp;AX37),"")</f>
-        <v>0.29693612941881364</v>
+        <v>0.29783687943262416</v>
       </c>
       <c r="AX37" s="17">
         <v>50</v>
       </c>
       <c r="AY37" s="19">
         <f>IFERROR(IF(AV37="",H37,AV37)*AW37,"")</f>
-        <v>29.6936</v>
+        <v>29.7837</v>
       </c>
       <c r="AZ37" s="17" t="s">
         <v>338</v>
@@ -10951,15 +10926,15 @@
       </c>
       <c r="BB37" s="17"/>
       <c r="BC37" s="18">
-        <f>IFERROR(IF(OR(BB37&gt;=BD37,H37&gt;=BD37),USD_GBP*LOOKUP(IF(BB37="",H37,BB37),{0,1,5,25,100,500,2000},{0.0,0.172,0.172,0.1496,0.1296,0.11318,0.10564}),"MOQ="&amp;BD37),"")</f>
-        <v>0.16952829239065306</v>
+        <f>IFERROR(IF(OR(BB37&gt;=BD37,H37&gt;=BD37),USD_GBP*LOOKUP(IF(BB37="",H37,BB37),{0,1,5,25,100,500,2000},{0.0,0.17,0.17,0.1492,0.1292,0.11284,0.10532}),"MOQ="&amp;BD37),"")</f>
+        <v>0.16951773049645394</v>
       </c>
       <c r="BD37" s="17">
         <v>5</v>
       </c>
       <c r="BE37" s="19">
         <f>IFERROR(IF(BB37="",H37,BB37)*BC37,"")</f>
-        <v>16.9528</v>
+        <v>16.9518</v>
       </c>
       <c r="BF37" s="17" t="s">
         <v>152</v>
@@ -11014,20 +10989,20 @@
       <c r="V38" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="W38" s="20" t="s">
-        <v>197</v>
+      <c r="W38" s="17">
+        <v>465</v>
       </c>
       <c r="X38" s="17"/>
       <c r="Y38" s="18">
-        <f>IFERROR(IF(OR(X38&gt;=Z38,H38&gt;=Z38),USD_GBP*LOOKUP(IF(X38="",H38,X38),{0,1,25,100},{0.0,0.798,0.674,0.62}),"MOQ="&amp;Z38),"")</f>
-        <v>0.8110149790293588</v>
+        <f>IFERROR(IF(OR(X38&gt;=Z38,H38&gt;=Z38),USD_GBP*LOOKUP(IF(X38="",H38,X38),{0,1,25,100},{0.0,0.846,0.716,0.658}),"MOQ="&amp;Z38),"")</f>
+        <v>0.8633333333333335</v>
       </c>
       <c r="Z38" s="17">
         <v>1</v>
       </c>
       <c r="AA38" s="19">
         <f>IFERROR(IF(X38="",H38,X38)*Y38,"")</f>
-        <v>81.1015</v>
+        <v>86.3333</v>
       </c>
       <c r="AB38" s="17" t="s">
         <v>249</v>
@@ -11074,14 +11049,14 @@
       <c r="AV38" s="17"/>
       <c r="AW38" s="18">
         <f>IFERROR(IF(OR(AV38&gt;=AX38,H38&gt;=AX38),USD_GBP*LOOKUP(IF(AV38="",H38,AV38),{0,1,20,40,100,3000},{0.0,0.718,0.718,0.686,0.619,0.558}),"MOQ="&amp;AX38),"")</f>
-        <v>0.8097068903535051</v>
+        <v>0.812163120567376</v>
       </c>
       <c r="AX38" s="17">
         <v>20</v>
       </c>
       <c r="AY38" s="19">
         <f>IFERROR(IF(AV38="",H38,AV38)*AW38,"")</f>
-        <v>80.9707</v>
+        <v>81.2163</v>
       </c>
       <c r="AZ38" s="17" t="s">
         <v>339</v>
@@ -11091,15 +11066,15 @@
       </c>
       <c r="BB38" s="17"/>
       <c r="BC38" s="18">
-        <f>IFERROR(IF(OR(BB38&gt;=BD38,H38&gt;=BD38),USD_GBP*LOOKUP(IF(BB38="",H38,BB38),{0,1,5,25,100},{0.0,0.76,0.7,0.64,0.58}),"MOQ="&amp;BD38),"")</f>
-        <v>0.7586914319952066</v>
+        <f>IFERROR(IF(OR(BB38&gt;=BD38,H38&gt;=BD38),USD_GBP*LOOKUP(IF(BB38="",H38,BB38),{0,1,5,25,100},{0.0,0.76,0.71,0.65,0.58}),"MOQ="&amp;BD38),"")</f>
+        <v>0.7609929078014185</v>
       </c>
       <c r="BD38" s="17">
         <v>1</v>
       </c>
       <c r="BE38" s="19">
         <f>IFERROR(IF(BB38="",H38,BB38)*BC38,"")</f>
-        <v>75.8691</v>
+        <v>76.0993</v>
       </c>
       <c r="BF38" s="17" t="s">
         <v>343</v>
@@ -11140,7 +11115,7 @@
         <v>138.0</v>
       </c>
       <c r="AI39" s="17">
-        <v>52667</v>
+        <v>52038</v>
       </c>
       <c r="AJ39" s="17"/>
       <c r="AK39" s="18">
@@ -11254,18 +11229,18 @@
       </c>
       <c r="I41" s="18">
         <f>IF(MIN(M41,S41,Y41,AE41,AK41,AQ41,AW41,BC41)&lt;&gt;0,MIN(M41,S41,Y41,AE41,AK41,AQ41,AW41,BC41),"")</f>
-        <v>5.977965248651888</v>
+        <v>6.402836879432625</v>
       </c>
       <c r="J41" s="19">
         <f>IF(AND(ISNUMBER(H41),ISNUMBER(I41)),H41*I41,"")</f>
-        <v>597.7965</v>
-      </c>
-      <c r="Q41" s="20" t="s">
-        <v>197</v>
+        <v>640.2837</v>
+      </c>
+      <c r="Q41" s="17">
+        <v>847</v>
       </c>
       <c r="R41" s="17"/>
       <c r="S41" s="18">
-        <f>IFERROR(IF(OR(R41&gt;=T41,H41&gt;=T41),LOOKUP(IF(R41="",H41,R41),{0,1,25,100,2000},{0.0,9.15,7.95,7.67,6.95002}),"MOQ="&amp;T41),"")</f>
+        <f>IFERROR(IF(OR(R41&gt;=T41,H41&gt;=T41),LOOKUP(IF(R41="",H41,R41),{0,1,25,100,2000},{0.0,9.15,7.95,7.67,7.67}),"MOQ="&amp;T41),"")</f>
         <v>7.67</v>
       </c>
       <c r="T41" s="17">
@@ -11283,15 +11258,15 @@
       </c>
       <c r="X41" s="17"/>
       <c r="Y41" s="18">
-        <f>IFERROR(IF(OR(X41&gt;=Z41,H41&gt;=Z41),USD_GBP*LOOKUP(IF(X41="",H41,X41),{0,1,10,25,50,100},{0.0,5.87,5.27,4.66,4.57,4.57}),"MOQ="&amp;Z41),"")</f>
-        <v>5.977965248651888</v>
+        <f>IFERROR(IF(OR(X41&gt;=Z41,H41&gt;=Z41),USD_GBP*LOOKUP(IF(X41="",H41,X41),{0,1,10,25,50,100},{0.0,5.67,5.33,4.98,4.88,4.88}),"MOQ="&amp;Z41),"")</f>
+        <v>6.402836879432625</v>
       </c>
       <c r="Z41" s="17">
         <v>1</v>
       </c>
       <c r="AA41" s="19">
         <f>IFERROR(IF(X41="",H41,X41)*Y41,"")</f>
-        <v>597.7965</v>
+        <v>640.2837</v>
       </c>
       <c r="AB41" s="17" t="s">
         <v>250</v>
@@ -11361,14 +11336,14 @@
       </c>
       <c r="I42" s="18">
         <f>IF(MIN(M42,S42,Y42,AE42,AK42,AQ42,AW42,BC42)&lt;&gt;0,MIN(M42,S42,Y42,AE42,AK42,AQ42,AW42,BC42),"")</f>
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="J42" s="19">
         <f>IF(AND(ISNUMBER(H42),ISNUMBER(I42)),H42*I42,"")</f>
-        <v>118.0</v>
+        <v>115.0</v>
       </c>
       <c r="K42" s="17">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L42" s="17"/>
       <c r="M42" s="18">
@@ -11386,7 +11361,7 @@
         <v>188</v>
       </c>
       <c r="Q42" s="17">
-        <v>2502</v>
+        <v>2487</v>
       </c>
       <c r="R42" s="17"/>
       <c r="S42" s="18">
@@ -11404,25 +11379,25 @@
         <v>222</v>
       </c>
       <c r="W42" s="17">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="X42" s="17"/>
       <c r="Y42" s="18">
         <f>IFERROR(IF(OR(X42&gt;=Z42,H42&gt;=Z42),USD_GBP*LOOKUP(IF(X42="",H42,X42),{0,1,5,50,100,250,500,3000,15000},{0.0,1.44,1.44,1.21,1.21,1.09,0.965,0.906,0.888}),"MOQ="&amp;Z42),"")</f>
-        <v>1.5827872977831035</v>
+        <v>1.5875886524822698</v>
       </c>
       <c r="Z42" s="17">
         <v>5</v>
       </c>
       <c r="AA42" s="19">
         <f>IFERROR(IF(X42="",H42,X42)*Y42,"")</f>
-        <v>158.2787</v>
+        <v>158.7589</v>
       </c>
       <c r="AB42" s="17" t="s">
         <v>251</v>
       </c>
       <c r="AI42" s="17">
-        <v>2422</v>
+        <v>2322</v>
       </c>
       <c r="AJ42" s="17"/>
       <c r="AK42" s="18">
@@ -11444,15 +11419,15 @@
       </c>
       <c r="AP42" s="17"/>
       <c r="AQ42" s="18">
-        <f>IFERROR(IF(OR(AP42&gt;=AR42,H42&gt;=AR42),LOOKUP(IF(AP42="",H42,AP42),{0,1,10,25,50,100,1000,2000,3000,4000,6000,10000},{0.0,1.18,1.18,1.18,1.18,1.18,1.34,1.28,1.28,1.17,1.12,1.09}),"MOQ="&amp;AR42),"")</f>
-        <v>1.18</v>
+        <f>IFERROR(IF(OR(AP42&gt;=AR42,H42&gt;=AR42),LOOKUP(IF(AP42="",H42,AP42),{0,1,10,25,50,100,1000,2000,3000,4000,6000,10000},{0.0,1.15,1.15,1.15,1.15,1.15,1.34,1.28,1.28,1.17,1.12,1.09}),"MOQ="&amp;AR42),"")</f>
+        <v>1.15</v>
       </c>
       <c r="AR42" s="17">
         <v>1</v>
       </c>
       <c r="AS42" s="19">
         <f>IFERROR(IF(AP42="",H42,AP42)*AQ42,"")</f>
-        <v>118.0</v>
+        <v>115.0</v>
       </c>
       <c r="AT42" s="17" t="s">
         <v>325</v>
@@ -11463,14 +11438,14 @@
       <c r="AV42" s="17"/>
       <c r="AW42" s="18">
         <f>IFERROR(IF(OR(AV42&gt;=AX42,H42&gt;=AX42),USD_GBP*LOOKUP(IF(AV42="",H42,AV42),{0,1,5,50,100,250,1000,3000},{0.0,1.596,1.596,1.494,1.302,1.276,1.122,1.1}),"MOQ="&amp;AX42),"")</f>
-        <v>1.7031314559616537</v>
+        <v>1.7082978723404258</v>
       </c>
       <c r="AX42" s="17">
         <v>5</v>
       </c>
       <c r="AY42" s="19">
         <f>IFERROR(IF(AV42="",H42,AV42)*AW42,"")</f>
-        <v>170.3131</v>
+        <v>170.8298</v>
       </c>
       <c r="AZ42" s="17" t="s">
         <v>340</v>
@@ -11581,7 +11556,7 @@
         <v>347</v>
       </c>
       <c r="C45">
-        <v>1.308088675853805</v>
+        <v>1.312056737588653</v>
       </c>
       <c r="I45" s="21" t="s">
         <v>345</v>
@@ -13673,112 +13648,112 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13">
-    <cfRule type="cellIs" dxfId="0" priority="559" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="558" operator="lessThan">
       <formula>H13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO14">
-    <cfRule type="cellIs" dxfId="0" priority="563" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="562" operator="lessThan">
       <formula>H14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO19">
-    <cfRule type="cellIs" dxfId="0" priority="567" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="566" operator="lessThan">
       <formula>H19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO20">
-    <cfRule type="cellIs" dxfId="0" priority="571" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="570" operator="lessThan">
       <formula>H20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO21">
-    <cfRule type="cellIs" dxfId="0" priority="575" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="574" operator="lessThan">
       <formula>H21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO22">
-    <cfRule type="cellIs" dxfId="0" priority="579" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="578" operator="lessThan">
       <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO23">
-    <cfRule type="cellIs" dxfId="0" priority="587" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="586" operator="lessThan">
       <formula>H23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24">
-    <cfRule type="cellIs" dxfId="0" priority="595" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="594" operator="lessThan">
       <formula>H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25">
-    <cfRule type="cellIs" dxfId="0" priority="599" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="598" operator="lessThan">
       <formula>H25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO26">
-    <cfRule type="cellIs" dxfId="0" priority="603" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="602" operator="lessThan">
       <formula>H26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO27">
-    <cfRule type="cellIs" dxfId="0" priority="607" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="606" operator="lessThan">
       <formula>H27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO28">
-    <cfRule type="cellIs" dxfId="0" priority="615" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="614" operator="lessThan">
       <formula>H28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO29">
-    <cfRule type="cellIs" dxfId="0" priority="619" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="618" operator="lessThan">
       <formula>H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO30">
-    <cfRule type="cellIs" dxfId="0" priority="623" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="622" operator="lessThan">
       <formula>H30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO31">
-    <cfRule type="cellIs" dxfId="0" priority="627" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="626" operator="lessThan">
       <formula>H31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO32">
-    <cfRule type="cellIs" dxfId="0" priority="631" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="630" operator="lessThan">
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO33">
-    <cfRule type="cellIs" dxfId="0" priority="636" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="634" operator="lessThan">
       <formula>H33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO36">
-    <cfRule type="cellIs" dxfId="0" priority="640" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="638" operator="lessThan">
       <formula>H36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO37">
-    <cfRule type="cellIs" dxfId="0" priority="644" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="642" operator="lessThan">
       <formula>H37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO38">
-    <cfRule type="cellIs" dxfId="0" priority="648" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="646" operator="lessThan">
       <formula>H38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO41">
-    <cfRule type="cellIs" dxfId="0" priority="652" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="650" operator="lessThan">
       <formula>H41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO42">
-    <cfRule type="cellIs" dxfId="0" priority="656" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="654" operator="lessThan">
       <formula>H42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13808,132 +13783,126 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12">
-    <cfRule type="expression" dxfId="3" priority="555">
-      <formula>AND(AP12&gt;0,MOD(AP12,AR12)&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="556">
+    <cfRule type="expression" dxfId="1" priority="555">
       <formula>AND(NOT(ISBLANK(AP12)),OR(AO12="NonStk",AP12&gt;AO12))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP13">
-    <cfRule type="expression" dxfId="1" priority="560">
+    <cfRule type="expression" dxfId="1" priority="559">
       <formula>AND(NOT(ISBLANK(AP13)),OR(AO13="NonStk",AP13&gt;AO13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP14">
-    <cfRule type="expression" dxfId="1" priority="564">
+    <cfRule type="expression" dxfId="1" priority="563">
       <formula>AND(NOT(ISBLANK(AP14)),OR(AO14="NonStk",AP14&gt;AO14))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP19">
-    <cfRule type="expression" dxfId="1" priority="568">
+    <cfRule type="expression" dxfId="1" priority="567">
       <formula>AND(NOT(ISBLANK(AP19)),OR(AO19="NonStk",AP19&gt;AO19))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP20">
-    <cfRule type="expression" dxfId="1" priority="572">
+    <cfRule type="expression" dxfId="1" priority="571">
       <formula>AND(NOT(ISBLANK(AP20)),OR(AO20="NonStk",AP20&gt;AO20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP21">
-    <cfRule type="expression" dxfId="1" priority="576">
+    <cfRule type="expression" dxfId="1" priority="575">
       <formula>AND(NOT(ISBLANK(AP21)),OR(AO21="NonStk",AP21&gt;AO21))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP22">
-    <cfRule type="expression" dxfId="3" priority="580">
+    <cfRule type="expression" dxfId="3" priority="579">
       <formula>AND(AP22&gt;0,MOD(AP22,AR22)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="581">
+    <cfRule type="expression" dxfId="1" priority="580">
       <formula>AND(NOT(ISBLANK(AP22)),OR(AO22="NonStk",AP22&gt;AO22))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP23">
-    <cfRule type="expression" dxfId="3" priority="588">
+    <cfRule type="expression" dxfId="3" priority="587">
       <formula>AND(AP23&gt;0,MOD(AP23,AR23)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="589">
+    <cfRule type="expression" dxfId="1" priority="588">
       <formula>AND(NOT(ISBLANK(AP23)),OR(AO23="NonStk",AP23&gt;AO23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP24">
-    <cfRule type="expression" dxfId="1" priority="596">
+    <cfRule type="expression" dxfId="1" priority="595">
       <formula>AND(NOT(ISBLANK(AP24)),OR(AO24="NonStk",AP24&gt;AO24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP25">
-    <cfRule type="expression" dxfId="1" priority="600">
+    <cfRule type="expression" dxfId="1" priority="599">
       <formula>AND(NOT(ISBLANK(AP25)),OR(AO25="NonStk",AP25&gt;AO25))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP26">
-    <cfRule type="expression" dxfId="1" priority="604">
+    <cfRule type="expression" dxfId="1" priority="603">
       <formula>AND(NOT(ISBLANK(AP26)),OR(AO26="NonStk",AP26&gt;AO26))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP27">
-    <cfRule type="expression" dxfId="3" priority="608">
+    <cfRule type="expression" dxfId="3" priority="607">
       <formula>AND(AP27&gt;0,MOD(AP27,AR27)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="609">
+    <cfRule type="expression" dxfId="1" priority="608">
       <formula>AND(NOT(ISBLANK(AP27)),OR(AO27="NonStk",AP27&gt;AO27))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP28">
-    <cfRule type="expression" dxfId="1" priority="616">
+    <cfRule type="expression" dxfId="1" priority="615">
       <formula>AND(NOT(ISBLANK(AP28)),OR(AO28="NonStk",AP28&gt;AO28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP29">
-    <cfRule type="expression" dxfId="1" priority="620">
+    <cfRule type="expression" dxfId="1" priority="619">
       <formula>AND(NOT(ISBLANK(AP29)),OR(AO29="NonStk",AP29&gt;AO29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP30">
-    <cfRule type="expression" dxfId="1" priority="624">
+    <cfRule type="expression" dxfId="1" priority="623">
       <formula>AND(NOT(ISBLANK(AP30)),OR(AO30="NonStk",AP30&gt;AO30))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP31">
-    <cfRule type="expression" dxfId="1" priority="628">
+    <cfRule type="expression" dxfId="1" priority="627">
       <formula>AND(NOT(ISBLANK(AP31)),OR(AO31="NonStk",AP31&gt;AO31))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP32">
-    <cfRule type="expression" dxfId="3" priority="632">
-      <formula>AND(AP32&gt;0,MOD(AP32,AR32)&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="633">
+    <cfRule type="expression" dxfId="1" priority="631">
       <formula>AND(NOT(ISBLANK(AP32)),OR(AO32="NonStk",AP32&gt;AO32))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP33">
-    <cfRule type="expression" dxfId="1" priority="637">
+    <cfRule type="expression" dxfId="1" priority="635">
       <formula>AND(NOT(ISBLANK(AP33)),OR(AO33="NonStk",AP33&gt;AO33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP36">
-    <cfRule type="expression" dxfId="1" priority="641">
+    <cfRule type="expression" dxfId="1" priority="639">
       <formula>AND(NOT(ISBLANK(AP36)),OR(AO36="NonStk",AP36&gt;AO36))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP37">
-    <cfRule type="expression" dxfId="1" priority="645">
+    <cfRule type="expression" dxfId="1" priority="643">
       <formula>AND(NOT(ISBLANK(AP37)),OR(AO37="NonStk",AP37&gt;AO37))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP38">
-    <cfRule type="expression" dxfId="1" priority="649">
+    <cfRule type="expression" dxfId="1" priority="647">
       <formula>AND(NOT(ISBLANK(AP38)),OR(AO38="NonStk",AP38&gt;AO38))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP41">
-    <cfRule type="expression" dxfId="1" priority="653">
+    <cfRule type="expression" dxfId="1" priority="651">
       <formula>AND(NOT(ISBLANK(AP41)),OR(AO41="NonStk",AP41&gt;AO41))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP42">
-    <cfRule type="expression" dxfId="1" priority="657">
+    <cfRule type="expression" dxfId="1" priority="655">
       <formula>AND(NOT(ISBLANK(AP42)),OR(AO42="NonStk",AP42&gt;AO42))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13963,126 +13932,126 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ12">
-    <cfRule type="cellIs" dxfId="2" priority="558" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="557" operator="lessThanOrEqual">
       <formula>I12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ13">
-    <cfRule type="cellIs" dxfId="2" priority="562" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="561" operator="lessThanOrEqual">
       <formula>I13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ14">
-    <cfRule type="cellIs" dxfId="2" priority="566" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="565" operator="lessThanOrEqual">
       <formula>I14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ19">
-    <cfRule type="cellIs" dxfId="2" priority="570" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="569" operator="lessThanOrEqual">
       <formula>I19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ20">
-    <cfRule type="cellIs" dxfId="2" priority="574" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="573" operator="lessThanOrEqual">
       <formula>I20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ21">
-    <cfRule type="cellIs" dxfId="2" priority="578" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="577" operator="lessThanOrEqual">
       <formula>I21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ22">
-    <cfRule type="cellIs" dxfId="2" priority="583" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="582" operator="lessThanOrEqual">
       <formula>I22</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="584">
+    <cfRule type="expression" dxfId="3" priority="583">
       <formula>AND(H22&lt;15000,AP22&lt;15000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ23">
-    <cfRule type="cellIs" dxfId="2" priority="591" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="590" operator="lessThanOrEqual">
       <formula>I23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="592">
+    <cfRule type="expression" dxfId="3" priority="591">
       <formula>AND(H23&lt;15000,AP23&lt;15000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24">
-    <cfRule type="cellIs" dxfId="2" priority="598" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="597" operator="lessThanOrEqual">
       <formula>I24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ25">
-    <cfRule type="cellIs" dxfId="2" priority="602" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="601" operator="lessThanOrEqual">
       <formula>I25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ26">
-    <cfRule type="cellIs" dxfId="2" priority="606" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="605" operator="lessThanOrEqual">
       <formula>I26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ27">
-    <cfRule type="cellIs" dxfId="2" priority="611" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="610" operator="lessThanOrEqual">
       <formula>I27</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="612">
+    <cfRule type="expression" dxfId="3" priority="611">
       <formula>AND(H27&lt;15000,AP27&lt;15000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28">
-    <cfRule type="cellIs" dxfId="2" priority="618" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="617" operator="lessThanOrEqual">
       <formula>I28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ29">
-    <cfRule type="cellIs" dxfId="2" priority="622" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="621" operator="lessThanOrEqual">
       <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ30">
-    <cfRule type="cellIs" dxfId="2" priority="626" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="625" operator="lessThanOrEqual">
       <formula>I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ31">
-    <cfRule type="cellIs" dxfId="2" priority="630" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="629" operator="lessThanOrEqual">
       <formula>I31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ32">
-    <cfRule type="cellIs" dxfId="2" priority="635" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="633" operator="lessThanOrEqual">
       <formula>I32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ33">
-    <cfRule type="cellIs" dxfId="2" priority="639" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="637" operator="lessThanOrEqual">
       <formula>I33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ36">
-    <cfRule type="cellIs" dxfId="2" priority="643" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="641" operator="lessThanOrEqual">
       <formula>I36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ37">
-    <cfRule type="cellIs" dxfId="2" priority="647" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="645" operator="lessThanOrEqual">
       <formula>I37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ38">
-    <cfRule type="cellIs" dxfId="2" priority="651" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="649" operator="lessThanOrEqual">
       <formula>I38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ41">
-    <cfRule type="cellIs" dxfId="2" priority="655" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="653" operator="lessThanOrEqual">
       <formula>I41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ42">
-    <cfRule type="cellIs" dxfId="2" priority="659" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="657" operator="lessThanOrEqual">
       <formula>I42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14102,17 +14071,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR22">
-    <cfRule type="expression" dxfId="3" priority="585">
+    <cfRule type="expression" dxfId="3" priority="584">
       <formula>AND(H22&lt;15000,AP22&lt;15000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR23">
-    <cfRule type="expression" dxfId="3" priority="593">
+    <cfRule type="expression" dxfId="3" priority="592">
       <formula>AND(H23&lt;15000,AP23&lt;15000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR27">
-    <cfRule type="expression" dxfId="3" priority="613">
+    <cfRule type="expression" dxfId="3" priority="612">
       <formula>AND(H27&lt;15000,AP27&lt;15000)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14127,126 +14096,126 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS12">
-    <cfRule type="cellIs" dxfId="2" priority="557" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="556" operator="lessThanOrEqual">
       <formula>J12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS13">
-    <cfRule type="cellIs" dxfId="2" priority="561" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="560" operator="lessThanOrEqual">
       <formula>J13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS14">
-    <cfRule type="cellIs" dxfId="2" priority="565" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="564" operator="lessThanOrEqual">
       <formula>J14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS19">
-    <cfRule type="cellIs" dxfId="2" priority="569" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="568" operator="lessThanOrEqual">
       <formula>J19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS20">
-    <cfRule type="cellIs" dxfId="2" priority="573" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="572" operator="lessThanOrEqual">
       <formula>J20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS21">
-    <cfRule type="cellIs" dxfId="2" priority="577" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="576" operator="lessThanOrEqual">
       <formula>J21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS22">
-    <cfRule type="cellIs" dxfId="2" priority="582" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="581" operator="lessThanOrEqual">
       <formula>J22</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="586">
+    <cfRule type="expression" dxfId="3" priority="585">
       <formula>AND(H22&lt;15000,AP22&lt;15000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS23">
-    <cfRule type="cellIs" dxfId="2" priority="590" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="589" operator="lessThanOrEqual">
       <formula>J23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="594">
+    <cfRule type="expression" dxfId="3" priority="593">
       <formula>AND(H23&lt;15000,AP23&lt;15000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS24">
-    <cfRule type="cellIs" dxfId="2" priority="597" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="596" operator="lessThanOrEqual">
       <formula>J24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS25">
-    <cfRule type="cellIs" dxfId="2" priority="601" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="600" operator="lessThanOrEqual">
       <formula>J25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS26">
-    <cfRule type="cellIs" dxfId="2" priority="605" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="604" operator="lessThanOrEqual">
       <formula>J26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS27">
-    <cfRule type="cellIs" dxfId="2" priority="610" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="609" operator="lessThanOrEqual">
       <formula>J27</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="614">
+    <cfRule type="expression" dxfId="3" priority="613">
       <formula>AND(H27&lt;15000,AP27&lt;15000)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS28">
-    <cfRule type="cellIs" dxfId="2" priority="617" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="616" operator="lessThanOrEqual">
       <formula>J28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS29">
-    <cfRule type="cellIs" dxfId="2" priority="621" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="620" operator="lessThanOrEqual">
       <formula>J29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS30">
-    <cfRule type="cellIs" dxfId="2" priority="625" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="624" operator="lessThanOrEqual">
       <formula>J30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS31">
-    <cfRule type="cellIs" dxfId="2" priority="629" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="628" operator="lessThanOrEqual">
       <formula>J31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS32">
-    <cfRule type="cellIs" dxfId="2" priority="634" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="632" operator="lessThanOrEqual">
       <formula>J32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS33">
-    <cfRule type="cellIs" dxfId="2" priority="638" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="636" operator="lessThanOrEqual">
       <formula>J33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS36">
-    <cfRule type="cellIs" dxfId="2" priority="642" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="640" operator="lessThanOrEqual">
       <formula>J36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS37">
-    <cfRule type="cellIs" dxfId="2" priority="646" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="644" operator="lessThanOrEqual">
       <formula>J37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS38">
-    <cfRule type="cellIs" dxfId="2" priority="650" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="648" operator="lessThanOrEqual">
       <formula>J38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS41">
-    <cfRule type="cellIs" dxfId="2" priority="654" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="652" operator="lessThanOrEqual">
       <formula>J41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42">
-    <cfRule type="cellIs" dxfId="2" priority="658" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="656" operator="lessThanOrEqual">
       <formula>J42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14266,1028 +14235,1028 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU10">
-    <cfRule type="cellIs" dxfId="0" priority="660" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="658" operator="lessThan">
       <formula>H10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU12">
-    <cfRule type="cellIs" dxfId="0" priority="665" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="663" operator="lessThan">
       <formula>H12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU20">
-    <cfRule type="cellIs" dxfId="0" priority="670" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="668" operator="lessThan">
       <formula>H20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU22">
-    <cfRule type="cellIs" dxfId="0" priority="678" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="676" operator="lessThan">
       <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU23">
-    <cfRule type="cellIs" dxfId="0" priority="686" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="684" operator="lessThan">
       <formula>H23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU24">
-    <cfRule type="cellIs" dxfId="0" priority="694" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="692" operator="lessThan">
       <formula>H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU26">
-    <cfRule type="cellIs" dxfId="0" priority="702" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="700" operator="lessThan">
       <formula>H26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU28">
-    <cfRule type="cellIs" dxfId="0" priority="710" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="708" operator="lessThan">
       <formula>H28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU29">
-    <cfRule type="cellIs" dxfId="0" priority="718" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="716" operator="lessThan">
       <formula>H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU30">
-    <cfRule type="cellIs" dxfId="0" priority="726" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="724" operator="lessThan">
       <formula>H30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU33">
-    <cfRule type="cellIs" dxfId="0" priority="734" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="732" operator="lessThan">
       <formula>H33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU37">
-    <cfRule type="cellIs" dxfId="0" priority="739" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="737" operator="lessThan">
       <formula>H37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU38">
-    <cfRule type="cellIs" dxfId="0" priority="744" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="742" operator="lessThan">
       <formula>H38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU42">
-    <cfRule type="cellIs" dxfId="0" priority="749" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="747" operator="lessThan">
       <formula>H42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV10">
-    <cfRule type="expression" dxfId="3" priority="661">
+    <cfRule type="expression" dxfId="3" priority="659">
       <formula>AND(AV10&gt;0,MOD(AV10,AX10)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="662">
+    <cfRule type="expression" dxfId="1" priority="660">
       <formula>AND(NOT(ISBLANK(AV10)),OR(AU10="NonStk",AV10&gt;AU10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV12">
-    <cfRule type="expression" dxfId="3" priority="666">
+    <cfRule type="expression" dxfId="3" priority="664">
       <formula>AND(AV12&gt;0,MOD(AV12,AX12)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="667">
+    <cfRule type="expression" dxfId="1" priority="665">
       <formula>AND(NOT(ISBLANK(AV12)),OR(AU12="NonStk",AV12&gt;AU12))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV20">
-    <cfRule type="expression" dxfId="3" priority="671">
+    <cfRule type="expression" dxfId="3" priority="669">
       <formula>AND(AV20&gt;0,MOD(AV20,AX20)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="672">
+    <cfRule type="expression" dxfId="1" priority="670">
       <formula>AND(NOT(ISBLANK(AV20)),OR(AU20="NonStk",AV20&gt;AU20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV22">
-    <cfRule type="expression" dxfId="3" priority="679">
+    <cfRule type="expression" dxfId="3" priority="677">
       <formula>AND(AV22&gt;0,MOD(AV22,AX22)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="680">
+    <cfRule type="expression" dxfId="1" priority="678">
       <formula>AND(NOT(ISBLANK(AV22)),OR(AU22="NonStk",AV22&gt;AU22))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV23">
-    <cfRule type="expression" dxfId="3" priority="687">
+    <cfRule type="expression" dxfId="3" priority="685">
       <formula>AND(AV23&gt;0,MOD(AV23,AX23)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="688">
+    <cfRule type="expression" dxfId="1" priority="686">
       <formula>AND(NOT(ISBLANK(AV23)),OR(AU23="NonStk",AV23&gt;AU23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV24">
-    <cfRule type="expression" dxfId="3" priority="695">
+    <cfRule type="expression" dxfId="3" priority="693">
       <formula>AND(AV24&gt;0,MOD(AV24,AX24)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="696">
+    <cfRule type="expression" dxfId="1" priority="694">
       <formula>AND(NOT(ISBLANK(AV24)),OR(AU24="NonStk",AV24&gt;AU24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV26">
-    <cfRule type="expression" dxfId="3" priority="703">
+    <cfRule type="expression" dxfId="3" priority="701">
       <formula>AND(AV26&gt;0,MOD(AV26,AX26)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="704">
+    <cfRule type="expression" dxfId="1" priority="702">
       <formula>AND(NOT(ISBLANK(AV26)),OR(AU26="NonStk",AV26&gt;AU26))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV28">
-    <cfRule type="expression" dxfId="3" priority="711">
+    <cfRule type="expression" dxfId="3" priority="709">
       <formula>AND(AV28&gt;0,MOD(AV28,AX28)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="712">
+    <cfRule type="expression" dxfId="1" priority="710">
       <formula>AND(NOT(ISBLANK(AV28)),OR(AU28="NonStk",AV28&gt;AU28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV29">
-    <cfRule type="expression" dxfId="3" priority="719">
+    <cfRule type="expression" dxfId="3" priority="717">
       <formula>AND(AV29&gt;0,MOD(AV29,AX29)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="720">
+    <cfRule type="expression" dxfId="1" priority="718">
       <formula>AND(NOT(ISBLANK(AV29)),OR(AU29="NonStk",AV29&gt;AU29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV30">
-    <cfRule type="expression" dxfId="3" priority="727">
+    <cfRule type="expression" dxfId="3" priority="725">
       <formula>AND(AV30&gt;0,MOD(AV30,AX30)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="728">
+    <cfRule type="expression" dxfId="1" priority="726">
       <formula>AND(NOT(ISBLANK(AV30)),OR(AU30="NonStk",AV30&gt;AU30))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV33">
-    <cfRule type="expression" dxfId="3" priority="735">
+    <cfRule type="expression" dxfId="3" priority="733">
       <formula>AND(AV33&gt;0,MOD(AV33,AX33)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="736">
+    <cfRule type="expression" dxfId="1" priority="734">
       <formula>AND(NOT(ISBLANK(AV33)),OR(AU33="NonStk",AV33&gt;AU33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV37">
-    <cfRule type="expression" dxfId="3" priority="740">
+    <cfRule type="expression" dxfId="3" priority="738">
       <formula>AND(AV37&gt;0,MOD(AV37,AX37)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="741">
+    <cfRule type="expression" dxfId="1" priority="739">
       <formula>AND(NOT(ISBLANK(AV37)),OR(AU37="NonStk",AV37&gt;AU37))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV38">
-    <cfRule type="expression" dxfId="3" priority="745">
+    <cfRule type="expression" dxfId="3" priority="743">
       <formula>AND(AV38&gt;0,MOD(AV38,AX38)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="746">
+    <cfRule type="expression" dxfId="1" priority="744">
       <formula>AND(NOT(ISBLANK(AV38)),OR(AU38="NonStk",AV38&gt;AU38))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV42">
-    <cfRule type="expression" dxfId="3" priority="750">
+    <cfRule type="expression" dxfId="3" priority="748">
       <formula>AND(AV42&gt;0,MOD(AV42,AX42)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="751">
+    <cfRule type="expression" dxfId="1" priority="749">
       <formula>AND(NOT(ISBLANK(AV42)),OR(AU42="NonStk",AV42&gt;AU42))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW10">
-    <cfRule type="cellIs" dxfId="2" priority="664" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="662" operator="lessThanOrEqual">
       <formula>I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW12">
-    <cfRule type="cellIs" dxfId="2" priority="669" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="667" operator="lessThanOrEqual">
       <formula>I12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW20">
-    <cfRule type="cellIs" dxfId="2" priority="674" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="672" operator="lessThanOrEqual">
       <formula>I20</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="673">
+      <formula>AND(H20&lt;1000,AV20&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW22">
+    <cfRule type="cellIs" dxfId="2" priority="680" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="681">
+      <formula>AND(H22&lt;1000,AV22&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW23">
+    <cfRule type="cellIs" dxfId="2" priority="688" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="689">
+      <formula>AND(H23&lt;1000,AV23&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW24">
+    <cfRule type="cellIs" dxfId="2" priority="696" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="697">
+      <formula>AND(H24&lt;1000,AV24&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW26">
+    <cfRule type="cellIs" dxfId="2" priority="704" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="705">
+      <formula>AND(H26&lt;1000,AV26&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW28">
+    <cfRule type="cellIs" dxfId="2" priority="712" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="713">
+      <formula>AND(H28&lt;1000,AV28&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW29">
+    <cfRule type="cellIs" dxfId="2" priority="720" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="721">
+      <formula>AND(H29&lt;1000,AV29&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW30">
+    <cfRule type="cellIs" dxfId="2" priority="728" operator="lessThanOrEqual">
+      <formula>I30</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="729">
+      <formula>AND(H30&lt;1000,AV30&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW33">
+    <cfRule type="cellIs" dxfId="2" priority="736" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW37">
+    <cfRule type="cellIs" dxfId="2" priority="741" operator="lessThanOrEqual">
+      <formula>I37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW38">
+    <cfRule type="cellIs" dxfId="2" priority="746" operator="lessThanOrEqual">
+      <formula>I38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW42">
+    <cfRule type="cellIs" dxfId="2" priority="751" operator="lessThanOrEqual">
+      <formula>I42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX20">
+    <cfRule type="expression" dxfId="3" priority="674">
+      <formula>AND(H20&lt;1000,AV20&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX22">
+    <cfRule type="expression" dxfId="3" priority="682">
+      <formula>AND(H22&lt;1000,AV22&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX23">
+    <cfRule type="expression" dxfId="3" priority="690">
+      <formula>AND(H23&lt;1000,AV23&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX24">
+    <cfRule type="expression" dxfId="3" priority="698">
+      <formula>AND(H24&lt;1000,AV24&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX26">
+    <cfRule type="expression" dxfId="3" priority="706">
+      <formula>AND(H26&lt;1000,AV26&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX28">
+    <cfRule type="expression" dxfId="3" priority="714">
+      <formula>AND(H28&lt;1000,AV28&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX29">
+    <cfRule type="expression" dxfId="3" priority="722">
+      <formula>AND(H29&lt;1000,AV29&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX30">
+    <cfRule type="expression" dxfId="3" priority="730">
+      <formula>AND(H30&lt;1000,AV30&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY10">
+    <cfRule type="cellIs" dxfId="2" priority="661" operator="lessThanOrEqual">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY12">
+    <cfRule type="cellIs" dxfId="2" priority="666" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY20">
+    <cfRule type="cellIs" dxfId="2" priority="671" operator="lessThanOrEqual">
+      <formula>J20</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="675">
       <formula>AND(H20&lt;1000,AV20&lt;1000)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW22">
-    <cfRule type="cellIs" dxfId="2" priority="682" operator="lessThanOrEqual">
-      <formula>I22</formula>
+  <conditionalFormatting sqref="AY22">
+    <cfRule type="cellIs" dxfId="2" priority="679" operator="lessThanOrEqual">
+      <formula>J22</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="683">
       <formula>AND(H22&lt;1000,AV22&lt;1000)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW23">
-    <cfRule type="cellIs" dxfId="2" priority="690" operator="lessThanOrEqual">
-      <formula>I23</formula>
+  <conditionalFormatting sqref="AY23">
+    <cfRule type="cellIs" dxfId="2" priority="687" operator="lessThanOrEqual">
+      <formula>J23</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="691">
       <formula>AND(H23&lt;1000,AV23&lt;1000)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW24">
-    <cfRule type="cellIs" dxfId="2" priority="698" operator="lessThanOrEqual">
-      <formula>I24</formula>
+  <conditionalFormatting sqref="AY24">
+    <cfRule type="cellIs" dxfId="2" priority="695" operator="lessThanOrEqual">
+      <formula>J24</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="699">
       <formula>AND(H24&lt;1000,AV24&lt;1000)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW26">
-    <cfRule type="cellIs" dxfId="2" priority="706" operator="lessThanOrEqual">
-      <formula>I26</formula>
+  <conditionalFormatting sqref="AY26">
+    <cfRule type="cellIs" dxfId="2" priority="703" operator="lessThanOrEqual">
+      <formula>J26</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="707">
       <formula>AND(H26&lt;1000,AV26&lt;1000)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW28">
-    <cfRule type="cellIs" dxfId="2" priority="714" operator="lessThanOrEqual">
-      <formula>I28</formula>
+  <conditionalFormatting sqref="AY28">
+    <cfRule type="cellIs" dxfId="2" priority="711" operator="lessThanOrEqual">
+      <formula>J28</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="715">
       <formula>AND(H28&lt;1000,AV28&lt;1000)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW29">
-    <cfRule type="cellIs" dxfId="2" priority="722" operator="lessThanOrEqual">
-      <formula>I29</formula>
+  <conditionalFormatting sqref="AY29">
+    <cfRule type="cellIs" dxfId="2" priority="719" operator="lessThanOrEqual">
+      <formula>J29</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="723">
       <formula>AND(H29&lt;1000,AV29&lt;1000)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW30">
-    <cfRule type="cellIs" dxfId="2" priority="730" operator="lessThanOrEqual">
-      <formula>I30</formula>
+  <conditionalFormatting sqref="AY30">
+    <cfRule type="cellIs" dxfId="2" priority="727" operator="lessThanOrEqual">
+      <formula>J30</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="731">
       <formula>AND(H30&lt;1000,AV30&lt;1000)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW33">
-    <cfRule type="cellIs" dxfId="2" priority="738" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW37">
-    <cfRule type="cellIs" dxfId="2" priority="743" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AY33">
+    <cfRule type="cellIs" dxfId="2" priority="735" operator="lessThanOrEqual">
+      <formula>J33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY37">
+    <cfRule type="cellIs" dxfId="2" priority="740" operator="lessThanOrEqual">
+      <formula>J37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY38">
+    <cfRule type="cellIs" dxfId="2" priority="745" operator="lessThanOrEqual">
+      <formula>J38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY42">
+    <cfRule type="cellIs" dxfId="2" priority="750" operator="lessThanOrEqual">
+      <formula>J42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA13">
+    <cfRule type="cellIs" dxfId="0" priority="752" operator="lessThan">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA14">
+    <cfRule type="cellIs" dxfId="0" priority="757" operator="lessThan">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA32">
+    <cfRule type="cellIs" dxfId="0" priority="762" operator="lessThan">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA37">
+    <cfRule type="cellIs" dxfId="0" priority="767" operator="lessThan">
+      <formula>H37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA38">
+    <cfRule type="cellIs" dxfId="0" priority="772" operator="lessThan">
+      <formula>H38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB13">
+    <cfRule type="expression" dxfId="3" priority="753">
+      <formula>AND(BB13&gt;0,MOD(BB13,BD13)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="754">
+      <formula>AND(NOT(ISBLANK(BB13)),OR(BA13="NonStk",BB13&gt;BA13))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB14">
+    <cfRule type="expression" dxfId="3" priority="758">
+      <formula>AND(BB14&gt;0,MOD(BB14,BD14)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="759">
+      <formula>AND(NOT(ISBLANK(BB14)),OR(BA14="NonStk",BB14&gt;BA14))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB32">
+    <cfRule type="expression" dxfId="3" priority="763">
+      <formula>AND(BB32&gt;0,MOD(BB32,BD32)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="764">
+      <formula>AND(NOT(ISBLANK(BB32)),OR(BA32="NonStk",BB32&gt;BA32))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB37">
+    <cfRule type="expression" dxfId="3" priority="768">
+      <formula>AND(BB37&gt;0,MOD(BB37,BD37)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="769">
+      <formula>AND(NOT(ISBLANK(BB37)),OR(BA37="NonStk",BB37&gt;BA37))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB38">
+    <cfRule type="expression" dxfId="1" priority="773">
+      <formula>AND(NOT(ISBLANK(BB38)),OR(BA38="NonStk",BB38&gt;BA38))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC13">
+    <cfRule type="cellIs" dxfId="2" priority="756" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC14">
+    <cfRule type="cellIs" dxfId="2" priority="761" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC32">
+    <cfRule type="cellIs" dxfId="2" priority="766" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC37">
+    <cfRule type="cellIs" dxfId="2" priority="771" operator="lessThanOrEqual">
       <formula>I37</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW38">
-    <cfRule type="cellIs" dxfId="2" priority="748" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="BC38">
+    <cfRule type="cellIs" dxfId="2" priority="775" operator="lessThanOrEqual">
       <formula>I38</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW42">
-    <cfRule type="cellIs" dxfId="2" priority="753" operator="lessThanOrEqual">
-      <formula>I42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX20">
-    <cfRule type="expression" dxfId="3" priority="676">
-      <formula>AND(H20&lt;1000,AV20&lt;1000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX22">
-    <cfRule type="expression" dxfId="3" priority="684">
-      <formula>AND(H22&lt;1000,AV22&lt;1000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX23">
-    <cfRule type="expression" dxfId="3" priority="692">
-      <formula>AND(H23&lt;1000,AV23&lt;1000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX24">
-    <cfRule type="expression" dxfId="3" priority="700">
-      <formula>AND(H24&lt;1000,AV24&lt;1000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX26">
-    <cfRule type="expression" dxfId="3" priority="708">
-      <formula>AND(H26&lt;1000,AV26&lt;1000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX28">
-    <cfRule type="expression" dxfId="3" priority="716">
-      <formula>AND(H28&lt;1000,AV28&lt;1000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX29">
-    <cfRule type="expression" dxfId="3" priority="724">
-      <formula>AND(H29&lt;1000,AV29&lt;1000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX30">
-    <cfRule type="expression" dxfId="3" priority="732">
-      <formula>AND(H30&lt;1000,AV30&lt;1000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY10">
-    <cfRule type="cellIs" dxfId="2" priority="663" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY12">
-    <cfRule type="cellIs" dxfId="2" priority="668" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY20">
-    <cfRule type="cellIs" dxfId="2" priority="673" operator="lessThanOrEqual">
-      <formula>J20</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="677">
-      <formula>AND(H20&lt;1000,AV20&lt;1000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY22">
-    <cfRule type="cellIs" dxfId="2" priority="681" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="685">
-      <formula>AND(H22&lt;1000,AV22&lt;1000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY23">
-    <cfRule type="cellIs" dxfId="2" priority="689" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="693">
-      <formula>AND(H23&lt;1000,AV23&lt;1000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY24">
-    <cfRule type="cellIs" dxfId="2" priority="697" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="701">
-      <formula>AND(H24&lt;1000,AV24&lt;1000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY26">
-    <cfRule type="cellIs" dxfId="2" priority="705" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="709">
-      <formula>AND(H26&lt;1000,AV26&lt;1000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY28">
-    <cfRule type="cellIs" dxfId="2" priority="713" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="717">
-      <formula>AND(H28&lt;1000,AV28&lt;1000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY29">
-    <cfRule type="cellIs" dxfId="2" priority="721" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="725">
-      <formula>AND(H29&lt;1000,AV29&lt;1000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY30">
-    <cfRule type="cellIs" dxfId="2" priority="729" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="733">
-      <formula>AND(H30&lt;1000,AV30&lt;1000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY33">
-    <cfRule type="cellIs" dxfId="2" priority="737" operator="lessThanOrEqual">
-      <formula>J33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY37">
-    <cfRule type="cellIs" dxfId="2" priority="742" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="BE13">
+    <cfRule type="cellIs" dxfId="2" priority="755" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE14">
+    <cfRule type="cellIs" dxfId="2" priority="760" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE32">
+    <cfRule type="cellIs" dxfId="2" priority="765" operator="lessThanOrEqual">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE37">
+    <cfRule type="cellIs" dxfId="2" priority="770" operator="lessThanOrEqual">
       <formula>J37</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY38">
-    <cfRule type="cellIs" dxfId="2" priority="747" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="BE38">
+    <cfRule type="cellIs" dxfId="2" priority="774" operator="lessThanOrEqual">
       <formula>J38</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY42">
-    <cfRule type="cellIs" dxfId="2" priority="752" operator="lessThanOrEqual">
-      <formula>J42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA13">
-    <cfRule type="cellIs" dxfId="0" priority="754" operator="lessThan">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA14">
-    <cfRule type="cellIs" dxfId="0" priority="759" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA32">
-    <cfRule type="cellIs" dxfId="0" priority="764" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA37">
-    <cfRule type="cellIs" dxfId="0" priority="769" operator="lessThan">
-      <formula>H37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA38">
-    <cfRule type="cellIs" dxfId="0" priority="774" operator="lessThan">
-      <formula>H38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB13">
-    <cfRule type="expression" dxfId="3" priority="755">
-      <formula>AND(BB13&gt;0,MOD(BB13,BD13)&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="756">
-      <formula>AND(NOT(ISBLANK(BB13)),OR(BA13="NonStk",BB13&gt;BA13))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB14">
-    <cfRule type="expression" dxfId="3" priority="760">
-      <formula>AND(BB14&gt;0,MOD(BB14,BD14)&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="761">
-      <formula>AND(NOT(ISBLANK(BB14)),OR(BA14="NonStk",BB14&gt;BA14))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB32">
-    <cfRule type="expression" dxfId="3" priority="765">
-      <formula>AND(BB32&gt;0,MOD(BB32,BD32)&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="766">
-      <formula>AND(NOT(ISBLANK(BB32)),OR(BA32="NonStk",BB32&gt;BA32))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB37">
-    <cfRule type="expression" dxfId="3" priority="770">
-      <formula>AND(BB37&gt;0,MOD(BB37,BD37)&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="771">
-      <formula>AND(NOT(ISBLANK(BB37)),OR(BA37="NonStk",BB37&gt;BA37))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB38">
-    <cfRule type="expression" dxfId="1" priority="775">
-      <formula>AND(NOT(ISBLANK(BB38)),OR(BA38="NonStk",BB38&gt;BA38))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC13">
-    <cfRule type="cellIs" dxfId="2" priority="758" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC14">
-    <cfRule type="cellIs" dxfId="2" priority="763" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC32">
-    <cfRule type="cellIs" dxfId="2" priority="768" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC37">
-    <cfRule type="cellIs" dxfId="2" priority="773" operator="lessThanOrEqual">
-      <formula>I37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC38">
-    <cfRule type="cellIs" dxfId="2" priority="777" operator="lessThanOrEqual">
-      <formula>I38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE13">
-    <cfRule type="cellIs" dxfId="2" priority="757" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE14">
-    <cfRule type="cellIs" dxfId="2" priority="762" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE32">
-    <cfRule type="cellIs" dxfId="2" priority="767" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE37">
-    <cfRule type="cellIs" dxfId="2" priority="772" operator="lessThanOrEqual">
-      <formula>J37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE38">
-    <cfRule type="cellIs" dxfId="2" priority="776" operator="lessThanOrEqual">
-      <formula>J38</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="4" priority="790">
+    <cfRule type="expression" dxfId="4" priority="788">
       <formula>AND(ISBLANK(G10),ISBLANK(O10),ISBLANK(U10),ISBLANK(AA10),ISBLANK(AG10),ISBLANK(AM10),ISBLANK(AS10),ISBLANK(AY10),ISBLANK(BE10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="791">
+    <cfRule type="expression" dxfId="1" priority="789">
       <formula>IF(SUM(K10,Q10,W10,AC10,AI10,AO10,AU10,BA10)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="792" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="790" operator="greaterThan">
       <formula>SUM(K10,Q10,W10,AC10,AI10,AO10,AU10,BA10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="793" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="791" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M10),L10,0),IF(ISNUMBER(S10),R10,0),IF(ISNUMBER(Y10),X10,0),IF(ISNUMBER(AE10),AD10,0),IF(ISNUMBER(AK10),AJ10,0),IF(ISNUMBER(AQ10),AP10,0),IF(ISNUMBER(AW10),AV10,0),IF(ISNUMBER(BC10),BB10,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="4" priority="794">
+    <cfRule type="expression" dxfId="4" priority="792">
       <formula>AND(ISBLANK(G11),ISBLANK(O11),ISBLANK(U11),ISBLANK(AA11),ISBLANK(AG11),ISBLANK(AM11),ISBLANK(AS11),ISBLANK(AY11),ISBLANK(BE11))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="795">
+    <cfRule type="expression" dxfId="1" priority="793">
       <formula>IF(SUM(K11,Q11,W11,AC11,AI11,AO11,AU11,BA11)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="796" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="794" operator="greaterThan">
       <formula>SUM(K11,Q11,W11,AC11,AI11,AO11,AU11,BA11)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="797" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="795" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M11),L11,0),IF(ISNUMBER(S11),R11,0),IF(ISNUMBER(Y11),X11,0),IF(ISNUMBER(AE11),AD11,0),IF(ISNUMBER(AK11),AJ11,0),IF(ISNUMBER(AQ11),AP11,0),IF(ISNUMBER(AW11),AV11,0),IF(ISNUMBER(BC11),BB11,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="4" priority="798">
+    <cfRule type="expression" dxfId="4" priority="796">
       <formula>AND(ISBLANK(G12),ISBLANK(O12),ISBLANK(U12),ISBLANK(AA12),ISBLANK(AG12),ISBLANK(AM12),ISBLANK(AS12),ISBLANK(AY12),ISBLANK(BE12))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="799">
+    <cfRule type="expression" dxfId="1" priority="797">
       <formula>IF(SUM(K12,Q12,W12,AC12,AI12,AO12,AU12,BA12)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="800" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="798" operator="greaterThan">
       <formula>SUM(K12,Q12,W12,AC12,AI12,AO12,AU12,BA12)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="801" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="799" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M12),L12,0),IF(ISNUMBER(S12),R12,0),IF(ISNUMBER(Y12),X12,0),IF(ISNUMBER(AE12),AD12,0),IF(ISNUMBER(AK12),AJ12,0),IF(ISNUMBER(AQ12),AP12,0),IF(ISNUMBER(AW12),AV12,0),IF(ISNUMBER(BC12),BB12,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="4" priority="802">
+    <cfRule type="expression" dxfId="4" priority="800">
       <formula>AND(ISBLANK(G13),ISBLANK(O13),ISBLANK(U13),ISBLANK(AA13),ISBLANK(AG13),ISBLANK(AM13),ISBLANK(AS13),ISBLANK(AY13),ISBLANK(BE13))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="803">
+    <cfRule type="expression" dxfId="1" priority="801">
       <formula>IF(SUM(K13,Q13,W13,AC13,AI13,AO13,AU13,BA13)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="804" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="802" operator="greaterThan">
       <formula>SUM(K13,Q13,W13,AC13,AI13,AO13,AU13,BA13)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="805" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="803" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M13),L13,0),IF(ISNUMBER(S13),R13,0),IF(ISNUMBER(Y13),X13,0),IF(ISNUMBER(AE13),AD13,0),IF(ISNUMBER(AK13),AJ13,0),IF(ISNUMBER(AQ13),AP13,0),IF(ISNUMBER(AW13),AV13,0),IF(ISNUMBER(BC13),BB13,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="4" priority="806">
+    <cfRule type="expression" dxfId="4" priority="804">
       <formula>AND(ISBLANK(G14),ISBLANK(O14),ISBLANK(U14),ISBLANK(AA14),ISBLANK(AG14),ISBLANK(AM14),ISBLANK(AS14),ISBLANK(AY14),ISBLANK(BE14))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="807">
+    <cfRule type="expression" dxfId="1" priority="805">
       <formula>IF(SUM(K14,Q14,W14,AC14,AI14,AO14,AU14,BA14)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="808" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="806" operator="greaterThan">
       <formula>SUM(K14,Q14,W14,AC14,AI14,AO14,AU14,BA14)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="809" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="807" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M14),L14,0),IF(ISNUMBER(S14),R14,0),IF(ISNUMBER(Y14),X14,0),IF(ISNUMBER(AE14),AD14,0),IF(ISNUMBER(AK14),AJ14,0),IF(ISNUMBER(AQ14),AP14,0),IF(ISNUMBER(AW14),AV14,0),IF(ISNUMBER(BC14),BB14,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="4" priority="810">
+    <cfRule type="expression" dxfId="4" priority="808">
       <formula>AND(ISBLANK(G15),ISBLANK(O15),ISBLANK(U15),ISBLANK(AA15),ISBLANK(AG15),ISBLANK(AM15),ISBLANK(AS15),ISBLANK(AY15),ISBLANK(BE15))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="811">
+    <cfRule type="expression" dxfId="1" priority="809">
       <formula>IF(SUM(K15,Q15,W15,AC15,AI15,AO15,AU15,BA15)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="812" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="810" operator="greaterThan">
       <formula>SUM(K15,Q15,W15,AC15,AI15,AO15,AU15,BA15)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="813" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="811" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M15),L15,0),IF(ISNUMBER(S15),R15,0),IF(ISNUMBER(Y15),X15,0),IF(ISNUMBER(AE15),AD15,0),IF(ISNUMBER(AK15),AJ15,0),IF(ISNUMBER(AQ15),AP15,0),IF(ISNUMBER(AW15),AV15,0),IF(ISNUMBER(BC15),BB15,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="4" priority="814">
+    <cfRule type="expression" dxfId="4" priority="812">
       <formula>AND(ISBLANK(G16),ISBLANK(O16),ISBLANK(U16),ISBLANK(AA16),ISBLANK(AG16),ISBLANK(AM16),ISBLANK(AS16),ISBLANK(AY16),ISBLANK(BE16))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="815">
+    <cfRule type="expression" dxfId="1" priority="813">
       <formula>IF(SUM(K16,Q16,W16,AC16,AI16,AO16,AU16,BA16)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="816" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="814" operator="greaterThan">
       <formula>SUM(K16,Q16,W16,AC16,AI16,AO16,AU16,BA16)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="817" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="815" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M16),L16,0),IF(ISNUMBER(S16),R16,0),IF(ISNUMBER(Y16),X16,0),IF(ISNUMBER(AE16),AD16,0),IF(ISNUMBER(AK16),AJ16,0),IF(ISNUMBER(AQ16),AP16,0),IF(ISNUMBER(AW16),AV16,0),IF(ISNUMBER(BC16),BB16,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="4" priority="818">
+    <cfRule type="expression" dxfId="4" priority="816">
       <formula>AND(ISBLANK(G17),ISBLANK(O17),ISBLANK(U17),ISBLANK(AA17),ISBLANK(AG17),ISBLANK(AM17),ISBLANK(AS17),ISBLANK(AY17),ISBLANK(BE17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="819">
+    <cfRule type="expression" dxfId="1" priority="817">
       <formula>IF(SUM(K17,Q17,W17,AC17,AI17,AO17,AU17,BA17)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="820" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="818" operator="greaterThan">
       <formula>SUM(K17,Q17,W17,AC17,AI17,AO17,AU17,BA17)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="821" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="819" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M17),L17,0),IF(ISNUMBER(S17),R17,0),IF(ISNUMBER(Y17),X17,0),IF(ISNUMBER(AE17),AD17,0),IF(ISNUMBER(AK17),AJ17,0),IF(ISNUMBER(AQ17),AP17,0),IF(ISNUMBER(AW17),AV17,0),IF(ISNUMBER(BC17),BB17,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="4" priority="822">
+    <cfRule type="expression" dxfId="4" priority="820">
       <formula>AND(ISBLANK(G18),ISBLANK(O18),ISBLANK(U18),ISBLANK(AA18),ISBLANK(AG18),ISBLANK(AM18),ISBLANK(AS18),ISBLANK(AY18),ISBLANK(BE18))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="823">
+    <cfRule type="expression" dxfId="1" priority="821">
       <formula>IF(SUM(K18,Q18,W18,AC18,AI18,AO18,AU18,BA18)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="824" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="822" operator="greaterThan">
       <formula>SUM(K18,Q18,W18,AC18,AI18,AO18,AU18,BA18)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="825" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="823" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M18),L18,0),IF(ISNUMBER(S18),R18,0),IF(ISNUMBER(Y18),X18,0),IF(ISNUMBER(AE18),AD18,0),IF(ISNUMBER(AK18),AJ18,0),IF(ISNUMBER(AQ18),AP18,0),IF(ISNUMBER(AW18),AV18,0),IF(ISNUMBER(BC18),BB18,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="4" priority="826">
+    <cfRule type="expression" dxfId="4" priority="824">
       <formula>AND(ISBLANK(G19),ISBLANK(O19),ISBLANK(U19),ISBLANK(AA19),ISBLANK(AG19),ISBLANK(AM19),ISBLANK(AS19),ISBLANK(AY19),ISBLANK(BE19))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="827">
+    <cfRule type="expression" dxfId="1" priority="825">
       <formula>IF(SUM(K19,Q19,W19,AC19,AI19,AO19,AU19,BA19)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="828" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="826" operator="greaterThan">
       <formula>SUM(K19,Q19,W19,AC19,AI19,AO19,AU19,BA19)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="829" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="827" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M19),L19,0),IF(ISNUMBER(S19),R19,0),IF(ISNUMBER(Y19),X19,0),IF(ISNUMBER(AE19),AD19,0),IF(ISNUMBER(AK19),AJ19,0),IF(ISNUMBER(AQ19),AP19,0),IF(ISNUMBER(AW19),AV19,0),IF(ISNUMBER(BC19),BB19,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="4" priority="830">
+    <cfRule type="expression" dxfId="4" priority="828">
       <formula>AND(ISBLANK(G20),ISBLANK(O20),ISBLANK(U20),ISBLANK(AA20),ISBLANK(AG20),ISBLANK(AM20),ISBLANK(AS20),ISBLANK(AY20),ISBLANK(BE20))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="831">
+    <cfRule type="expression" dxfId="1" priority="829">
       <formula>IF(SUM(K20,Q20,W20,AC20,AI20,AO20,AU20,BA20)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="832" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="830" operator="greaterThan">
       <formula>SUM(K20,Q20,W20,AC20,AI20,AO20,AU20,BA20)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="833" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="831" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M20),L20,0),IF(ISNUMBER(S20),R20,0),IF(ISNUMBER(Y20),X20,0),IF(ISNUMBER(AE20),AD20,0),IF(ISNUMBER(AK20),AJ20,0),IF(ISNUMBER(AQ20),AP20,0),IF(ISNUMBER(AW20),AV20,0),IF(ISNUMBER(BC20),BB20,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="4" priority="834">
+    <cfRule type="expression" dxfId="4" priority="832">
       <formula>AND(ISBLANK(G21),ISBLANK(O21),ISBLANK(U21),ISBLANK(AA21),ISBLANK(AG21),ISBLANK(AM21),ISBLANK(AS21),ISBLANK(AY21),ISBLANK(BE21))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="835">
+    <cfRule type="expression" dxfId="1" priority="833">
       <formula>IF(SUM(K21,Q21,W21,AC21,AI21,AO21,AU21,BA21)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="836" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="834" operator="greaterThan">
       <formula>SUM(K21,Q21,W21,AC21,AI21,AO21,AU21,BA21)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="837" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="835" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M21),L21,0),IF(ISNUMBER(S21),R21,0),IF(ISNUMBER(Y21),X21,0),IF(ISNUMBER(AE21),AD21,0),IF(ISNUMBER(AK21),AJ21,0),IF(ISNUMBER(AQ21),AP21,0),IF(ISNUMBER(AW21),AV21,0),IF(ISNUMBER(BC21),BB21,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="4" priority="838">
+    <cfRule type="expression" dxfId="4" priority="836">
       <formula>AND(ISBLANK(G22),ISBLANK(O22),ISBLANK(U22),ISBLANK(AA22),ISBLANK(AG22),ISBLANK(AM22),ISBLANK(AS22),ISBLANK(AY22),ISBLANK(BE22))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="839">
+    <cfRule type="expression" dxfId="1" priority="837">
       <formula>IF(SUM(K22,Q22,W22,AC22,AI22,AO22,AU22,BA22)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="840" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="838" operator="greaterThan">
       <formula>SUM(K22,Q22,W22,AC22,AI22,AO22,AU22,BA22)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="841" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="839" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M22),L22,0),IF(ISNUMBER(S22),R22,0),IF(ISNUMBER(Y22),X22,0),IF(ISNUMBER(AE22),AD22,0),IF(ISNUMBER(AK22),AJ22,0),IF(ISNUMBER(AQ22),AP22,0),IF(ISNUMBER(AW22),AV22,0),IF(ISNUMBER(BC22),BB22,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="4" priority="842">
+    <cfRule type="expression" dxfId="4" priority="840">
       <formula>AND(ISBLANK(G23),ISBLANK(O23),ISBLANK(U23),ISBLANK(AA23),ISBLANK(AG23),ISBLANK(AM23),ISBLANK(AS23),ISBLANK(AY23),ISBLANK(BE23))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="843">
+    <cfRule type="expression" dxfId="1" priority="841">
       <formula>IF(SUM(K23,Q23,W23,AC23,AI23,AO23,AU23,BA23)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="844" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="842" operator="greaterThan">
       <formula>SUM(K23,Q23,W23,AC23,AI23,AO23,AU23,BA23)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="845" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="843" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M23),L23,0),IF(ISNUMBER(S23),R23,0),IF(ISNUMBER(Y23),X23,0),IF(ISNUMBER(AE23),AD23,0),IF(ISNUMBER(AK23),AJ23,0),IF(ISNUMBER(AQ23),AP23,0),IF(ISNUMBER(AW23),AV23,0),IF(ISNUMBER(BC23),BB23,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="4" priority="846">
+    <cfRule type="expression" dxfId="4" priority="844">
       <formula>AND(ISBLANK(G24),ISBLANK(O24),ISBLANK(U24),ISBLANK(AA24),ISBLANK(AG24),ISBLANK(AM24),ISBLANK(AS24),ISBLANK(AY24),ISBLANK(BE24))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="847">
+    <cfRule type="expression" dxfId="1" priority="845">
       <formula>IF(SUM(K24,Q24,W24,AC24,AI24,AO24,AU24,BA24)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="848" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="846" operator="greaterThan">
       <formula>SUM(K24,Q24,W24,AC24,AI24,AO24,AU24,BA24)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="849" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="847" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M24),L24,0),IF(ISNUMBER(S24),R24,0),IF(ISNUMBER(Y24),X24,0),IF(ISNUMBER(AE24),AD24,0),IF(ISNUMBER(AK24),AJ24,0),IF(ISNUMBER(AQ24),AP24,0),IF(ISNUMBER(AW24),AV24,0),IF(ISNUMBER(BC24),BB24,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="4" priority="850">
+    <cfRule type="expression" dxfId="4" priority="848">
       <formula>AND(ISBLANK(G25),ISBLANK(O25),ISBLANK(U25),ISBLANK(AA25),ISBLANK(AG25),ISBLANK(AM25),ISBLANK(AS25),ISBLANK(AY25),ISBLANK(BE25))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="851">
+    <cfRule type="expression" dxfId="1" priority="849">
       <formula>IF(SUM(K25,Q25,W25,AC25,AI25,AO25,AU25,BA25)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="852" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="850" operator="greaterThan">
       <formula>SUM(K25,Q25,W25,AC25,AI25,AO25,AU25,BA25)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="853" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="851" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M25),L25,0),IF(ISNUMBER(S25),R25,0),IF(ISNUMBER(Y25),X25,0),IF(ISNUMBER(AE25),AD25,0),IF(ISNUMBER(AK25),AJ25,0),IF(ISNUMBER(AQ25),AP25,0),IF(ISNUMBER(AW25),AV25,0),IF(ISNUMBER(BC25),BB25,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="4" priority="854">
+    <cfRule type="expression" dxfId="4" priority="852">
       <formula>AND(ISBLANK(G26),ISBLANK(O26),ISBLANK(U26),ISBLANK(AA26),ISBLANK(AG26),ISBLANK(AM26),ISBLANK(AS26),ISBLANK(AY26),ISBLANK(BE26))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="855">
+    <cfRule type="expression" dxfId="1" priority="853">
       <formula>IF(SUM(K26,Q26,W26,AC26,AI26,AO26,AU26,BA26)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="856" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="854" operator="greaterThan">
       <formula>SUM(K26,Q26,W26,AC26,AI26,AO26,AU26,BA26)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="857" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="855" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M26),L26,0),IF(ISNUMBER(S26),R26,0),IF(ISNUMBER(Y26),X26,0),IF(ISNUMBER(AE26),AD26,0),IF(ISNUMBER(AK26),AJ26,0),IF(ISNUMBER(AQ26),AP26,0),IF(ISNUMBER(AW26),AV26,0),IF(ISNUMBER(BC26),BB26,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="4" priority="858">
+    <cfRule type="expression" dxfId="4" priority="856">
       <formula>AND(ISBLANK(G27),ISBLANK(O27),ISBLANK(U27),ISBLANK(AA27),ISBLANK(AG27),ISBLANK(AM27),ISBLANK(AS27),ISBLANK(AY27),ISBLANK(BE27))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="859">
+    <cfRule type="expression" dxfId="1" priority="857">
       <formula>IF(SUM(K27,Q27,W27,AC27,AI27,AO27,AU27,BA27)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="860" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="858" operator="greaterThan">
       <formula>SUM(K27,Q27,W27,AC27,AI27,AO27,AU27,BA27)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="861" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="859" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M27),L27,0),IF(ISNUMBER(S27),R27,0),IF(ISNUMBER(Y27),X27,0),IF(ISNUMBER(AE27),AD27,0),IF(ISNUMBER(AK27),AJ27,0),IF(ISNUMBER(AQ27),AP27,0),IF(ISNUMBER(AW27),AV27,0),IF(ISNUMBER(BC27),BB27,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="4" priority="862">
+    <cfRule type="expression" dxfId="4" priority="860">
       <formula>AND(ISBLANK(G28),ISBLANK(O28),ISBLANK(U28),ISBLANK(AA28),ISBLANK(AG28),ISBLANK(AM28),ISBLANK(AS28),ISBLANK(AY28),ISBLANK(BE28))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="863">
+    <cfRule type="expression" dxfId="1" priority="861">
       <formula>IF(SUM(K28,Q28,W28,AC28,AI28,AO28,AU28,BA28)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="864" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="862" operator="greaterThan">
       <formula>SUM(K28,Q28,W28,AC28,AI28,AO28,AU28,BA28)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="865" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="863" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M28),L28,0),IF(ISNUMBER(S28),R28,0),IF(ISNUMBER(Y28),X28,0),IF(ISNUMBER(AE28),AD28,0),IF(ISNUMBER(AK28),AJ28,0),IF(ISNUMBER(AQ28),AP28,0),IF(ISNUMBER(AW28),AV28,0),IF(ISNUMBER(BC28),BB28,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="4" priority="866">
+    <cfRule type="expression" dxfId="4" priority="864">
       <formula>AND(ISBLANK(G29),ISBLANK(O29),ISBLANK(U29),ISBLANK(AA29),ISBLANK(AG29),ISBLANK(AM29),ISBLANK(AS29),ISBLANK(AY29),ISBLANK(BE29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="867">
+    <cfRule type="expression" dxfId="1" priority="865">
       <formula>IF(SUM(K29,Q29,W29,AC29,AI29,AO29,AU29,BA29)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="868" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="866" operator="greaterThan">
       <formula>SUM(K29,Q29,W29,AC29,AI29,AO29,AU29,BA29)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="869" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="867" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M29),L29,0),IF(ISNUMBER(S29),R29,0),IF(ISNUMBER(Y29),X29,0),IF(ISNUMBER(AE29),AD29,0),IF(ISNUMBER(AK29),AJ29,0),IF(ISNUMBER(AQ29),AP29,0),IF(ISNUMBER(AW29),AV29,0),IF(ISNUMBER(BC29),BB29,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="4" priority="870">
+    <cfRule type="expression" dxfId="4" priority="868">
       <formula>AND(ISBLANK(G30),ISBLANK(O30),ISBLANK(U30),ISBLANK(AA30),ISBLANK(AG30),ISBLANK(AM30),ISBLANK(AS30),ISBLANK(AY30),ISBLANK(BE30))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="871">
+    <cfRule type="expression" dxfId="1" priority="869">
       <formula>IF(SUM(K30,Q30,W30,AC30,AI30,AO30,AU30,BA30)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="872" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="870" operator="greaterThan">
       <formula>SUM(K30,Q30,W30,AC30,AI30,AO30,AU30,BA30)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="873" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="871" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M30),L30,0),IF(ISNUMBER(S30),R30,0),IF(ISNUMBER(Y30),X30,0),IF(ISNUMBER(AE30),AD30,0),IF(ISNUMBER(AK30),AJ30,0),IF(ISNUMBER(AQ30),AP30,0),IF(ISNUMBER(AW30),AV30,0),IF(ISNUMBER(BC30),BB30,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="4" priority="874">
+    <cfRule type="expression" dxfId="4" priority="872">
       <formula>AND(ISBLANK(G31),ISBLANK(O31),ISBLANK(U31),ISBLANK(AA31),ISBLANK(AG31),ISBLANK(AM31),ISBLANK(AS31),ISBLANK(AY31),ISBLANK(BE31))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="875">
+    <cfRule type="expression" dxfId="1" priority="873">
       <formula>IF(SUM(K31,Q31,W31,AC31,AI31,AO31,AU31,BA31)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="876" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="874" operator="greaterThan">
       <formula>SUM(K31,Q31,W31,AC31,AI31,AO31,AU31,BA31)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="877" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="875" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M31),L31,0),IF(ISNUMBER(S31),R31,0),IF(ISNUMBER(Y31),X31,0),IF(ISNUMBER(AE31),AD31,0),IF(ISNUMBER(AK31),AJ31,0),IF(ISNUMBER(AQ31),AP31,0),IF(ISNUMBER(AW31),AV31,0),IF(ISNUMBER(BC31),BB31,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="4" priority="878">
+    <cfRule type="expression" dxfId="4" priority="876">
       <formula>AND(ISBLANK(G32),ISBLANK(O32),ISBLANK(U32),ISBLANK(AA32),ISBLANK(AG32),ISBLANK(AM32),ISBLANK(AS32),ISBLANK(AY32),ISBLANK(BE32))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="879">
+    <cfRule type="expression" dxfId="1" priority="877">
       <formula>IF(SUM(K32,Q32,W32,AC32,AI32,AO32,AU32,BA32)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="880" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="878" operator="greaterThan">
       <formula>SUM(K32,Q32,W32,AC32,AI32,AO32,AU32,BA32)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="881" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="879" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M32),L32,0),IF(ISNUMBER(S32),R32,0),IF(ISNUMBER(Y32),X32,0),IF(ISNUMBER(AE32),AD32,0),IF(ISNUMBER(AK32),AJ32,0),IF(ISNUMBER(AQ32),AP32,0),IF(ISNUMBER(AW32),AV32,0),IF(ISNUMBER(BC32),BB32,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="4" priority="882">
+    <cfRule type="expression" dxfId="4" priority="880">
       <formula>AND(ISBLANK(G33),ISBLANK(O33),ISBLANK(U33),ISBLANK(AA33),ISBLANK(AG33),ISBLANK(AM33),ISBLANK(AS33),ISBLANK(AY33),ISBLANK(BE33))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="883">
+    <cfRule type="expression" dxfId="1" priority="881">
       <formula>IF(SUM(K33,Q33,W33,AC33,AI33,AO33,AU33,BA33)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="884" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="882" operator="greaterThan">
       <formula>SUM(K33,Q33,W33,AC33,AI33,AO33,AU33,BA33)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="885" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="883" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M33),L33,0),IF(ISNUMBER(S33),R33,0),IF(ISNUMBER(Y33),X33,0),IF(ISNUMBER(AE33),AD33,0),IF(ISNUMBER(AK33),AJ33,0),IF(ISNUMBER(AQ33),AP33,0),IF(ISNUMBER(AW33),AV33,0),IF(ISNUMBER(BC33),BB33,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="4" priority="886">
+    <cfRule type="expression" dxfId="4" priority="884">
       <formula>AND(ISBLANK(G34),ISBLANK(O34),ISBLANK(U34),ISBLANK(AA34),ISBLANK(AG34),ISBLANK(AM34),ISBLANK(AS34),ISBLANK(AY34),ISBLANK(BE34))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="887">
+    <cfRule type="expression" dxfId="1" priority="885">
       <formula>IF(SUM(K34,Q34,W34,AC34,AI34,AO34,AU34,BA34)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="888" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="886" operator="greaterThan">
       <formula>SUM(K34,Q34,W34,AC34,AI34,AO34,AU34,BA34)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="889" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="887" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M34),L34,0),IF(ISNUMBER(S34),R34,0),IF(ISNUMBER(Y34),X34,0),IF(ISNUMBER(AE34),AD34,0),IF(ISNUMBER(AK34),AJ34,0),IF(ISNUMBER(AQ34),AP34,0),IF(ISNUMBER(AW34),AV34,0),IF(ISNUMBER(BC34),BB34,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="4" priority="890">
+    <cfRule type="expression" dxfId="4" priority="888">
       <formula>AND(ISBLANK(G35),ISBLANK(O35),ISBLANK(U35),ISBLANK(AA35),ISBLANK(AG35),ISBLANK(AM35),ISBLANK(AS35),ISBLANK(AY35),ISBLANK(BE35))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="891">
+    <cfRule type="expression" dxfId="1" priority="889">
       <formula>IF(SUM(K35,Q35,W35,AC35,AI35,AO35,AU35,BA35)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="892" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="890" operator="greaterThan">
       <formula>SUM(K35,Q35,W35,AC35,AI35,AO35,AU35,BA35)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="893" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="891" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M35),L35,0),IF(ISNUMBER(S35),R35,0),IF(ISNUMBER(Y35),X35,0),IF(ISNUMBER(AE35),AD35,0),IF(ISNUMBER(AK35),AJ35,0),IF(ISNUMBER(AQ35),AP35,0),IF(ISNUMBER(AW35),AV35,0),IF(ISNUMBER(BC35),BB35,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="4" priority="894">
+    <cfRule type="expression" dxfId="4" priority="892">
       <formula>AND(ISBLANK(G36),ISBLANK(O36),ISBLANK(U36),ISBLANK(AA36),ISBLANK(AG36),ISBLANK(AM36),ISBLANK(AS36),ISBLANK(AY36),ISBLANK(BE36))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="895">
+    <cfRule type="expression" dxfId="1" priority="893">
       <formula>IF(SUM(K36,Q36,W36,AC36,AI36,AO36,AU36,BA36)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="896" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="894" operator="greaterThan">
       <formula>SUM(K36,Q36,W36,AC36,AI36,AO36,AU36,BA36)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="897" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="895" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M36),L36,0),IF(ISNUMBER(S36),R36,0),IF(ISNUMBER(Y36),X36,0),IF(ISNUMBER(AE36),AD36,0),IF(ISNUMBER(AK36),AJ36,0),IF(ISNUMBER(AQ36),AP36,0),IF(ISNUMBER(AW36),AV36,0),IF(ISNUMBER(BC36),BB36,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="4" priority="898">
+    <cfRule type="expression" dxfId="4" priority="896">
       <formula>AND(ISBLANK(G37),ISBLANK(O37),ISBLANK(U37),ISBLANK(AA37),ISBLANK(AG37),ISBLANK(AM37),ISBLANK(AS37),ISBLANK(AY37),ISBLANK(BE37))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="899">
+    <cfRule type="expression" dxfId="1" priority="897">
       <formula>IF(SUM(K37,Q37,W37,AC37,AI37,AO37,AU37,BA37)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="900" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="898" operator="greaterThan">
       <formula>SUM(K37,Q37,W37,AC37,AI37,AO37,AU37,BA37)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="901" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="899" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M37),L37,0),IF(ISNUMBER(S37),R37,0),IF(ISNUMBER(Y37),X37,0),IF(ISNUMBER(AE37),AD37,0),IF(ISNUMBER(AK37),AJ37,0),IF(ISNUMBER(AQ37),AP37,0),IF(ISNUMBER(AW37),AV37,0),IF(ISNUMBER(BC37),BB37,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="4" priority="902">
+    <cfRule type="expression" dxfId="4" priority="900">
       <formula>AND(ISBLANK(G38),ISBLANK(O38),ISBLANK(U38),ISBLANK(AA38),ISBLANK(AG38),ISBLANK(AM38),ISBLANK(AS38),ISBLANK(AY38),ISBLANK(BE38))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="903">
+    <cfRule type="expression" dxfId="1" priority="901">
       <formula>IF(SUM(K38,Q38,W38,AC38,AI38,AO38,AU38,BA38)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="904" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="902" operator="greaterThan">
       <formula>SUM(K38,Q38,W38,AC38,AI38,AO38,AU38,BA38)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="905" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="903" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M38),L38,0),IF(ISNUMBER(S38),R38,0),IF(ISNUMBER(Y38),X38,0),IF(ISNUMBER(AE38),AD38,0),IF(ISNUMBER(AK38),AJ38,0),IF(ISNUMBER(AQ38),AP38,0),IF(ISNUMBER(AW38),AV38,0),IF(ISNUMBER(BC38),BB38,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="4" priority="906">
+    <cfRule type="expression" dxfId="4" priority="904">
       <formula>AND(ISBLANK(G39),ISBLANK(O39),ISBLANK(U39),ISBLANK(AA39),ISBLANK(AG39),ISBLANK(AM39),ISBLANK(AS39),ISBLANK(AY39),ISBLANK(BE39))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="907">
+    <cfRule type="expression" dxfId="1" priority="905">
       <formula>IF(SUM(K39,Q39,W39,AC39,AI39,AO39,AU39,BA39)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="908" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="906" operator="greaterThan">
       <formula>SUM(K39,Q39,W39,AC39,AI39,AO39,AU39,BA39)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="909" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="907" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M39),L39,0),IF(ISNUMBER(S39),R39,0),IF(ISNUMBER(Y39),X39,0),IF(ISNUMBER(AE39),AD39,0),IF(ISNUMBER(AK39),AJ39,0),IF(ISNUMBER(AQ39),AP39,0),IF(ISNUMBER(AW39),AV39,0),IF(ISNUMBER(BC39),BB39,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="4" priority="910">
+    <cfRule type="expression" dxfId="4" priority="908">
       <formula>AND(ISBLANK(G40),ISBLANK(O40),ISBLANK(U40),ISBLANK(AA40),ISBLANK(AG40),ISBLANK(AM40),ISBLANK(AS40),ISBLANK(AY40),ISBLANK(BE40))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="911">
+    <cfRule type="expression" dxfId="1" priority="909">
       <formula>IF(SUM(K40,Q40,W40,AC40,AI40,AO40,AU40,BA40)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="912" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="910" operator="greaterThan">
       <formula>SUM(K40,Q40,W40,AC40,AI40,AO40,AU40,BA40)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="913" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="911" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M40),L40,0),IF(ISNUMBER(S40),R40,0),IF(ISNUMBER(Y40),X40,0),IF(ISNUMBER(AE40),AD40,0),IF(ISNUMBER(AK40),AJ40,0),IF(ISNUMBER(AQ40),AP40,0),IF(ISNUMBER(AW40),AV40,0),IF(ISNUMBER(BC40),BB40,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="4" priority="914">
+    <cfRule type="expression" dxfId="4" priority="912">
       <formula>AND(ISBLANK(G41),ISBLANK(O41),ISBLANK(U41),ISBLANK(AA41),ISBLANK(AG41),ISBLANK(AM41),ISBLANK(AS41),ISBLANK(AY41),ISBLANK(BE41))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="915">
+    <cfRule type="expression" dxfId="1" priority="913">
       <formula>IF(SUM(K41,Q41,W41,AC41,AI41,AO41,AU41,BA41)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="916" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="914" operator="greaterThan">
       <formula>SUM(K41,Q41,W41,AC41,AI41,AO41,AU41,BA41)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="917" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="915" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M41),L41,0),IF(ISNUMBER(S41),R41,0),IF(ISNUMBER(Y41),X41,0),IF(ISNUMBER(AE41),AD41,0),IF(ISNUMBER(AK41),AJ41,0),IF(ISNUMBER(AQ41),AP41,0),IF(ISNUMBER(AW41),AV41,0),IF(ISNUMBER(BC41),BB41,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="4" priority="918">
+    <cfRule type="expression" dxfId="4" priority="916">
       <formula>AND(ISBLANK(G42),ISBLANK(O42),ISBLANK(U42),ISBLANK(AA42),ISBLANK(AG42),ISBLANK(AM42),ISBLANK(AS42),ISBLANK(AY42),ISBLANK(BE42))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="919">
+    <cfRule type="expression" dxfId="1" priority="917">
       <formula>IF(SUM(K42,Q42,W42,AC42,AI42,AO42,AU42,BA42)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="920" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="918" operator="greaterThan">
       <formula>SUM(K42,Q42,W42,AC42,AI42,AO42,AU42,BA42)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="921" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="919" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M42),L42,0),IF(ISNUMBER(S42),R42,0),IF(ISNUMBER(Y42),X42,0),IF(ISNUMBER(AE42),AD42,0),IF(ISNUMBER(AK42),AJ42,0),IF(ISNUMBER(AQ42),AP42,0),IF(ISNUMBER(AW42),AV42,0),IF(ISNUMBER(BC42),BB42,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="4" priority="778">
+    <cfRule type="expression" dxfId="4" priority="776">
       <formula>AND(ISBLANK(G7),ISBLANK(O7),ISBLANK(U7),ISBLANK(AA7),ISBLANK(AG7),ISBLANK(AM7),ISBLANK(AS7),ISBLANK(AY7),ISBLANK(BE7))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="779">
+    <cfRule type="expression" dxfId="1" priority="777">
       <formula>IF(SUM(K7,Q7,W7,AC7,AI7,AO7,AU7,BA7)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="780" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="778" operator="greaterThan">
       <formula>SUM(K7,Q7,W7,AC7,AI7,AO7,AU7,BA7)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="781" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="779" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M7),L7,0),IF(ISNUMBER(S7),R7,0),IF(ISNUMBER(Y7),X7,0),IF(ISNUMBER(AE7),AD7,0),IF(ISNUMBER(AK7),AJ7,0),IF(ISNUMBER(AQ7),AP7,0),IF(ISNUMBER(AW7),AV7,0),IF(ISNUMBER(BC7),BB7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="4" priority="782">
+    <cfRule type="expression" dxfId="4" priority="780">
       <formula>AND(ISBLANK(G8),ISBLANK(O8),ISBLANK(U8),ISBLANK(AA8),ISBLANK(AG8),ISBLANK(AM8),ISBLANK(AS8),ISBLANK(AY8),ISBLANK(BE8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="783">
+    <cfRule type="expression" dxfId="1" priority="781">
       <formula>IF(SUM(K8,Q8,W8,AC8,AI8,AO8,AU8,BA8)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="784" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="782" operator="greaterThan">
       <formula>SUM(K8,Q8,W8,AC8,AI8,AO8,AU8,BA8)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="785" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="783" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M8),L8,0),IF(ISNUMBER(S8),R8,0),IF(ISNUMBER(Y8),X8,0),IF(ISNUMBER(AE8),AD8,0),IF(ISNUMBER(AK8),AJ8,0),IF(ISNUMBER(AQ8),AP8,0),IF(ISNUMBER(AW8),AV8,0),IF(ISNUMBER(BC8),BB8,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="4" priority="786">
+    <cfRule type="expression" dxfId="4" priority="784">
       <formula>AND(ISBLANK(G9),ISBLANK(O9),ISBLANK(U9),ISBLANK(AA9),ISBLANK(AG9),ISBLANK(AM9),ISBLANK(AS9),ISBLANK(AY9),ISBLANK(BE9))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="787">
+    <cfRule type="expression" dxfId="1" priority="785">
       <formula>IF(SUM(K9,Q9,W9,AC9,AI9,AO9,AU9,BA9)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="788" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="786" operator="greaterThan">
       <formula>SUM(K9,Q9,W9,AC9,AI9,AO9,AU9,BA9)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="789" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="787" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(M9),L9,0),IF(ISNUMBER(S9),R9,0),IF(ISNUMBER(Y9),X9,0),IF(ISNUMBER(AE9),AD9,0),IF(ISNUMBER(AK9),AJ9,0),IF(ISNUMBER(AQ9),AP9,0),IF(ISNUMBER(AW9),AV9,0),IF(ISNUMBER(BC9),BB9,0))</formula>
     </cfRule>
   </conditionalFormatting>
